--- a/Miscellaneous/results.xlsx
+++ b/Miscellaneous/results.xlsx
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +57,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,13 +87,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +920,7 @@
         <v>3.8100000000000023</v>
       </c>
     </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H33">
         <v>197.63499999999999</v>
       </c>
@@ -922,7 +937,7 @@
         <v>8.0649999999999977</v>
       </c>
     </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H34">
         <v>205.7</v>
       </c>
@@ -939,7 +954,7 @@
         <v>8.0649999999999977</v>
       </c>
     </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H35">
         <v>213.76499999999999</v>
       </c>
@@ -956,7 +971,7 @@
         <v>8.0649999999999977</v>
       </c>
     </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H36">
         <v>221.83</v>
       </c>
@@ -973,7 +988,7 @@
         <v>8.0649999999999977</v>
       </c>
     </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H37">
         <v>229.89500000000001</v>
       </c>
@@ -990,7 +1005,7 @@
         <v>8.0650000000000261</v>
       </c>
     </row>
-    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H38">
         <v>233.70500000000001</v>
       </c>
@@ -1007,7 +1022,7 @@
         <v>8.0649999999999977</v>
       </c>
     </row>
-    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H39">
         <v>241.77</v>
       </c>
@@ -1024,7 +1039,7 @@
         <v>3.8100000000000023</v>
       </c>
     </row>
-    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H40">
         <v>249.83500000000001</v>
       </c>
@@ -1040,8 +1055,12 @@
         <f t="shared" si="1"/>
         <v>8.0649999999999977</v>
       </c>
-    </row>
-    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f>8.3*6</f>
+        <v>49.800000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H41">
         <v>257.89999999999998</v>
       </c>
@@ -1057,8 +1076,16 @@
         <f t="shared" si="1"/>
         <v>8.0649999999999977</v>
       </c>
-    </row>
-    <row r="42" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <f>SUM(K40:K45)</f>
+        <v>48.390000000000015</v>
+      </c>
+      <c r="O41">
+        <f>N41/5</f>
+        <v>9.6780000000000026</v>
+      </c>
+    </row>
+    <row r="42" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H42">
         <v>265.96499999999997</v>
       </c>
@@ -1070,7 +1097,7 @@
         <f>H41</f>
         <v>257.89999999999998</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <f t="shared" si="1"/>
         <v>8.0649999999999693</v>
       </c>
@@ -1079,7 +1106,7 @@
         <v>16.129999999999967</v>
       </c>
     </row>
-    <row r="43" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H43">
         <v>274.02999999999997</v>
       </c>
@@ -1091,12 +1118,12 @@
         <f>H42</f>
         <v>265.96499999999997</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
-        <v>8.0649999999999977</v>
-      </c>
-    </row>
-    <row r="44" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="1">
+        <f t="shared" si="1"/>
+        <v>8.0649999999999977</v>
+      </c>
+    </row>
+    <row r="44" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H44">
         <v>282.09500000000003</v>
       </c>
@@ -1113,7 +1140,7 @@
         <v>8.0649999999999977</v>
       </c>
     </row>
-    <row r="45" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H45">
         <v>285.90499999999997</v>
       </c>
@@ -1130,7 +1157,7 @@
         <v>8.0650000000000546</v>
       </c>
     </row>
-    <row r="46" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H46">
         <v>293.97000000000003</v>
       </c>
@@ -1147,7 +1174,7 @@
         <v>3.8099999999999454</v>
       </c>
     </row>
-    <row r="47" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H47">
         <v>302.03500000000003</v>
       </c>
@@ -1164,7 +1191,7 @@
         <v>8.0650000000000546</v>
       </c>
     </row>
-    <row r="48" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H48">
         <v>310.10000000000002</v>
       </c>

--- a/Miscellaneous/results.xlsx
+++ b/Miscellaneous/results.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="meshing stuff" sheetId="1" r:id="rId1"/>
+    <sheet name="p4 results" sheetId="2" r:id="rId2"/>
+    <sheet name="p5 results" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>step pos</t>
   </si>
@@ -43,6 +43,51 @@
   </si>
   <si>
     <t>new delta</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>keff diff</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>outers</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>poly</t>
+  </si>
+  <si>
+    <t>subplane</t>
+  </si>
+  <si>
+    <t>cpm</t>
+  </si>
+  <si>
+    <t>rms</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>CMFD iters</t>
   </si>
 </sst>
 </file>
@@ -91,9 +136,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -398,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -488,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J62" si="0">H7</f>
+        <f t="shared" ref="J7" si="0">H7</f>
         <v>0</v>
       </c>
       <c r="K7">
@@ -521,7 +568,7 @@
         <v>3.8659999999999997</v>
       </c>
       <c r="J9">
-        <f>H8</f>
+        <f t="shared" ref="J9:J40" si="3">H8</f>
         <v>11.951000000000001</v>
       </c>
       <c r="K9">
@@ -538,7 +585,7 @@
         <v>8.2109999999999985</v>
       </c>
       <c r="J10">
-        <f>H9</f>
+        <f t="shared" si="3"/>
         <v>15.817</v>
       </c>
       <c r="K10">
@@ -555,7 +602,7 @@
         <v>8.2109999999999985</v>
       </c>
       <c r="J11">
-        <f>H10</f>
+        <f t="shared" si="3"/>
         <v>24.027999999999999</v>
       </c>
       <c r="K11">
@@ -572,7 +619,7 @@
         <v>8.2110000000000056</v>
       </c>
       <c r="J12">
-        <f>H11</f>
+        <f t="shared" si="3"/>
         <v>32.238999999999997</v>
       </c>
       <c r="K12">
@@ -589,7 +636,7 @@
         <v>8.2119999999999962</v>
       </c>
       <c r="J13">
-        <f>H12</f>
+        <f t="shared" si="3"/>
         <v>40.450000000000003</v>
       </c>
       <c r="K13">
@@ -606,7 +653,7 @@
         <v>8.2109999999999985</v>
       </c>
       <c r="J14">
-        <f>H13</f>
+        <f t="shared" si="3"/>
         <v>48.661999999999999</v>
       </c>
       <c r="K14">
@@ -623,7 +670,7 @@
         <v>8.2110000000000056</v>
       </c>
       <c r="J15">
-        <f>H14</f>
+        <f t="shared" si="3"/>
         <v>56.872999999999998</v>
       </c>
       <c r="K15">
@@ -640,7 +687,7 @@
         <v>8.2109999999999985</v>
       </c>
       <c r="J16">
-        <f>H15</f>
+        <f t="shared" si="3"/>
         <v>65.084000000000003</v>
       </c>
       <c r="K16">
@@ -657,7 +704,7 @@
         <v>3.8100000000000023</v>
       </c>
       <c r="J17">
-        <f>H16</f>
+        <f t="shared" si="3"/>
         <v>73.295000000000002</v>
       </c>
       <c r="K17">
@@ -674,7 +721,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J18">
-        <f>H17</f>
+        <f t="shared" si="3"/>
         <v>77.105000000000004</v>
       </c>
       <c r="K18">
@@ -691,7 +738,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J19">
-        <f>H18</f>
+        <f t="shared" si="3"/>
         <v>85.17</v>
       </c>
       <c r="K19">
@@ -708,7 +755,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J20">
-        <f>H19</f>
+        <f t="shared" si="3"/>
         <v>93.234999999999999</v>
       </c>
       <c r="K20">
@@ -725,7 +772,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J21">
-        <f>H20</f>
+        <f t="shared" si="3"/>
         <v>101.3</v>
       </c>
       <c r="K21">
@@ -742,7 +789,7 @@
         <v>8.0650000000000119</v>
       </c>
       <c r="J22">
-        <f>H21</f>
+        <f t="shared" si="3"/>
         <v>109.36499999999999</v>
       </c>
       <c r="K22">
@@ -759,7 +806,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J23">
-        <f>H22</f>
+        <f t="shared" si="3"/>
         <v>117.43</v>
       </c>
       <c r="K23">
@@ -776,7 +823,7 @@
         <v>3.8100000000000023</v>
       </c>
       <c r="J24">
-        <f>H23</f>
+        <f t="shared" si="3"/>
         <v>125.495</v>
       </c>
       <c r="K24">
@@ -793,7 +840,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J25">
-        <f>H24</f>
+        <f t="shared" si="3"/>
         <v>129.30500000000001</v>
       </c>
       <c r="K25">
@@ -810,7 +857,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J26">
-        <f>H25</f>
+        <f t="shared" si="3"/>
         <v>137.37</v>
       </c>
       <c r="K26">
@@ -827,7 +874,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J27">
-        <f>H26</f>
+        <f t="shared" si="3"/>
         <v>145.435</v>
       </c>
       <c r="K27">
@@ -844,7 +891,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J28">
-        <f>H27</f>
+        <f t="shared" si="3"/>
         <v>153.5</v>
       </c>
       <c r="K28">
@@ -861,7 +908,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J29">
-        <f>H28</f>
+        <f t="shared" si="3"/>
         <v>161.565</v>
       </c>
       <c r="K29">
@@ -878,7 +925,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J30">
-        <f>H29</f>
+        <f t="shared" si="3"/>
         <v>169.63</v>
       </c>
       <c r="K30">
@@ -895,7 +942,7 @@
         <v>3.8100000000000023</v>
       </c>
       <c r="J31">
-        <f>H30</f>
+        <f t="shared" si="3"/>
         <v>177.69499999999999</v>
       </c>
       <c r="K31">
@@ -912,7 +959,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J32">
-        <f>H31</f>
+        <f t="shared" si="3"/>
         <v>181.505</v>
       </c>
       <c r="K32">
@@ -929,7 +976,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J33">
-        <f>H32</f>
+        <f t="shared" si="3"/>
         <v>189.57</v>
       </c>
       <c r="K33">
@@ -946,7 +993,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J34">
-        <f>H33</f>
+        <f t="shared" si="3"/>
         <v>197.63499999999999</v>
       </c>
       <c r="K34">
@@ -963,7 +1010,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J35">
-        <f>H34</f>
+        <f t="shared" si="3"/>
         <v>205.7</v>
       </c>
       <c r="K35">
@@ -980,7 +1027,7 @@
         <v>8.0650000000000261</v>
       </c>
       <c r="J36">
-        <f>H35</f>
+        <f t="shared" si="3"/>
         <v>213.76499999999999</v>
       </c>
       <c r="K36">
@@ -997,7 +1044,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J37">
-        <f>H36</f>
+        <f t="shared" si="3"/>
         <v>221.83</v>
       </c>
       <c r="K37">
@@ -1014,7 +1061,7 @@
         <v>3.8100000000000023</v>
       </c>
       <c r="J38">
-        <f>H37</f>
+        <f t="shared" si="3"/>
         <v>229.89500000000001</v>
       </c>
       <c r="K38">
@@ -1031,7 +1078,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J39">
-        <f>H38</f>
+        <f t="shared" si="3"/>
         <v>233.70500000000001</v>
       </c>
       <c r="K39">
@@ -1048,7 +1095,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J40">
-        <f>H39</f>
+        <f t="shared" si="3"/>
         <v>241.77</v>
       </c>
       <c r="K40">
@@ -1069,7 +1116,7 @@
         <v>8.0649999999999693</v>
       </c>
       <c r="J41">
-        <f>H40</f>
+        <f t="shared" ref="J41:J58" si="4">H40</f>
         <v>249.83500000000001</v>
       </c>
       <c r="K41">
@@ -1094,7 +1141,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J42">
-        <f>H41</f>
+        <f t="shared" si="4"/>
         <v>257.89999999999998</v>
       </c>
       <c r="K42" s="1">
@@ -1115,7 +1162,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J43">
-        <f>H42</f>
+        <f t="shared" si="4"/>
         <v>265.96499999999997</v>
       </c>
       <c r="K43" s="1">
@@ -1132,7 +1179,7 @@
         <v>8.0650000000000546</v>
       </c>
       <c r="J44">
-        <f>H43</f>
+        <f t="shared" si="4"/>
         <v>274.02999999999997</v>
       </c>
       <c r="K44">
@@ -1149,7 +1196,7 @@
         <v>3.8099999999999454</v>
       </c>
       <c r="J45">
-        <f>H44</f>
+        <f t="shared" si="4"/>
         <v>282.09500000000003</v>
       </c>
       <c r="K45">
@@ -1166,7 +1213,7 @@
         <v>8.0650000000000546</v>
       </c>
       <c r="J46">
-        <f>H45</f>
+        <f t="shared" si="4"/>
         <v>285.90499999999997</v>
       </c>
       <c r="K46">
@@ -1183,7 +1230,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J47">
-        <f>H46</f>
+        <f t="shared" si="4"/>
         <v>293.97000000000003</v>
       </c>
       <c r="K47">
@@ -1200,7 +1247,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J48">
-        <f>H47</f>
+        <f t="shared" si="4"/>
         <v>302.03500000000003</v>
       </c>
       <c r="K48">
@@ -1217,7 +1264,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J49">
-        <f>H48</f>
+        <f t="shared" si="4"/>
         <v>310.10000000000002</v>
       </c>
       <c r="K49">
@@ -1234,7 +1281,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J50">
-        <f>H49</f>
+        <f t="shared" si="4"/>
         <v>318.16500000000002</v>
       </c>
       <c r="K50">
@@ -1251,7 +1298,7 @@
         <v>8.0649999999999977</v>
       </c>
       <c r="J51">
-        <f>H50</f>
+        <f t="shared" si="4"/>
         <v>326.23</v>
       </c>
       <c r="K51">
@@ -1268,7 +1315,7 @@
         <v>3.8100000000000023</v>
       </c>
       <c r="J52">
-        <f>H51</f>
+        <f t="shared" si="4"/>
         <v>334.29500000000002</v>
       </c>
       <c r="K52">
@@ -1285,7 +1332,7 @@
         <v>7.9211999999999989</v>
       </c>
       <c r="J53">
-        <f>H52</f>
+        <f t="shared" si="4"/>
         <v>338.10500000000002</v>
       </c>
       <c r="K53">
@@ -1302,7 +1349,7 @@
         <v>7.9211999999999989</v>
       </c>
       <c r="J54">
-        <f>H53</f>
+        <f t="shared" si="4"/>
         <v>346.02620000000002</v>
       </c>
       <c r="K54">
@@ -1319,7 +1366,7 @@
         <v>7.9211999999999989</v>
       </c>
       <c r="J55">
-        <f>H54</f>
+        <f t="shared" si="4"/>
         <v>353.94740000000002</v>
       </c>
       <c r="K55">
@@ -1336,7 +1383,7 @@
         <v>7.9211999999999989</v>
       </c>
       <c r="J56">
-        <f>H55</f>
+        <f t="shared" si="4"/>
         <v>361.86860000000001</v>
       </c>
       <c r="K56">
@@ -1353,7 +1400,7 @@
         <v>7.9211999999999989</v>
       </c>
       <c r="J57">
-        <f>H56</f>
+        <f t="shared" si="4"/>
         <v>369.78980000000001</v>
       </c>
       <c r="K57">
@@ -1370,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="J58">
-        <f>H57</f>
+        <f t="shared" si="4"/>
         <v>377.71100000000001</v>
       </c>
       <c r="K58">
@@ -1431,7 +1478,7 @@
     </row>
     <row r="62" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H62">
-        <f t="shared" ref="H62" si="3">H61+I62</f>
+        <f t="shared" ref="H62" si="5">H61+I62</f>
         <v>413.93700000000001</v>
       </c>
       <c r="I62">
@@ -1473,24 +1520,369 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>517</v>
+      </c>
+      <c r="G3">
+        <f>8*60+50</f>
+        <v>530</v>
+      </c>
+      <c r="H3">
+        <f>G3/G$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-30.280929</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.8360999999999999E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.218083</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>512</v>
+      </c>
+      <c r="G4">
+        <f>10*60+4</f>
+        <v>604</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="0">G4/G$3</f>
+        <v>1.1396226415094339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-7.9185299999999996</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.0293E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.5757999999999997E-2</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>506</v>
+      </c>
+      <c r="G5">
+        <f>10*60+8</f>
+        <v>608</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.1471698113207547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-7.3639460000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.1278E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.1148000000000003E-2</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>525</v>
+      </c>
+      <c r="G6">
+        <f>9*60+58</f>
+        <v>598</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.1283018867924528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-1.5902670000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.4019999999999997E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.9576000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>526</v>
+      </c>
+      <c r="G7">
+        <f>10*60+11</f>
+        <v>611</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.1528301886792454</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B4:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>445</v>
+      </c>
+      <c r="G3">
+        <v>383.3</v>
+      </c>
+      <c r="H3">
+        <f>G3/G$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>546</v>
+      </c>
+      <c r="G4">
+        <v>439.8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="0">G4/G$3</f>
+        <v>1.1474041220975737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.1178</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>495</v>
+      </c>
+      <c r="G5">
+        <v>407.4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.0628750326115313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.1206</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>517</v>
+      </c>
+      <c r="G6">
+        <v>424.3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.1069658231150534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-1.0293129999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.1217</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>525</v>
+      </c>
+      <c r="G7">
+        <f>(60*27+24)/3600*912</f>
+        <v>416.48</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.0865640490477433</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Miscellaneous/results.xlsx
+++ b/Miscellaneous/results.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarog\dissertation\Miscellaneous\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="1"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="p4 results" sheetId="2" r:id="rId2"/>
     <sheet name="p5 results" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>step pos</t>
   </si>
@@ -88,12 +93,21 @@
   </si>
   <si>
     <t>CMFD iters</t>
+  </si>
+  <si>
+    <t>MG-CMFD</t>
+  </si>
+  <si>
+    <t>core-hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.##\%;[Red]\(0.##\%\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,11 +150,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -151,6 +166,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -199,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,9 +250,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +302,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1520,15 +1572,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1548,10 +1600,13 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>20</v>
       </c>
@@ -1559,7 +1614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1576,145 +1631,338 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <v>517</v>
+        <v>364</v>
       </c>
       <c r="G3">
-        <f>8*60+50</f>
-        <v>530</v>
+        <f>8*60+53</f>
+        <v>533</v>
       </c>
       <c r="H3">
+        <f>G3/3600*58</f>
+        <v>8.5872222222222216</v>
+      </c>
+      <c r="I3">
         <f>G3/G$3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
-        <v>-30.280929</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.8360999999999999E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.218083</v>
+      <c r="B4" s="2">
+        <v>-30.279947</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.835378</v>
+      </c>
+      <c r="D4" s="3">
+        <v>21.808522</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
       <c r="F4">
-        <v>512</v>
+        <v>352</v>
       </c>
       <c r="G4">
-        <f>10*60+4</f>
-        <v>604</v>
+        <f>9*60+43</f>
+        <v>583</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H7" si="0">G4/G$3</f>
-        <v>1.1396226415094339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <f>G4/3600*57</f>
+        <v>9.230833333333333</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I7" si="0">G4/G$3</f>
+        <v>1.0938086303939962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
-        <v>-7.9185299999999996</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.0293E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.5757999999999997E-2</v>
+      <c r="B5" s="2">
+        <v>-7.9190300000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.02661</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6.5758400000000004</v>
       </c>
       <c r="E5">
         <v>12</v>
       </c>
       <c r="F5">
-        <v>506</v>
+        <v>360</v>
       </c>
       <c r="G5">
-        <f>10*60+8</f>
-        <v>608</v>
+        <f>60*10</f>
+        <v>600</v>
       </c>
       <c r="H5">
+        <f t="shared" ref="H5:H7" si="1">G5/3600*57</f>
+        <v>9.5</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
-        <v>1.1471698113207547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.125703564727955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
-        <v>-7.3639460000000003</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.1278E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7.1148000000000003E-2</v>
+      <c r="B6" s="2">
+        <v>-7.3641290000000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.125356</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.1148569999999998</v>
       </c>
       <c r="E6">
         <v>12</v>
       </c>
       <c r="F6">
-        <v>525</v>
+        <v>409</v>
       </c>
       <c r="G6">
-        <f>9*60+58</f>
-        <v>598</v>
+        <f>9*60+45</f>
+        <v>585</v>
       </c>
       <c r="H6">
+        <f t="shared" si="1"/>
+        <v>9.2625000000000011</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>1.1283018867924528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.0975609756097562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
-        <v>-1.5902670000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5.4019999999999997E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4.9576000000000002E-2</v>
+      <c r="B7" s="2">
+        <v>-1.5908469999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.53506799999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.9391619999999996</v>
       </c>
       <c r="E7">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>526</v>
+        <v>364</v>
       </c>
       <c r="G7">
-        <f>10*60+11</f>
-        <v>611</v>
+        <f>9*60+57</f>
+        <v>597</v>
       </c>
       <c r="H7">
+        <f t="shared" si="1"/>
+        <v>9.4525000000000006</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>1.1528301886792454</v>
+        <v>1.1200750469043153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>0.98925059999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8.3185699999999998E-8</v>
+      </c>
+      <c r="I10">
+        <f>SUM(D10:D21)</f>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>0.99243599999999998</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6.4640099999999994E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>41</v>
+      </c>
+      <c r="E12">
+        <v>0.99745700000000004</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8.4208090000000004E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>0.99742609999999998</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.7241299999999999E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>0.99776030000000004</v>
+      </c>
+      <c r="F14" s="4">
+        <v>9.5857079999999995E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>0.99780310000000005</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6.37067E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>0.99784360000000005</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.6642910000000001E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>0.99785650000000004</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7.9802220000000006E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>0.99786359999999996</v>
+      </c>
+      <c r="F18" s="4">
+        <v>8.1332909999999996E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0.9978667</v>
+      </c>
+      <c r="F19" s="4">
+        <v>6.2399949999999994E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>0.99786819999999998</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8.8642390000000006E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>0.99786889999999995</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9.0041810000000005E-8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B4:B7"/>
+      <selection activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1734,10 +1982,13 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>20</v>
       </c>
@@ -1745,7 +1996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1761,124 +2012,97 @@
       <c r="E3">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>445</v>
-      </c>
-      <c r="G3">
-        <v>383.3</v>
-      </c>
       <c r="H3">
+        <f>G3/3600*928</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="e">
         <f>G3/G$3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>-22</v>
       </c>
-      <c r="C4" s="2">
-        <v>2.8199999999999999E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.30549999999999999</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4">
         <v>13</v>
       </c>
-      <c r="F4">
-        <v>546</v>
-      </c>
-      <c r="G4">
-        <v>439.8</v>
-      </c>
       <c r="H4">
-        <f t="shared" ref="H4:H7" si="0">G4/G$3</f>
-        <v>1.1474041220975737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <f>G4/3600*912</f>
+        <v>0</v>
+      </c>
+      <c r="I4" t="e">
+        <f t="shared" ref="I4:I7" si="0">G4/G$3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>-5</v>
       </c>
-      <c r="C5" s="2">
-        <v>1.18E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.1178</v>
-      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5">
         <v>13</v>
       </c>
-      <c r="F5">
-        <v>495</v>
-      </c>
-      <c r="G5">
-        <v>407.4</v>
-      </c>
       <c r="H5">
+        <f t="shared" ref="H5:H7" si="1">G5/3600*912</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="e">
         <f t="shared" si="0"/>
-        <v>1.0628750326115313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>-5</v>
       </c>
-      <c r="C6" s="2">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.1206</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>517</v>
-      </c>
-      <c r="G6">
-        <v>424.3</v>
-      </c>
       <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="e">
         <f t="shared" si="0"/>
-        <v>1.1069658231150534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>-1.0293129999999999</v>
       </c>
-      <c r="C7" s="2">
-        <v>1.09E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.1217</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7">
         <v>13</v>
       </c>
-      <c r="F7">
-        <v>525</v>
-      </c>
-      <c r="G7">
-        <f>(60*27+24)/3600*912</f>
-        <v>416.48</v>
-      </c>
       <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="e">
         <f t="shared" si="0"/>
-        <v>1.0865640490477433</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Miscellaneous/results.xlsx
+++ b/Miscellaneous/results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meshing stuff" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="28">
   <si>
     <t>step pos</t>
   </si>
@@ -100,13 +100,19 @@
   <si>
     <t>core-hours</t>
   </si>
+  <si>
+    <t>Plane 32 only</t>
+  </si>
+  <si>
+    <t>Plane 32 Only</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.##\%;[Red]\(0.##\%\)"/>
+    <numFmt numFmtId="164" formatCode="0.##\%;[Red]\(0.##\%\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -154,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1572,15 +1578,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1605,16 +1611,43 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1645,8 +1678,14 @@
         <f>G3/G$3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1677,8 +1716,38 @@
         <f t="shared" ref="I4:I7" si="0">G4/G$3</f>
         <v>1.0938086303939962</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4">
+        <v>12</v>
+      </c>
+      <c r="R4">
+        <v>364</v>
+      </c>
+      <c r="S4">
+        <f>8*60+53</f>
+        <v>533</v>
+      </c>
+      <c r="T4">
+        <f>S4/3600*58</f>
+        <v>8.5872222222222216</v>
+      </c>
+      <c r="U4">
+        <f>S4/S$4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1709,8 +1778,38 @@
         <f t="shared" si="0"/>
         <v>1.125703564727955</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="2">
+        <v>-30.279947</v>
+      </c>
+      <c r="O5" s="3">
+        <v>10.225394</v>
+      </c>
+      <c r="P5" s="3">
+        <v>21.808522</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+      <c r="R5">
+        <v>352</v>
+      </c>
+      <c r="S5">
+        <f>9*60+43</f>
+        <v>583</v>
+      </c>
+      <c r="T5">
+        <f>S5/3600*57</f>
+        <v>9.230833333333333</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U8" si="2">S5/S$4</f>
+        <v>1.0938086303939962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1741,8 +1840,38 @@
         <f t="shared" si="0"/>
         <v>1.0975609756097562</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-7.9190300000000002</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1.9159550000000001</v>
+      </c>
+      <c r="P6" s="3">
+        <v>4.0437399999999997</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>360</v>
+      </c>
+      <c r="S6">
+        <f>60*10</f>
+        <v>600</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T8" si="3">S6/3600*57</f>
+        <v>9.5</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>1.125703564727955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1773,8 +1902,70 @@
         <f t="shared" si="0"/>
         <v>1.1200750469043153</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="2">
+        <v>-7.3641290000000001</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3.0639630000000002</v>
+      </c>
+      <c r="P7" s="3">
+        <v>7.1148569999999998</v>
+      </c>
+      <c r="Q7">
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <v>409</v>
+      </c>
+      <c r="S7">
+        <f>9*60+45</f>
+        <v>585</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>9.2625000000000011</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>1.0975609756097562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-1.5908469999999999</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.74074600000000002</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1.90605</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <v>364</v>
+      </c>
+      <c r="S8">
+        <f>9*60+57</f>
+        <v>597</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="3"/>
+        <v>9.4525000000000006</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>1.1200750469043153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -1792,7 +1983,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>24</v>
       </c>
@@ -1806,7 +1997,7 @@
         <v>6.4640099999999994E-8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>24</v>
       </c>
@@ -1820,7 +2011,7 @@
         <v>8.4208090000000004E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -1834,7 +2025,7 @@
         <v>3.7241299999999999E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>24</v>
       </c>
@@ -1848,7 +2039,7 @@
         <v>9.5857079999999995E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -1862,7 +2053,7 @@
         <v>6.37067E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -1954,155 +2145,580 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <f>G3/3600*928</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="e">
-        <f>G3/G$3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2">
-        <v>-22</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
       <c r="E4">
         <v>13</v>
       </c>
+      <c r="F4">
+        <v>481</v>
+      </c>
+      <c r="G4">
+        <f>23*60+23</f>
+        <v>1403</v>
+      </c>
       <c r="H4">
-        <f>G4/3600*912</f>
-        <v>0</v>
-      </c>
-      <c r="I4" t="e">
-        <f t="shared" ref="I4:I7" si="0">G4/G$3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f>G4/3600*928</f>
+        <v>361.66222222222223</v>
+      </c>
+      <c r="I4">
+        <f>G4/G$4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>481</v>
+      </c>
+      <c r="R4">
+        <f>23*60+23</f>
+        <v>1403</v>
+      </c>
+      <c r="S4">
+        <f>R4/3600*928</f>
+        <v>361.66222222222223</v>
+      </c>
+      <c r="T4">
+        <f>R4/R$4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>-5</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+        <v>-22.264810000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.900919</v>
+      </c>
+      <c r="D5" s="3">
+        <v>30.553343000000002</v>
+      </c>
       <c r="E5">
         <v>13</v>
       </c>
+      <c r="F5">
+        <v>523</v>
+      </c>
+      <c r="G5">
+        <f>27*60+1</f>
+        <v>1621</v>
+      </c>
       <c r="H5">
-        <f t="shared" ref="H5:H7" si="1">G5/3600*912</f>
-        <v>0</v>
-      </c>
-      <c r="I5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f>G5/3600*912</f>
+        <v>410.65333333333331</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I8" si="0">G5/G$4</f>
+        <v>1.1553813257305774</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-22.264810000000001</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2.8189519999999999</v>
+      </c>
+      <c r="O5" s="3">
+        <v>30.553343000000002</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>523</v>
+      </c>
+      <c r="R5">
+        <f>27*60+1</f>
+        <v>1621</v>
+      </c>
+      <c r="S5">
+        <f>R5/3600*912</f>
+        <v>410.65333333333331</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T8" si="1">R5/R$4</f>
+        <v>1.1553813257305774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>-5</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+        <v>-5.1143239999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.152733</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.854304</v>
+      </c>
       <c r="E6">
         <v>13</v>
       </c>
+      <c r="F6">
+        <v>463</v>
+      </c>
+      <c r="G6">
+        <f>24*60+35</f>
+        <v>1475</v>
+      </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" t="e">
+        <f t="shared" ref="H6:H8" si="2">G6/3600*912</f>
+        <v>373.66666666666663</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0513186029935853</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-5.1143239999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.1736180000000001</v>
+      </c>
+      <c r="O6" s="3">
+        <v>11.678881000000001</v>
+      </c>
+      <c r="P6">
+        <v>13</v>
+      </c>
+      <c r="Q6">
+        <v>463</v>
+      </c>
+      <c r="R6">
+        <f>24*60+35</f>
+        <v>1475</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S8" si="3">R6/3600*912</f>
+        <v>373.66666666666663</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>1.0513186029935853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>-1.0293129999999999</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>-5.4258959999999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.0894400000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10.198798999999999</v>
+      </c>
       <c r="E7">
         <v>13</v>
       </c>
+      <c r="F7">
+        <v>499</v>
+      </c>
+      <c r="G7">
+        <f>26*60+15</f>
+        <v>1575</v>
+      </c>
       <c r="H7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" t="e">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.1225944404846757</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-5.4258959999999998</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.26616</v>
+      </c>
+      <c r="O7" s="3">
+        <v>11.956996999999999</v>
+      </c>
+      <c r="P7">
+        <v>13</v>
+      </c>
+      <c r="Q7">
+        <v>499</v>
+      </c>
+      <c r="R7">
+        <f>26*60+15</f>
+        <v>1575</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>399</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>1.1225944404846757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-1.032327</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.49898999999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.73943</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>529</v>
+      </c>
+      <c r="G8">
+        <f>28*60</f>
+        <v>1680</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>425.6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.1974340698503207</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-1.032327</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.0774539999999999</v>
+      </c>
+      <c r="O8" s="3">
+        <v>12.069520000000001</v>
+      </c>
+      <c r="P8">
+        <v>13</v>
+      </c>
+      <c r="Q8">
+        <v>529</v>
+      </c>
+      <c r="R8">
+        <f>28*60</f>
+        <v>1680</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>425.6</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>1.1974340698503207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>82</v>
+      </c>
+      <c r="E12">
+        <v>0.98769079999999998</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6.1640040000000001E-8</v>
+      </c>
+      <c r="I12">
+        <f>SUM(D12:D23)</f>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>57</v>
+      </c>
+      <c r="E13">
+        <v>0.99256230000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5.343676E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>0.99800650000000002</v>
+      </c>
+      <c r="F14" s="4">
+        <v>7.9180239999999995E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <v>0.99775510000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4.0140489999999998E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>71</v>
+      </c>
+      <c r="E16">
+        <v>0.99811740000000004</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.9053360000000001E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>0.99817730000000005</v>
+      </c>
+      <c r="F17" s="4">
+        <v>8.1016599999999995E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>0.99824080000000004</v>
+      </c>
+      <c r="F18" s="4">
+        <v>9.9382290000000003E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>0.99826060000000005</v>
+      </c>
+      <c r="F19" s="4">
+        <v>8.9499990000000004E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>0.99826910000000002</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8.9642899999999999E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>0.9982721</v>
+      </c>
+      <c r="F21" s="4">
+        <v>8.0065990000000001E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>0.99827399999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8.7254529999999999E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>0.99827509999999997</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5.828055E-8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>0.99827569999999999</v>
+      </c>
+      <c r="F24" s="4">
+        <v>9.4141739999999993E-8</v>
       </c>
     </row>
   </sheetData>

--- a/Miscellaneous/results.xlsx
+++ b/Miscellaneous/results.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarog\dissertation\Miscellaneous\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" activeTab="2"/>
+    <workbookView xWindow="-225" yWindow="-165" windowWidth="27795" windowHeight="14310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meshing stuff" sheetId="1" r:id="rId1"/>
     <sheet name="p4 results" sheetId="2" r:id="rId2"/>
     <sheet name="p5 results" sheetId="3" r:id="rId3"/>
+    <sheet name="2D Subray" sheetId="4" r:id="rId4"/>
+    <sheet name="2D Subray - UO2 Assembly" sheetId="5" r:id="rId5"/>
+    <sheet name="2D Subray - Core A00B10C10" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="64">
   <si>
     <t>step pos</t>
   </si>
@@ -106,15 +105,123 @@
   <si>
     <t>Plane 32 Only</t>
   </si>
+  <si>
+    <t>Rod Position</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Subray-0</t>
+  </si>
+  <si>
+    <t>Subray-1</t>
+  </si>
+  <si>
+    <t>Subray-2</t>
+  </si>
+  <si>
+    <t>Subray-3</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Subplane</t>
+  </si>
+  <si>
+    <t>SCP</t>
+  </si>
+  <si>
+    <t>UO2 assembly</t>
+  </si>
+  <si>
+    <t>Pin Powers</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>k-eff</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Diff.</t>
+  </si>
+  <si>
+    <t>Abs. Average</t>
+  </si>
+  <si>
+    <t>Core A00B10C10</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5g7_3x3_ref_00:     k-eff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5g7_3x3_ref_02:     k-eff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5g7_3x3_ref_03:     k-eff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5g7_3x3_ref_04:     k-eff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5g7_3x3_ref_05:     k-eff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5g7_3x3_ref_06:     k-eff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5g7_3x3_ref_07:     k-eff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5g7_3x3_ref_08:     k-eff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5g7_3x3_ref_10:     k-eff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5g7_3x3_ref_01:     k-eff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5g7_3x3_ref_09:     k-eff </t>
+  </si>
+  <si>
+    <t>RMS:</t>
+  </si>
+  <si>
+    <t>k-eff Diff.</t>
+  </si>
+  <si>
+    <t>Subplane+CP</t>
+  </si>
+  <si>
+    <t>Core A10B10C00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.##\%;[Red]\(0.##\%\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +236,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +263,18 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,20 +282,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -178,6 +378,1794 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$J$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$35:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$J$35:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.714333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7615073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78819050000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81419629999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83931</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86361679999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88736159999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91103299999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97082539999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subray-0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$35:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$K$35:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.714333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76069399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78730100000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81326799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83836599999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86268400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88646100000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91013100000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97082500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$O$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subray-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$35:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$O$35:$O$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.714333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76139000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78810999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81406900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83907200000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86322100000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88677099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91020199999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97082500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$S$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subray-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$35:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$S$35:$S$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.714333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76168800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78847100000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81444899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83943699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86354600000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88703500000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.910389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97082500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$W$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subray-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$35:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$W$35:$W$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.714333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76173299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78852599999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81450699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83949399999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86359699999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88707599999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91041899999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97082500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$AA$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$35:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$AA$35:$AA$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.714333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73840499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75298399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76976900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78930500000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81234600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83995900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87371600000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97082500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$AE$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subplane</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$35:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$AE$35:$AE$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.714333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75221499999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.776725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80210700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82758900000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85297400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87834599999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90399399999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97082500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$AI$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$35:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$AI$35:$AI$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.714333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75727299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78511799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81197299999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83773600000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86256600000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88675999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91082300000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97082500000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="103118336"/>
+        <c:axId val="103119872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="103118336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103119872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="103119872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103118336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$J$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$54:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$J$54:$J$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0603891000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0756688000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0859741000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0973508999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1096823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1229218999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1370933000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1523908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1955986000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$K$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subray-0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$54:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$K$54:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.060389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0754919999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0857939999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0971519999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.109442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.122622</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.13672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.15191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1955990000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$O$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subray-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$54:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$O$54:$O$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.060389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0757190000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.086084</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0974660000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1097410000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1228640000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.136862</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.151931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1955990000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$S$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subray-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$54:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$S$54:$S$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.060389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.075755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.086144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0975459999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.109834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.122962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1369549999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1520079999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1955990000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$W$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subray-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$54:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$W$54:$W$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.060389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0757589999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0861510000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0975550000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.109845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.122973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1369659999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1520170000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$AA$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$54:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$AA$54:$AA$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.060389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0675829999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0724400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.078516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.086271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0964020000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.128822</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1955990000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$AE$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subplane</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$54:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$AE$54:$AE$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.060389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.072395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.081467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.092041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.103955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1171770000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1317539999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.14784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1955990000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2D Subray'!$AI$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$I$54:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2D Subray'!$AI$54:$AI$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.060389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.074173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0848370000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.096519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1091089999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.122568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.13693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1523939999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1955990000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="102139392"/>
+        <c:axId val="102140928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="102139392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102140928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="102140928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102139392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="149" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="145" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8681174" cy="6283943"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8681174" cy="6283943"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -223,7 +2211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,26 +2244,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,23 +2279,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2147,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,4 +4679,5927 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AL86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="12"/>
+    <col min="15" max="18" width="9.140625" style="1"/>
+    <col min="19" max="22" width="9.140625" style="12"/>
+    <col min="23" max="26" width="9.140625" style="1"/>
+    <col min="27" max="30" width="9.140625" style="12"/>
+    <col min="31" max="34" width="9.140625" style="1"/>
+    <col min="35" max="38" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="U2" s="12">
+        <v>0.84870999999999996</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.87745050000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="S3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="12">
+        <v>3.6373000000000003E-2</v>
+      </c>
+      <c r="U3" s="12">
+        <v>1.0917779999999999</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.91590470000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="S4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="12">
+        <v>3.7435999999999997E-2</v>
+      </c>
+      <c r="U4" s="12">
+        <v>1.1339950000000001</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.96442470000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.87745050000000002</v>
+      </c>
+      <c r="F5">
+        <v>1.4428352</v>
+      </c>
+      <c r="G5">
+        <v>1.0100585</v>
+      </c>
+      <c r="H5">
+        <v>1.0576654000000001</v>
+      </c>
+      <c r="I5">
+        <v>1.1036896</v>
+      </c>
+      <c r="J5">
+        <v>1.1482445999999999</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1.1916659999999999</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1.2346535000000001</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1.3441171000000001</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="12">
+        <v>2.6787999999999999E-2</v>
+      </c>
+      <c r="U5" s="12">
+        <v>1.0644530000000001</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1.0134566</v>
+      </c>
+    </row>
+    <row r="6" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0.87745050000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.96214829999999996</v>
+      </c>
+      <c r="G6">
+        <v>1.0103724000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.0573380999999999</v>
+      </c>
+      <c r="I6">
+        <v>1.1026872000000001</v>
+      </c>
+      <c r="J6">
+        <v>1.1465601999999999</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1.1895221</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1.2324748000000001</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1.3441171000000001</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1.0541E-2</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0.93600399999999995</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1.0609451000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="S7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="12">
+        <v>8.0470000000000003E-3</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0.77090899999999996</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1.1065335999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="S8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="12">
+        <v>2.7512999999999999E-2</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1.1504426000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="S9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="12">
+        <v>4.7418000000000002E-2</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1.1931887000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="S10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0.31088199999999999</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1.2357113</v>
+      </c>
+    </row>
+    <row r="11" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="V11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1.2806605</v>
+      </c>
+    </row>
+    <row r="12" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="V12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1.3441171000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+    </row>
+    <row r="15" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" s="13"/>
+      <c r="W15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL15" s="13"/>
+    </row>
+    <row r="16" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="J16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL16" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.87745050000000002</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0.87745050000000002</v>
+      </c>
+      <c r="L17" s="12">
+        <f>IF(K17="","",IF($J17="","",(K17-$J17)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.87745050000000002</v>
+      </c>
+      <c r="P17" s="1">
+        <f>IF(O17="","",IF($J17="","",(O17-$J17)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="12" t="str">
+        <f>IF(S17="","",IF($J17="","",(S17-$J17)*100000))</f>
+        <v/>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f>IF(W17="","",IF($J17="","",(W17-$J17)*100000))</f>
+        <v/>
+      </c>
+      <c r="AA17" s="12">
+        <v>0.87745050000000002</v>
+      </c>
+      <c r="AB17" s="12">
+        <f>IF(AA17="","",IF($J17="","",(AA17-$J17)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0.87745050000000002</v>
+      </c>
+      <c r="AF17" s="1">
+        <f>IF(AE17="","",IF($J17="","",(AE17-$J17)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="12">
+        <v>0.87745050000000002</v>
+      </c>
+      <c r="AJ17" s="12">
+        <f>IF(AI17="","",IF($J17="","",(AI17-$J17)*100000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.91590470000000002</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.91481129999999999</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2.8083E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>5.2789000000000003E-2</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>0.89828079999999999</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>0.27004800000000001</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>0.28643999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <f>AB28</f>
+        <v>7471.6771428571465</v>
+      </c>
+      <c r="C19">
+        <f>AC28</f>
+        <v>0.75164433333333336</v>
+      </c>
+      <c r="D19">
+        <f>AD28</f>
+        <v>0.79724555555555554</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0.96442470000000002</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.96441030000000005</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" ref="L19:L27" si="0">IF(K19="","",IF($J19="","",(K19-$J19)*100000))</f>
+        <v>-1.4399999999969992</v>
+      </c>
+      <c r="M19" s="12">
+        <v>3.5915569999999999</v>
+      </c>
+      <c r="N19" s="12">
+        <v>5.2367210000000002</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.96239710000000001</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" ref="P19:P27" si="1">IF(O19="","",IF($J19="","",(O19-$J19)*100000))</f>
+        <v>-202.76000000000184</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4.0808999999999998E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>9.5254000000000005E-2</v>
+      </c>
+      <c r="T19" s="12" t="str">
+        <f t="shared" ref="T19:T27" si="2">IF(S19="","",IF($J19="","",(S19-$J19)*100000))</f>
+        <v/>
+      </c>
+      <c r="X19" s="1" t="str">
+        <f t="shared" ref="X19:X27" si="3">IF(W19="","",IF($J19="","",(W19-$J19)*100000))</f>
+        <v/>
+      </c>
+      <c r="AA19" s="12">
+        <v>0.92186579999999996</v>
+      </c>
+      <c r="AB19" s="12">
+        <f t="shared" ref="AB19:AB27" si="4">IF(AA19="","",IF($J19="","",(AA19-$J19)*100000))</f>
+        <v>-4255.8900000000067</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>0.65274299999999996</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0.95718199999999998</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" ref="AF19:AF27" si="5">IF(AE19="","",IF($J19="","",(AE19-$J19)*100000))</f>
+        <v>-724.27000000000464</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0.84870999999999996</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.97299599999999997</v>
+      </c>
+      <c r="AI19" s="12">
+        <v>0.96434260000000005</v>
+      </c>
+      <c r="AJ19" s="12">
+        <f t="shared" ref="AJ19:AJ27" si="6">IF(AI19="","",IF($J19="","",(AI19-$J19)*100000))</f>
+        <v>-8.2099999999973861</v>
+      </c>
+      <c r="AK19" s="12">
+        <v>3.6373000000000003E-2</v>
+      </c>
+      <c r="AL19" s="12">
+        <v>3.9017000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <f>AF28</f>
+        <v>841.70857142857415</v>
+      </c>
+      <c r="C20">
+        <f>AG28</f>
+        <v>0.91906414285714277</v>
+      </c>
+      <c r="D20">
+        <f>AH28</f>
+        <v>1.0486714285714285</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>1.0134566</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1.0144696</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="0"/>
+        <v>101.29999999999306</v>
+      </c>
+      <c r="M20" s="12">
+        <v>3.4833980000000002</v>
+      </c>
+      <c r="N20" s="12">
+        <v>4.8747030000000002</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.0106573000000001</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="1"/>
+        <v>-279.92999999999489</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.116549</v>
+      </c>
+      <c r="T20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA20" s="12">
+        <v>0.94875869999999995</v>
+      </c>
+      <c r="AB20" s="12">
+        <f t="shared" si="4"/>
+        <v>-6469.7900000000081</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>0.87827200000000005</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>0.93155900000000003</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>1.0041103</v>
+      </c>
+      <c r="AF20" s="1">
+        <f t="shared" si="5"/>
+        <v>-934.63000000000295</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>1.0917779999999999</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>1.246402</v>
+      </c>
+      <c r="AI20" s="12">
+        <v>1.014931</v>
+      </c>
+      <c r="AJ20" s="12">
+        <f t="shared" si="6"/>
+        <v>147.43999999999869</v>
+      </c>
+      <c r="AK20" s="12">
+        <v>3.7435999999999997E-2</v>
+      </c>
+      <c r="AL20" s="12">
+        <v>3.9969999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21">
+        <f>AJ28</f>
+        <v>203.4900000000014</v>
+      </c>
+      <c r="C21">
+        <f>AK28</f>
+        <v>2.7730857142857144E-2</v>
+      </c>
+      <c r="D21">
+        <f>AL28</f>
+        <v>2.9567571428571433E-2</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>1.0609451000000001</v>
+      </c>
+      <c r="K21" s="12">
+        <v>1.0622499000000001</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="0"/>
+        <v>130.47999999999948</v>
+      </c>
+      <c r="M21" s="12">
+        <v>3.1080220000000001</v>
+      </c>
+      <c r="N21" s="12">
+        <v>4.2540459999999998</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.0576033</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="1"/>
+        <v>-334.18000000000615</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>5.4760999999999997E-2</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.118603</v>
+      </c>
+      <c r="T21" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA21" s="12">
+        <v>0.97968379999999999</v>
+      </c>
+      <c r="AB21" s="12">
+        <f t="shared" si="4"/>
+        <v>-8126.1300000000092</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>1.0350889999999999</v>
+      </c>
+      <c r="AD21" s="12">
+        <v>1.0978859999999999</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>1.0508191</v>
+      </c>
+      <c r="AF21" s="1">
+        <f t="shared" si="5"/>
+        <v>-1012.600000000008</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>1.1339950000000001</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>1.292694</v>
+      </c>
+      <c r="AI21" s="12">
+        <v>1.063272</v>
+      </c>
+      <c r="AJ21" s="12">
+        <f t="shared" si="6"/>
+        <v>232.68999999999096</v>
+      </c>
+      <c r="AK21" s="12">
+        <v>2.6787999999999999E-2</v>
+      </c>
+      <c r="AL21" s="12">
+        <v>2.8558E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <f>L28</f>
+        <v>125.4642857142845</v>
+      </c>
+      <c r="C22">
+        <f>M28</f>
+        <v>2.476448142857143</v>
+      </c>
+      <c r="D22">
+        <f>N28</f>
+        <v>3.4237369999999996</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>1.1065335999999999</v>
+      </c>
+      <c r="K22" s="12">
+        <v>1.1079869</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
+        <v>145.33000000001016</v>
+      </c>
+      <c r="M22" s="12">
+        <v>2.5913889999999999</v>
+      </c>
+      <c r="N22" s="12">
+        <v>3.5071840000000001</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1.1029230000000001</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="1"/>
+        <v>-361.05999999997971</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>4.9852E-2</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.105126</v>
+      </c>
+      <c r="T22" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA22" s="12">
+        <v>1.0156067</v>
+      </c>
+      <c r="AB22" s="12">
+        <f t="shared" si="4"/>
+        <v>-9092.6899999999914</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>1.086576</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>1.1524939999999999</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>1.0966229000000001</v>
+      </c>
+      <c r="AF22" s="1">
+        <f t="shared" si="5"/>
+        <v>-991.06999999998277</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>1.0644530000000001</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>1.2129289999999999</v>
+      </c>
+      <c r="AI22" s="12">
+        <v>1.1092438</v>
+      </c>
+      <c r="AJ22" s="12">
+        <f t="shared" si="6"/>
+        <v>271.02000000001067</v>
+      </c>
+      <c r="AK22" s="12">
+        <v>1.0541E-2</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>1.1195E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <f>P28</f>
+        <v>315.25142857142964</v>
+      </c>
+      <c r="C23">
+        <f>Q28</f>
+        <v>3.4394888888888892E-2</v>
+      </c>
+      <c r="D23">
+        <f>R28</f>
+        <v>7.3171888888888884E-2</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>1.1504426000000001</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1.152093</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="0"/>
+        <v>165.03999999999408</v>
+      </c>
+      <c r="M23" s="12">
+        <v>2.0505110000000002</v>
+      </c>
+      <c r="N23" s="12">
+        <v>2.753107</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.1468119999999999</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="1"/>
+        <v>-363.06000000001507</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>3.9099000000000002E-2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>8.1693000000000002E-2</v>
+      </c>
+      <c r="T23" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA23" s="12">
+        <v>1.0578517999999999</v>
+      </c>
+      <c r="AB23" s="12">
+        <f t="shared" si="4"/>
+        <v>-9259.0800000000199</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>1.036859</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>1.0997600000000001</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>1.1414667999999999</v>
+      </c>
+      <c r="AF23" s="1">
+        <f t="shared" si="5"/>
+        <v>-897.58000000002005</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0.93600399999999995</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>1.066641</v>
+      </c>
+      <c r="AI23" s="12">
+        <v>1.1532203000000001</v>
+      </c>
+      <c r="AJ23" s="12">
+        <f t="shared" si="6"/>
+        <v>277.76999999999941</v>
+      </c>
+      <c r="AK23" s="12">
+        <v>8.0470000000000003E-3</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>8.5880000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="e">
+        <f>T28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" t="e">
+        <f>U28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" t="e">
+        <f>V28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>1.1931887000000001</v>
+      </c>
+      <c r="K24" s="12">
+        <v>1.1949567999999999</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="0"/>
+        <v>176.80999999998281</v>
+      </c>
+      <c r="M24" s="12">
+        <v>1.517722</v>
+      </c>
+      <c r="N24" s="12">
+        <v>2.02366</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.1897025999999999</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="1"/>
+        <v>-348.61000000001587</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2.4819999999999998E-2</v>
+      </c>
+      <c r="R24" s="1">
+        <v>5.3290999999999998E-2</v>
+      </c>
+      <c r="T24" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA24" s="12">
+        <v>1.1082859</v>
+      </c>
+      <c r="AB24" s="12">
+        <f t="shared" si="4"/>
+        <v>-8490.2800000000061</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>0.88851999999999998</v>
+      </c>
+      <c r="AD24" s="12">
+        <v>0.94241799999999998</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>1.1856660000000001</v>
+      </c>
+      <c r="AF24" s="1">
+        <f t="shared" si="5"/>
+        <v>-752.2699999999993</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0.77090899999999996</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0.87880899999999995</v>
+      </c>
+      <c r="AI24" s="12">
+        <v>1.1958040000000001</v>
+      </c>
+      <c r="AJ24" s="12">
+        <f t="shared" si="6"/>
+        <v>261.52999999999872</v>
+      </c>
+      <c r="AK24" s="12">
+        <v>2.7512999999999999E-2</v>
+      </c>
+      <c r="AL24" s="12">
+        <v>2.9263999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="e">
+        <f>X28</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" t="e">
+        <f>Y28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" t="e">
+        <f>Z28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>1.2357113</v>
+      </c>
+      <c r="K25" s="12">
+        <v>1.2372898000000001</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="0"/>
+        <v>157.85000000001492</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0.99253800000000003</v>
+      </c>
+      <c r="N25" s="12">
+        <v>1.316738</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.2325397</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="1"/>
+        <v>-317.15999999999411</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>8.0979999999999993E-3</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1.9855999999999999E-2</v>
+      </c>
+      <c r="T25" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA25" s="12">
+        <v>1.1696325000000001</v>
+      </c>
+      <c r="AB25" s="12">
+        <f t="shared" si="4"/>
+        <v>-6607.8799999999883</v>
+      </c>
+      <c r="AC25" s="12">
+        <v>0.64315299999999997</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>0.68217000000000005</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>1.2299159</v>
+      </c>
+      <c r="AF25" s="1">
+        <f t="shared" si="5"/>
+        <v>-579.54000000000065</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0.67022899999999996</v>
+      </c>
+      <c r="AI25" s="12">
+        <v>1.2379690000000001</v>
+      </c>
+      <c r="AJ25" s="12">
+        <f t="shared" si="6"/>
+        <v>225.77000000001402</v>
+      </c>
+      <c r="AK25" s="12">
+        <v>4.7418000000000002E-2</v>
+      </c>
+      <c r="AL25" s="12">
+        <v>5.0381000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>1.2806605</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1.2781370000000001</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1.2732E-2</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1.5386E-2</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>1.2460332999999999</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>0.31088199999999999</v>
+      </c>
+      <c r="AD26" s="12">
+        <v>0.32973999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>1.3441171000000001</v>
+      </c>
+      <c r="K27" s="12">
+        <v>1.3441171000000001</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1.3441171000000001</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA27" s="12">
+        <v>1.3441171000000001</v>
+      </c>
+      <c r="AB27" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>1.3441171000000001</v>
+      </c>
+      <c r="AF27" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="12">
+        <v>1.3441171000000001</v>
+      </c>
+      <c r="AJ27" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="array" ref="L28">AVERAGE(ABS(L19:L25))</f>
+        <v>125.4642857142845</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="array" ref="M28">M29</f>
+        <v>2.476448142857143</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" ref="N28" si="7">N29</f>
+        <v>3.4237369999999996</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="array" ref="P28">AVERAGE(ABS(P19:P25))</f>
+        <v>315.25142857142964</v>
+      </c>
+      <c r="Q28" s="1">
+        <f>Q29</f>
+        <v>3.4394888888888892E-2</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" ref="R28" si="8">R29</f>
+        <v>7.3171888888888884E-2</v>
+      </c>
+      <c r="T28" s="12" t="e">
+        <f t="array" ref="T28">AVERAGE(ABS(T19:T25))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" s="12" t="e">
+        <f>U29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" s="12" t="e">
+        <f t="shared" ref="V28" si="9">V29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="1" t="e">
+        <f t="array" ref="X28">AVERAGE(ABS(X19:X25))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y28" s="1" t="e">
+        <f>Y29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="1" t="e">
+        <f t="shared" ref="Z28" si="10">Z29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB28" s="12">
+        <f t="array" ref="AB28">AVERAGE(ABS(AB19:AB25))</f>
+        <v>7471.6771428571465</v>
+      </c>
+      <c r="AC28" s="12">
+        <f>AC29</f>
+        <v>0.75164433333333336</v>
+      </c>
+      <c r="AD28" s="12">
+        <f t="shared" ref="AD28" si="11">AD29</f>
+        <v>0.79724555555555554</v>
+      </c>
+      <c r="AF28" s="1">
+        <f t="array" ref="AF28">AVERAGE(ABS(AF19:AF25))</f>
+        <v>841.70857142857415</v>
+      </c>
+      <c r="AG28" s="1">
+        <f>AG29</f>
+        <v>0.91906414285714277</v>
+      </c>
+      <c r="AH28" s="1">
+        <f t="shared" ref="AH28" si="12">AH29</f>
+        <v>1.0486714285714285</v>
+      </c>
+      <c r="AJ28" s="12">
+        <f t="array" ref="AJ28">AVERAGE(ABS(AJ19:AJ25))</f>
+        <v>203.4900000000014</v>
+      </c>
+      <c r="AK28" s="12">
+        <f>AK29</f>
+        <v>2.7730857142857144E-2</v>
+      </c>
+      <c r="AL28" s="12">
+        <f t="shared" ref="AL28" si="13">AL29</f>
+        <v>2.9567571428571433E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" s="17" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="I29" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="17">
+        <f>AVERAGE(L19:L25)</f>
+        <v>125.05285714285678</v>
+      </c>
+      <c r="M29" s="17">
+        <f t="array" ref="M29">AVERAGE(M19:M25)</f>
+        <v>2.476448142857143</v>
+      </c>
+      <c r="N29" s="17">
+        <f>AVERAGE(N19:N25)</f>
+        <v>3.4237369999999996</v>
+      </c>
+      <c r="P29" s="17">
+        <f>AVERAGE(P19:P25)</f>
+        <v>-315.25142857142964</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="array" ref="Q29">AVERAGE(Q18:Q26)</f>
+        <v>3.4394888888888892E-2</v>
+      </c>
+      <c r="R29" s="17">
+        <f t="array" ref="R29">AVERAGE(R18:R26)</f>
+        <v>7.3171888888888884E-2</v>
+      </c>
+      <c r="T29" s="17" t="e">
+        <f>AVERAGE(T19:T25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" s="17" t="e">
+        <f>AVERAGE(U19:U25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" s="17" t="e">
+        <f>AVERAGE(V19:V25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X29" s="17" t="e">
+        <f>AVERAGE(X19:X25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y29" s="17" t="e">
+        <f>AVERAGE(Y19:Y25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="17" t="e">
+        <f>AVERAGE(Z19:Z25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB29" s="17">
+        <f>AVERAGE(AB19:AB25)</f>
+        <v>-7471.6771428571465</v>
+      </c>
+      <c r="AC29" s="17">
+        <f t="array" ref="AC29">AVERAGE(AC18:AC26)</f>
+        <v>0.75164433333333336</v>
+      </c>
+      <c r="AD29" s="17">
+        <f t="array" ref="AD29">AVERAGE(AD18:AD26)</f>
+        <v>0.79724555555555554</v>
+      </c>
+      <c r="AF29" s="17">
+        <f>AVERAGE(AF19:AF25)</f>
+        <v>-841.70857142857415</v>
+      </c>
+      <c r="AG29" s="17">
+        <f>AVERAGE(AG19:AG25)</f>
+        <v>0.91906414285714277</v>
+      </c>
+      <c r="AH29" s="17">
+        <f>AVERAGE(AH19:AH25)</f>
+        <v>1.0486714285714285</v>
+      </c>
+      <c r="AJ29" s="17">
+        <f>AVERAGE(AJ19:AJ25)</f>
+        <v>201.14428571428789</v>
+      </c>
+      <c r="AK29" s="17">
+        <f>AVERAGE(AK19:AK25)</f>
+        <v>2.7730857142857144E-2</v>
+      </c>
+      <c r="AL29" s="17">
+        <f>AVERAGE(AL19:AL25)</f>
+        <v>2.9567571428571433E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="12">
+        <f>STDEV(L19:L25)</f>
+        <v>61.044633319749266</v>
+      </c>
+      <c r="P30" s="1">
+        <f>STDEV(P19:P25)</f>
+        <v>57.388641857826215</v>
+      </c>
+      <c r="T30" s="12" t="e">
+        <f>STDEV(T19:T25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X30" s="1" t="e">
+        <f>STDEV(X19:X25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB30" s="12">
+        <f>STDEV(AB19:AB25)</f>
+        <v>1797.1997792279999</v>
+      </c>
+      <c r="AF30" s="1">
+        <f>STDEV(AF19:AF25)</f>
+        <v>160.10005261591462</v>
+      </c>
+      <c r="AJ30" s="12">
+        <f>STDEV(AJ19:AJ25)</f>
+        <v>102.23785597927098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R33" s="8"/>
+      <c r="S33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="14"/>
+      <c r="U33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V33" s="13"/>
+      <c r="W33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL33" s="13"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="J34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL34" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.714333</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0.714333</v>
+      </c>
+      <c r="L35" s="12">
+        <f>IF(K35="","",IF($J35="","",(K35-$J35)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="12">
+        <v>0</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.714333</v>
+      </c>
+      <c r="P35" s="1">
+        <f>IF(O35="","",IF($J35="","",(O35-$J35)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="12">
+        <v>0.714333</v>
+      </c>
+      <c r="T35" s="12">
+        <f>IF(S35="","",IF($J35="","",(S35-$J35)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="12">
+        <v>0</v>
+      </c>
+      <c r="V35" s="12">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0.714333</v>
+      </c>
+      <c r="X35" s="1">
+        <f>IF(W35="","",IF($J35="","",(W35-$J35)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="12">
+        <v>0.714333</v>
+      </c>
+      <c r="AB35" s="12">
+        <f>IF(AA35="","",IF($J35="","",(AA35-$J35)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0.714333</v>
+      </c>
+      <c r="AF35" s="1">
+        <f>IF(AE35="","",IF($J35="","",(AE35-$J35)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="12">
+        <v>0.714333</v>
+      </c>
+      <c r="AJ35" s="12">
+        <f>IF(AI35="","",IF($J35="","",(AI35-$J35)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <f>AB46</f>
+        <v>4124.7357142857118</v>
+      </c>
+      <c r="C37">
+        <f>AC46</f>
+        <v>3.0624727142857142</v>
+      </c>
+      <c r="D37">
+        <f>AD46</f>
+        <v>13.75625</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0.7615073</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0.76069399999999998</v>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" ref="L37:L45" si="14">IF(K37="","",IF($J37="","",(K37-$J37)*100000))</f>
+        <v>-81.330000000001675</v>
+      </c>
+      <c r="M37" s="12">
+        <v>6.5040000000000001E-2</v>
+      </c>
+      <c r="N37" s="12">
+        <v>0.28442299999999998</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.76139000000000001</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" ref="P37:P45" si="15">IF(O37="","",IF($J37="","",(O37-$J37)*100000))</f>
+        <v>-11.729999999998686</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1.5421000000000001E-2</v>
+      </c>
+      <c r="R37" s="1">
+        <v>6.5907999999999994E-2</v>
+      </c>
+      <c r="S37" s="12">
+        <v>0.76168800000000003</v>
+      </c>
+      <c r="T37" s="12">
+        <f t="shared" ref="T37:T45" si="16">IF(S37="","",IF($J37="","",(S37-$J37)*100000))</f>
+        <v>18.070000000003361</v>
+      </c>
+      <c r="U37" s="12">
+        <v>6.3461000000000004E-2</v>
+      </c>
+      <c r="V37" s="12">
+        <v>0.393872</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0.76173299999999999</v>
+      </c>
+      <c r="X37" s="1">
+        <f t="shared" ref="X37:X45" si="17">IF(W37="","",IF($J37="","",(W37-$J37)*100000))</f>
+        <v>22.569999999999535</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>6.8539000000000003E-2</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0.41717599999999999</v>
+      </c>
+      <c r="AA37" s="12">
+        <v>0.73840499999999998</v>
+      </c>
+      <c r="AB37" s="12">
+        <f t="shared" ref="AB37:AB45" si="18">IF(AA37="","",IF($J37="","",(AA37-$J37)*100000))</f>
+        <v>-2310.2300000000018</v>
+      </c>
+      <c r="AC37" s="12">
+        <v>2.1231939999999998</v>
+      </c>
+      <c r="AD37" s="12">
+        <v>9.7894469999999991</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0.75221499999999997</v>
+      </c>
+      <c r="AF37" s="1">
+        <f t="shared" ref="AF37:AF45" si="19">IF(AE37="","",IF($J37="","",(AE37-$J37)*100000))</f>
+        <v>-929.23000000000309</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0.82325000000000004</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>3.7843819999999999</v>
+      </c>
+      <c r="AI37" s="12">
+        <v>0.75727299999999997</v>
+      </c>
+      <c r="AJ37" s="12">
+        <f t="shared" ref="AJ37:AJ45" si="20">IF(AI37="","",IF($J37="","",(AI37-$J37)*100000))</f>
+        <v>-423.43000000000239</v>
+      </c>
+      <c r="AK37" s="12">
+        <v>0.31305899999999998</v>
+      </c>
+      <c r="AL37" s="12">
+        <v>1.532589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <f>AF46</f>
+        <v>1018.0785714285711</v>
+      </c>
+      <c r="C38">
+        <f>AG46</f>
+        <v>0.71489299999999989</v>
+      </c>
+      <c r="D38">
+        <f>AH46</f>
+        <v>3.2297898571428569</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>0.78819050000000002</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0.78730100000000003</v>
+      </c>
+      <c r="L38" s="12">
+        <f t="shared" si="14"/>
+        <v>-88.949999999998752</v>
+      </c>
+      <c r="M38" s="12">
+        <v>6.5447000000000005E-2</v>
+      </c>
+      <c r="N38" s="12">
+        <v>0.26334099999999999</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.78810999999999998</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="15"/>
+        <v>-8.0500000000038874</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>2.1235E-2</v>
+      </c>
+      <c r="R38" s="1">
+        <v>9.1209999999999999E-2</v>
+      </c>
+      <c r="S38" s="12">
+        <v>0.78847100000000003</v>
+      </c>
+      <c r="T38" s="12">
+        <f t="shared" si="16"/>
+        <v>28.050000000001685</v>
+      </c>
+      <c r="U38" s="12">
+        <v>5.9329E-2</v>
+      </c>
+      <c r="V38" s="12">
+        <v>0.350721</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0.78852599999999995</v>
+      </c>
+      <c r="X38" s="1">
+        <f t="shared" si="17"/>
+        <v>33.549999999993304</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>6.1582999999999999E-2</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0.35978199999999999</v>
+      </c>
+      <c r="AA38" s="12">
+        <v>0.75298399999999999</v>
+      </c>
+      <c r="AB38" s="12">
+        <f t="shared" si="18"/>
+        <v>-3520.6500000000028</v>
+      </c>
+      <c r="AC38" s="12">
+        <v>3.027736</v>
+      </c>
+      <c r="AD38" s="12">
+        <v>13.840217000000001</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0.776725</v>
+      </c>
+      <c r="AF38" s="1">
+        <f t="shared" si="19"/>
+        <v>-1146.5500000000018</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0.92301699999999998</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>4.2122770000000003</v>
+      </c>
+      <c r="AI38" s="12">
+        <v>0.78511799999999998</v>
+      </c>
+      <c r="AJ38" s="12">
+        <f t="shared" si="20"/>
+        <v>-307.25000000000335</v>
+      </c>
+      <c r="AK38" s="12">
+        <v>0.186612</v>
+      </c>
+      <c r="AL38" s="12">
+        <v>0.91347699999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39">
+        <f>AJ46</f>
+        <v>185.23571428571259</v>
+      </c>
+      <c r="C39">
+        <f>AK46</f>
+        <v>0.11900014285714287</v>
+      </c>
+      <c r="D39">
+        <f>AL46</f>
+        <v>0.54774971428571428</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>0.81419629999999998</v>
+      </c>
+      <c r="K39" s="12">
+        <v>0.81326799999999999</v>
+      </c>
+      <c r="L39" s="12">
+        <f t="shared" si="14"/>
+        <v>-92.829999999999302</v>
+      </c>
+      <c r="M39" s="12">
+        <v>6.3501000000000002E-2</v>
+      </c>
+      <c r="N39" s="12">
+        <v>0.24087500000000001</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.81406900000000004</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="15"/>
+        <v>-12.729999999994135</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>2.2783999999999999E-2</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0.100257</v>
+      </c>
+      <c r="S39" s="12">
+        <v>0.81444899999999998</v>
+      </c>
+      <c r="T39" s="12">
+        <f t="shared" si="16"/>
+        <v>25.26999999999946</v>
+      </c>
+      <c r="U39" s="12">
+        <v>5.2803999999999997E-2</v>
+      </c>
+      <c r="V39" s="12">
+        <v>0.30597800000000003</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0.81450699999999998</v>
+      </c>
+      <c r="X39" s="1">
+        <f t="shared" si="17"/>
+        <v>31.069999999999709</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>5.3885000000000002E-2</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0.30954300000000001</v>
+      </c>
+      <c r="AA39" s="12">
+        <v>0.76976900000000004</v>
+      </c>
+      <c r="AB39" s="12">
+        <f t="shared" si="18"/>
+        <v>-4442.729999999995</v>
+      </c>
+      <c r="AC39" s="12">
+        <v>3.5731860000000002</v>
+      </c>
+      <c r="AD39" s="12">
+        <v>16.197063</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0.80210700000000001</v>
+      </c>
+      <c r="AF39" s="1">
+        <f t="shared" si="19"/>
+        <v>-1208.9299999999969</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0.88732100000000003</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>4.0225109999999997</v>
+      </c>
+      <c r="AI39" s="12">
+        <v>0.81197299999999994</v>
+      </c>
+      <c r="AJ39" s="12">
+        <f t="shared" si="20"/>
+        <v>-222.33000000000391</v>
+      </c>
+      <c r="AK39" s="12">
+        <v>0.109933</v>
+      </c>
+      <c r="AL39" s="12">
+        <v>0.52872399999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <f>L46</f>
+        <v>90.149999999998371</v>
+      </c>
+      <c r="C40">
+        <f>M46</f>
+        <v>5.8388285714285719E-2</v>
+      </c>
+      <c r="D40">
+        <f>N46</f>
+        <v>0.23443085714285711</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>0.83931</v>
+      </c>
+      <c r="K40" s="12">
+        <v>0.83836599999999994</v>
+      </c>
+      <c r="L40" s="12">
+        <f t="shared" si="14"/>
+        <v>-94.400000000005591</v>
+      </c>
+      <c r="M40" s="12">
+        <v>6.0196E-2</v>
+      </c>
+      <c r="N40" s="12">
+        <v>0.22547600000000001</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.83907200000000004</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="15"/>
+        <v>-23.799999999996047</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>2.3983999999999998E-2</v>
+      </c>
+      <c r="R40" s="1">
+        <v>9.6909999999999996E-2</v>
+      </c>
+      <c r="S40" s="12">
+        <v>0.83943699999999999</v>
+      </c>
+      <c r="T40" s="12">
+        <f t="shared" si="16"/>
+        <v>12.699999999998823</v>
+      </c>
+      <c r="U40" s="12">
+        <v>4.5649000000000002E-2</v>
+      </c>
+      <c r="V40" s="12">
+        <v>0.26813199999999998</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0.83949399999999996</v>
+      </c>
+      <c r="X40" s="1">
+        <f t="shared" si="17"/>
+        <v>18.399999999996197</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>4.6740999999999998E-2</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0.27348800000000001</v>
+      </c>
+      <c r="AA40" s="12">
+        <v>0.78930500000000003</v>
+      </c>
+      <c r="AB40" s="12">
+        <f t="shared" si="18"/>
+        <v>-5000.4999999999964</v>
+      </c>
+      <c r="AC40" s="12">
+        <v>3.759442</v>
+      </c>
+      <c r="AD40" s="12">
+        <v>16.897435999999999</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0.82758900000000002</v>
+      </c>
+      <c r="AF40" s="1">
+        <f t="shared" si="19"/>
+        <v>-1172.0999999999981</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0.79040299999999997</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>3.5599349999999998</v>
+      </c>
+      <c r="AI40" s="12">
+        <v>0.83773600000000004</v>
+      </c>
+      <c r="AJ40" s="12">
+        <f t="shared" si="20"/>
+        <v>-157.39999999999642</v>
+      </c>
+      <c r="AK40" s="12">
+        <v>6.6779000000000005E-2</v>
+      </c>
+      <c r="AL40" s="12">
+        <v>0.29288799999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <f>P46</f>
+        <v>34.007142857141375</v>
+      </c>
+      <c r="C41">
+        <f>Q46</f>
+        <v>2.8157428571428573E-2</v>
+      </c>
+      <c r="D41">
+        <f>R46</f>
+        <v>0.11902214285714285</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>0.86361679999999996</v>
+      </c>
+      <c r="K41" s="12">
+        <v>0.86268400000000001</v>
+      </c>
+      <c r="L41" s="12">
+        <f t="shared" si="14"/>
+        <v>-93.279999999995596</v>
+      </c>
+      <c r="M41" s="12">
+        <v>5.5357999999999997E-2</v>
+      </c>
+      <c r="N41" s="12">
+        <v>0.21285200000000001</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.86322100000000002</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="15"/>
+        <v>-39.579999999994619</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>2.8663999999999999E-2</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0.10822900000000001</v>
+      </c>
+      <c r="S41" s="12">
+        <v>0.86354600000000004</v>
+      </c>
+      <c r="T41" s="12">
+        <f t="shared" si="16"/>
+        <v>-7.0799999999926477</v>
+      </c>
+      <c r="U41" s="12">
+        <v>4.0404000000000002E-2</v>
+      </c>
+      <c r="V41" s="12">
+        <v>0.237678</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0.86359699999999995</v>
+      </c>
+      <c r="X41" s="1">
+        <f t="shared" si="17"/>
+        <v>-1.9800000000014251</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>4.1871999999999999E-2</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0.250334</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>0.81234600000000001</v>
+      </c>
+      <c r="AB41" s="12">
+        <f t="shared" si="18"/>
+        <v>-5127.0799999999954</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>3.5982430000000001</v>
+      </c>
+      <c r="AD41" s="12">
+        <v>16.031217999999999</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>0.85297400000000001</v>
+      </c>
+      <c r="AF41" s="1">
+        <f t="shared" si="19"/>
+        <v>-1064.2799999999952</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>0.66492700000000005</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>2.9751759999999998</v>
+      </c>
+      <c r="AI41" s="12">
+        <v>0.86256600000000005</v>
+      </c>
+      <c r="AJ41" s="12">
+        <f t="shared" si="20"/>
+        <v>-105.07999999999073</v>
+      </c>
+      <c r="AK41" s="12">
+        <v>4.8739999999999999E-2</v>
+      </c>
+      <c r="AL41" s="12">
+        <v>0.148752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <f>T46</f>
+        <v>26.889999999998462</v>
+      </c>
+      <c r="C42">
+        <f>U46</f>
+        <v>4.9691142857142857E-2</v>
+      </c>
+      <c r="D42">
+        <f>V46</f>
+        <v>0.28141814285714289</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>0.88736159999999997</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0.88646100000000005</v>
+      </c>
+      <c r="L42" s="12">
+        <f t="shared" si="14"/>
+        <v>-90.059999999991817</v>
+      </c>
+      <c r="M42" s="12">
+        <v>5.0904999999999999E-2</v>
+      </c>
+      <c r="N42" s="12">
+        <v>0.20643</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.88677099999999998</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="15"/>
+        <v>-59.059999999999668</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>3.7329000000000001E-2</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0.16051599999999999</v>
+      </c>
+      <c r="S42" s="12">
+        <v>0.88703500000000002</v>
+      </c>
+      <c r="T42" s="12">
+        <f t="shared" si="16"/>
+        <v>-32.65999999999547</v>
+      </c>
+      <c r="U42" s="12">
+        <v>4.0314999999999997E-2</v>
+      </c>
+      <c r="V42" s="12">
+        <v>0.21501100000000001</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0.88707599999999998</v>
+      </c>
+      <c r="X42" s="1">
+        <f t="shared" si="17"/>
+        <v>-28.559999999999697</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>4.1765999999999998E-2</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0.24022299999999999</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>0.83995900000000001</v>
+      </c>
+      <c r="AB42" s="12">
+        <f t="shared" si="18"/>
+        <v>-4740.2599999999966</v>
+      </c>
+      <c r="AC42" s="12">
+        <v>3.097089</v>
+      </c>
+      <c r="AD42" s="12">
+        <v>13.670363999999999</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0.87834599999999996</v>
+      </c>
+      <c r="AF42" s="1">
+        <f t="shared" si="19"/>
+        <v>-901.5600000000012</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0.526814</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>2.3412679999999999</v>
+      </c>
+      <c r="AI42" s="12">
+        <v>0.88675999999999999</v>
+      </c>
+      <c r="AJ42" s="12">
+        <f t="shared" si="20"/>
+        <v>-60.159999999997993</v>
+      </c>
+      <c r="AK42" s="12">
+        <v>4.9334999999999997E-2</v>
+      </c>
+      <c r="AL42" s="12">
+        <v>0.18621299999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43">
+        <f>X46</f>
+        <v>28.218571428570034</v>
+      </c>
+      <c r="C43">
+        <f>Y46</f>
+        <v>5.1587000000000008E-2</v>
+      </c>
+      <c r="D43">
+        <f>Z46</f>
+        <v>0.29877357142857147</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>0.91103299999999998</v>
+      </c>
+      <c r="K43" s="12">
+        <v>0.91013100000000002</v>
+      </c>
+      <c r="L43" s="12">
+        <f t="shared" si="14"/>
+        <v>-90.199999999995839</v>
+      </c>
+      <c r="M43" s="12">
+        <v>4.8271000000000001E-2</v>
+      </c>
+      <c r="N43" s="12">
+        <v>0.207619</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.91020199999999996</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="15"/>
+        <v>-83.100000000002609</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>4.7684999999999998E-2</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.21012500000000001</v>
+      </c>
+      <c r="S43" s="12">
+        <v>0.910389</v>
+      </c>
+      <c r="T43" s="12">
+        <f t="shared" si="16"/>
+        <v>-64.399999999997789</v>
+      </c>
+      <c r="U43" s="12">
+        <v>4.5876E-2</v>
+      </c>
+      <c r="V43" s="12">
+        <v>0.19853499999999999</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0.91041899999999998</v>
+      </c>
+      <c r="X43" s="1">
+        <f t="shared" si="17"/>
+        <v>-61.400000000000347</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>4.6723000000000001E-2</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0.240869</v>
+      </c>
+      <c r="AA43" s="12">
+        <v>0.87371600000000005</v>
+      </c>
+      <c r="AB43" s="12">
+        <f t="shared" si="18"/>
+        <v>-3731.6999999999935</v>
+      </c>
+      <c r="AC43" s="12">
+        <v>2.258419</v>
+      </c>
+      <c r="AD43" s="12">
+        <v>9.8680050000000001</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0.90399399999999996</v>
+      </c>
+      <c r="AF43" s="1">
+        <f t="shared" si="19"/>
+        <v>-703.9000000000018</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0.388519</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>1.7129799999999999</v>
+      </c>
+      <c r="AI43" s="12">
+        <v>0.91082300000000005</v>
+      </c>
+      <c r="AJ43" s="12">
+        <f t="shared" si="20"/>
+        <v>-20.999999999993246</v>
+      </c>
+      <c r="AK43" s="12">
+        <v>5.8542999999999998E-2</v>
+      </c>
+      <c r="AL43" s="12">
+        <v>0.23160500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>0.97082539999999995</v>
+      </c>
+      <c r="K45" s="12">
+        <v>0.97082500000000005</v>
+      </c>
+      <c r="L45" s="12">
+        <f t="shared" si="14"/>
+        <v>-3.9999999990047996E-2</v>
+      </c>
+      <c r="M45" s="12">
+        <v>0</v>
+      </c>
+      <c r="N45" s="12">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.97082500000000005</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="15"/>
+        <v>-3.9999999990047996E-2</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="12">
+        <v>0.97082500000000005</v>
+      </c>
+      <c r="T45" s="12">
+        <f t="shared" si="16"/>
+        <v>-3.9999999990047996E-2</v>
+      </c>
+      <c r="U45" s="12">
+        <v>0</v>
+      </c>
+      <c r="V45" s="12">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0.97082500000000005</v>
+      </c>
+      <c r="X45" s="1">
+        <f t="shared" si="17"/>
+        <v>-3.9999999990047996E-2</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="12">
+        <v>0.97082500000000005</v>
+      </c>
+      <c r="AB45" s="12">
+        <f t="shared" si="18"/>
+        <v>-3.9999999990047996E-2</v>
+      </c>
+      <c r="AC45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>0.97082500000000005</v>
+      </c>
+      <c r="AF45" s="1">
+        <f t="shared" si="19"/>
+        <v>-3.9999999990047996E-2</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="12">
+        <v>0.97082500000000005</v>
+      </c>
+      <c r="AJ45" s="12">
+        <f t="shared" si="20"/>
+        <v>-3.9999999990047996E-2</v>
+      </c>
+      <c r="AK45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="12">
+        <f t="array" ref="L46">AVERAGE(ABS(L37:L43))</f>
+        <v>90.149999999998371</v>
+      </c>
+      <c r="M46" s="12">
+        <f>M47</f>
+        <v>5.8388285714285719E-2</v>
+      </c>
+      <c r="N46" s="12">
+        <f t="shared" ref="N46" si="21">N47</f>
+        <v>0.23443085714285711</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="array" ref="P46">AVERAGE(ABS(P37:P43))</f>
+        <v>34.007142857141375</v>
+      </c>
+      <c r="Q46" s="1">
+        <f>Q47</f>
+        <v>2.8157428571428573E-2</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" ref="R46" si="22">R47</f>
+        <v>0.11902214285714285</v>
+      </c>
+      <c r="T46" s="12">
+        <f t="array" ref="T46">AVERAGE(ABS(T37:T43))</f>
+        <v>26.889999999998462</v>
+      </c>
+      <c r="U46" s="12">
+        <f>U47</f>
+        <v>4.9691142857142857E-2</v>
+      </c>
+      <c r="V46" s="12">
+        <f t="shared" ref="V46" si="23">V47</f>
+        <v>0.28141814285714289</v>
+      </c>
+      <c r="X46" s="1">
+        <f t="array" ref="X46">AVERAGE(ABS(X37:X43))</f>
+        <v>28.218571428570034</v>
+      </c>
+      <c r="Y46" s="1">
+        <f>Y47</f>
+        <v>5.1587000000000008E-2</v>
+      </c>
+      <c r="Z46" s="1">
+        <f t="shared" ref="Z46" si="24">Z47</f>
+        <v>0.29877357142857147</v>
+      </c>
+      <c r="AB46" s="12">
+        <f t="array" ref="AB46">AVERAGE(ABS(AB37:AB43))</f>
+        <v>4124.7357142857118</v>
+      </c>
+      <c r="AC46" s="12">
+        <f>AC47</f>
+        <v>3.0624727142857142</v>
+      </c>
+      <c r="AD46" s="12">
+        <f t="shared" ref="AD46" si="25">AD47</f>
+        <v>13.75625</v>
+      </c>
+      <c r="AF46" s="1">
+        <f t="array" ref="AF46">AVERAGE(ABS(AF37:AF43))</f>
+        <v>1018.0785714285711</v>
+      </c>
+      <c r="AG46" s="1">
+        <f>AG47</f>
+        <v>0.71489299999999989</v>
+      </c>
+      <c r="AH46" s="1">
+        <f t="shared" ref="AH46" si="26">AH47</f>
+        <v>3.2297898571428569</v>
+      </c>
+      <c r="AJ46" s="12">
+        <f t="array" ref="AJ46">AVERAGE(ABS(AJ37:AJ43))</f>
+        <v>185.23571428571259</v>
+      </c>
+      <c r="AK46" s="12">
+        <f>AK47</f>
+        <v>0.11900014285714287</v>
+      </c>
+      <c r="AL46" s="12">
+        <f t="shared" ref="AL46" si="27">AL47</f>
+        <v>0.54774971428571428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" s="12">
+        <f>AVERAGE(L37:L43)</f>
+        <v>-90.149999999998371</v>
+      </c>
+      <c r="M47" s="12">
+        <f>AVERAGE(M37:M43)</f>
+        <v>5.8388285714285719E-2</v>
+      </c>
+      <c r="N47" s="12">
+        <f>AVERAGE(N37:N43)</f>
+        <v>0.23443085714285711</v>
+      </c>
+      <c r="P47" s="1">
+        <f>AVERAGE(P37:P43)</f>
+        <v>-34.007142857141375</v>
+      </c>
+      <c r="Q47" s="1">
+        <f>AVERAGE(Q37:Q43)</f>
+        <v>2.8157428571428573E-2</v>
+      </c>
+      <c r="R47" s="1">
+        <f>AVERAGE(R37:R43)</f>
+        <v>0.11902214285714285</v>
+      </c>
+      <c r="T47" s="12">
+        <f>AVERAGE(T37:T43)</f>
+        <v>-2.8642857142832261</v>
+      </c>
+      <c r="U47" s="12">
+        <f>AVERAGE(U37:U43)</f>
+        <v>4.9691142857142857E-2</v>
+      </c>
+      <c r="V47" s="12">
+        <f>AVERAGE(V37:V43)</f>
+        <v>0.28141814285714289</v>
+      </c>
+      <c r="X47" s="1">
+        <f>AVERAGE(X37:X43)</f>
+        <v>1.9499999999981819</v>
+      </c>
+      <c r="Y47" s="1">
+        <f>AVERAGE(Y37:Y43)</f>
+        <v>5.1587000000000008E-2</v>
+      </c>
+      <c r="Z47" s="1">
+        <f>AVERAGE(Z37:Z43)</f>
+        <v>0.29877357142857147</v>
+      </c>
+      <c r="AB47" s="12">
+        <f>AVERAGE(AB37:AB43)</f>
+        <v>-4124.7357142857118</v>
+      </c>
+      <c r="AC47" s="12">
+        <f>AVERAGE(AC37:AC43)</f>
+        <v>3.0624727142857142</v>
+      </c>
+      <c r="AD47" s="12">
+        <f>AVERAGE(AD37:AD43)</f>
+        <v>13.75625</v>
+      </c>
+      <c r="AF47" s="1">
+        <f>AVERAGE(AF37:AF43)</f>
+        <v>-1018.0785714285711</v>
+      </c>
+      <c r="AG47" s="1">
+        <f>AVERAGE(AG37:AG43)</f>
+        <v>0.71489299999999989</v>
+      </c>
+      <c r="AH47" s="1">
+        <f>AVERAGE(AH37:AH43)</f>
+        <v>3.2297898571428569</v>
+      </c>
+      <c r="AJ47" s="12">
+        <f>AVERAGE(AJ37:AJ43)</f>
+        <v>-185.23571428571259</v>
+      </c>
+      <c r="AK47" s="12">
+        <f>AVERAGE(AK37:AK43)</f>
+        <v>0.11900014285714287</v>
+      </c>
+      <c r="AL47" s="12">
+        <f>AVERAGE(AL37:AL43)</f>
+        <v>0.54774971428571428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="12">
+        <f>STDEV(L37:L43)</f>
+        <v>4.3643403472535365</v>
+      </c>
+      <c r="P48" s="1">
+        <f>STDEV(P37:P43)</f>
+        <v>28.271770204149789</v>
+      </c>
+      <c r="T48" s="12">
+        <f>STDEV(T37:T43)</f>
+        <v>34.447843114453832</v>
+      </c>
+      <c r="X48" s="1">
+        <f>STDEV(X37:X43)</f>
+        <v>35.359696454201099</v>
+      </c>
+      <c r="AB48" s="12">
+        <f>STDEV(AB37:AB43)</f>
+        <v>1005.2756896635689</v>
+      </c>
+      <c r="AF48" s="1">
+        <f>STDEV(AF37:AF43)</f>
+        <v>182.10123973846265</v>
+      </c>
+      <c r="AJ48" s="12">
+        <f>STDEV(AJ37:AJ43)</f>
+        <v>143.07169494781004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="13"/>
+      <c r="AL51" s="13"/>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" s="14"/>
+      <c r="M52" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N52" s="13"/>
+      <c r="O52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R52" s="8"/>
+      <c r="S52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T52" s="14"/>
+      <c r="U52" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V52" s="13"/>
+      <c r="W52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ52" s="14"/>
+      <c r="AK52" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL52" s="13"/>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="J53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M53" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N53" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S53" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T53" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U53" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V53" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X53" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y53" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA53" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB53" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC53" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD53" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF53" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG53" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI53" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ53" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK53" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL53" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1.0603891000000001</v>
+      </c>
+      <c r="K54" s="12">
+        <v>1.060389</v>
+      </c>
+      <c r="L54" s="12">
+        <f>IF(K54="","",IF($J54="","",(K54-$J54)*100000))</f>
+        <v>-1.0000000005838672E-2</v>
+      </c>
+      <c r="M54" s="12">
+        <v>0</v>
+      </c>
+      <c r="N54" s="12">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1.060389</v>
+      </c>
+      <c r="P54" s="1">
+        <f>IF(O54="","",IF($J54="","",(O54-$J54)*100000))</f>
+        <v>-1.0000000005838672E-2</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="S54" s="12">
+        <v>1.060389</v>
+      </c>
+      <c r="T54" s="12">
+        <f>IF(S54="","",IF($J54="","",(S54-$J54)*100000))</f>
+        <v>-1.0000000005838672E-2</v>
+      </c>
+      <c r="U54" s="12">
+        <v>0</v>
+      </c>
+      <c r="V54" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="W54" s="1">
+        <v>1.060389</v>
+      </c>
+      <c r="X54" s="1">
+        <f>IF(W54="","",IF($J54="","",(W54-$J54)*100000))</f>
+        <v>-1.0000000005838672E-2</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="AA54" s="12">
+        <v>1.060389</v>
+      </c>
+      <c r="AB54" s="12">
+        <f>IF(AA54="","",IF($J54="","",(AA54-$J54)*100000))</f>
+        <v>-1.0000000005838672E-2</v>
+      </c>
+      <c r="AC54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>1.060389</v>
+      </c>
+      <c r="AF54" s="1">
+        <f>IF(AE54="","",IF($J54="","",(AE54-$J54)*100000))</f>
+        <v>-1.0000000005838672E-2</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="AI54" s="12">
+        <v>1.060389</v>
+      </c>
+      <c r="AJ54" s="12">
+        <f>IF(AI54="","",IF($J54="","",(AI54-$J54)*100000))</f>
+        <v>-1.0000000005838672E-2</v>
+      </c>
+      <c r="AK54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <f>AB65</f>
+        <v>2014.9728571428557</v>
+      </c>
+      <c r="C56">
+        <f>AC65</f>
+        <v>9.4596102857142856</v>
+      </c>
+      <c r="D56">
+        <f>AD65</f>
+        <v>27.359138999999999</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>1.0756688000000001</v>
+      </c>
+      <c r="K56" s="12">
+        <v>1.0754919999999999</v>
+      </c>
+      <c r="L56" s="12">
+        <f t="shared" ref="L56:L64" si="28">IF(K56="","",IF($J56="","",(K56-$J56)*100000))</f>
+        <v>-17.680000000019902</v>
+      </c>
+      <c r="M56" s="12">
+        <v>9.2117000000000004E-2</v>
+      </c>
+      <c r="N56" s="12">
+        <v>0.26868599999999998</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1.0757190000000001</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" ref="P56:P64" si="29">IF(O56="","",IF($J56="","",(O56-$J56)*100000))</f>
+        <v>5.0200000000000244</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>3.0616000000000001E-2</v>
+      </c>
+      <c r="R56" s="1">
+        <v>9.0513999999999997E-2</v>
+      </c>
+      <c r="S56" s="12">
+        <v>1.075755</v>
+      </c>
+      <c r="T56" s="12">
+        <f t="shared" ref="T56:T64" si="30">IF(S56="","",IF($J56="","",(S56-$J56)*100000))</f>
+        <v>8.6199999999925225</v>
+      </c>
+      <c r="U56" s="12">
+        <v>7.1981000000000003E-2</v>
+      </c>
+      <c r="V56" s="12">
+        <v>0.33918700000000002</v>
+      </c>
+      <c r="W56" s="1">
+        <v>1.0757589999999999</v>
+      </c>
+      <c r="X56" s="1">
+        <f t="shared" ref="X56:X64" si="31">IF(W56="","",IF($J56="","",(W56-$J56)*100000))</f>
+        <v>9.0199999999818203</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>7.9647999999999997E-2</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>0.35973699999999997</v>
+      </c>
+      <c r="AA56" s="12">
+        <v>1.0675829999999999</v>
+      </c>
+      <c r="AB56" s="12">
+        <f t="shared" ref="AB56:AB64" si="32">IF(AA56="","",IF($J56="","",(AA56-$J56)*100000))</f>
+        <v>-808.58000000001425</v>
+      </c>
+      <c r="AC56" s="12">
+        <v>4.536772</v>
+      </c>
+      <c r="AD56" s="12">
+        <v>11.882154999999999</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>1.072395</v>
+      </c>
+      <c r="AF56" s="1">
+        <f t="shared" ref="AF56:AF64" si="33">IF(AE56="","",IF($J56="","",(AE56-$J56)*100000))</f>
+        <v>-327.38000000001045</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>1.809288</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>4.7820900000000002</v>
+      </c>
+      <c r="AI56" s="12">
+        <v>1.074173</v>
+      </c>
+      <c r="AJ56" s="12">
+        <f t="shared" ref="AJ56:AJ64" si="34">IF(AI56="","",IF($J56="","",(AI56-$J56)*100000))</f>
+        <v>-149.5800000000047</v>
+      </c>
+      <c r="AK56" s="12">
+        <v>0.80316799999999999</v>
+      </c>
+      <c r="AL56" s="12">
+        <v>2.0194130000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <f>AF65</f>
+        <v>492.18714285714458</v>
+      </c>
+      <c r="C57">
+        <f>AG65</f>
+        <v>2.2637708571428572</v>
+      </c>
+      <c r="D57">
+        <f>AH65</f>
+        <v>6.5562938571428573</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>1.0859741000000001</v>
+      </c>
+      <c r="K57" s="12">
+        <v>1.0857939999999999</v>
+      </c>
+      <c r="L57" s="12">
+        <f t="shared" si="28"/>
+        <v>-18.010000000012738</v>
+      </c>
+      <c r="M57" s="12">
+        <v>8.8111999999999996E-2</v>
+      </c>
+      <c r="N57" s="12">
+        <v>0.285358</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1.086084</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="29"/>
+        <v>10.989999999999611</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>5.9343E-2</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0.15628700000000001</v>
+      </c>
+      <c r="S57" s="12">
+        <v>1.086144</v>
+      </c>
+      <c r="T57" s="12">
+        <f t="shared" si="30"/>
+        <v>16.989999999994509</v>
+      </c>
+      <c r="U57" s="12">
+        <v>0.111857</v>
+      </c>
+      <c r="V57" s="12">
+        <v>0.43567099999999997</v>
+      </c>
+      <c r="W57" s="1">
+        <v>1.0861510000000001</v>
+      </c>
+      <c r="X57" s="1">
+        <f t="shared" si="31"/>
+        <v>17.690000000003536</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>0.122603</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>0.46344299999999999</v>
+      </c>
+      <c r="AA57" s="12">
+        <v>1.0724400000000001</v>
+      </c>
+      <c r="AB57" s="12">
+        <f t="shared" si="32"/>
+        <v>-1353.4099999999994</v>
+      </c>
+      <c r="AC57" s="12">
+        <v>7.3134769999999998</v>
+      </c>
+      <c r="AD57" s="12">
+        <v>19.71649</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>1.081467</v>
+      </c>
+      <c r="AF57" s="1">
+        <f t="shared" si="33"/>
+        <v>-450.7100000000097</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>2.369043</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>6.4724360000000001</v>
+      </c>
+      <c r="AI57" s="12">
+        <v>1.0848370000000001</v>
+      </c>
+      <c r="AJ57" s="12">
+        <f t="shared" si="34"/>
+        <v>-113.71000000000021</v>
+      </c>
+      <c r="AK57" s="12">
+        <v>0.57319799999999999</v>
+      </c>
+      <c r="AL57" s="12">
+        <v>1.4681169999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <f>AJ65</f>
+        <v>65.121428571427273</v>
+      </c>
+      <c r="C58">
+        <f>AK65</f>
+        <v>0.32624842857142855</v>
+      </c>
+      <c r="D58">
+        <f>AL65</f>
+        <v>0.887605857142857</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>1.0973508999999999</v>
+      </c>
+      <c r="K58" s="12">
+        <v>1.0971519999999999</v>
+      </c>
+      <c r="L58" s="12">
+        <f t="shared" si="28"/>
+        <v>-19.890000000000185</v>
+      </c>
+      <c r="M58" s="12">
+        <v>8.8554999999999995E-2</v>
+      </c>
+      <c r="N58" s="12">
+        <v>0.30600100000000002</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1.0974660000000001</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="29"/>
+        <v>11.510000000014564</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>5.7999000000000002E-2</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0.16073299999999999</v>
+      </c>
+      <c r="S58" s="12">
+        <v>1.0975459999999999</v>
+      </c>
+      <c r="T58" s="12">
+        <f t="shared" si="30"/>
+        <v>19.51000000000036</v>
+      </c>
+      <c r="U58" s="12">
+        <v>0.117476</v>
+      </c>
+      <c r="V58" s="12">
+        <v>0.43890800000000002</v>
+      </c>
+      <c r="W58" s="1">
+        <v>1.0975550000000001</v>
+      </c>
+      <c r="X58" s="1">
+        <f t="shared" si="31"/>
+        <v>20.410000000015138</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>0.12717000000000001</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>0.45927299999999999</v>
+      </c>
+      <c r="AA58" s="12">
+        <v>1.078516</v>
+      </c>
+      <c r="AB58" s="12">
+        <f t="shared" si="32"/>
+        <v>-1883.4899999999877</v>
+      </c>
+      <c r="AC58" s="12">
+        <v>9.7328440000000001</v>
+      </c>
+      <c r="AD58" s="12">
+        <v>26.995944999999999</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>1.092041</v>
+      </c>
+      <c r="AF58" s="1">
+        <f t="shared" si="33"/>
+        <v>-530.98999999998671</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>2.6359029999999999</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>7.4310510000000001</v>
+      </c>
+      <c r="AI58" s="12">
+        <v>1.096519</v>
+      </c>
+      <c r="AJ58" s="12">
+        <f t="shared" si="34"/>
+        <v>-83.189999999988544</v>
+      </c>
+      <c r="AK58" s="12">
+        <v>0.39274300000000001</v>
+      </c>
+      <c r="AL58" s="12">
+        <v>1.0451779999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <f>L65</f>
+        <v>27.858571428577129</v>
+      </c>
+      <c r="C59">
+        <f>M65</f>
+        <v>0.11744085714285715</v>
+      </c>
+      <c r="D59">
+        <f>N65</f>
+        <v>0.38054700000000002</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>1.1096823</v>
+      </c>
+      <c r="K59" s="12">
+        <v>1.109442</v>
+      </c>
+      <c r="L59" s="12">
+        <f t="shared" si="28"/>
+        <v>-24.029999999997109</v>
+      </c>
+      <c r="M59" s="12">
+        <v>0.10245799999999999</v>
+      </c>
+      <c r="N59" s="12">
+        <v>0.354518</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1.1097410000000001</v>
+      </c>
+      <c r="P59" s="1">
+        <f t="shared" si="29"/>
+        <v>5.8700000000078134</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>3.0308999999999999E-2</v>
+      </c>
+      <c r="R59" s="1">
+        <v>0.118909</v>
+      </c>
+      <c r="S59" s="12">
+        <v>1.109834</v>
+      </c>
+      <c r="T59" s="12">
+        <f t="shared" si="30"/>
+        <v>15.169999999997685</v>
+      </c>
+      <c r="U59" s="12">
+        <v>9.0732999999999994E-2</v>
+      </c>
+      <c r="V59" s="12">
+        <v>0.36014600000000002</v>
+      </c>
+      <c r="W59" s="1">
+        <v>1.109845</v>
+      </c>
+      <c r="X59" s="1">
+        <f t="shared" si="31"/>
+        <v>16.26999999999601</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>0.10056</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>0.38011200000000001</v>
+      </c>
+      <c r="AA59" s="12">
+        <v>1.086271</v>
+      </c>
+      <c r="AB59" s="12">
+        <f t="shared" si="32"/>
+        <v>-2341.1300000000024</v>
+      </c>
+      <c r="AC59" s="12">
+        <v>11.483248</v>
+      </c>
+      <c r="AD59" s="12">
+        <v>32.766967000000001</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>1.103955</v>
+      </c>
+      <c r="AF59" s="1">
+        <f t="shared" si="33"/>
+        <v>-572.72999999999911</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>2.6687080000000001</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>7.7499890000000002</v>
+      </c>
+      <c r="AI59" s="12">
+        <v>1.1091089999999999</v>
+      </c>
+      <c r="AJ59" s="12">
+        <f t="shared" si="34"/>
+        <v>-57.330000000010983</v>
+      </c>
+      <c r="AK59" s="12">
+        <v>0.25421199999999999</v>
+      </c>
+      <c r="AL59" s="12">
+        <v>0.71679499999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60">
+        <f>P65</f>
+        <v>15.470000000001553</v>
+      </c>
+      <c r="C60">
+        <f>Q65</f>
+        <v>6.8304000000000004E-2</v>
+      </c>
+      <c r="D60">
+        <f>R65</f>
+        <v>0.214312</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+      <c r="J60">
+        <v>1.1229218999999999</v>
+      </c>
+      <c r="K60" s="12">
+        <v>1.122622</v>
+      </c>
+      <c r="L60" s="12">
+        <f t="shared" si="28"/>
+        <v>-29.989999999990857</v>
+      </c>
+      <c r="M60" s="12">
+        <v>0.12548899999999999</v>
+      </c>
+      <c r="N60" s="12">
+        <v>0.42041200000000001</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1.1228640000000001</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="29"/>
+        <v>-5.7899999999833085</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>2.9756000000000001E-2</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0.114623</v>
+      </c>
+      <c r="S60" s="12">
+        <v>1.122962</v>
+      </c>
+      <c r="T60" s="12">
+        <f t="shared" si="30"/>
+        <v>4.010000000009839</v>
+      </c>
+      <c r="U60" s="12">
+        <v>3.6602999999999997E-2</v>
+      </c>
+      <c r="V60" s="12">
+        <v>0.20818300000000001</v>
+      </c>
+      <c r="W60" s="1">
+        <v>1.122973</v>
+      </c>
+      <c r="X60" s="1">
+        <f t="shared" si="31"/>
+        <v>5.1100000000081636</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>4.5164000000000003E-2</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>0.22877800000000001</v>
+      </c>
+      <c r="AA60" s="12">
+        <v>1.0964020000000001</v>
+      </c>
+      <c r="AB60" s="12">
+        <f t="shared" si="32"/>
+        <v>-2651.989999999982</v>
+      </c>
+      <c r="AC60" s="12">
+        <v>12.239387000000001</v>
+      </c>
+      <c r="AD60" s="12">
+        <v>35.945618000000003</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>1.1171770000000001</v>
+      </c>
+      <c r="AF60" s="1">
+        <f t="shared" si="33"/>
+        <v>-574.48999999998307</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>2.499873</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>7.4664679999999999</v>
+      </c>
+      <c r="AI60" s="12">
+        <v>1.122568</v>
+      </c>
+      <c r="AJ60" s="12">
+        <f t="shared" si="34"/>
+        <v>-35.389999999990707</v>
+      </c>
+      <c r="AK60" s="12">
+        <v>0.14890999999999999</v>
+      </c>
+      <c r="AL60" s="12">
+        <v>0.46648200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61">
+        <f>T65</f>
+        <v>16.630000000003189</v>
+      </c>
+      <c r="C61">
+        <f>U65</f>
+        <v>8.784385714285714E-2</v>
+      </c>
+      <c r="D61">
+        <f>V65</f>
+        <v>0.33988614285714291</v>
+      </c>
+      <c r="I61">
+        <v>7</v>
+      </c>
+      <c r="J61">
+        <v>1.1370933000000001</v>
+      </c>
+      <c r="K61" s="12">
+        <v>1.13672</v>
+      </c>
+      <c r="L61" s="12">
+        <f t="shared" si="28"/>
+        <v>-37.330000000013186</v>
+      </c>
+      <c r="M61" s="12">
+        <v>0.14693500000000001</v>
+      </c>
+      <c r="N61" s="12">
+        <v>0.47516000000000003</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1.136862</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="29"/>
+        <v>-23.130000000004536</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>9.5407000000000006E-2</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0.301062</v>
+      </c>
+      <c r="S61" s="12">
+        <v>1.1369549999999999</v>
+      </c>
+      <c r="T61" s="12">
+        <f t="shared" si="30"/>
+        <v>-13.830000000014664</v>
+      </c>
+      <c r="U61" s="12">
+        <v>4.7343000000000003E-2</v>
+      </c>
+      <c r="V61" s="12">
+        <v>0.15374299999999999</v>
+      </c>
+      <c r="W61" s="1">
+        <v>1.1369659999999999</v>
+      </c>
+      <c r="X61" s="1">
+        <f t="shared" si="31"/>
+        <v>-12.730000000016339</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>4.1302999999999999E-2</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>0.14158000000000001</v>
+      </c>
+      <c r="AA61" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AB61" s="12">
+        <f t="shared" si="32"/>
+        <v>-2709.3299999999986</v>
+      </c>
+      <c r="AC61" s="12">
+        <v>11.634465000000001</v>
+      </c>
+      <c r="AD61" s="12">
+        <v>35.210318999999998</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>1.1317539999999999</v>
+      </c>
+      <c r="AF61" s="1">
+        <f t="shared" si="33"/>
+        <v>-533.93000000001575</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>2.1601530000000002</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>6.6265900000000002</v>
+      </c>
+      <c r="AI61" s="12">
+        <v>1.13693</v>
+      </c>
+      <c r="AJ61" s="12">
+        <f t="shared" si="34"/>
+        <v>-16.330000000008837</v>
+      </c>
+      <c r="AK61" s="12">
+        <v>7.1481000000000003E-2</v>
+      </c>
+      <c r="AL61" s="12">
+        <v>0.276945</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62">
+        <f>X65</f>
+        <v>16.944285714288423</v>
+      </c>
+      <c r="C62">
+        <f>Y65</f>
+        <v>9.2931714285714298E-2</v>
+      </c>
+      <c r="D62">
+        <f>Z65</f>
+        <v>0.35238428571428571</v>
+      </c>
+      <c r="I62">
+        <v>8</v>
+      </c>
+      <c r="J62">
+        <v>1.1523908</v>
+      </c>
+      <c r="K62" s="12">
+        <v>1.15191</v>
+      </c>
+      <c r="L62" s="12">
+        <f t="shared" si="28"/>
+        <v>-48.080000000005896</v>
+      </c>
+      <c r="M62" s="12">
+        <v>0.17842</v>
+      </c>
+      <c r="N62" s="12">
+        <v>0.55369400000000002</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1.151931</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" si="29"/>
+        <v>-45.98000000000102</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0.17469799999999999</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0.558056</v>
+      </c>
+      <c r="S62" s="12">
+        <v>1.1520079999999999</v>
+      </c>
+      <c r="T62" s="12">
+        <f t="shared" si="30"/>
+        <v>-38.280000000012748</v>
+      </c>
+      <c r="U62" s="12">
+        <v>0.13891400000000001</v>
+      </c>
+      <c r="V62" s="12">
+        <v>0.44336500000000001</v>
+      </c>
+      <c r="W62" s="1">
+        <v>1.1520170000000001</v>
+      </c>
+      <c r="X62" s="1">
+        <f t="shared" si="31"/>
+        <v>-37.37999999999797</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>0.134074</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>0.43376700000000001</v>
+      </c>
+      <c r="AA62" s="12">
+        <v>1.128822</v>
+      </c>
+      <c r="AB62" s="12">
+        <f t="shared" si="32"/>
+        <v>-2356.8800000000056</v>
+      </c>
+      <c r="AC62" s="12">
+        <v>9.2770790000000005</v>
+      </c>
+      <c r="AD62" s="12">
+        <v>28.996479000000001</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>1.14784</v>
+      </c>
+      <c r="AF62" s="1">
+        <f t="shared" si="33"/>
+        <v>-455.08000000000771</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>1.7034279999999999</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>5.3654330000000003</v>
+      </c>
+      <c r="AI62" s="12">
+        <v>1.1523939999999999</v>
+      </c>
+      <c r="AJ62" s="12">
+        <f t="shared" si="34"/>
+        <v>0.31999999998699735</v>
+      </c>
+      <c r="AK62" s="12">
+        <v>4.0027E-2</v>
+      </c>
+      <c r="AL62" s="12">
+        <v>0.22031100000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>1.1955986000000001</v>
+      </c>
+      <c r="K64" s="12">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="L64" s="12">
+        <f t="shared" si="28"/>
+        <v>4.0000000001150227E-2</v>
+      </c>
+      <c r="M64" s="12">
+        <v>2.9E-5</v>
+      </c>
+      <c r="N64" s="12">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="P64" s="1">
+        <f t="shared" si="29"/>
+        <v>4.0000000001150227E-2</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>2.9E-5</v>
+      </c>
+      <c r="R64" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="S64" s="12">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="T64" s="12">
+        <f t="shared" si="30"/>
+        <v>4.0000000001150227E-2</v>
+      </c>
+      <c r="U64" s="12">
+        <v>2.9E-5</v>
+      </c>
+      <c r="V64" s="12">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="W64" s="1">
+        <v>2.9E-5</v>
+      </c>
+      <c r="X64" s="1">
+        <f t="shared" si="31"/>
+        <v>-119556.96</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="AA64" s="12">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="AB64" s="12">
+        <f t="shared" si="32"/>
+        <v>4.0000000001150227E-2</v>
+      </c>
+      <c r="AC64" s="12">
+        <v>2.9E-5</v>
+      </c>
+      <c r="AD64" s="12">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="AF64" s="1">
+        <f t="shared" si="33"/>
+        <v>4.0000000001150227E-2</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>2.9E-5</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="AI64" s="12">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="AJ64" s="12">
+        <f t="shared" si="34"/>
+        <v>4.0000000001150227E-2</v>
+      </c>
+      <c r="AK64" s="12">
+        <v>2.9E-5</v>
+      </c>
+      <c r="AL64" s="12">
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>44</v>
+      </c>
+      <c r="L65" s="12">
+        <f t="array" ref="L65">AVERAGE(ABS(L56:L62))</f>
+        <v>27.858571428577129</v>
+      </c>
+      <c r="M65" s="12">
+        <f>M66</f>
+        <v>0.11744085714285715</v>
+      </c>
+      <c r="N65" s="12">
+        <f t="shared" ref="N65" si="35">N66</f>
+        <v>0.38054700000000002</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="array" ref="P65">AVERAGE(ABS(P56:P62))</f>
+        <v>15.470000000001553</v>
+      </c>
+      <c r="Q65" s="1">
+        <f>Q66</f>
+        <v>6.8304000000000004E-2</v>
+      </c>
+      <c r="R65" s="1">
+        <f t="shared" ref="R65" si="36">R66</f>
+        <v>0.214312</v>
+      </c>
+      <c r="T65" s="12">
+        <f t="array" ref="T65">AVERAGE(ABS(T56:T62))</f>
+        <v>16.630000000003189</v>
+      </c>
+      <c r="U65" s="12">
+        <f>U66</f>
+        <v>8.784385714285714E-2</v>
+      </c>
+      <c r="V65" s="12">
+        <f t="shared" ref="V65" si="37">V66</f>
+        <v>0.33988614285714291</v>
+      </c>
+      <c r="X65" s="1">
+        <f t="array" ref="X65">AVERAGE(ABS(X56:X62))</f>
+        <v>16.944285714288423</v>
+      </c>
+      <c r="Y65" s="1">
+        <f>Y66</f>
+        <v>9.2931714285714298E-2</v>
+      </c>
+      <c r="Z65" s="1">
+        <f t="shared" ref="Z65" si="38">Z66</f>
+        <v>0.35238428571428571</v>
+      </c>
+      <c r="AB65" s="12">
+        <f t="array" ref="AB65">AVERAGE(ABS(AB56:AB62))</f>
+        <v>2014.9728571428557</v>
+      </c>
+      <c r="AC65" s="12">
+        <f>AC66</f>
+        <v>9.4596102857142856</v>
+      </c>
+      <c r="AD65" s="12">
+        <f t="shared" ref="AD65" si="39">AD66</f>
+        <v>27.359138999999999</v>
+      </c>
+      <c r="AF65" s="1">
+        <f t="array" ref="AF65">AVERAGE(ABS(AF56:AF62))</f>
+        <v>492.18714285714458</v>
+      </c>
+      <c r="AG65" s="1">
+        <f>AG66</f>
+        <v>2.2637708571428572</v>
+      </c>
+      <c r="AH65" s="1">
+        <f t="shared" ref="AH65" si="40">AH66</f>
+        <v>6.5562938571428573</v>
+      </c>
+      <c r="AJ65" s="12">
+        <f t="array" ref="AJ65">AVERAGE(ABS(AJ56:AJ62))</f>
+        <v>65.121428571427273</v>
+      </c>
+      <c r="AK65" s="12">
+        <f>AK66</f>
+        <v>0.32624842857142855</v>
+      </c>
+      <c r="AL65" s="12">
+        <f t="shared" ref="AL65" si="41">AL66</f>
+        <v>0.887605857142857</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>46</v>
+      </c>
+      <c r="L66" s="12">
+        <f>AVERAGE(L56:L62)</f>
+        <v>-27.858571428577129</v>
+      </c>
+      <c r="M66" s="12">
+        <f>AVERAGE(M56:M62)</f>
+        <v>0.11744085714285715</v>
+      </c>
+      <c r="N66" s="12">
+        <f>AVERAGE(N56:N62)</f>
+        <v>0.38054700000000002</v>
+      </c>
+      <c r="P66" s="1">
+        <f>AVERAGE(P56:P62)</f>
+        <v>-5.9299999999952648</v>
+      </c>
+      <c r="Q66" s="1">
+        <f>AVERAGE(Q56:Q62)</f>
+        <v>6.8304000000000004E-2</v>
+      </c>
+      <c r="R66" s="1">
+        <f>AVERAGE(R56:R62)</f>
+        <v>0.214312</v>
+      </c>
+      <c r="T66" s="12">
+        <f>AVERAGE(T56:T62)</f>
+        <v>1.7414285714239301</v>
+      </c>
+      <c r="U66" s="12">
+        <f>AVERAGE(U56:U62)</f>
+        <v>8.784385714285714E-2</v>
+      </c>
+      <c r="V66" s="12">
+        <f>AVERAGE(V56:V62)</f>
+        <v>0.33988614285714291</v>
+      </c>
+      <c r="X66" s="1">
+        <f>AVERAGE(X56:X62)</f>
+        <v>2.6271428571414788</v>
+      </c>
+      <c r="Y66" s="1">
+        <f>AVERAGE(Y56:Y62)</f>
+        <v>9.2931714285714298E-2</v>
+      </c>
+      <c r="Z66" s="1">
+        <f>AVERAGE(Z56:Z62)</f>
+        <v>0.35238428571428571</v>
+      </c>
+      <c r="AB66" s="12">
+        <f>AVERAGE(AB56:AB62)</f>
+        <v>-2014.9728571428557</v>
+      </c>
+      <c r="AC66" s="12">
+        <f>AVERAGE(AC56:AC62)</f>
+        <v>9.4596102857142856</v>
+      </c>
+      <c r="AD66" s="12">
+        <f>AVERAGE(AD56:AD62)</f>
+        <v>27.359138999999999</v>
+      </c>
+      <c r="AF66" s="1">
+        <f>AVERAGE(AF56:AF62)</f>
+        <v>-492.18714285714458</v>
+      </c>
+      <c r="AG66" s="1">
+        <f>AVERAGE(AG56:AG62)</f>
+        <v>2.2637708571428572</v>
+      </c>
+      <c r="AH66" s="1">
+        <f>AVERAGE(AH56:AH62)</f>
+        <v>6.5562938571428573</v>
+      </c>
+      <c r="AJ66" s="12">
+        <f>AVERAGE(AJ56:AJ62)</f>
+        <v>-65.030000000002431</v>
+      </c>
+      <c r="AK66" s="12">
+        <f>AVERAGE(AK56:AK62)</f>
+        <v>0.32624842857142855</v>
+      </c>
+      <c r="AL66" s="12">
+        <f>AVERAGE(AL56:AL62)</f>
+        <v>0.887605857142857</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>47</v>
+      </c>
+      <c r="L67" s="12">
+        <f>STDEV(L56:L62)</f>
+        <v>11.415712021260408</v>
+      </c>
+      <c r="P67" s="1">
+        <f>STDEV(P56:P62)</f>
+        <v>21.406558963710641</v>
+      </c>
+      <c r="T67" s="12">
+        <f>STDEV(T56:T62)</f>
+        <v>20.917348803148581</v>
+      </c>
+      <c r="X67" s="1">
+        <f>STDEV(X56:X62)</f>
+        <v>20.867413762682023</v>
+      </c>
+      <c r="AB67" s="12">
+        <f>STDEV(AB56:AB62)</f>
+        <v>709.64058270634587</v>
+      </c>
+      <c r="AF67" s="1">
+        <f>STDEV(AF56:AF62)</f>
+        <v>88.287152465548317</v>
+      </c>
+      <c r="AJ67" s="12">
+        <f>STDEV(AJ56:AJ62)</f>
+        <v>53.895520221997145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB70" s="13"/>
+      <c r="AC70" s="13"/>
+      <c r="AD70" s="13"/>
+      <c r="AE70" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ70" s="13"/>
+      <c r="AK70" s="13"/>
+      <c r="AL70" s="13"/>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>63</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L71" s="14"/>
+      <c r="M71" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N71" s="13"/>
+      <c r="O71" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R71" s="8"/>
+      <c r="S71" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T71" s="14"/>
+      <c r="U71" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V71" s="13"/>
+      <c r="W71" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD71" s="13"/>
+      <c r="AE71" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ71" s="14"/>
+      <c r="AK71" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL71" s="13"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="J72" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M72" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N72" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P72" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q72" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T72" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U72" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="V72" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W72" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X72" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y72" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z72" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB72" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC72" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD72" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE72" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF72" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG72" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH72" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI72" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ72" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK72" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL72" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1.1841889999999999</v>
+      </c>
+      <c r="K73" s="12">
+        <v>1.1841889999999999</v>
+      </c>
+      <c r="L73" s="12">
+        <f>IF(K73="","",IF($J73="","",(K73-$J73)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="12">
+        <v>0</v>
+      </c>
+      <c r="N73" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1.1841889999999999</v>
+      </c>
+      <c r="P73" s="1">
+        <f>IF(O73="","",IF($J73="","",(O73-$J73)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="S73" s="12">
+        <v>1.1841889999999999</v>
+      </c>
+      <c r="T73" s="12">
+        <f>IF(S73="","",IF($J73="","",(S73-$J73)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="U73" s="12">
+        <v>0</v>
+      </c>
+      <c r="V73" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="W73" s="1">
+        <v>1.1841889999999999</v>
+      </c>
+      <c r="X73" s="1">
+        <f>IF(W73="","",IF($J73="","",(W73-$J73)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="AA73" s="12">
+        <v>1.1841889999999999</v>
+      </c>
+      <c r="AB73" s="12">
+        <f>IF(AA73="","",IF($J73="","",(AA73-$J73)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>1.1841889999999999</v>
+      </c>
+      <c r="AF73" s="1">
+        <f>IF(AE73="","",IF($J73="","",(AE73-$J73)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="AI73" s="12">
+        <v>1.1841889999999999</v>
+      </c>
+      <c r="AJ73" s="12">
+        <f>IF(AI73="","",IF($J73="","",(AI73-$J73)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="AK73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <f>AB84</f>
+        <v>171.24285714285674</v>
+      </c>
+      <c r="C75">
+        <f>AC84</f>
+        <v>2.5375098571428572</v>
+      </c>
+      <c r="D75">
+        <f>AD84</f>
+        <v>6.7480517142857144</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>1.1856519999999999</v>
+      </c>
+      <c r="K75" s="12">
+        <v>1.185627</v>
+      </c>
+      <c r="L75" s="12">
+        <f t="shared" ref="L75:L83" si="42">IF(K75="","",IF($J75="","",(K75-$J75)*100000))</f>
+        <v>-2.4999999999941735</v>
+      </c>
+      <c r="M75" s="12">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="N75" s="12">
+        <v>5.7206E-2</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1.1856519999999999</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" ref="P75:P83" si="43">IF(O75="","",IF($J75="","",(O75-$J75)*100000))</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>1.3845E-2</v>
+      </c>
+      <c r="R75" s="1">
+        <v>5.4642000000000003E-2</v>
+      </c>
+      <c r="S75" s="12">
+        <v>1.1856580000000001</v>
+      </c>
+      <c r="T75" s="12">
+        <f t="shared" ref="T75:T83" si="44">IF(S75="","",IF($J75="","",(S75-$J75)*100000))</f>
+        <v>0.6000000000172534</v>
+      </c>
+      <c r="U75" s="12">
+        <v>2.0576000000000001E-2</v>
+      </c>
+      <c r="V75" s="12">
+        <v>7.0124000000000006E-2</v>
+      </c>
+      <c r="W75" s="1">
+        <v>1.1856580000000001</v>
+      </c>
+      <c r="X75" s="1">
+        <f t="shared" ref="X75:X83" si="45">IF(W75="","",IF($J75="","",(W75-$J75)*100000))</f>
+        <v>0.6000000000172534</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>2.0947E-2</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>7.1154999999999996E-2</v>
+      </c>
+      <c r="AA75" s="12">
+        <v>1.1848749999999999</v>
+      </c>
+      <c r="AB75" s="12">
+        <f t="shared" ref="AB75:AB83" si="46">IF(AA75="","",IF($J75="","",(AA75-$J75)*100000))</f>
+        <v>-77.700000000002774</v>
+      </c>
+      <c r="AC75" s="12">
+        <v>1.1659470000000001</v>
+      </c>
+      <c r="AD75" s="12">
+        <v>3.2979340000000001</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>1.185335</v>
+      </c>
+      <c r="AF75" s="1">
+        <f t="shared" ref="AF75:AF83" si="47">IF(AE75="","",IF($J75="","",(AE75-$J75)*100000))</f>
+        <v>-31.699999999990069</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>0.46191199999999999</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>1.292033</v>
+      </c>
+      <c r="AI75" s="12">
+        <v>1.185497</v>
+      </c>
+      <c r="AJ75" s="12">
+        <f t="shared" ref="AJ75:AJ83" si="48">IF(AI75="","",IF($J75="","",(AI75-$J75)*100000))</f>
+        <v>-15.499999999990521</v>
+      </c>
+      <c r="AK75" s="12">
+        <v>0.20876800000000001</v>
+      </c>
+      <c r="AL75" s="12">
+        <v>0.55535699999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76">
+        <f>AF84</f>
+        <v>43.028571428565286</v>
+      </c>
+      <c r="C76">
+        <f>AG84</f>
+        <v>0.6119201428571428</v>
+      </c>
+      <c r="D76">
+        <f>AH84</f>
+        <v>1.5970032857142857</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>1.1865680000000001</v>
+      </c>
+      <c r="K76" s="12">
+        <v>1.1865429999999999</v>
+      </c>
+      <c r="L76" s="12">
+        <f t="shared" si="42"/>
+        <v>-2.500000000016378</v>
+      </c>
+      <c r="M76" s="12">
+        <v>1.6466000000000001E-2</v>
+      </c>
+      <c r="N76" s="12">
+        <v>4.8045999999999998E-2</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1.186574</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" si="43"/>
+        <v>0.59999999999504894</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>2.5582000000000001E-2</v>
+      </c>
+      <c r="R76" s="1">
+        <v>9.3931000000000001E-2</v>
+      </c>
+      <c r="S76" s="12">
+        <v>1.186582</v>
+      </c>
+      <c r="T76" s="12">
+        <f t="shared" si="44"/>
+        <v>1.399999999995849</v>
+      </c>
+      <c r="U76" s="12">
+        <v>3.6096999999999997E-2</v>
+      </c>
+      <c r="V76" s="12">
+        <v>0.116704</v>
+      </c>
+      <c r="W76" s="1">
+        <v>1.1865829999999999</v>
+      </c>
+      <c r="X76" s="1">
+        <f t="shared" si="45"/>
+        <v>1.4999999999876223</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>3.6695999999999999E-2</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>0.11826</v>
+      </c>
+      <c r="AA76" s="12">
+        <v>1.185325</v>
+      </c>
+      <c r="AB76" s="12">
+        <f t="shared" si="46"/>
+        <v>-124.30000000001051</v>
+      </c>
+      <c r="AC76" s="12">
+        <v>1.863747</v>
+      </c>
+      <c r="AD76" s="12">
+        <v>5.1856400000000002</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>1.1861520000000001</v>
+      </c>
+      <c r="AF76" s="1">
+        <f t="shared" si="47"/>
+        <v>-41.599999999997195</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>0.601128</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>1.6393180000000001</v>
+      </c>
+      <c r="AI76" s="12">
+        <v>1.186447</v>
+      </c>
+      <c r="AJ76" s="12">
+        <f t="shared" si="48"/>
+        <v>-12.100000000003774</v>
+      </c>
+      <c r="AK76" s="12">
+        <v>0.14902899999999999</v>
+      </c>
+      <c r="AL76" s="12">
+        <v>0.38000299999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77">
+        <f>AJ84</f>
+        <v>7.6714285714255377</v>
+      </c>
+      <c r="C77">
+        <f>AK84</f>
+        <v>8.6614999999999998E-2</v>
+      </c>
+      <c r="D77">
+        <f>AL84</f>
+        <v>0.23798257142857143</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+      <c r="J77">
+        <v>1.1875359999999999</v>
+      </c>
+      <c r="K77" s="12">
+        <v>1.1875089999999999</v>
+      </c>
+      <c r="L77" s="12">
+        <f t="shared" si="42"/>
+        <v>-2.6999999999999247</v>
+      </c>
+      <c r="M77" s="12">
+        <v>1.6404999999999999E-2</v>
+      </c>
+      <c r="N77" s="12">
+        <v>4.9118000000000002E-2</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1.187543</v>
+      </c>
+      <c r="P77" s="1">
+        <f t="shared" si="43"/>
+        <v>0.70000000000902673</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>2.8382999999999999E-2</v>
+      </c>
+      <c r="R77" s="1">
+        <v>0.104951</v>
+      </c>
+      <c r="S77" s="12">
+        <v>1.1875530000000001</v>
+      </c>
+      <c r="T77" s="12">
+        <f t="shared" si="44"/>
+        <v>1.7000000000155779</v>
+      </c>
+      <c r="U77" s="12">
+        <v>4.0728E-2</v>
+      </c>
+      <c r="V77" s="12">
+        <v>0.131825</v>
+      </c>
+      <c r="W77" s="1">
+        <v>1.187554</v>
+      </c>
+      <c r="X77" s="1">
+        <f t="shared" si="45"/>
+        <v>1.8000000000073513</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>4.3157000000000001E-2</v>
+      </c>
+      <c r="Z77" s="1">
+        <v>0.13594800000000001</v>
+      </c>
+      <c r="AA77" s="12">
+        <v>1.185875</v>
+      </c>
+      <c r="AB77" s="12">
+        <f t="shared" si="46"/>
+        <v>-166.09999999999127</v>
+      </c>
+      <c r="AC77" s="12">
+        <v>2.4848349999999999</v>
+      </c>
+      <c r="AD77" s="12">
+        <v>6.7973980000000003</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>1.187065</v>
+      </c>
+      <c r="AF77" s="1">
+        <f t="shared" si="47"/>
+        <v>-47.099999999988817</v>
+      </c>
+      <c r="AG77" s="1">
+        <v>0.67529499999999998</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>1.798303</v>
+      </c>
+      <c r="AI77" s="12">
+        <v>1.1874420000000001</v>
+      </c>
+      <c r="AJ77" s="12">
+        <f t="shared" si="48"/>
+        <v>-9.3999999999816453</v>
+      </c>
+      <c r="AK77" s="12">
+        <v>0.10374800000000001</v>
+      </c>
+      <c r="AL77" s="12">
+        <v>0.26244200000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78">
+        <f>L84</f>
+        <v>3.2428571428568174</v>
+      </c>
+      <c r="C78">
+        <f>M84</f>
+        <v>2.6646714285714291E-2</v>
+      </c>
+      <c r="D78">
+        <f>N84</f>
+        <v>7.0720285714285708E-2</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>1.1885509999999999</v>
+      </c>
+      <c r="K78" s="12">
+        <v>1.1885209999999999</v>
+      </c>
+      <c r="L78" s="12">
+        <f t="shared" si="42"/>
+        <v>-2.9999999999974492</v>
+      </c>
+      <c r="M78" s="12">
+        <v>1.9876999999999999E-2</v>
+      </c>
+      <c r="N78" s="12">
+        <v>5.6849999999999998E-2</v>
+      </c>
+      <c r="O78" s="1">
+        <v>1.1885540000000001</v>
+      </c>
+      <c r="P78" s="1">
+        <f t="shared" si="43"/>
+        <v>0.30000000001972893</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>2.2508E-2</v>
+      </c>
+      <c r="R78" s="1">
+        <v>8.8408E-2</v>
+      </c>
+      <c r="S78" s="12">
+        <v>1.1885650000000001</v>
+      </c>
+      <c r="T78" s="12">
+        <f t="shared" si="44"/>
+        <v>1.4000000000180535</v>
+      </c>
+      <c r="U78" s="12">
+        <v>3.6811000000000003E-2</v>
+      </c>
+      <c r="V78" s="12">
+        <v>0.118862</v>
+      </c>
+      <c r="W78" s="1">
+        <v>1.1885669999999999</v>
+      </c>
+      <c r="X78" s="1">
+        <f t="shared" si="45"/>
+        <v>1.6000000000016001</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>3.8649999999999997E-2</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>0.122303</v>
+      </c>
+      <c r="AA78" s="12">
+        <v>1.1865570000000001</v>
+      </c>
+      <c r="AB78" s="12">
+        <f t="shared" si="46"/>
+        <v>-199.39999999998292</v>
+      </c>
+      <c r="AC78" s="12">
+        <v>2.9716480000000001</v>
+      </c>
+      <c r="AD78" s="12">
+        <v>7.9862900000000003</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>1.1880580000000001</v>
+      </c>
+      <c r="AF78" s="1">
+        <f t="shared" si="47"/>
+        <v>-49.299999999985467</v>
+      </c>
+      <c r="AG78" s="1">
+        <v>0.70137799999999995</v>
+      </c>
+      <c r="AH78" s="1">
+        <v>1.8266629999999999</v>
+      </c>
+      <c r="AI78" s="12">
+        <v>1.18848</v>
+      </c>
+      <c r="AJ78" s="12">
+        <f t="shared" si="48"/>
+        <v>-7.0999999999932228</v>
+      </c>
+      <c r="AK78" s="12">
+        <v>6.9043999999999994E-2</v>
+      </c>
+      <c r="AL78" s="12">
+        <v>0.17980499999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79">
+        <f>P84</f>
+        <v>1.1714285714305359</v>
+      </c>
+      <c r="C79">
+        <f>Q84</f>
+        <v>2.2937285714285716E-2</v>
+      </c>
+      <c r="D79">
+        <f>R84</f>
+        <v>7.6004714285714287E-2</v>
+      </c>
+      <c r="I79">
+        <v>6</v>
+      </c>
+      <c r="J79">
+        <v>1.189619</v>
+      </c>
+      <c r="K79" s="12">
+        <v>1.1895849999999999</v>
+      </c>
+      <c r="L79" s="12">
+        <f t="shared" si="42"/>
+        <v>-3.4000000000089514</v>
+      </c>
+      <c r="M79" s="12">
+        <v>2.6342000000000001E-2</v>
+      </c>
+      <c r="N79" s="12">
+        <v>7.0382E-2</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1.189613</v>
+      </c>
+      <c r="P79" s="1">
+        <f t="shared" si="43"/>
+        <v>-0.59999999999504894</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>8.7899999999999992E-3</v>
+      </c>
+      <c r="R79" s="1">
+        <v>4.7072000000000003E-2</v>
+      </c>
+      <c r="S79" s="12">
+        <v>1.189624</v>
+      </c>
+      <c r="T79" s="12">
+        <f t="shared" si="44"/>
+        <v>0.5000000000032756</v>
+      </c>
+      <c r="U79" s="12">
+        <v>2.1898000000000001E-2</v>
+      </c>
+      <c r="V79" s="12">
+        <v>7.6898999999999995E-2</v>
+      </c>
+      <c r="W79" s="1">
+        <v>1.1896260000000001</v>
+      </c>
+      <c r="X79" s="1">
+        <f t="shared" si="45"/>
+        <v>0.70000000000902673</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>2.3685000000000001E-2</v>
+      </c>
+      <c r="Z79" s="1">
+        <v>8.0306000000000002E-2</v>
+      </c>
+      <c r="AA79" s="12">
+        <v>1.187422</v>
+      </c>
+      <c r="AB79" s="12">
+        <f t="shared" si="46"/>
+        <v>-219.70000000000044</v>
+      </c>
+      <c r="AC79" s="12">
+        <v>3.2567050000000002</v>
+      </c>
+      <c r="AD79" s="12">
+        <v>8.5881729999999994</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>1.189133</v>
+      </c>
+      <c r="AF79" s="1">
+        <f t="shared" si="47"/>
+        <v>-48.599999999998644</v>
+      </c>
+      <c r="AG79" s="1">
+        <v>0.68491900000000006</v>
+      </c>
+      <c r="AH79" s="1">
+        <v>1.7460310000000001</v>
+      </c>
+      <c r="AI79" s="12">
+        <v>1.189568</v>
+      </c>
+      <c r="AJ79" s="12">
+        <f t="shared" si="48"/>
+        <v>-5.1000000000023249</v>
+      </c>
+      <c r="AK79" s="12">
+        <v>4.1986999999999997E-2</v>
+      </c>
+      <c r="AL79" s="12">
+        <v>0.12195499999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80">
+        <f>T84</f>
+        <v>1.4000000000053652</v>
+      </c>
+      <c r="C80">
+        <f>U84</f>
+        <v>2.7790285714285712E-2</v>
+      </c>
+      <c r="D80">
+        <f>V84</f>
+        <v>8.7481714285714274E-2</v>
+      </c>
+      <c r="I80">
+        <v>7</v>
+      </c>
+      <c r="J80">
+        <v>1.190753</v>
+      </c>
+      <c r="K80" s="12">
+        <v>1.1907140000000001</v>
+      </c>
+      <c r="L80" s="12">
+        <f t="shared" si="42"/>
+        <v>-3.8999999999900226</v>
+      </c>
+      <c r="M80" s="12">
+        <v>3.5885E-2</v>
+      </c>
+      <c r="N80" s="12">
+        <v>9.0437000000000003E-2</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1.190733</v>
+      </c>
+      <c r="P80" s="1">
+        <f t="shared" si="43"/>
+        <v>-1.9999999999908979</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>1.5674E-2</v>
+      </c>
+      <c r="R80" s="1">
+        <v>3.6181999999999999E-2</v>
+      </c>
+      <c r="S80" s="12">
+        <v>1.1907430000000001</v>
+      </c>
+      <c r="T80" s="12">
+        <f t="shared" si="44"/>
+        <v>-0.99999999998434674</v>
+      </c>
+      <c r="U80" s="12">
+        <v>3.8170000000000001E-3</v>
+      </c>
+      <c r="V80" s="12">
+        <v>1.4574E-2</v>
+      </c>
+      <c r="W80" s="1">
+        <v>1.1907449999999999</v>
+      </c>
+      <c r="X80" s="1">
+        <f t="shared" si="45"/>
+        <v>-0.80000000000080007</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>3.3119999999999998E-3</v>
+      </c>
+      <c r="Z80" s="1">
+        <v>1.7035000000000002E-2</v>
+      </c>
+      <c r="AA80" s="12">
+        <v>1.1885479999999999</v>
+      </c>
+      <c r="AB80" s="12">
+        <f t="shared" si="46"/>
+        <v>-220.50000000000125</v>
+      </c>
+      <c r="AC80" s="12">
+        <v>3.2422979999999999</v>
+      </c>
+      <c r="AD80" s="12">
+        <v>8.3744019999999999</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>1.1903060000000001</v>
+      </c>
+      <c r="AF80" s="1">
+        <f t="shared" si="47"/>
+        <v>-44.699999999986417</v>
+      </c>
+      <c r="AG80" s="1">
+        <v>0.62662899999999999</v>
+      </c>
+      <c r="AH80" s="1">
+        <v>1.564781</v>
+      </c>
+      <c r="AI80" s="12">
+        <v>1.1907209999999999</v>
+      </c>
+      <c r="AJ80" s="12">
+        <f t="shared" si="48"/>
+        <v>-3.2000000000032003</v>
+      </c>
+      <c r="AK80" s="12">
+        <v>2.1165E-2</v>
+      </c>
+      <c r="AL80" s="12">
+        <v>8.1793000000000005E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81">
+        <f>X84</f>
+        <v>1.4285714285744433</v>
+      </c>
+      <c r="C81">
+        <f>Y84</f>
+        <v>2.8523E-2</v>
+      </c>
+      <c r="D81">
+        <f>Z84</f>
+        <v>8.9367000000000002E-2</v>
+      </c>
+      <c r="I81">
+        <v>8</v>
+      </c>
+      <c r="J81">
+        <v>1.191983</v>
+      </c>
+      <c r="K81" s="12">
+        <v>1.1919360000000001</v>
+      </c>
+      <c r="L81" s="12">
+        <f t="shared" si="42"/>
+        <v>-4.6999999999908226</v>
+      </c>
+      <c r="M81" s="12">
+        <v>5.1352000000000002E-2</v>
+      </c>
+      <c r="N81" s="12">
+        <v>0.123003</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1.191943</v>
+      </c>
+      <c r="P81" s="1">
+        <f t="shared" si="43"/>
+        <v>-4.0000000000040004</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>4.5779E-2</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0.106847</v>
+      </c>
+      <c r="S81" s="12">
+        <v>1.191951</v>
+      </c>
+      <c r="T81" s="12">
+        <f t="shared" si="44"/>
+        <v>-3.2000000000032003</v>
+      </c>
+      <c r="U81" s="12">
+        <v>3.4604999999999997E-2</v>
+      </c>
+      <c r="V81" s="12">
+        <v>8.3384E-2</v>
+      </c>
+      <c r="W81" s="1">
+        <v>1.191953</v>
+      </c>
+      <c r="X81" s="1">
+        <f t="shared" si="45"/>
+        <v>-2.9999999999974492</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>3.3214E-2</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>8.0561999999999995E-2</v>
+      </c>
+      <c r="AA81" s="12">
+        <v>1.1900729999999999</v>
+      </c>
+      <c r="AB81" s="12">
+        <f t="shared" si="46"/>
+        <v>-191.00000000000784</v>
+      </c>
+      <c r="AC81" s="12">
+        <v>2.7773889999999999</v>
+      </c>
+      <c r="AD81" s="12">
+        <v>7.0065249999999999</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>1.1916009999999999</v>
+      </c>
+      <c r="AF81" s="1">
+        <f t="shared" si="47"/>
+        <v>-38.200000000010448</v>
+      </c>
+      <c r="AG81" s="1">
+        <v>0.53217999999999999</v>
+      </c>
+      <c r="AH81" s="1">
+        <v>1.3118939999999999</v>
+      </c>
+      <c r="AI81" s="12">
+        <v>1.19197</v>
+      </c>
+      <c r="AJ81" s="12">
+        <f t="shared" si="48"/>
+        <v>-1.3000000000040757</v>
+      </c>
+      <c r="AK81" s="12">
+        <v>1.2564000000000001E-2</v>
+      </c>
+      <c r="AL81" s="12">
+        <v>8.4523000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>10</v>
+      </c>
+      <c r="J83">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="K83" s="12">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="L83" s="12">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="12">
+        <v>2.9E-5</v>
+      </c>
+      <c r="N83" s="12">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="P83" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>2.9E-5</v>
+      </c>
+      <c r="R83" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="S83" s="12">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="T83" s="12">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="12">
+        <v>2.9E-5</v>
+      </c>
+      <c r="V83" s="12">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="W83" s="1">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="X83" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>2.9E-5</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="AA83" s="12">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="AB83" s="12">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="AC83" s="12">
+        <v>2.9E-5</v>
+      </c>
+      <c r="AD83" s="12">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="AF83" s="1">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="1">
+        <v>2.9E-5</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="AI83" s="12">
+        <v>1.1955990000000001</v>
+      </c>
+      <c r="AJ83" s="12">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="AK83" s="12">
+        <v>2.9E-5</v>
+      </c>
+      <c r="AL83" s="12">
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L84" s="12">
+        <f t="array" ref="L84">AVERAGE(ABS(L75:L81))</f>
+        <v>3.2428571428568174</v>
+      </c>
+      <c r="M84" s="12">
+        <f>M85</f>
+        <v>2.6646714285714291E-2</v>
+      </c>
+      <c r="N84" s="12">
+        <f t="shared" ref="N84" si="49">N85</f>
+        <v>7.0720285714285708E-2</v>
+      </c>
+      <c r="P84" s="1">
+        <f t="array" ref="P84">AVERAGE(ABS(P75:P81))</f>
+        <v>1.1714285714305359</v>
+      </c>
+      <c r="Q84" s="1">
+        <f>Q85</f>
+        <v>2.2937285714285716E-2</v>
+      </c>
+      <c r="R84" s="1">
+        <f t="shared" ref="R84" si="50">R85</f>
+        <v>7.6004714285714287E-2</v>
+      </c>
+      <c r="T84" s="12">
+        <f t="array" ref="T84">AVERAGE(ABS(T75:T81))</f>
+        <v>1.4000000000053652</v>
+      </c>
+      <c r="U84" s="12">
+        <f>U85</f>
+        <v>2.7790285714285712E-2</v>
+      </c>
+      <c r="V84" s="12">
+        <f t="shared" ref="V84" si="51">V85</f>
+        <v>8.7481714285714274E-2</v>
+      </c>
+      <c r="X84" s="1">
+        <f t="array" ref="X84">AVERAGE(ABS(X75:X81))</f>
+        <v>1.4285714285744433</v>
+      </c>
+      <c r="Y84" s="1">
+        <f>Y85</f>
+        <v>2.8523E-2</v>
+      </c>
+      <c r="Z84" s="1">
+        <f t="shared" ref="Z84" si="52">Z85</f>
+        <v>8.9367000000000002E-2</v>
+      </c>
+      <c r="AB84" s="12">
+        <f t="array" ref="AB84">AVERAGE(ABS(AB75:AB81))</f>
+        <v>171.24285714285674</v>
+      </c>
+      <c r="AC84" s="12">
+        <f>AC85</f>
+        <v>2.5375098571428572</v>
+      </c>
+      <c r="AD84" s="12">
+        <f t="shared" ref="AD84" si="53">AD85</f>
+        <v>6.7480517142857144</v>
+      </c>
+      <c r="AF84" s="1">
+        <f t="array" ref="AF84">AVERAGE(ABS(AF75:AF81))</f>
+        <v>43.028571428565286</v>
+      </c>
+      <c r="AG84" s="1">
+        <f>AG85</f>
+        <v>0.6119201428571428</v>
+      </c>
+      <c r="AH84" s="1">
+        <f t="shared" ref="AH84" si="54">AH85</f>
+        <v>1.5970032857142857</v>
+      </c>
+      <c r="AJ84" s="12">
+        <f t="array" ref="AJ84">AVERAGE(ABS(AJ75:AJ81))</f>
+        <v>7.6714285714255377</v>
+      </c>
+      <c r="AK84" s="12">
+        <f>AK85</f>
+        <v>8.6614999999999998E-2</v>
+      </c>
+      <c r="AL84" s="12">
+        <f t="shared" ref="AL84" si="55">AL85</f>
+        <v>0.23798257142857143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>46</v>
+      </c>
+      <c r="L85" s="12">
+        <f>AVERAGE(L75:L81)</f>
+        <v>-3.2428571428568174</v>
+      </c>
+      <c r="M85" s="12">
+        <f>AVERAGE(M75:M81)</f>
+        <v>2.6646714285714291E-2</v>
+      </c>
+      <c r="N85" s="12">
+        <f>AVERAGE(N75:N81)</f>
+        <v>7.0720285714285708E-2</v>
+      </c>
+      <c r="P85" s="1">
+        <f>AVERAGE(P75:P81)</f>
+        <v>-0.7142857142808775</v>
+      </c>
+      <c r="Q85" s="1">
+        <f>AVERAGE(Q75:Q81)</f>
+        <v>2.2937285714285716E-2</v>
+      </c>
+      <c r="R85" s="1">
+        <f>AVERAGE(R75:R81)</f>
+        <v>7.6004714285714287E-2</v>
+      </c>
+      <c r="T85" s="12">
+        <f>AVERAGE(T75:T81)</f>
+        <v>0.20000000000892321</v>
+      </c>
+      <c r="U85" s="12">
+        <f>AVERAGE(U75:U81)</f>
+        <v>2.7790285714285712E-2</v>
+      </c>
+      <c r="V85" s="12">
+        <f>AVERAGE(V75:V81)</f>
+        <v>8.7481714285714274E-2</v>
+      </c>
+      <c r="X85" s="1">
+        <f>AVERAGE(X75:X81)</f>
+        <v>0.34285714286065783</v>
+      </c>
+      <c r="Y85" s="1">
+        <f>AVERAGE(Y75:Y81)</f>
+        <v>2.8523E-2</v>
+      </c>
+      <c r="Z85" s="1">
+        <f>AVERAGE(Z75:Z81)</f>
+        <v>8.9367000000000002E-2</v>
+      </c>
+      <c r="AB85" s="12">
+        <f>AVERAGE(AB75:AB81)</f>
+        <v>-171.24285714285674</v>
+      </c>
+      <c r="AC85" s="12">
+        <f>AVERAGE(AC75:AC81)</f>
+        <v>2.5375098571428572</v>
+      </c>
+      <c r="AD85" s="12">
+        <f>AVERAGE(AD75:AD81)</f>
+        <v>6.7480517142857144</v>
+      </c>
+      <c r="AF85" s="1">
+        <f>AVERAGE(AF75:AF81)</f>
+        <v>-43.028571428565286</v>
+      </c>
+      <c r="AG85" s="1">
+        <f>AVERAGE(AG75:AG81)</f>
+        <v>0.6119201428571428</v>
+      </c>
+      <c r="AH85" s="1">
+        <f>AVERAGE(AH75:AH81)</f>
+        <v>1.5970032857142857</v>
+      </c>
+      <c r="AJ85" s="12">
+        <f>AVERAGE(AJ75:AJ81)</f>
+        <v>-7.6714285714255377</v>
+      </c>
+      <c r="AK85" s="12">
+        <f>AVERAGE(AK75:AK81)</f>
+        <v>8.6614999999999998E-2</v>
+      </c>
+      <c r="AL85" s="12">
+        <f>AVERAGE(AL75:AL81)</f>
+        <v>0.23798257142857143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>47</v>
+      </c>
+      <c r="L86" s="12">
+        <f>STDEV(L75:L81)</f>
+        <v>0.82027869827795452</v>
+      </c>
+      <c r="P86" s="1">
+        <f>STDEV(P75:P81)</f>
+        <v>1.7189420888358429</v>
+      </c>
+      <c r="T86" s="12">
+        <f>STDEV(T75:T81)</f>
+        <v>1.7502380790471554</v>
+      </c>
+      <c r="X86" s="1">
+        <f>STDEV(X75:X81)</f>
+        <v>1.7183879488801781</v>
+      </c>
+      <c r="AB86" s="12">
+        <f>STDEV(AB75:AB81)</f>
+        <v>53.131718622770002</v>
+      </c>
+      <c r="AF86" s="1">
+        <f>STDEV(AF75:AF81)</f>
+        <v>6.3696452768068559</v>
+      </c>
+      <c r="AJ86" s="12">
+        <f>STDEV(AJ75:AJ81)</f>
+        <v>5.0235161277406499</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="92">
+    <mergeCell ref="AG71:AH71"/>
+    <mergeCell ref="AI71:AJ71"/>
+    <mergeCell ref="AK71:AL71"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="U71:V71"/>
+    <mergeCell ref="W71:X71"/>
+    <mergeCell ref="Y71:Z71"/>
+    <mergeCell ref="AA71:AB71"/>
+    <mergeCell ref="AC71:AD71"/>
+    <mergeCell ref="AE71:AF71"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="W70:Z70"/>
+    <mergeCell ref="AA70:AD70"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="AI70:AL70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AE32:AH32"/>
+    <mergeCell ref="AI32:AL32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G27:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Miscellaneous/results.xlsx
+++ b/Miscellaneous/results.xlsx
@@ -11,9 +11,7 @@
     <sheet name="p4 results" sheetId="2" r:id="rId2"/>
     <sheet name="p5 results" sheetId="3" r:id="rId3"/>
     <sheet name="2D Subray" sheetId="4" r:id="rId4"/>
-    <sheet name="2D Subray - UO2 Assembly" sheetId="5" r:id="rId5"/>
-    <sheet name="2D Subray - Core A00B10C10" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -218,8 +216,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.##\%;[Red]\(0.##\%\)"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -319,39 +319,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,7 +335,49 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -378,1794 +396,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$J$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Reference</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$35:$I$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$J$35:$J$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.714333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7615073</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78819050000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81419629999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83931</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86361679999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88736159999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91103299999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97082539999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$K$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Subray-0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$35:$I$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$K$35:$K$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.714333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76069399999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78730100000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81326799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83836599999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86268400000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88646100000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91013100000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97082500000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$O$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Subray-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$35:$I$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$O$35:$O$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.714333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76139000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78810999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81406900000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83907200000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86322100000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88677099999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91020199999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97082500000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$S$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Subray-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$35:$I$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$S$35:$S$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.714333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76168800000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78847100000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81444899999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83943699999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86354600000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88703500000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.910389</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97082500000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$W$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Subray-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="15875">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$35:$I$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$W$35:$W$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.714333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76173299999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78852599999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81450699999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83949399999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86359699999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88707599999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91041899999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97082500000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$AA$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$35:$I$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$AA$35:$AA$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.714333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73840499999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75298399999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76976900000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78930500000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.81234600000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.83995900000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.87371600000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97082500000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$AE$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Subplane</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$35:$I$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$AE$35:$AE$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.714333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75221499999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.776725</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80210700000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82758900000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85297400000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87834599999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90399399999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97082500000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$AI$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SCP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$35:$I$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$AI$35:$AI$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.714333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75727299999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78511799999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81197299999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83773600000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86256600000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88675999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91082300000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97082500000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="103118336"/>
-        <c:axId val="103119872"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="103118336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103119872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="103119872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.70000000000000007"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103118336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$J$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Reference</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$54:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$J$54:$J$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0603891000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0756688000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0859741000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0973508999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1096823</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1229218999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1370933000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1523908</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1955986000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$K$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Subray-0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$54:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$K$54:$K$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.060389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0754919999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0857939999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0971519999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.109442</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.122622</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.13672</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.15191</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1955990000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$O$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Subray-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$54:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$O$54:$O$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.060389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0757190000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.086084</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0974660000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1097410000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1228640000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.136862</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.151931</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1955990000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$S$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Subray-2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$54:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$S$54:$S$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.060389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.075755</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.086144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0975459999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.109834</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.122962</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1369549999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1520079999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1955990000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$W$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Subray-3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$54:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$W$54:$W$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.060389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0757589999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0861510000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0975550000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.109845</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.122973</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1369659999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1520170000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.9E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$AA$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>None</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$54:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$AA$54:$AA$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.060389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0675829999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0724400000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.078516</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.086271</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0964020000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.128822</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1955990000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$AE$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Subplane</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$54:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$AE$54:$AE$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.060389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.072395</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.081467</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.092041</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.103955</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1171770000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1317539999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.14784</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1955990000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2D Subray'!$AI$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SCP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$I$54:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2D Subray'!$AI$54:$AI$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.060389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.074173</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0848370000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.096519</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1091089999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.122568</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.13693</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1523939999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1955990000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="102139392"/>
-        <c:axId val="102140928"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="102139392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102140928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="102140928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102139392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="149" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8681174" cy="6283943"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8681174" cy="6283943"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4685,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AL86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
+      <selection activeCell="AB50" sqref="AB50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4694,58 +2924,72 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="12"/>
-    <col min="15" max="18" width="9.140625" style="1"/>
-    <col min="19" max="22" width="9.140625" style="12"/>
-    <col min="23" max="26" width="9.140625" style="1"/>
-    <col min="27" max="30" width="9.140625" style="12"/>
-    <col min="31" max="34" width="9.140625" style="1"/>
-    <col min="35" max="38" width="9.140625" style="12"/>
+    <col min="10" max="10" width="10.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="15"/>
+    <col min="12" max="12" width="9.140625" style="19"/>
+    <col min="13" max="14" width="9.140625" style="25"/>
+    <col min="15" max="15" width="9.140625" style="17"/>
+    <col min="16" max="16" width="9.140625" style="22"/>
+    <col min="17" max="18" width="9.140625" style="28"/>
+    <col min="19" max="19" width="9.140625" style="15"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="22" width="9.140625" style="25"/>
+    <col min="23" max="23" width="9.140625" style="17"/>
+    <col min="24" max="24" width="9.140625" style="22"/>
+    <col min="25" max="26" width="9.140625" style="28"/>
+    <col min="27" max="27" width="9.140625" style="15"/>
+    <col min="28" max="28" width="9.140625" style="19"/>
+    <col min="29" max="30" width="9.140625" style="25"/>
+    <col min="31" max="31" width="9.140625" style="17"/>
+    <col min="32" max="32" width="9.140625" style="22"/>
+    <col min="33" max="34" width="9.140625" style="28"/>
+    <col min="35" max="35" width="9.140625" style="15"/>
+    <col min="36" max="36" width="9.140625" style="19"/>
+    <col min="37" max="38" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="U2" s="12">
+      <c r="U2" s="25">
         <v>0.84870999999999996</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="17">
         <v>0.87745050000000002</v>
       </c>
     </row>
     <row r="3" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="19">
         <v>3.6373000000000003E-2</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="25">
         <v>1.0917779999999999</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="17">
         <v>0.91590470000000002</v>
       </c>
     </row>
     <row r="4" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="19">
         <v>3.7435999999999997E-2</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="25">
         <v>1.1339950000000001</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="17">
         <v>0.96442470000000002</v>
       </c>
     </row>
@@ -4765,31 +3009,31 @@
       <c r="I5">
         <v>1.1036896</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="11">
         <v>1.1482445999999999</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="15">
         <v>1.1916659999999999</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="19">
         <v>1.2346535000000001</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="25">
         <v>1.3441171000000001</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="19">
         <v>2.6787999999999999E-2</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="25">
         <v>1.0644530000000001</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="17">
         <v>1.0134566</v>
       </c>
     </row>
@@ -4809,109 +3053,109 @@
       <c r="I6">
         <v>1.1026872000000001</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="11">
         <v>1.1465601999999999</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="15">
         <v>1.1895221</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="19">
         <v>1.2324748000000001</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="25">
         <v>1.3441171000000001</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="19">
         <v>1.0541E-2</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="25">
         <v>0.93600399999999995</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="17">
         <v>1.0609451000000001</v>
       </c>
     </row>
     <row r="7" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="19">
         <v>8.0470000000000003E-3</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="25">
         <v>0.77090899999999996</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="V7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="17">
         <v>1.1065335999999999</v>
       </c>
     </row>
     <row r="8" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="19">
         <v>2.7512999999999999E-2</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="25">
         <v>0.58760000000000001</v>
       </c>
-      <c r="V8" s="12" t="s">
+      <c r="V8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="17">
         <v>1.1504426000000001</v>
       </c>
     </row>
     <row r="9" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="19">
         <v>4.7418000000000002E-2</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="17">
         <v>1.1931887000000001</v>
       </c>
     </row>
     <row r="10" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="19">
         <v>0.31088199999999999</v>
       </c>
-      <c r="V10" s="12" t="s">
+      <c r="V10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="17">
         <v>1.2357113</v>
       </c>
     </row>
     <row r="11" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="V11" s="12" t="s">
+      <c r="V11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="17">
         <v>1.2806605</v>
       </c>
     </row>
     <row r="12" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="17">
         <v>1.3441171000000001</v>
       </c>
     </row>
@@ -4919,268 +3163,268 @@
       <c r="I14" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="8" t="s">
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="13" t="s">
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="8" t="s">
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="13" t="s">
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="8" t="s">
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="13" t="s">
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
     </row>
     <row r="15" spans="4:38" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="13" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="9" t="s">
+      <c r="N15" s="24"/>
+      <c r="O15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="8" t="s">
+      <c r="P15" s="10"/>
+      <c r="Q15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="14" t="s">
+      <c r="R15" s="6"/>
+      <c r="S15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="13" t="s">
+      <c r="T15" s="7"/>
+      <c r="U15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="9" t="s">
+      <c r="V15" s="8"/>
+      <c r="W15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="8" t="s">
+      <c r="X15" s="10"/>
+      <c r="Y15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="14" t="s">
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="13" t="s">
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="9" t="s">
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="8" t="s">
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="14" t="s">
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="13" t="s">
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AL15" s="13"/>
+      <c r="AL15" s="8"/>
     </row>
     <row r="16" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="S16" s="15" t="s">
+      <c r="S16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="U16" s="16" t="s">
+      <c r="U16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="16" t="s">
+      <c r="V16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="W16" s="10" t="s">
+      <c r="W16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="X16" s="10" t="s">
+      <c r="X16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="Y16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="Z16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="15" t="s">
+      <c r="AA16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AB16" s="15" t="s">
+      <c r="AB16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AC16" s="16" t="s">
+      <c r="AC16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AD16" s="16" t="s">
+      <c r="AD16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AE16" s="10" t="s">
+      <c r="AE16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AF16" s="10" t="s">
+      <c r="AF16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AG16" s="11" t="s">
+      <c r="AG16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AH16" s="11" t="s">
+      <c r="AH16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AI16" s="15" t="s">
+      <c r="AI16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AJ16" s="15" t="s">
+      <c r="AJ16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AK16" s="16" t="s">
+      <c r="AK16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AL16" s="16" t="s">
+      <c r="AL16" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="9"/>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="11">
         <v>0.87745050000000002</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="15">
         <v>0.87745050000000002</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="19">
         <f>IF(K17="","",IF($J17="","",(K17-$J17)*100000))</f>
         <v>0</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="25">
         <v>0</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="17">
         <v>0.87745050000000002</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="22">
         <f>IF(O17="","",IF($J17="","",(O17-$J17)*100000))</f>
         <v>0</v>
       </c>
-      <c r="T17" s="12" t="str">
+      <c r="T17" s="19" t="str">
         <f>IF(S17="","",IF($J17="","",(S17-$J17)*100000))</f>
         <v/>
       </c>
-      <c r="X17" s="1" t="str">
+      <c r="X17" s="22" t="str">
         <f>IF(W17="","",IF($J17="","",(W17-$J17)*100000))</f>
         <v/>
       </c>
-      <c r="AA17" s="12">
+      <c r="AA17" s="15">
         <v>0.87745050000000002</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="AB17" s="19">
         <f>IF(AA17="","",IF($J17="","",(AA17-$J17)*100000))</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" s="17">
         <v>0.87745050000000002</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AF17" s="22">
         <f>IF(AE17="","",IF($J17="","",(AE17-$J17)*100000))</f>
         <v>0</v>
       </c>
-      <c r="AI17" s="12">
+      <c r="AI17" s="15">
         <v>0.87745050000000002</v>
       </c>
-      <c r="AJ17" s="12">
+      <c r="AJ17" s="19">
         <f>IF(AI17="","",IF($J17="","",(AI17-$J17)*100000))</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
+      <c r="B18" s="9"/>
       <c r="C18" t="s">
         <v>39</v>
       </c>
@@ -5190,25 +3434,25 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="11">
         <v>0.91590470000000002</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="17">
         <v>0.91481129999999999</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="28">
         <v>2.8083E-2</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="28">
         <v>5.2789000000000003E-2</v>
       </c>
-      <c r="AA18" s="12">
+      <c r="AA18" s="15">
         <v>0.89828079999999999</v>
       </c>
-      <c r="AC18" s="12">
+      <c r="AC18" s="25">
         <v>0.27004800000000001</v>
       </c>
-      <c r="AD18" s="12">
+      <c r="AD18" s="25">
         <v>0.28643999999999997</v>
       </c>
     </row>
@@ -5231,80 +3475,80 @@
       <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="11">
         <v>0.96442470000000002</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="15">
         <v>0.96441030000000005</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="19">
         <f t="shared" ref="L19:L27" si="0">IF(K19="","",IF($J19="","",(K19-$J19)*100000))</f>
         <v>-1.4399999999969992</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="25">
         <v>3.5915569999999999</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="25">
         <v>5.2367210000000002</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="17">
         <v>0.96239710000000001</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="22">
         <f t="shared" ref="P19:P27" si="1">IF(O19="","",IF($J19="","",(O19-$J19)*100000))</f>
         <v>-202.76000000000184</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="28">
         <v>4.0808999999999998E-2</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="28">
         <v>9.5254000000000005E-2</v>
       </c>
-      <c r="T19" s="12" t="str">
+      <c r="T19" s="19" t="str">
         <f t="shared" ref="T19:T27" si="2">IF(S19="","",IF($J19="","",(S19-$J19)*100000))</f>
         <v/>
       </c>
-      <c r="X19" s="1" t="str">
+      <c r="X19" s="22" t="str">
         <f t="shared" ref="X19:X27" si="3">IF(W19="","",IF($J19="","",(W19-$J19)*100000))</f>
         <v/>
       </c>
-      <c r="AA19" s="12">
+      <c r="AA19" s="15">
         <v>0.92186579999999996</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AB19" s="19">
         <f t="shared" ref="AB19:AB27" si="4">IF(AA19="","",IF($J19="","",(AA19-$J19)*100000))</f>
         <v>-4255.8900000000067</v>
       </c>
-      <c r="AC19" s="12">
+      <c r="AC19" s="25">
         <v>0.61539999999999995</v>
       </c>
-      <c r="AD19" s="12">
+      <c r="AD19" s="25">
         <v>0.65274299999999996</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19" s="17">
         <v>0.95718199999999998</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19" s="22">
         <f t="shared" ref="AF19:AF27" si="5">IF(AE19="","",IF($J19="","",(AE19-$J19)*100000))</f>
         <v>-724.27000000000464</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AG19" s="28">
         <v>0.84870999999999996</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19" s="28">
         <v>0.97299599999999997</v>
       </c>
-      <c r="AI19" s="12">
+      <c r="AI19" s="15">
         <v>0.96434260000000005</v>
       </c>
-      <c r="AJ19" s="12">
+      <c r="AJ19" s="19">
         <f t="shared" ref="AJ19:AJ27" si="6">IF(AI19="","",IF($J19="","",(AI19-$J19)*100000))</f>
         <v>-8.2099999999973861</v>
       </c>
-      <c r="AK19" s="12">
+      <c r="AK19" s="25">
         <v>3.6373000000000003E-2</v>
       </c>
-      <c r="AL19" s="12">
+      <c r="AL19" s="25">
         <v>3.9017000000000003E-2</v>
       </c>
     </row>
@@ -5327,80 +3571,80 @@
       <c r="I20">
         <v>3</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="11">
         <v>1.0134566</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="15">
         <v>1.0144696</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="19">
         <f t="shared" si="0"/>
         <v>101.29999999999306</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="25">
         <v>3.4833980000000002</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="25">
         <v>4.8747030000000002</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="17">
         <v>1.0106573000000001</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="22">
         <f t="shared" si="1"/>
         <v>-279.92999999999489</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="28">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="28">
         <v>0.116549</v>
       </c>
-      <c r="T20" s="12" t="str">
+      <c r="T20" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X20" s="1" t="str">
+      <c r="X20" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA20" s="12">
+      <c r="AA20" s="15">
         <v>0.94875869999999995</v>
       </c>
-      <c r="AB20" s="12">
+      <c r="AB20" s="19">
         <f t="shared" si="4"/>
         <v>-6469.7900000000081</v>
       </c>
-      <c r="AC20" s="12">
+      <c r="AC20" s="25">
         <v>0.87827200000000005</v>
       </c>
-      <c r="AD20" s="12">
+      <c r="AD20" s="25">
         <v>0.93155900000000003</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AE20" s="17">
         <v>1.0041103</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AF20" s="22">
         <f t="shared" si="5"/>
         <v>-934.63000000000295</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AG20" s="28">
         <v>1.0917779999999999</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AH20" s="28">
         <v>1.246402</v>
       </c>
-      <c r="AI20" s="12">
+      <c r="AI20" s="15">
         <v>1.014931</v>
       </c>
-      <c r="AJ20" s="12">
+      <c r="AJ20" s="19">
         <f t="shared" si="6"/>
         <v>147.43999999999869</v>
       </c>
-      <c r="AK20" s="12">
+      <c r="AK20" s="25">
         <v>3.7435999999999997E-2</v>
       </c>
-      <c r="AL20" s="12">
+      <c r="AL20" s="25">
         <v>3.9969999999999999E-2</v>
       </c>
     </row>
@@ -5423,80 +3667,80 @@
       <c r="I21">
         <v>4</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="11">
         <v>1.0609451000000001</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="15">
         <v>1.0622499000000001</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="19">
         <f t="shared" si="0"/>
         <v>130.47999999999948</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="25">
         <v>3.1080220000000001</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="25">
         <v>4.2540459999999998</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="17">
         <v>1.0576033</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="22">
         <f t="shared" si="1"/>
         <v>-334.18000000000615</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="28">
         <v>5.4760999999999997E-2</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="28">
         <v>0.118603</v>
       </c>
-      <c r="T21" s="12" t="str">
+      <c r="T21" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X21" s="1" t="str">
+      <c r="X21" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA21" s="12">
+      <c r="AA21" s="15">
         <v>0.97968379999999999</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AB21" s="19">
         <f t="shared" si="4"/>
         <v>-8126.1300000000092</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AC21" s="25">
         <v>1.0350889999999999</v>
       </c>
-      <c r="AD21" s="12">
+      <c r="AD21" s="25">
         <v>1.0978859999999999</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21" s="17">
         <v>1.0508191</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AF21" s="22">
         <f t="shared" si="5"/>
         <v>-1012.600000000008</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AG21" s="28">
         <v>1.1339950000000001</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AH21" s="28">
         <v>1.292694</v>
       </c>
-      <c r="AI21" s="12">
+      <c r="AI21" s="15">
         <v>1.063272</v>
       </c>
-      <c r="AJ21" s="12">
+      <c r="AJ21" s="19">
         <f t="shared" si="6"/>
         <v>232.68999999999096</v>
       </c>
-      <c r="AK21" s="12">
+      <c r="AK21" s="25">
         <v>2.6787999999999999E-2</v>
       </c>
-      <c r="AL21" s="12">
+      <c r="AL21" s="25">
         <v>2.8558E-2</v>
       </c>
     </row>
@@ -5519,80 +3763,80 @@
       <c r="I22">
         <v>5</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="11">
         <v>1.1065335999999999</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="15">
         <v>1.1079869</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="19">
         <f t="shared" si="0"/>
         <v>145.33000000001016</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="25">
         <v>2.5913889999999999</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="25">
         <v>3.5071840000000001</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="17">
         <v>1.1029230000000001</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="22">
         <f t="shared" si="1"/>
         <v>-361.05999999997971</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="28">
         <v>4.9852E-2</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="28">
         <v>0.105126</v>
       </c>
-      <c r="T22" s="12" t="str">
+      <c r="T22" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X22" s="1" t="str">
+      <c r="X22" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA22" s="12">
+      <c r="AA22" s="15">
         <v>1.0156067</v>
       </c>
-      <c r="AB22" s="12">
+      <c r="AB22" s="19">
         <f t="shared" si="4"/>
         <v>-9092.6899999999914</v>
       </c>
-      <c r="AC22" s="12">
+      <c r="AC22" s="25">
         <v>1.086576</v>
       </c>
-      <c r="AD22" s="12">
+      <c r="AD22" s="25">
         <v>1.1524939999999999</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AE22" s="17">
         <v>1.0966229000000001</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AF22" s="22">
         <f t="shared" si="5"/>
         <v>-991.06999999998277</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AG22" s="28">
         <v>1.0644530000000001</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22" s="28">
         <v>1.2129289999999999</v>
       </c>
-      <c r="AI22" s="12">
+      <c r="AI22" s="15">
         <v>1.1092438</v>
       </c>
-      <c r="AJ22" s="12">
+      <c r="AJ22" s="19">
         <f t="shared" si="6"/>
         <v>271.02000000001067</v>
       </c>
-      <c r="AK22" s="12">
+      <c r="AK22" s="25">
         <v>1.0541E-2</v>
       </c>
-      <c r="AL22" s="12">
+      <c r="AL22" s="25">
         <v>1.1195E-2</v>
       </c>
     </row>
@@ -5615,80 +3859,80 @@
       <c r="I23">
         <v>6</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="11">
         <v>1.1504426000000001</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="15">
         <v>1.152093</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="19">
         <f t="shared" si="0"/>
         <v>165.03999999999408</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="25">
         <v>2.0505110000000002</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="25">
         <v>2.753107</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="17">
         <v>1.1468119999999999</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="22">
         <f t="shared" si="1"/>
         <v>-363.06000000001507</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="28">
         <v>3.9099000000000002E-2</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="28">
         <v>8.1693000000000002E-2</v>
       </c>
-      <c r="T23" s="12" t="str">
+      <c r="T23" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X23" s="1" t="str">
+      <c r="X23" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA23" s="12">
+      <c r="AA23" s="15">
         <v>1.0578517999999999</v>
       </c>
-      <c r="AB23" s="12">
+      <c r="AB23" s="19">
         <f t="shared" si="4"/>
         <v>-9259.0800000000199</v>
       </c>
-      <c r="AC23" s="12">
+      <c r="AC23" s="25">
         <v>1.036859</v>
       </c>
-      <c r="AD23" s="12">
+      <c r="AD23" s="25">
         <v>1.0997600000000001</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AE23" s="17">
         <v>1.1414667999999999</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AF23" s="22">
         <f t="shared" si="5"/>
         <v>-897.58000000002005</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AG23" s="28">
         <v>0.93600399999999995</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AH23" s="28">
         <v>1.066641</v>
       </c>
-      <c r="AI23" s="12">
+      <c r="AI23" s="15">
         <v>1.1532203000000001</v>
       </c>
-      <c r="AJ23" s="12">
+      <c r="AJ23" s="19">
         <f t="shared" si="6"/>
         <v>277.76999999999941</v>
       </c>
-      <c r="AK23" s="12">
+      <c r="AK23" s="25">
         <v>8.0470000000000003E-3</v>
       </c>
-      <c r="AL23" s="12">
+      <c r="AL23" s="25">
         <v>8.5880000000000001E-3</v>
       </c>
     </row>
@@ -5711,80 +3955,80 @@
       <c r="I24">
         <v>7</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="11">
         <v>1.1931887000000001</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="15">
         <v>1.1949567999999999</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="19">
         <f t="shared" si="0"/>
         <v>176.80999999998281</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="25">
         <v>1.517722</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="25">
         <v>2.02366</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="17">
         <v>1.1897025999999999</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="22">
         <f t="shared" si="1"/>
         <v>-348.61000000001587</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="28">
         <v>2.4819999999999998E-2</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="28">
         <v>5.3290999999999998E-2</v>
       </c>
-      <c r="T24" s="12" t="str">
+      <c r="T24" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X24" s="1" t="str">
+      <c r="X24" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA24" s="12">
+      <c r="AA24" s="15">
         <v>1.1082859</v>
       </c>
-      <c r="AB24" s="12">
+      <c r="AB24" s="19">
         <f t="shared" si="4"/>
         <v>-8490.2800000000061</v>
       </c>
-      <c r="AC24" s="12">
+      <c r="AC24" s="25">
         <v>0.88851999999999998</v>
       </c>
-      <c r="AD24" s="12">
+      <c r="AD24" s="25">
         <v>0.94241799999999998</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AE24" s="17">
         <v>1.1856660000000001</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AF24" s="22">
         <f t="shared" si="5"/>
         <v>-752.2699999999993</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AG24" s="28">
         <v>0.77090899999999996</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AH24" s="28">
         <v>0.87880899999999995</v>
       </c>
-      <c r="AI24" s="12">
+      <c r="AI24" s="15">
         <v>1.1958040000000001</v>
       </c>
-      <c r="AJ24" s="12">
+      <c r="AJ24" s="19">
         <f t="shared" si="6"/>
         <v>261.52999999999872</v>
       </c>
-      <c r="AK24" s="12">
+      <c r="AK24" s="25">
         <v>2.7512999999999999E-2</v>
       </c>
-      <c r="AL24" s="12">
+      <c r="AL24" s="25">
         <v>2.9263999999999998E-2</v>
       </c>
     </row>
@@ -5807,80 +4051,80 @@
       <c r="I25">
         <v>8</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="11">
         <v>1.2357113</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="15">
         <v>1.2372898000000001</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="19">
         <f t="shared" si="0"/>
         <v>157.85000000001492</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="25">
         <v>0.99253800000000003</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="25">
         <v>1.316738</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="17">
         <v>1.2325397</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="22">
         <f t="shared" si="1"/>
         <v>-317.15999999999411</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="28">
         <v>8.0979999999999993E-3</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="28">
         <v>1.9855999999999999E-2</v>
       </c>
-      <c r="T25" s="12" t="str">
+      <c r="T25" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X25" s="1" t="str">
+      <c r="X25" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA25" s="12">
+      <c r="AA25" s="15">
         <v>1.1696325000000001</v>
       </c>
-      <c r="AB25" s="12">
+      <c r="AB25" s="19">
         <f t="shared" si="4"/>
         <v>-6607.8799999999883</v>
       </c>
-      <c r="AC25" s="12">
+      <c r="AC25" s="25">
         <v>0.64315299999999997</v>
       </c>
-      <c r="AD25" s="12">
+      <c r="AD25" s="25">
         <v>0.68217000000000005</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AE25" s="17">
         <v>1.2299159</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AF25" s="22">
         <f t="shared" si="5"/>
         <v>-579.54000000000065</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AG25" s="28">
         <v>0.58760000000000001</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AH25" s="28">
         <v>0.67022899999999996</v>
       </c>
-      <c r="AI25" s="12">
+      <c r="AI25" s="15">
         <v>1.2379690000000001</v>
       </c>
-      <c r="AJ25" s="12">
+      <c r="AJ25" s="19">
         <f t="shared" si="6"/>
         <v>225.77000000001402</v>
       </c>
-      <c r="AK25" s="12">
+      <c r="AK25" s="25">
         <v>4.7418000000000002E-2</v>
       </c>
-      <c r="AL25" s="12">
+      <c r="AL25" s="25">
         <v>5.0381000000000002E-2</v>
       </c>
     </row>
@@ -5888,25 +4132,25 @@
       <c r="I26">
         <v>9</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="11">
         <v>1.2806605</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="17">
         <v>1.2781370000000001</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="28">
         <v>1.2732E-2</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="28">
         <v>1.5386E-2</v>
       </c>
-      <c r="AA26" s="12">
+      <c r="AA26" s="15">
         <v>1.2460332999999999</v>
       </c>
-      <c r="AC26" s="12">
+      <c r="AC26" s="25">
         <v>0.31088199999999999</v>
       </c>
-      <c r="AD26" s="12">
+      <c r="AD26" s="25">
         <v>0.32973999999999998</v>
       </c>
     </row>
@@ -5914,52 +4158,52 @@
       <c r="I27">
         <v>10</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="11">
         <v>1.3441171000000001</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="15">
         <v>1.3441171000000001</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="25">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="17">
         <v>1.3441171000000001</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T27" s="12" t="str">
+      <c r="T27" s="19" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X27" s="1" t="str">
+      <c r="X27" s="22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA27" s="12">
+      <c r="AA27" s="15">
         <v>1.3441171000000001</v>
       </c>
-      <c r="AB27" s="12">
+      <c r="AB27" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="1">
+      <c r="AE27" s="17">
         <v>1.3441171000000001</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AF27" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AI27" s="12">
+      <c r="AI27" s="15">
         <v>1.3441171000000001</v>
       </c>
-      <c r="AJ27" s="12">
+      <c r="AJ27" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5968,92 +4212,92 @@
       <c r="I28" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="19">
         <f t="array" ref="L28">AVERAGE(ABS(L19:L25))</f>
         <v>125.4642857142845</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="25">
         <f t="array" ref="M28">M29</f>
         <v>2.476448142857143</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="25">
         <f t="shared" ref="N28" si="7">N29</f>
         <v>3.4237369999999996</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="22">
         <f t="array" ref="P28">AVERAGE(ABS(P19:P25))</f>
         <v>315.25142857142964</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="28">
         <f>Q29</f>
         <v>3.4394888888888892E-2</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="28">
         <f t="shared" ref="R28" si="8">R29</f>
         <v>7.3171888888888884E-2</v>
       </c>
-      <c r="T28" s="12" t="e">
+      <c r="T28" s="19" t="e">
         <f t="array" ref="T28">AVERAGE(ABS(T19:T25))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U28" s="12" t="e">
+      <c r="U28" s="25" t="e">
         <f>U29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V28" s="12" t="e">
+      <c r="V28" s="25" t="e">
         <f t="shared" ref="V28" si="9">V29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X28" s="1" t="e">
+      <c r="X28" s="22" t="e">
         <f t="array" ref="X28">AVERAGE(ABS(X19:X25))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y28" s="1" t="e">
+      <c r="Y28" s="28" t="e">
         <f>Y29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z28" s="1" t="e">
+      <c r="Z28" s="28" t="e">
         <f t="shared" ref="Z28" si="10">Z29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB28" s="12">
+      <c r="AB28" s="19">
         <f t="array" ref="AB28">AVERAGE(ABS(AB19:AB25))</f>
         <v>7471.6771428571465</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AC28" s="25">
         <f>AC29</f>
         <v>0.75164433333333336</v>
       </c>
-      <c r="AD28" s="12">
+      <c r="AD28" s="25">
         <f t="shared" ref="AD28" si="11">AD29</f>
         <v>0.79724555555555554</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AF28" s="22">
         <f t="array" ref="AF28">AVERAGE(ABS(AF19:AF25))</f>
         <v>841.70857142857415</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AG28" s="28">
         <f>AG29</f>
         <v>0.91906414285714277</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AH28" s="28">
         <f t="shared" ref="AH28" si="12">AH29</f>
         <v>1.0486714285714285</v>
       </c>
-      <c r="AJ28" s="12">
+      <c r="AJ28" s="19">
         <f t="array" ref="AJ28">AVERAGE(ABS(AJ19:AJ25))</f>
         <v>203.4900000000014</v>
       </c>
-      <c r="AK28" s="12">
+      <c r="AK28" s="25">
         <f>AK29</f>
         <v>2.7730857142857144E-2</v>
       </c>
-      <c r="AL28" s="12">
+      <c r="AL28" s="25">
         <f t="shared" ref="AL28" si="13">AL29</f>
         <v>2.9567571428571433E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" s="17" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -6061,90 +4305,98 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L29" s="17">
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="21">
         <f>AVERAGE(L19:L25)</f>
         <v>125.05285714285678</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="27">
         <f t="array" ref="M29">AVERAGE(M19:M25)</f>
         <v>2.476448142857143</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="27">
         <f>AVERAGE(N19:N25)</f>
         <v>3.4237369999999996</v>
       </c>
-      <c r="P29" s="17">
+      <c r="O29" s="14"/>
+      <c r="P29" s="21">
         <f>AVERAGE(P19:P25)</f>
         <v>-315.25142857142964</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="27">
         <f t="array" ref="Q29">AVERAGE(Q18:Q26)</f>
         <v>3.4394888888888892E-2</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="27">
         <f t="array" ref="R29">AVERAGE(R18:R26)</f>
         <v>7.3171888888888884E-2</v>
       </c>
-      <c r="T29" s="17" t="e">
+      <c r="S29" s="14"/>
+      <c r="T29" s="21" t="e">
         <f>AVERAGE(T19:T25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U29" s="17" t="e">
+      <c r="U29" s="27" t="e">
         <f>AVERAGE(U19:U25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V29" s="17" t="e">
+      <c r="V29" s="27" t="e">
         <f>AVERAGE(V19:V25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X29" s="17" t="e">
+      <c r="W29" s="14"/>
+      <c r="X29" s="21" t="e">
         <f>AVERAGE(X19:X25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y29" s="17" t="e">
+      <c r="Y29" s="27" t="e">
         <f>AVERAGE(Y19:Y25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z29" s="17" t="e">
+      <c r="Z29" s="27" t="e">
         <f>AVERAGE(Z19:Z25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB29" s="17">
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="21">
         <f>AVERAGE(AB19:AB25)</f>
         <v>-7471.6771428571465</v>
       </c>
-      <c r="AC29" s="17">
+      <c r="AC29" s="27">
         <f t="array" ref="AC29">AVERAGE(AC18:AC26)</f>
         <v>0.75164433333333336</v>
       </c>
-      <c r="AD29" s="17">
+      <c r="AD29" s="27">
         <f t="array" ref="AD29">AVERAGE(AD18:AD26)</f>
         <v>0.79724555555555554</v>
       </c>
-      <c r="AF29" s="17">
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="21">
         <f>AVERAGE(AF19:AF25)</f>
         <v>-841.70857142857415</v>
       </c>
-      <c r="AG29" s="17">
+      <c r="AG29" s="27">
         <f>AVERAGE(AG19:AG25)</f>
         <v>0.91906414285714277</v>
       </c>
-      <c r="AH29" s="17">
+      <c r="AH29" s="27">
         <f>AVERAGE(AH19:AH25)</f>
         <v>1.0486714285714285</v>
       </c>
-      <c r="AJ29" s="17">
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="21">
         <f>AVERAGE(AJ19:AJ25)</f>
         <v>201.14428571428789</v>
       </c>
-      <c r="AK29" s="17">
+      <c r="AK29" s="27">
         <f>AVERAGE(AK19:AK25)</f>
         <v>2.7730857142857144E-2</v>
       </c>
-      <c r="AL29" s="17">
+      <c r="AL29" s="27">
         <f>AVERAGE(AL19:AL25)</f>
         <v>2.9567571428571433E-2</v>
       </c>
@@ -6153,31 +4405,31 @@
       <c r="I30" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="19">
         <f>STDEV(L19:L25)</f>
         <v>61.044633319749266</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="22">
         <f>STDEV(P19:P25)</f>
         <v>57.388641857826215</v>
       </c>
-      <c r="T30" s="12" t="e">
+      <c r="T30" s="19" t="e">
         <f>STDEV(T19:T25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X30" s="1" t="e">
+      <c r="X30" s="22" t="e">
         <f>STDEV(X19:X25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB30" s="12">
+      <c r="AB30" s="19">
         <f>STDEV(AB19:AB25)</f>
         <v>1797.1997792279999</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AF30" s="22">
         <f>STDEV(AF19:AF25)</f>
         <v>160.10005261591462</v>
       </c>
-      <c r="AJ30" s="12">
+      <c r="AJ30" s="19">
         <f>STDEV(AJ19:AJ25)</f>
         <v>102.23785597927098</v>
       </c>
@@ -6186,313 +4438,313 @@
       <c r="I32" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="8" t="s">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="13" t="s">
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="8" t="s">
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="13" t="s">
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="8" t="s">
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="13" t="s">
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="13" t="s">
+      <c r="L33" s="7"/>
+      <c r="M33" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="9" t="s">
+      <c r="N33" s="24"/>
+      <c r="O33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="8" t="s">
+      <c r="P33" s="10"/>
+      <c r="Q33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="8"/>
-      <c r="S33" s="14" t="s">
+      <c r="R33" s="6"/>
+      <c r="S33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T33" s="14"/>
-      <c r="U33" s="13" t="s">
+      <c r="T33" s="7"/>
+      <c r="U33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V33" s="13"/>
-      <c r="W33" s="9" t="s">
+      <c r="V33" s="8"/>
+      <c r="W33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="8" t="s">
+      <c r="X33" s="10"/>
+      <c r="Y33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="14" t="s">
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="13" t="s">
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="9" t="s">
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="8" t="s">
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="14" t="s">
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="13" t="s">
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AL33" s="13"/>
+      <c r="AL33" s="8"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L34" s="15" t="s">
+      <c r="L34" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="M34" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="10" t="s">
+      <c r="O34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P34" s="10" t="s">
+      <c r="P34" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="S34" s="15" t="s">
+      <c r="S34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T34" s="15" t="s">
+      <c r="T34" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="U34" s="16" t="s">
+      <c r="U34" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V34" s="16" t="s">
+      <c r="V34" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="W34" s="10" t="s">
+      <c r="W34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="X34" s="10" t="s">
+      <c r="X34" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Y34" s="11" t="s">
+      <c r="Y34" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="11" t="s">
+      <c r="Z34" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AA34" s="15" t="s">
+      <c r="AA34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AB34" s="15" t="s">
+      <c r="AB34" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AC34" s="16" t="s">
+      <c r="AC34" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AD34" s="16" t="s">
+      <c r="AD34" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AE34" s="10" t="s">
+      <c r="AE34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AF34" s="10" t="s">
+      <c r="AF34" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AG34" s="11" t="s">
+      <c r="AG34" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AH34" s="11" t="s">
+      <c r="AH34" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AI34" s="15" t="s">
+      <c r="AI34" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AJ34" s="15" t="s">
+      <c r="AJ34" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AK34" s="16" t="s">
+      <c r="AK34" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AL34" s="16" t="s">
+      <c r="AL34" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="9"/>
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="11">
         <v>0.714333</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="15">
         <v>0.714333</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="19">
         <f>IF(K35="","",IF($J35="","",(K35-$J35)*100000))</f>
         <v>0</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="25">
         <v>0</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="25">
         <v>0</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="17">
         <v>0.714333</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="22">
         <f>IF(O35="","",IF($J35="","",(O35-$J35)*100000))</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="28">
         <v>0</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35" s="28">
         <v>0</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="15">
         <v>0.714333</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="19">
         <f>IF(S35="","",IF($J35="","",(S35-$J35)*100000))</f>
         <v>0</v>
       </c>
-      <c r="U35" s="12">
+      <c r="U35" s="25">
         <v>0</v>
       </c>
-      <c r="V35" s="12">
+      <c r="V35" s="25">
         <v>0</v>
       </c>
-      <c r="W35" s="1">
+      <c r="W35" s="17">
         <v>0.714333</v>
       </c>
-      <c r="X35" s="1">
+      <c r="X35" s="22">
         <f>IF(W35="","",IF($J35="","",(W35-$J35)*100000))</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Y35" s="28">
         <v>0</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="Z35" s="28">
         <v>0</v>
       </c>
-      <c r="AA35" s="12">
+      <c r="AA35" s="15">
         <v>0.714333</v>
       </c>
-      <c r="AB35" s="12">
+      <c r="AB35" s="19">
         <f>IF(AA35="","",IF($J35="","",(AA35-$J35)*100000))</f>
         <v>0</v>
       </c>
-      <c r="AC35" s="12">
+      <c r="AC35" s="25">
         <v>0</v>
       </c>
-      <c r="AD35" s="12">
+      <c r="AD35" s="25">
         <v>0</v>
       </c>
-      <c r="AE35" s="1">
+      <c r="AE35" s="17">
         <v>0.714333</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AF35" s="22">
         <f>IF(AE35="","",IF($J35="","",(AE35-$J35)*100000))</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AG35" s="28">
         <v>0</v>
       </c>
-      <c r="AH35" s="1">
+      <c r="AH35" s="28">
         <v>0</v>
       </c>
-      <c r="AI35" s="12">
+      <c r="AI35" s="15">
         <v>0.714333</v>
       </c>
-      <c r="AJ35" s="12">
+      <c r="AJ35" s="19">
         <f>IF(AI35="","",IF($J35="","",(AI35-$J35)*100000))</f>
         <v>0</v>
       </c>
-      <c r="AK35" s="12">
+      <c r="AK35" s="25">
         <v>0</v>
       </c>
-      <c r="AL35" s="12">
+      <c r="AL35" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
+      <c r="B36" s="9"/>
       <c r="C36" t="s">
         <v>39</v>
       </c>
@@ -6522,98 +4774,98 @@
       <c r="I37">
         <v>2</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="11">
         <v>0.7615073</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="15">
         <v>0.76069399999999998</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="19">
         <f t="shared" ref="L37:L45" si="14">IF(K37="","",IF($J37="","",(K37-$J37)*100000))</f>
         <v>-81.330000000001675</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="25">
         <v>6.5040000000000001E-2</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="25">
         <v>0.28442299999999998</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="17">
         <v>0.76139000000000001</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="22">
         <f t="shared" ref="P37:P45" si="15">IF(O37="","",IF($J37="","",(O37-$J37)*100000))</f>
         <v>-11.729999999998686</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="28">
         <v>1.5421000000000001E-2</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37" s="28">
         <v>6.5907999999999994E-2</v>
       </c>
-      <c r="S37" s="12">
+      <c r="S37" s="15">
         <v>0.76168800000000003</v>
       </c>
-      <c r="T37" s="12">
+      <c r="T37" s="19">
         <f t="shared" ref="T37:T45" si="16">IF(S37="","",IF($J37="","",(S37-$J37)*100000))</f>
         <v>18.070000000003361</v>
       </c>
-      <c r="U37" s="12">
+      <c r="U37" s="25">
         <v>6.3461000000000004E-2</v>
       </c>
-      <c r="V37" s="12">
+      <c r="V37" s="25">
         <v>0.393872</v>
       </c>
-      <c r="W37" s="1">
+      <c r="W37" s="17">
         <v>0.76173299999999999</v>
       </c>
-      <c r="X37" s="1">
+      <c r="X37" s="22">
         <f t="shared" ref="X37:X45" si="17">IF(W37="","",IF($J37="","",(W37-$J37)*100000))</f>
         <v>22.569999999999535</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Y37" s="28">
         <v>6.8539000000000003E-2</v>
       </c>
-      <c r="Z37" s="1">
+      <c r="Z37" s="28">
         <v>0.41717599999999999</v>
       </c>
-      <c r="AA37" s="12">
+      <c r="AA37" s="15">
         <v>0.73840499999999998</v>
       </c>
-      <c r="AB37" s="12">
+      <c r="AB37" s="19">
         <f t="shared" ref="AB37:AB45" si="18">IF(AA37="","",IF($J37="","",(AA37-$J37)*100000))</f>
         <v>-2310.2300000000018</v>
       </c>
-      <c r="AC37" s="12">
+      <c r="AC37" s="25">
         <v>2.1231939999999998</v>
       </c>
-      <c r="AD37" s="12">
+      <c r="AD37" s="25">
         <v>9.7894469999999991</v>
       </c>
-      <c r="AE37" s="1">
+      <c r="AE37" s="17">
         <v>0.75221499999999997</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AF37" s="22">
         <f t="shared" ref="AF37:AF45" si="19">IF(AE37="","",IF($J37="","",(AE37-$J37)*100000))</f>
         <v>-929.23000000000309</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AG37" s="28">
         <v>0.82325000000000004</v>
       </c>
-      <c r="AH37" s="1">
+      <c r="AH37" s="28">
         <v>3.7843819999999999</v>
       </c>
-      <c r="AI37" s="12">
+      <c r="AI37" s="15">
         <v>0.75727299999999997</v>
       </c>
-      <c r="AJ37" s="12">
+      <c r="AJ37" s="19">
         <f t="shared" ref="AJ37:AJ45" si="20">IF(AI37="","",IF($J37="","",(AI37-$J37)*100000))</f>
         <v>-423.43000000000239</v>
       </c>
-      <c r="AK37" s="12">
+      <c r="AK37" s="25">
         <v>0.31305899999999998</v>
       </c>
-      <c r="AL37" s="12">
+      <c r="AL37" s="25">
         <v>1.532589</v>
       </c>
     </row>
@@ -6636,98 +4888,98 @@
       <c r="I38">
         <v>3</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="11">
         <v>0.78819050000000002</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="15">
         <v>0.78730100000000003</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="19">
         <f t="shared" si="14"/>
         <v>-88.949999999998752</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="25">
         <v>6.5447000000000005E-2</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="25">
         <v>0.26334099999999999</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="17">
         <v>0.78810999999999998</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="22">
         <f t="shared" si="15"/>
         <v>-8.0500000000038874</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="28">
         <v>2.1235E-2</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="28">
         <v>9.1209999999999999E-2</v>
       </c>
-      <c r="S38" s="12">
+      <c r="S38" s="15">
         <v>0.78847100000000003</v>
       </c>
-      <c r="T38" s="12">
+      <c r="T38" s="19">
         <f t="shared" si="16"/>
         <v>28.050000000001685</v>
       </c>
-      <c r="U38" s="12">
+      <c r="U38" s="25">
         <v>5.9329E-2</v>
       </c>
-      <c r="V38" s="12">
+      <c r="V38" s="25">
         <v>0.350721</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="17">
         <v>0.78852599999999995</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X38" s="22">
         <f t="shared" si="17"/>
         <v>33.549999999993304</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y38" s="28">
         <v>6.1582999999999999E-2</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="Z38" s="28">
         <v>0.35978199999999999</v>
       </c>
-      <c r="AA38" s="12">
+      <c r="AA38" s="15">
         <v>0.75298399999999999</v>
       </c>
-      <c r="AB38" s="12">
+      <c r="AB38" s="19">
         <f t="shared" si="18"/>
         <v>-3520.6500000000028</v>
       </c>
-      <c r="AC38" s="12">
+      <c r="AC38" s="25">
         <v>3.027736</v>
       </c>
-      <c r="AD38" s="12">
+      <c r="AD38" s="25">
         <v>13.840217000000001</v>
       </c>
-      <c r="AE38" s="1">
+      <c r="AE38" s="17">
         <v>0.776725</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="22">
         <f t="shared" si="19"/>
         <v>-1146.5500000000018</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AG38" s="28">
         <v>0.92301699999999998</v>
       </c>
-      <c r="AH38" s="1">
+      <c r="AH38" s="28">
         <v>4.2122770000000003</v>
       </c>
-      <c r="AI38" s="12">
+      <c r="AI38" s="15">
         <v>0.78511799999999998</v>
       </c>
-      <c r="AJ38" s="12">
+      <c r="AJ38" s="19">
         <f t="shared" si="20"/>
         <v>-307.25000000000335</v>
       </c>
-      <c r="AK38" s="12">
+      <c r="AK38" s="25">
         <v>0.186612</v>
       </c>
-      <c r="AL38" s="12">
+      <c r="AL38" s="25">
         <v>0.91347699999999998</v>
       </c>
     </row>
@@ -6750,98 +5002,98 @@
       <c r="I39">
         <v>4</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="11">
         <v>0.81419629999999998</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="15">
         <v>0.81326799999999999</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="19">
         <f t="shared" si="14"/>
         <v>-92.829999999999302</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="25">
         <v>6.3501000000000002E-2</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="25">
         <v>0.24087500000000001</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="17">
         <v>0.81406900000000004</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="22">
         <f t="shared" si="15"/>
         <v>-12.729999999994135</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="28">
         <v>2.2783999999999999E-2</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="28">
         <v>0.100257</v>
       </c>
-      <c r="S39" s="12">
+      <c r="S39" s="15">
         <v>0.81444899999999998</v>
       </c>
-      <c r="T39" s="12">
+      <c r="T39" s="19">
         <f t="shared" si="16"/>
         <v>25.26999999999946</v>
       </c>
-      <c r="U39" s="12">
+      <c r="U39" s="25">
         <v>5.2803999999999997E-2</v>
       </c>
-      <c r="V39" s="12">
+      <c r="V39" s="25">
         <v>0.30597800000000003</v>
       </c>
-      <c r="W39" s="1">
+      <c r="W39" s="17">
         <v>0.81450699999999998</v>
       </c>
-      <c r="X39" s="1">
+      <c r="X39" s="22">
         <f t="shared" si="17"/>
         <v>31.069999999999709</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Y39" s="28">
         <v>5.3885000000000002E-2</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="Z39" s="28">
         <v>0.30954300000000001</v>
       </c>
-      <c r="AA39" s="12">
+      <c r="AA39" s="15">
         <v>0.76976900000000004</v>
       </c>
-      <c r="AB39" s="12">
+      <c r="AB39" s="19">
         <f t="shared" si="18"/>
         <v>-4442.729999999995</v>
       </c>
-      <c r="AC39" s="12">
+      <c r="AC39" s="25">
         <v>3.5731860000000002</v>
       </c>
-      <c r="AD39" s="12">
+      <c r="AD39" s="25">
         <v>16.197063</v>
       </c>
-      <c r="AE39" s="1">
+      <c r="AE39" s="17">
         <v>0.80210700000000001</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AF39" s="22">
         <f t="shared" si="19"/>
         <v>-1208.9299999999969</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AG39" s="28">
         <v>0.88732100000000003</v>
       </c>
-      <c r="AH39" s="1">
+      <c r="AH39" s="28">
         <v>4.0225109999999997</v>
       </c>
-      <c r="AI39" s="12">
+      <c r="AI39" s="15">
         <v>0.81197299999999994</v>
       </c>
-      <c r="AJ39" s="12">
+      <c r="AJ39" s="19">
         <f t="shared" si="20"/>
         <v>-222.33000000000391</v>
       </c>
-      <c r="AK39" s="12">
+      <c r="AK39" s="25">
         <v>0.109933</v>
       </c>
-      <c r="AL39" s="12">
+      <c r="AL39" s="25">
         <v>0.52872399999999997</v>
       </c>
     </row>
@@ -6864,98 +5116,98 @@
       <c r="I40">
         <v>5</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="11">
         <v>0.83931</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="15">
         <v>0.83836599999999994</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="19">
         <f t="shared" si="14"/>
         <v>-94.400000000005591</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="25">
         <v>6.0196E-2</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="25">
         <v>0.22547600000000001</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="17">
         <v>0.83907200000000004</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="22">
         <f t="shared" si="15"/>
         <v>-23.799999999996047</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="28">
         <v>2.3983999999999998E-2</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="28">
         <v>9.6909999999999996E-2</v>
       </c>
-      <c r="S40" s="12">
+      <c r="S40" s="15">
         <v>0.83943699999999999</v>
       </c>
-      <c r="T40" s="12">
+      <c r="T40" s="19">
         <f t="shared" si="16"/>
         <v>12.699999999998823</v>
       </c>
-      <c r="U40" s="12">
+      <c r="U40" s="25">
         <v>4.5649000000000002E-2</v>
       </c>
-      <c r="V40" s="12">
+      <c r="V40" s="25">
         <v>0.26813199999999998</v>
       </c>
-      <c r="W40" s="1">
+      <c r="W40" s="17">
         <v>0.83949399999999996</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X40" s="22">
         <f t="shared" si="17"/>
         <v>18.399999999996197</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Y40" s="28">
         <v>4.6740999999999998E-2</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="Z40" s="28">
         <v>0.27348800000000001</v>
       </c>
-      <c r="AA40" s="12">
+      <c r="AA40" s="15">
         <v>0.78930500000000003</v>
       </c>
-      <c r="AB40" s="12">
+      <c r="AB40" s="19">
         <f t="shared" si="18"/>
         <v>-5000.4999999999964</v>
       </c>
-      <c r="AC40" s="12">
+      <c r="AC40" s="25">
         <v>3.759442</v>
       </c>
-      <c r="AD40" s="12">
+      <c r="AD40" s="25">
         <v>16.897435999999999</v>
       </c>
-      <c r="AE40" s="1">
+      <c r="AE40" s="17">
         <v>0.82758900000000002</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AF40" s="22">
         <f t="shared" si="19"/>
         <v>-1172.0999999999981</v>
       </c>
-      <c r="AG40" s="1">
+      <c r="AG40" s="28">
         <v>0.79040299999999997</v>
       </c>
-      <c r="AH40" s="1">
+      <c r="AH40" s="28">
         <v>3.5599349999999998</v>
       </c>
-      <c r="AI40" s="12">
+      <c r="AI40" s="15">
         <v>0.83773600000000004</v>
       </c>
-      <c r="AJ40" s="12">
+      <c r="AJ40" s="19">
         <f t="shared" si="20"/>
         <v>-157.39999999999642</v>
       </c>
-      <c r="AK40" s="12">
+      <c r="AK40" s="25">
         <v>6.6779000000000005E-2</v>
       </c>
-      <c r="AL40" s="12">
+      <c r="AL40" s="25">
         <v>0.29288799999999998</v>
       </c>
     </row>
@@ -6978,98 +5230,98 @@
       <c r="I41">
         <v>6</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="11">
         <v>0.86361679999999996</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="15">
         <v>0.86268400000000001</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="19">
         <f t="shared" si="14"/>
         <v>-93.279999999995596</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="25">
         <v>5.5357999999999997E-2</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="25">
         <v>0.21285200000000001</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="17">
         <v>0.86322100000000002</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="22">
         <f t="shared" si="15"/>
         <v>-39.579999999994619</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="28">
         <v>2.8663999999999999E-2</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="28">
         <v>0.10822900000000001</v>
       </c>
-      <c r="S41" s="12">
+      <c r="S41" s="15">
         <v>0.86354600000000004</v>
       </c>
-      <c r="T41" s="12">
+      <c r="T41" s="19">
         <f t="shared" si="16"/>
         <v>-7.0799999999926477</v>
       </c>
-      <c r="U41" s="12">
+      <c r="U41" s="25">
         <v>4.0404000000000002E-2</v>
       </c>
-      <c r="V41" s="12">
+      <c r="V41" s="25">
         <v>0.237678</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W41" s="17">
         <v>0.86359699999999995</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X41" s="22">
         <f t="shared" si="17"/>
         <v>-1.9800000000014251</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Y41" s="28">
         <v>4.1871999999999999E-2</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="Z41" s="28">
         <v>0.250334</v>
       </c>
-      <c r="AA41" s="12">
+      <c r="AA41" s="15">
         <v>0.81234600000000001</v>
       </c>
-      <c r="AB41" s="12">
+      <c r="AB41" s="19">
         <f t="shared" si="18"/>
         <v>-5127.0799999999954</v>
       </c>
-      <c r="AC41" s="12">
+      <c r="AC41" s="25">
         <v>3.5982430000000001</v>
       </c>
-      <c r="AD41" s="12">
+      <c r="AD41" s="25">
         <v>16.031217999999999</v>
       </c>
-      <c r="AE41" s="1">
+      <c r="AE41" s="17">
         <v>0.85297400000000001</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AF41" s="22">
         <f t="shared" si="19"/>
         <v>-1064.2799999999952</v>
       </c>
-      <c r="AG41" s="1">
+      <c r="AG41" s="28">
         <v>0.66492700000000005</v>
       </c>
-      <c r="AH41" s="1">
+      <c r="AH41" s="28">
         <v>2.9751759999999998</v>
       </c>
-      <c r="AI41" s="12">
+      <c r="AI41" s="15">
         <v>0.86256600000000005</v>
       </c>
-      <c r="AJ41" s="12">
+      <c r="AJ41" s="19">
         <f t="shared" si="20"/>
         <v>-105.07999999999073</v>
       </c>
-      <c r="AK41" s="12">
+      <c r="AK41" s="25">
         <v>4.8739999999999999E-2</v>
       </c>
-      <c r="AL41" s="12">
+      <c r="AL41" s="25">
         <v>0.148752</v>
       </c>
     </row>
@@ -7092,98 +5344,98 @@
       <c r="I42">
         <v>7</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="11">
         <v>0.88736159999999997</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="15">
         <v>0.88646100000000005</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="19">
         <f t="shared" si="14"/>
         <v>-90.059999999991817</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="25">
         <v>5.0904999999999999E-2</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="25">
         <v>0.20643</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="17">
         <v>0.88677099999999998</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="22">
         <f t="shared" si="15"/>
         <v>-59.059999999999668</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="28">
         <v>3.7329000000000001E-2</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="28">
         <v>0.16051599999999999</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="15">
         <v>0.88703500000000002</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="19">
         <f t="shared" si="16"/>
         <v>-32.65999999999547</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="25">
         <v>4.0314999999999997E-2</v>
       </c>
-      <c r="V42" s="12">
+      <c r="V42" s="25">
         <v>0.21501100000000001</v>
       </c>
-      <c r="W42" s="1">
+      <c r="W42" s="17">
         <v>0.88707599999999998</v>
       </c>
-      <c r="X42" s="1">
+      <c r="X42" s="22">
         <f t="shared" si="17"/>
         <v>-28.559999999999697</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="Y42" s="28">
         <v>4.1765999999999998E-2</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="Z42" s="28">
         <v>0.24022299999999999</v>
       </c>
-      <c r="AA42" s="12">
+      <c r="AA42" s="15">
         <v>0.83995900000000001</v>
       </c>
-      <c r="AB42" s="12">
+      <c r="AB42" s="19">
         <f t="shared" si="18"/>
         <v>-4740.2599999999966</v>
       </c>
-      <c r="AC42" s="12">
+      <c r="AC42" s="25">
         <v>3.097089</v>
       </c>
-      <c r="AD42" s="12">
+      <c r="AD42" s="25">
         <v>13.670363999999999</v>
       </c>
-      <c r="AE42" s="1">
+      <c r="AE42" s="17">
         <v>0.87834599999999996</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AF42" s="22">
         <f t="shared" si="19"/>
         <v>-901.5600000000012</v>
       </c>
-      <c r="AG42" s="1">
+      <c r="AG42" s="28">
         <v>0.526814</v>
       </c>
-      <c r="AH42" s="1">
+      <c r="AH42" s="28">
         <v>2.3412679999999999</v>
       </c>
-      <c r="AI42" s="12">
+      <c r="AI42" s="15">
         <v>0.88675999999999999</v>
       </c>
-      <c r="AJ42" s="12">
+      <c r="AJ42" s="19">
         <f t="shared" si="20"/>
         <v>-60.159999999997993</v>
       </c>
-      <c r="AK42" s="12">
+      <c r="AK42" s="25">
         <v>4.9334999999999997E-2</v>
       </c>
-      <c r="AL42" s="12">
+      <c r="AL42" s="25">
         <v>0.18621299999999999</v>
       </c>
     </row>
@@ -7206,98 +5458,98 @@
       <c r="I43">
         <v>8</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="11">
         <v>0.91103299999999998</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="15">
         <v>0.91013100000000002</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="19">
         <f t="shared" si="14"/>
         <v>-90.199999999995839</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="25">
         <v>4.8271000000000001E-2</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="25">
         <v>0.207619</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="17">
         <v>0.91020199999999996</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="22">
         <f t="shared" si="15"/>
         <v>-83.100000000002609</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43" s="28">
         <v>4.7684999999999998E-2</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43" s="28">
         <v>0.21012500000000001</v>
       </c>
-      <c r="S43" s="12">
+      <c r="S43" s="15">
         <v>0.910389</v>
       </c>
-      <c r="T43" s="12">
+      <c r="T43" s="19">
         <f t="shared" si="16"/>
         <v>-64.399999999997789</v>
       </c>
-      <c r="U43" s="12">
+      <c r="U43" s="25">
         <v>4.5876E-2</v>
       </c>
-      <c r="V43" s="12">
+      <c r="V43" s="25">
         <v>0.19853499999999999</v>
       </c>
-      <c r="W43" s="1">
+      <c r="W43" s="17">
         <v>0.91041899999999998</v>
       </c>
-      <c r="X43" s="1">
+      <c r="X43" s="22">
         <f t="shared" si="17"/>
         <v>-61.400000000000347</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="Y43" s="28">
         <v>4.6723000000000001E-2</v>
       </c>
-      <c r="Z43" s="1">
+      <c r="Z43" s="28">
         <v>0.240869</v>
       </c>
-      <c r="AA43" s="12">
+      <c r="AA43" s="15">
         <v>0.87371600000000005</v>
       </c>
-      <c r="AB43" s="12">
+      <c r="AB43" s="19">
         <f t="shared" si="18"/>
         <v>-3731.6999999999935</v>
       </c>
-      <c r="AC43" s="12">
+      <c r="AC43" s="25">
         <v>2.258419</v>
       </c>
-      <c r="AD43" s="12">
+      <c r="AD43" s="25">
         <v>9.8680050000000001</v>
       </c>
-      <c r="AE43" s="1">
+      <c r="AE43" s="17">
         <v>0.90399399999999996</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AF43" s="22">
         <f t="shared" si="19"/>
         <v>-703.9000000000018</v>
       </c>
-      <c r="AG43" s="1">
+      <c r="AG43" s="28">
         <v>0.388519</v>
       </c>
-      <c r="AH43" s="1">
+      <c r="AH43" s="28">
         <v>1.7129799999999999</v>
       </c>
-      <c r="AI43" s="12">
+      <c r="AI43" s="15">
         <v>0.91082300000000005</v>
       </c>
-      <c r="AJ43" s="12">
+      <c r="AJ43" s="19">
         <f t="shared" si="20"/>
         <v>-20.999999999993246</v>
       </c>
-      <c r="AK43" s="12">
+      <c r="AK43" s="25">
         <v>5.8542999999999998E-2</v>
       </c>
-      <c r="AL43" s="12">
+      <c r="AL43" s="25">
         <v>0.23160500000000001</v>
       </c>
     </row>
@@ -7310,98 +5562,98 @@
       <c r="I45">
         <v>10</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="11">
         <v>0.97082539999999995</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="15">
         <v>0.97082500000000005</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="19">
         <f t="shared" si="14"/>
         <v>-3.9999999990047996E-2</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="25">
         <v>0</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="25">
         <v>0</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="17">
         <v>0.97082500000000005</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="22">
         <f t="shared" si="15"/>
         <v>-3.9999999990047996E-2</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="28">
         <v>0</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="28">
         <v>0</v>
       </c>
-      <c r="S45" s="12">
+      <c r="S45" s="15">
         <v>0.97082500000000005</v>
       </c>
-      <c r="T45" s="12">
+      <c r="T45" s="19">
         <f t="shared" si="16"/>
         <v>-3.9999999990047996E-2</v>
       </c>
-      <c r="U45" s="12">
+      <c r="U45" s="25">
         <v>0</v>
       </c>
-      <c r="V45" s="12">
+      <c r="V45" s="25">
         <v>0</v>
       </c>
-      <c r="W45" s="1">
+      <c r="W45" s="17">
         <v>0.97082500000000005</v>
       </c>
-      <c r="X45" s="1">
+      <c r="X45" s="22">
         <f t="shared" si="17"/>
         <v>-3.9999999990047996E-2</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="Y45" s="28">
         <v>0</v>
       </c>
-      <c r="Z45" s="1">
+      <c r="Z45" s="28">
         <v>0</v>
       </c>
-      <c r="AA45" s="12">
+      <c r="AA45" s="15">
         <v>0.97082500000000005</v>
       </c>
-      <c r="AB45" s="12">
+      <c r="AB45" s="19">
         <f t="shared" si="18"/>
         <v>-3.9999999990047996E-2</v>
       </c>
-      <c r="AC45" s="12">
+      <c r="AC45" s="25">
         <v>0</v>
       </c>
-      <c r="AD45" s="12">
+      <c r="AD45" s="25">
         <v>0</v>
       </c>
-      <c r="AE45" s="1">
+      <c r="AE45" s="17">
         <v>0.97082500000000005</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="AF45" s="22">
         <f t="shared" si="19"/>
         <v>-3.9999999990047996E-2</v>
       </c>
-      <c r="AG45" s="1">
+      <c r="AG45" s="28">
         <v>0</v>
       </c>
-      <c r="AH45" s="1">
+      <c r="AH45" s="28">
         <v>0</v>
       </c>
-      <c r="AI45" s="12">
+      <c r="AI45" s="15">
         <v>0.97082500000000005</v>
       </c>
-      <c r="AJ45" s="12">
+      <c r="AJ45" s="19">
         <f t="shared" si="20"/>
         <v>-3.9999999990047996E-2</v>
       </c>
-      <c r="AK45" s="12">
+      <c r="AK45" s="25">
         <v>0</v>
       </c>
-      <c r="AL45" s="12">
+      <c r="AL45" s="25">
         <v>0</v>
       </c>
     </row>
@@ -7409,87 +5661,87 @@
       <c r="I46" t="s">
         <v>44</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="19">
         <f t="array" ref="L46">AVERAGE(ABS(L37:L43))</f>
         <v>90.149999999998371</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="25">
         <f>M47</f>
         <v>5.8388285714285719E-2</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="25">
         <f t="shared" ref="N46" si="21">N47</f>
         <v>0.23443085714285711</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="22">
         <f t="array" ref="P46">AVERAGE(ABS(P37:P43))</f>
         <v>34.007142857141375</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="28">
         <f>Q47</f>
         <v>2.8157428571428573E-2</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46" s="28">
         <f t="shared" ref="R46" si="22">R47</f>
         <v>0.11902214285714285</v>
       </c>
-      <c r="T46" s="12">
+      <c r="T46" s="19">
         <f t="array" ref="T46">AVERAGE(ABS(T37:T43))</f>
         <v>26.889999999998462</v>
       </c>
-      <c r="U46" s="12">
+      <c r="U46" s="25">
         <f>U47</f>
         <v>4.9691142857142857E-2</v>
       </c>
-      <c r="V46" s="12">
+      <c r="V46" s="25">
         <f t="shared" ref="V46" si="23">V47</f>
         <v>0.28141814285714289</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X46" s="22">
         <f t="array" ref="X46">AVERAGE(ABS(X37:X43))</f>
         <v>28.218571428570034</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="Y46" s="28">
         <f>Y47</f>
         <v>5.1587000000000008E-2</v>
       </c>
-      <c r="Z46" s="1">
+      <c r="Z46" s="28">
         <f t="shared" ref="Z46" si="24">Z47</f>
         <v>0.29877357142857147</v>
       </c>
-      <c r="AB46" s="12">
+      <c r="AB46" s="19">
         <f t="array" ref="AB46">AVERAGE(ABS(AB37:AB43))</f>
         <v>4124.7357142857118</v>
       </c>
-      <c r="AC46" s="12">
+      <c r="AC46" s="25">
         <f>AC47</f>
         <v>3.0624727142857142</v>
       </c>
-      <c r="AD46" s="12">
+      <c r="AD46" s="25">
         <f t="shared" ref="AD46" si="25">AD47</f>
         <v>13.75625</v>
       </c>
-      <c r="AF46" s="1">
+      <c r="AF46" s="22">
         <f t="array" ref="AF46">AVERAGE(ABS(AF37:AF43))</f>
         <v>1018.0785714285711</v>
       </c>
-      <c r="AG46" s="1">
+      <c r="AG46" s="28">
         <f>AG47</f>
         <v>0.71489299999999989</v>
       </c>
-      <c r="AH46" s="1">
+      <c r="AH46" s="28">
         <f t="shared" ref="AH46" si="26">AH47</f>
         <v>3.2297898571428569</v>
       </c>
-      <c r="AJ46" s="12">
+      <c r="AJ46" s="19">
         <f t="array" ref="AJ46">AVERAGE(ABS(AJ37:AJ43))</f>
         <v>185.23571428571259</v>
       </c>
-      <c r="AK46" s="12">
+      <c r="AK46" s="25">
         <f>AK47</f>
         <v>0.11900014285714287</v>
       </c>
-      <c r="AL46" s="12">
+      <c r="AL46" s="25">
         <f t="shared" ref="AL46" si="27">AL47</f>
         <v>0.54774971428571428</v>
       </c>
@@ -7498,87 +5750,87 @@
       <c r="I47" t="s">
         <v>46</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="19">
         <f>AVERAGE(L37:L43)</f>
         <v>-90.149999999998371</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="25">
         <f>AVERAGE(M37:M43)</f>
         <v>5.8388285714285719E-2</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="25">
         <f>AVERAGE(N37:N43)</f>
         <v>0.23443085714285711</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="22">
         <f>AVERAGE(P37:P43)</f>
         <v>-34.007142857141375</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="28">
         <f>AVERAGE(Q37:Q43)</f>
         <v>2.8157428571428573E-2</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47" s="28">
         <f>AVERAGE(R37:R43)</f>
         <v>0.11902214285714285</v>
       </c>
-      <c r="T47" s="12">
+      <c r="T47" s="19">
         <f>AVERAGE(T37:T43)</f>
         <v>-2.8642857142832261</v>
       </c>
-      <c r="U47" s="12">
+      <c r="U47" s="25">
         <f>AVERAGE(U37:U43)</f>
         <v>4.9691142857142857E-2</v>
       </c>
-      <c r="V47" s="12">
+      <c r="V47" s="25">
         <f>AVERAGE(V37:V43)</f>
         <v>0.28141814285714289</v>
       </c>
-      <c r="X47" s="1">
+      <c r="X47" s="22">
         <f>AVERAGE(X37:X43)</f>
         <v>1.9499999999981819</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="Y47" s="28">
         <f>AVERAGE(Y37:Y43)</f>
         <v>5.1587000000000008E-2</v>
       </c>
-      <c r="Z47" s="1">
+      <c r="Z47" s="28">
         <f>AVERAGE(Z37:Z43)</f>
         <v>0.29877357142857147</v>
       </c>
-      <c r="AB47" s="12">
+      <c r="AB47" s="19">
         <f>AVERAGE(AB37:AB43)</f>
         <v>-4124.7357142857118</v>
       </c>
-      <c r="AC47" s="12">
+      <c r="AC47" s="25">
         <f>AVERAGE(AC37:AC43)</f>
         <v>3.0624727142857142</v>
       </c>
-      <c r="AD47" s="12">
+      <c r="AD47" s="25">
         <f>AVERAGE(AD37:AD43)</f>
         <v>13.75625</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AF47" s="22">
         <f>AVERAGE(AF37:AF43)</f>
         <v>-1018.0785714285711</v>
       </c>
-      <c r="AG47" s="1">
+      <c r="AG47" s="28">
         <f>AVERAGE(AG37:AG43)</f>
         <v>0.71489299999999989</v>
       </c>
-      <c r="AH47" s="1">
+      <c r="AH47" s="28">
         <f>AVERAGE(AH37:AH43)</f>
         <v>3.2297898571428569</v>
       </c>
-      <c r="AJ47" s="12">
+      <c r="AJ47" s="19">
         <f>AVERAGE(AJ37:AJ43)</f>
         <v>-185.23571428571259</v>
       </c>
-      <c r="AK47" s="12">
+      <c r="AK47" s="25">
         <f>AVERAGE(AK37:AK43)</f>
         <v>0.11900014285714287</v>
       </c>
-      <c r="AL47" s="12">
+      <c r="AL47" s="25">
         <f>AVERAGE(AL37:AL43)</f>
         <v>0.54774971428571428</v>
       </c>
@@ -7587,31 +5839,31 @@
       <c r="I48" t="s">
         <v>47</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="19">
         <f>STDEV(L37:L43)</f>
         <v>4.3643403472535365</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="22">
         <f>STDEV(P37:P43)</f>
         <v>28.271770204149789</v>
       </c>
-      <c r="T48" s="12">
+      <c r="T48" s="19">
         <f>STDEV(T37:T43)</f>
         <v>34.447843114453832</v>
       </c>
-      <c r="X48" s="1">
+      <c r="X48" s="22">
         <f>STDEV(X37:X43)</f>
         <v>35.359696454201099</v>
       </c>
-      <c r="AB48" s="12">
+      <c r="AB48" s="19">
         <f>STDEV(AB37:AB43)</f>
         <v>1005.2756896635689</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AF48" s="22">
         <f>STDEV(AF37:AF43)</f>
         <v>182.10123973846265</v>
       </c>
-      <c r="AJ48" s="12">
+      <c r="AJ48" s="19">
         <f>STDEV(AJ37:AJ43)</f>
         <v>143.07169494781004</v>
       </c>
@@ -7620,313 +5872,313 @@
       <c r="I51" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="K51" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="8" t="s">
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="13" t="s">
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="8" t="s">
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="13" t="s">
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="8" t="s">
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8"/>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="13" t="s">
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AJ51" s="13"/>
-      <c r="AK51" s="13"/>
-      <c r="AL51" s="13"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
         <v>45</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K52" s="14" t="s">
+      <c r="K52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="13" t="s">
+      <c r="L52" s="7"/>
+      <c r="M52" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N52" s="13"/>
-      <c r="O52" s="9" t="s">
+      <c r="N52" s="24"/>
+      <c r="O52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="8" t="s">
+      <c r="P52" s="10"/>
+      <c r="Q52" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R52" s="8"/>
-      <c r="S52" s="14" t="s">
+      <c r="R52" s="6"/>
+      <c r="S52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T52" s="14"/>
-      <c r="U52" s="13" t="s">
+      <c r="T52" s="7"/>
+      <c r="U52" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V52" s="13"/>
-      <c r="W52" s="9" t="s">
+      <c r="V52" s="8"/>
+      <c r="W52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="8" t="s">
+      <c r="X52" s="10"/>
+      <c r="Y52" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="14" t="s">
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB52" s="14"/>
-      <c r="AC52" s="13" t="s">
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="9" t="s">
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="8" t="s">
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="14" t="s">
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AJ52" s="14"/>
-      <c r="AK52" s="13" t="s">
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AL52" s="13"/>
+      <c r="AL52" s="8"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="K53" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L53" s="15" t="s">
+      <c r="L53" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M53" s="16" t="s">
+      <c r="M53" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N53" s="16" t="s">
+      <c r="N53" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="O53" s="10" t="s">
+      <c r="O53" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P53" s="10" t="s">
+      <c r="P53" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="S53" s="15" t="s">
+      <c r="S53" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T53" s="15" t="s">
+      <c r="T53" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="U53" s="16" t="s">
+      <c r="U53" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V53" s="16" t="s">
+      <c r="V53" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="W53" s="10" t="s">
+      <c r="W53" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="X53" s="10" t="s">
+      <c r="X53" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Y53" s="11" t="s">
+      <c r="Y53" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Z53" s="11" t="s">
+      <c r="Z53" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AA53" s="15" t="s">
+      <c r="AA53" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AB53" s="15" t="s">
+      <c r="AB53" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AC53" s="16" t="s">
+      <c r="AC53" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AD53" s="16" t="s">
+      <c r="AD53" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AE53" s="10" t="s">
+      <c r="AE53" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AF53" s="10" t="s">
+      <c r="AF53" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AG53" s="11" t="s">
+      <c r="AG53" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AH53" s="11" t="s">
+      <c r="AH53" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AI53" s="15" t="s">
+      <c r="AI53" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AJ53" s="15" t="s">
+      <c r="AJ53" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AK53" s="16" t="s">
+      <c r="AK53" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AL53" s="16" t="s">
+      <c r="AL53" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="9"/>
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="11">
         <v>1.0603891000000001</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K54" s="15">
         <v>1.060389</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="19">
         <f>IF(K54="","",IF($J54="","",(K54-$J54)*100000))</f>
         <v>-1.0000000005838672E-2</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M54" s="25">
         <v>0</v>
       </c>
-      <c r="N54" s="12">
+      <c r="N54" s="25">
         <v>0</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54" s="17">
         <v>1.060389</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P54" s="22">
         <f>IF(O54="","",IF($J54="","",(O54-$J54)*100000))</f>
         <v>-1.0000000005838672E-2</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54" s="28">
         <v>0</v>
       </c>
-      <c r="R54" s="1">
+      <c r="R54" s="28">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="S54" s="12">
+      <c r="S54" s="15">
         <v>1.060389</v>
       </c>
-      <c r="T54" s="12">
+      <c r="T54" s="19">
         <f>IF(S54="","",IF($J54="","",(S54-$J54)*100000))</f>
         <v>-1.0000000005838672E-2</v>
       </c>
-      <c r="U54" s="12">
+      <c r="U54" s="25">
         <v>0</v>
       </c>
-      <c r="V54" s="12">
+      <c r="V54" s="25">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="W54" s="1">
+      <c r="W54" s="17">
         <v>1.060389</v>
       </c>
-      <c r="X54" s="1">
+      <c r="X54" s="22">
         <f>IF(W54="","",IF($J54="","",(W54-$J54)*100000))</f>
         <v>-1.0000000005838672E-2</v>
       </c>
-      <c r="Y54" s="1">
+      <c r="Y54" s="28">
         <v>0</v>
       </c>
-      <c r="Z54" s="1">
+      <c r="Z54" s="28">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="AA54" s="12">
+      <c r="AA54" s="15">
         <v>1.060389</v>
       </c>
-      <c r="AB54" s="12">
+      <c r="AB54" s="19">
         <f>IF(AA54="","",IF($J54="","",(AA54-$J54)*100000))</f>
         <v>-1.0000000005838672E-2</v>
       </c>
-      <c r="AC54" s="12">
+      <c r="AC54" s="25">
         <v>0</v>
       </c>
-      <c r="AD54" s="12">
+      <c r="AD54" s="25">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="AE54" s="1">
+      <c r="AE54" s="17">
         <v>1.060389</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AF54" s="22">
         <f>IF(AE54="","",IF($J54="","",(AE54-$J54)*100000))</f>
         <v>-1.0000000005838672E-2</v>
       </c>
-      <c r="AG54" s="1">
+      <c r="AG54" s="28">
         <v>0</v>
       </c>
-      <c r="AH54" s="1">
+      <c r="AH54" s="28">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="AI54" s="12">
+      <c r="AI54" s="15">
         <v>1.060389</v>
       </c>
-      <c r="AJ54" s="12">
+      <c r="AJ54" s="19">
         <f>IF(AI54="","",IF($J54="","",(AI54-$J54)*100000))</f>
         <v>-1.0000000005838672E-2</v>
       </c>
-      <c r="AK54" s="12">
+      <c r="AK54" s="25">
         <v>0</v>
       </c>
-      <c r="AL54" s="12">
+      <c r="AL54" s="25">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
+      <c r="B55" s="9"/>
       <c r="C55" t="s">
         <v>39</v>
       </c>
@@ -7956,98 +6208,98 @@
       <c r="I56">
         <v>2</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="11">
         <v>1.0756688000000001</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="15">
         <v>1.0754919999999999</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="19">
         <f t="shared" ref="L56:L64" si="28">IF(K56="","",IF($J56="","",(K56-$J56)*100000))</f>
         <v>-17.680000000019902</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M56" s="25">
         <v>9.2117000000000004E-2</v>
       </c>
-      <c r="N56" s="12">
+      <c r="N56" s="25">
         <v>0.26868599999999998</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="17">
         <v>1.0757190000000001</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="22">
         <f t="shared" ref="P56:P64" si="29">IF(O56="","",IF($J56="","",(O56-$J56)*100000))</f>
         <v>5.0200000000000244</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56" s="28">
         <v>3.0616000000000001E-2</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R56" s="28">
         <v>9.0513999999999997E-2</v>
       </c>
-      <c r="S56" s="12">
+      <c r="S56" s="15">
         <v>1.075755</v>
       </c>
-      <c r="T56" s="12">
+      <c r="T56" s="19">
         <f t="shared" ref="T56:T64" si="30">IF(S56="","",IF($J56="","",(S56-$J56)*100000))</f>
         <v>8.6199999999925225</v>
       </c>
-      <c r="U56" s="12">
+      <c r="U56" s="25">
         <v>7.1981000000000003E-2</v>
       </c>
-      <c r="V56" s="12">
+      <c r="V56" s="25">
         <v>0.33918700000000002</v>
       </c>
-      <c r="W56" s="1">
+      <c r="W56" s="17">
         <v>1.0757589999999999</v>
       </c>
-      <c r="X56" s="1">
+      <c r="X56" s="22">
         <f t="shared" ref="X56:X64" si="31">IF(W56="","",IF($J56="","",(W56-$J56)*100000))</f>
         <v>9.0199999999818203</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Y56" s="28">
         <v>7.9647999999999997E-2</v>
       </c>
-      <c r="Z56" s="1">
+      <c r="Z56" s="28">
         <v>0.35973699999999997</v>
       </c>
-      <c r="AA56" s="12">
+      <c r="AA56" s="15">
         <v>1.0675829999999999</v>
       </c>
-      <c r="AB56" s="12">
+      <c r="AB56" s="19">
         <f t="shared" ref="AB56:AB64" si="32">IF(AA56="","",IF($J56="","",(AA56-$J56)*100000))</f>
         <v>-808.58000000001425</v>
       </c>
-      <c r="AC56" s="12">
+      <c r="AC56" s="25">
         <v>4.536772</v>
       </c>
-      <c r="AD56" s="12">
+      <c r="AD56" s="25">
         <v>11.882154999999999</v>
       </c>
-      <c r="AE56" s="1">
+      <c r="AE56" s="17">
         <v>1.072395</v>
       </c>
-      <c r="AF56" s="1">
+      <c r="AF56" s="22">
         <f t="shared" ref="AF56:AF64" si="33">IF(AE56="","",IF($J56="","",(AE56-$J56)*100000))</f>
         <v>-327.38000000001045</v>
       </c>
-      <c r="AG56" s="1">
+      <c r="AG56" s="28">
         <v>1.809288</v>
       </c>
-      <c r="AH56" s="1">
+      <c r="AH56" s="28">
         <v>4.7820900000000002</v>
       </c>
-      <c r="AI56" s="12">
+      <c r="AI56" s="15">
         <v>1.074173</v>
       </c>
-      <c r="AJ56" s="12">
+      <c r="AJ56" s="19">
         <f t="shared" ref="AJ56:AJ64" si="34">IF(AI56="","",IF($J56="","",(AI56-$J56)*100000))</f>
         <v>-149.5800000000047</v>
       </c>
-      <c r="AK56" s="12">
+      <c r="AK56" s="25">
         <v>0.80316799999999999</v>
       </c>
-      <c r="AL56" s="12">
+      <c r="AL56" s="25">
         <v>2.0194130000000001</v>
       </c>
     </row>
@@ -8070,98 +6322,98 @@
       <c r="I57">
         <v>3</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="11">
         <v>1.0859741000000001</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="15">
         <v>1.0857939999999999</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="19">
         <f t="shared" si="28"/>
         <v>-18.010000000012738</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M57" s="25">
         <v>8.8111999999999996E-2</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="25">
         <v>0.285358</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57" s="17">
         <v>1.086084</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57" s="22">
         <f t="shared" si="29"/>
         <v>10.989999999999611</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57" s="28">
         <v>5.9343E-2</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R57" s="28">
         <v>0.15628700000000001</v>
       </c>
-      <c r="S57" s="12">
+      <c r="S57" s="15">
         <v>1.086144</v>
       </c>
-      <c r="T57" s="12">
+      <c r="T57" s="19">
         <f t="shared" si="30"/>
         <v>16.989999999994509</v>
       </c>
-      <c r="U57" s="12">
+      <c r="U57" s="25">
         <v>0.111857</v>
       </c>
-      <c r="V57" s="12">
+      <c r="V57" s="25">
         <v>0.43567099999999997</v>
       </c>
-      <c r="W57" s="1">
+      <c r="W57" s="17">
         <v>1.0861510000000001</v>
       </c>
-      <c r="X57" s="1">
+      <c r="X57" s="22">
         <f t="shared" si="31"/>
         <v>17.690000000003536</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="Y57" s="28">
         <v>0.122603</v>
       </c>
-      <c r="Z57" s="1">
+      <c r="Z57" s="28">
         <v>0.46344299999999999</v>
       </c>
-      <c r="AA57" s="12">
+      <c r="AA57" s="15">
         <v>1.0724400000000001</v>
       </c>
-      <c r="AB57" s="12">
+      <c r="AB57" s="19">
         <f t="shared" si="32"/>
         <v>-1353.4099999999994</v>
       </c>
-      <c r="AC57" s="12">
+      <c r="AC57" s="25">
         <v>7.3134769999999998</v>
       </c>
-      <c r="AD57" s="12">
+      <c r="AD57" s="25">
         <v>19.71649</v>
       </c>
-      <c r="AE57" s="1">
+      <c r="AE57" s="17">
         <v>1.081467</v>
       </c>
-      <c r="AF57" s="1">
+      <c r="AF57" s="22">
         <f t="shared" si="33"/>
         <v>-450.7100000000097</v>
       </c>
-      <c r="AG57" s="1">
+      <c r="AG57" s="28">
         <v>2.369043</v>
       </c>
-      <c r="AH57" s="1">
+      <c r="AH57" s="28">
         <v>6.4724360000000001</v>
       </c>
-      <c r="AI57" s="12">
+      <c r="AI57" s="15">
         <v>1.0848370000000001</v>
       </c>
-      <c r="AJ57" s="12">
+      <c r="AJ57" s="19">
         <f t="shared" si="34"/>
         <v>-113.71000000000021</v>
       </c>
-      <c r="AK57" s="12">
+      <c r="AK57" s="25">
         <v>0.57319799999999999</v>
       </c>
-      <c r="AL57" s="12">
+      <c r="AL57" s="25">
         <v>1.4681169999999999</v>
       </c>
     </row>
@@ -8184,98 +6436,98 @@
       <c r="I58">
         <v>4</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="11">
         <v>1.0973508999999999</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58" s="15">
         <v>1.0971519999999999</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="19">
         <f t="shared" si="28"/>
         <v>-19.890000000000185</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M58" s="25">
         <v>8.8554999999999995E-2</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N58" s="25">
         <v>0.30600100000000002</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="17">
         <v>1.0974660000000001</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="22">
         <f t="shared" si="29"/>
         <v>11.510000000014564</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58" s="28">
         <v>5.7999000000000002E-2</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R58" s="28">
         <v>0.16073299999999999</v>
       </c>
-      <c r="S58" s="12">
+      <c r="S58" s="15">
         <v>1.0975459999999999</v>
       </c>
-      <c r="T58" s="12">
+      <c r="T58" s="19">
         <f t="shared" si="30"/>
         <v>19.51000000000036</v>
       </c>
-      <c r="U58" s="12">
+      <c r="U58" s="25">
         <v>0.117476</v>
       </c>
-      <c r="V58" s="12">
+      <c r="V58" s="25">
         <v>0.43890800000000002</v>
       </c>
-      <c r="W58" s="1">
+      <c r="W58" s="17">
         <v>1.0975550000000001</v>
       </c>
-      <c r="X58" s="1">
+      <c r="X58" s="22">
         <f t="shared" si="31"/>
         <v>20.410000000015138</v>
       </c>
-      <c r="Y58" s="1">
+      <c r="Y58" s="28">
         <v>0.12717000000000001</v>
       </c>
-      <c r="Z58" s="1">
+      <c r="Z58" s="28">
         <v>0.45927299999999999</v>
       </c>
-      <c r="AA58" s="12">
+      <c r="AA58" s="15">
         <v>1.078516</v>
       </c>
-      <c r="AB58" s="12">
+      <c r="AB58" s="19">
         <f t="shared" si="32"/>
         <v>-1883.4899999999877</v>
       </c>
-      <c r="AC58" s="12">
+      <c r="AC58" s="25">
         <v>9.7328440000000001</v>
       </c>
-      <c r="AD58" s="12">
+      <c r="AD58" s="25">
         <v>26.995944999999999</v>
       </c>
-      <c r="AE58" s="1">
+      <c r="AE58" s="17">
         <v>1.092041</v>
       </c>
-      <c r="AF58" s="1">
+      <c r="AF58" s="22">
         <f t="shared" si="33"/>
         <v>-530.98999999998671</v>
       </c>
-      <c r="AG58" s="1">
+      <c r="AG58" s="28">
         <v>2.6359029999999999</v>
       </c>
-      <c r="AH58" s="1">
+      <c r="AH58" s="28">
         <v>7.4310510000000001</v>
       </c>
-      <c r="AI58" s="12">
+      <c r="AI58" s="15">
         <v>1.096519</v>
       </c>
-      <c r="AJ58" s="12">
+      <c r="AJ58" s="19">
         <f t="shared" si="34"/>
         <v>-83.189999999988544</v>
       </c>
-      <c r="AK58" s="12">
+      <c r="AK58" s="25">
         <v>0.39274300000000001</v>
       </c>
-      <c r="AL58" s="12">
+      <c r="AL58" s="25">
         <v>1.0451779999999999</v>
       </c>
     </row>
@@ -8298,98 +6550,98 @@
       <c r="I59">
         <v>5</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="11">
         <v>1.1096823</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="15">
         <v>1.109442</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="19">
         <f t="shared" si="28"/>
         <v>-24.029999999997109</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M59" s="25">
         <v>0.10245799999999999</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N59" s="25">
         <v>0.354518</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="17">
         <v>1.1097410000000001</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="22">
         <f t="shared" si="29"/>
         <v>5.8700000000078134</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59" s="28">
         <v>3.0308999999999999E-2</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R59" s="28">
         <v>0.118909</v>
       </c>
-      <c r="S59" s="12">
+      <c r="S59" s="15">
         <v>1.109834</v>
       </c>
-      <c r="T59" s="12">
+      <c r="T59" s="19">
         <f t="shared" si="30"/>
         <v>15.169999999997685</v>
       </c>
-      <c r="U59" s="12">
+      <c r="U59" s="25">
         <v>9.0732999999999994E-2</v>
       </c>
-      <c r="V59" s="12">
+      <c r="V59" s="25">
         <v>0.36014600000000002</v>
       </c>
-      <c r="W59" s="1">
+      <c r="W59" s="17">
         <v>1.109845</v>
       </c>
-      <c r="X59" s="1">
+      <c r="X59" s="22">
         <f t="shared" si="31"/>
         <v>16.26999999999601</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="Y59" s="28">
         <v>0.10056</v>
       </c>
-      <c r="Z59" s="1">
+      <c r="Z59" s="28">
         <v>0.38011200000000001</v>
       </c>
-      <c r="AA59" s="12">
+      <c r="AA59" s="15">
         <v>1.086271</v>
       </c>
-      <c r="AB59" s="12">
+      <c r="AB59" s="19">
         <f t="shared" si="32"/>
         <v>-2341.1300000000024</v>
       </c>
-      <c r="AC59" s="12">
+      <c r="AC59" s="25">
         <v>11.483248</v>
       </c>
-      <c r="AD59" s="12">
+      <c r="AD59" s="25">
         <v>32.766967000000001</v>
       </c>
-      <c r="AE59" s="1">
+      <c r="AE59" s="17">
         <v>1.103955</v>
       </c>
-      <c r="AF59" s="1">
+      <c r="AF59" s="22">
         <f t="shared" si="33"/>
         <v>-572.72999999999911</v>
       </c>
-      <c r="AG59" s="1">
+      <c r="AG59" s="28">
         <v>2.6687080000000001</v>
       </c>
-      <c r="AH59" s="1">
+      <c r="AH59" s="28">
         <v>7.7499890000000002</v>
       </c>
-      <c r="AI59" s="12">
+      <c r="AI59" s="15">
         <v>1.1091089999999999</v>
       </c>
-      <c r="AJ59" s="12">
+      <c r="AJ59" s="19">
         <f t="shared" si="34"/>
         <v>-57.330000000010983</v>
       </c>
-      <c r="AK59" s="12">
+      <c r="AK59" s="25">
         <v>0.25421199999999999</v>
       </c>
-      <c r="AL59" s="12">
+      <c r="AL59" s="25">
         <v>0.71679499999999996</v>
       </c>
     </row>
@@ -8412,98 +6664,98 @@
       <c r="I60">
         <v>6</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="11">
         <v>1.1229218999999999</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="15">
         <v>1.122622</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="19">
         <f t="shared" si="28"/>
         <v>-29.989999999990857</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M60" s="25">
         <v>0.12548899999999999</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N60" s="25">
         <v>0.42041200000000001</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60" s="17">
         <v>1.1228640000000001</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P60" s="22">
         <f t="shared" si="29"/>
         <v>-5.7899999999833085</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="Q60" s="28">
         <v>2.9756000000000001E-2</v>
       </c>
-      <c r="R60" s="1">
+      <c r="R60" s="28">
         <v>0.114623</v>
       </c>
-      <c r="S60" s="12">
+      <c r="S60" s="15">
         <v>1.122962</v>
       </c>
-      <c r="T60" s="12">
+      <c r="T60" s="19">
         <f t="shared" si="30"/>
         <v>4.010000000009839</v>
       </c>
-      <c r="U60" s="12">
+      <c r="U60" s="25">
         <v>3.6602999999999997E-2</v>
       </c>
-      <c r="V60" s="12">
+      <c r="V60" s="25">
         <v>0.20818300000000001</v>
       </c>
-      <c r="W60" s="1">
+      <c r="W60" s="17">
         <v>1.122973</v>
       </c>
-      <c r="X60" s="1">
+      <c r="X60" s="22">
         <f t="shared" si="31"/>
         <v>5.1100000000081636</v>
       </c>
-      <c r="Y60" s="1">
+      <c r="Y60" s="28">
         <v>4.5164000000000003E-2</v>
       </c>
-      <c r="Z60" s="1">
+      <c r="Z60" s="28">
         <v>0.22877800000000001</v>
       </c>
-      <c r="AA60" s="12">
+      <c r="AA60" s="15">
         <v>1.0964020000000001</v>
       </c>
-      <c r="AB60" s="12">
+      <c r="AB60" s="19">
         <f t="shared" si="32"/>
         <v>-2651.989999999982</v>
       </c>
-      <c r="AC60" s="12">
+      <c r="AC60" s="25">
         <v>12.239387000000001</v>
       </c>
-      <c r="AD60" s="12">
+      <c r="AD60" s="25">
         <v>35.945618000000003</v>
       </c>
-      <c r="AE60" s="1">
+      <c r="AE60" s="17">
         <v>1.1171770000000001</v>
       </c>
-      <c r="AF60" s="1">
+      <c r="AF60" s="22">
         <f t="shared" si="33"/>
         <v>-574.48999999998307</v>
       </c>
-      <c r="AG60" s="1">
+      <c r="AG60" s="28">
         <v>2.499873</v>
       </c>
-      <c r="AH60" s="1">
+      <c r="AH60" s="28">
         <v>7.4664679999999999</v>
       </c>
-      <c r="AI60" s="12">
+      <c r="AI60" s="15">
         <v>1.122568</v>
       </c>
-      <c r="AJ60" s="12">
+      <c r="AJ60" s="19">
         <f t="shared" si="34"/>
         <v>-35.389999999990707</v>
       </c>
-      <c r="AK60" s="12">
+      <c r="AK60" s="25">
         <v>0.14890999999999999</v>
       </c>
-      <c r="AL60" s="12">
+      <c r="AL60" s="25">
         <v>0.46648200000000001</v>
       </c>
     </row>
@@ -8526,98 +6778,98 @@
       <c r="I61">
         <v>7</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="11">
         <v>1.1370933000000001</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K61" s="15">
         <v>1.13672</v>
       </c>
-      <c r="L61" s="12">
+      <c r="L61" s="19">
         <f t="shared" si="28"/>
         <v>-37.330000000013186</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M61" s="25">
         <v>0.14693500000000001</v>
       </c>
-      <c r="N61" s="12">
+      <c r="N61" s="25">
         <v>0.47516000000000003</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61" s="17">
         <v>1.136862</v>
       </c>
-      <c r="P61" s="1">
+      <c r="P61" s="22">
         <f t="shared" si="29"/>
         <v>-23.130000000004536</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61" s="28">
         <v>9.5407000000000006E-2</v>
       </c>
-      <c r="R61" s="1">
+      <c r="R61" s="28">
         <v>0.301062</v>
       </c>
-      <c r="S61" s="12">
+      <c r="S61" s="15">
         <v>1.1369549999999999</v>
       </c>
-      <c r="T61" s="12">
+      <c r="T61" s="19">
         <f t="shared" si="30"/>
         <v>-13.830000000014664</v>
       </c>
-      <c r="U61" s="12">
+      <c r="U61" s="25">
         <v>4.7343000000000003E-2</v>
       </c>
-      <c r="V61" s="12">
+      <c r="V61" s="25">
         <v>0.15374299999999999</v>
       </c>
-      <c r="W61" s="1">
+      <c r="W61" s="17">
         <v>1.1369659999999999</v>
       </c>
-      <c r="X61" s="1">
+      <c r="X61" s="22">
         <f t="shared" si="31"/>
         <v>-12.730000000016339</v>
       </c>
-      <c r="Y61" s="1">
+      <c r="Y61" s="28">
         <v>4.1302999999999999E-2</v>
       </c>
-      <c r="Z61" s="1">
+      <c r="Z61" s="28">
         <v>0.14158000000000001</v>
       </c>
-      <c r="AA61" s="12">
+      <c r="AA61" s="15">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AB61" s="12">
+      <c r="AB61" s="19">
         <f t="shared" si="32"/>
         <v>-2709.3299999999986</v>
       </c>
-      <c r="AC61" s="12">
+      <c r="AC61" s="25">
         <v>11.634465000000001</v>
       </c>
-      <c r="AD61" s="12">
+      <c r="AD61" s="25">
         <v>35.210318999999998</v>
       </c>
-      <c r="AE61" s="1">
+      <c r="AE61" s="17">
         <v>1.1317539999999999</v>
       </c>
-      <c r="AF61" s="1">
+      <c r="AF61" s="22">
         <f t="shared" si="33"/>
         <v>-533.93000000001575</v>
       </c>
-      <c r="AG61" s="1">
+      <c r="AG61" s="28">
         <v>2.1601530000000002</v>
       </c>
-      <c r="AH61" s="1">
+      <c r="AH61" s="28">
         <v>6.6265900000000002</v>
       </c>
-      <c r="AI61" s="12">
+      <c r="AI61" s="15">
         <v>1.13693</v>
       </c>
-      <c r="AJ61" s="12">
+      <c r="AJ61" s="19">
         <f t="shared" si="34"/>
         <v>-16.330000000008837</v>
       </c>
-      <c r="AK61" s="12">
+      <c r="AK61" s="25">
         <v>7.1481000000000003E-2</v>
       </c>
-      <c r="AL61" s="12">
+      <c r="AL61" s="25">
         <v>0.276945</v>
       </c>
     </row>
@@ -8640,98 +6892,98 @@
       <c r="I62">
         <v>8</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="11">
         <v>1.1523908</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62" s="15">
         <v>1.15191</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62" s="19">
         <f t="shared" si="28"/>
         <v>-48.080000000005896</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M62" s="25">
         <v>0.17842</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N62" s="25">
         <v>0.55369400000000002</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="17">
         <v>1.151931</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="22">
         <f t="shared" si="29"/>
         <v>-45.98000000000102</v>
       </c>
-      <c r="Q62" s="1">
+      <c r="Q62" s="28">
         <v>0.17469799999999999</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R62" s="28">
         <v>0.558056</v>
       </c>
-      <c r="S62" s="12">
+      <c r="S62" s="15">
         <v>1.1520079999999999</v>
       </c>
-      <c r="T62" s="12">
+      <c r="T62" s="19">
         <f t="shared" si="30"/>
         <v>-38.280000000012748</v>
       </c>
-      <c r="U62" s="12">
+      <c r="U62" s="25">
         <v>0.13891400000000001</v>
       </c>
-      <c r="V62" s="12">
+      <c r="V62" s="25">
         <v>0.44336500000000001</v>
       </c>
-      <c r="W62" s="1">
+      <c r="W62" s="17">
         <v>1.1520170000000001</v>
       </c>
-      <c r="X62" s="1">
+      <c r="X62" s="22">
         <f t="shared" si="31"/>
         <v>-37.37999999999797</v>
       </c>
-      <c r="Y62" s="1">
+      <c r="Y62" s="28">
         <v>0.134074</v>
       </c>
-      <c r="Z62" s="1">
+      <c r="Z62" s="28">
         <v>0.43376700000000001</v>
       </c>
-      <c r="AA62" s="12">
+      <c r="AA62" s="15">
         <v>1.128822</v>
       </c>
-      <c r="AB62" s="12">
+      <c r="AB62" s="19">
         <f t="shared" si="32"/>
         <v>-2356.8800000000056</v>
       </c>
-      <c r="AC62" s="12">
+      <c r="AC62" s="25">
         <v>9.2770790000000005</v>
       </c>
-      <c r="AD62" s="12">
+      <c r="AD62" s="25">
         <v>28.996479000000001</v>
       </c>
-      <c r="AE62" s="1">
+      <c r="AE62" s="17">
         <v>1.14784</v>
       </c>
-      <c r="AF62" s="1">
+      <c r="AF62" s="22">
         <f t="shared" si="33"/>
         <v>-455.08000000000771</v>
       </c>
-      <c r="AG62" s="1">
+      <c r="AG62" s="28">
         <v>1.7034279999999999</v>
       </c>
-      <c r="AH62" s="1">
+      <c r="AH62" s="28">
         <v>5.3654330000000003</v>
       </c>
-      <c r="AI62" s="12">
+      <c r="AI62" s="15">
         <v>1.1523939999999999</v>
       </c>
-      <c r="AJ62" s="12">
+      <c r="AJ62" s="19">
         <f t="shared" si="34"/>
         <v>0.31999999998699735</v>
       </c>
-      <c r="AK62" s="12">
+      <c r="AK62" s="25">
         <v>4.0027E-2</v>
       </c>
-      <c r="AL62" s="12">
+      <c r="AL62" s="25">
         <v>0.22031100000000001</v>
       </c>
     </row>
@@ -8744,98 +6996,98 @@
       <c r="I64">
         <v>10</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="11">
         <v>1.1955986000000001</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64" s="15">
         <v>1.1955990000000001</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L64" s="19">
         <f t="shared" si="28"/>
         <v>4.0000000001150227E-2</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M64" s="25">
         <v>2.9E-5</v>
       </c>
-      <c r="N64" s="12">
+      <c r="N64" s="25">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="17">
         <v>1.1955990000000001</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64" s="22">
         <f t="shared" si="29"/>
         <v>4.0000000001150227E-2</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="Q64" s="28">
         <v>2.9E-5</v>
       </c>
-      <c r="R64" s="1">
+      <c r="R64" s="28">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="S64" s="12">
+      <c r="S64" s="15">
         <v>1.1955990000000001</v>
       </c>
-      <c r="T64" s="12">
+      <c r="T64" s="19">
         <f t="shared" si="30"/>
         <v>4.0000000001150227E-2</v>
       </c>
-      <c r="U64" s="12">
+      <c r="U64" s="25">
         <v>2.9E-5</v>
       </c>
-      <c r="V64" s="12">
+      <c r="V64" s="25">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="W64" s="1">
+      <c r="W64" s="17">
         <v>2.9E-5</v>
       </c>
-      <c r="X64" s="1">
+      <c r="X64" s="22">
         <f t="shared" si="31"/>
         <v>-119556.96</v>
       </c>
-      <c r="Y64" s="1">
+      <c r="Y64" s="28">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="Z64" s="1">
+      <c r="Z64" s="28">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AA64" s="12">
+      <c r="AA64" s="15">
         <v>1.1955990000000001</v>
       </c>
-      <c r="AB64" s="12">
+      <c r="AB64" s="19">
         <f t="shared" si="32"/>
         <v>4.0000000001150227E-2</v>
       </c>
-      <c r="AC64" s="12">
+      <c r="AC64" s="25">
         <v>2.9E-5</v>
       </c>
-      <c r="AD64" s="12">
+      <c r="AD64" s="25">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AE64" s="1">
+      <c r="AE64" s="17">
         <v>1.1955990000000001</v>
       </c>
-      <c r="AF64" s="1">
+      <c r="AF64" s="22">
         <f t="shared" si="33"/>
         <v>4.0000000001150227E-2</v>
       </c>
-      <c r="AG64" s="1">
+      <c r="AG64" s="28">
         <v>2.9E-5</v>
       </c>
-      <c r="AH64" s="1">
+      <c r="AH64" s="28">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AI64" s="12">
+      <c r="AI64" s="15">
         <v>1.1955990000000001</v>
       </c>
-      <c r="AJ64" s="12">
+      <c r="AJ64" s="19">
         <f t="shared" si="34"/>
         <v>4.0000000001150227E-2</v>
       </c>
-      <c r="AK64" s="12">
+      <c r="AK64" s="25">
         <v>2.9E-5</v>
       </c>
-      <c r="AL64" s="12">
+      <c r="AL64" s="25">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
@@ -8843,87 +7095,87 @@
       <c r="I65" t="s">
         <v>44</v>
       </c>
-      <c r="L65" s="12">
+      <c r="L65" s="19">
         <f t="array" ref="L65">AVERAGE(ABS(L56:L62))</f>
         <v>27.858571428577129</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M65" s="25">
         <f>M66</f>
         <v>0.11744085714285715</v>
       </c>
-      <c r="N65" s="12">
+      <c r="N65" s="25">
         <f t="shared" ref="N65" si="35">N66</f>
         <v>0.38054700000000002</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65" s="22">
         <f t="array" ref="P65">AVERAGE(ABS(P56:P62))</f>
         <v>15.470000000001553</v>
       </c>
-      <c r="Q65" s="1">
+      <c r="Q65" s="28">
         <f>Q66</f>
         <v>6.8304000000000004E-2</v>
       </c>
-      <c r="R65" s="1">
+      <c r="R65" s="28">
         <f t="shared" ref="R65" si="36">R66</f>
         <v>0.214312</v>
       </c>
-      <c r="T65" s="12">
+      <c r="T65" s="19">
         <f t="array" ref="T65">AVERAGE(ABS(T56:T62))</f>
         <v>16.630000000003189</v>
       </c>
-      <c r="U65" s="12">
+      <c r="U65" s="25">
         <f>U66</f>
         <v>8.784385714285714E-2</v>
       </c>
-      <c r="V65" s="12">
+      <c r="V65" s="25">
         <f t="shared" ref="V65" si="37">V66</f>
         <v>0.33988614285714291</v>
       </c>
-      <c r="X65" s="1">
+      <c r="X65" s="22">
         <f t="array" ref="X65">AVERAGE(ABS(X56:X62))</f>
         <v>16.944285714288423</v>
       </c>
-      <c r="Y65" s="1">
+      <c r="Y65" s="28">
         <f>Y66</f>
         <v>9.2931714285714298E-2</v>
       </c>
-      <c r="Z65" s="1">
+      <c r="Z65" s="28">
         <f t="shared" ref="Z65" si="38">Z66</f>
         <v>0.35238428571428571</v>
       </c>
-      <c r="AB65" s="12">
+      <c r="AB65" s="19">
         <f t="array" ref="AB65">AVERAGE(ABS(AB56:AB62))</f>
         <v>2014.9728571428557</v>
       </c>
-      <c r="AC65" s="12">
+      <c r="AC65" s="25">
         <f>AC66</f>
         <v>9.4596102857142856</v>
       </c>
-      <c r="AD65" s="12">
+      <c r="AD65" s="25">
         <f t="shared" ref="AD65" si="39">AD66</f>
         <v>27.359138999999999</v>
       </c>
-      <c r="AF65" s="1">
+      <c r="AF65" s="22">
         <f t="array" ref="AF65">AVERAGE(ABS(AF56:AF62))</f>
         <v>492.18714285714458</v>
       </c>
-      <c r="AG65" s="1">
+      <c r="AG65" s="28">
         <f>AG66</f>
         <v>2.2637708571428572</v>
       </c>
-      <c r="AH65" s="1">
+      <c r="AH65" s="28">
         <f t="shared" ref="AH65" si="40">AH66</f>
         <v>6.5562938571428573</v>
       </c>
-      <c r="AJ65" s="12">
+      <c r="AJ65" s="19">
         <f t="array" ref="AJ65">AVERAGE(ABS(AJ56:AJ62))</f>
         <v>65.121428571427273</v>
       </c>
-      <c r="AK65" s="12">
+      <c r="AK65" s="25">
         <f>AK66</f>
         <v>0.32624842857142855</v>
       </c>
-      <c r="AL65" s="12">
+      <c r="AL65" s="25">
         <f t="shared" ref="AL65" si="41">AL66</f>
         <v>0.887605857142857</v>
       </c>
@@ -8932,87 +7184,87 @@
       <c r="I66" t="s">
         <v>46</v>
       </c>
-      <c r="L66" s="12">
+      <c r="L66" s="19">
         <f>AVERAGE(L56:L62)</f>
         <v>-27.858571428577129</v>
       </c>
-      <c r="M66" s="12">
+      <c r="M66" s="25">
         <f>AVERAGE(M56:M62)</f>
         <v>0.11744085714285715</v>
       </c>
-      <c r="N66" s="12">
+      <c r="N66" s="25">
         <f>AVERAGE(N56:N62)</f>
         <v>0.38054700000000002</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P66" s="22">
         <f>AVERAGE(P56:P62)</f>
         <v>-5.9299999999952648</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q66" s="28">
         <f>AVERAGE(Q56:Q62)</f>
         <v>6.8304000000000004E-2</v>
       </c>
-      <c r="R66" s="1">
+      <c r="R66" s="28">
         <f>AVERAGE(R56:R62)</f>
         <v>0.214312</v>
       </c>
-      <c r="T66" s="12">
+      <c r="T66" s="19">
         <f>AVERAGE(T56:T62)</f>
         <v>1.7414285714239301</v>
       </c>
-      <c r="U66" s="12">
+      <c r="U66" s="25">
         <f>AVERAGE(U56:U62)</f>
         <v>8.784385714285714E-2</v>
       </c>
-      <c r="V66" s="12">
+      <c r="V66" s="25">
         <f>AVERAGE(V56:V62)</f>
         <v>0.33988614285714291</v>
       </c>
-      <c r="X66" s="1">
+      <c r="X66" s="22">
         <f>AVERAGE(X56:X62)</f>
         <v>2.6271428571414788</v>
       </c>
-      <c r="Y66" s="1">
+      <c r="Y66" s="28">
         <f>AVERAGE(Y56:Y62)</f>
         <v>9.2931714285714298E-2</v>
       </c>
-      <c r="Z66" s="1">
+      <c r="Z66" s="28">
         <f>AVERAGE(Z56:Z62)</f>
         <v>0.35238428571428571</v>
       </c>
-      <c r="AB66" s="12">
+      <c r="AB66" s="19">
         <f>AVERAGE(AB56:AB62)</f>
         <v>-2014.9728571428557</v>
       </c>
-      <c r="AC66" s="12">
+      <c r="AC66" s="25">
         <f>AVERAGE(AC56:AC62)</f>
         <v>9.4596102857142856</v>
       </c>
-      <c r="AD66" s="12">
+      <c r="AD66" s="25">
         <f>AVERAGE(AD56:AD62)</f>
         <v>27.359138999999999</v>
       </c>
-      <c r="AF66" s="1">
+      <c r="AF66" s="22">
         <f>AVERAGE(AF56:AF62)</f>
         <v>-492.18714285714458</v>
       </c>
-      <c r="AG66" s="1">
+      <c r="AG66" s="28">
         <f>AVERAGE(AG56:AG62)</f>
         <v>2.2637708571428572</v>
       </c>
-      <c r="AH66" s="1">
+      <c r="AH66" s="28">
         <f>AVERAGE(AH56:AH62)</f>
         <v>6.5562938571428573</v>
       </c>
-      <c r="AJ66" s="12">
+      <c r="AJ66" s="19">
         <f>AVERAGE(AJ56:AJ62)</f>
         <v>-65.030000000002431</v>
       </c>
-      <c r="AK66" s="12">
+      <c r="AK66" s="25">
         <f>AVERAGE(AK56:AK62)</f>
         <v>0.32624842857142855</v>
       </c>
-      <c r="AL66" s="12">
+      <c r="AL66" s="25">
         <f>AVERAGE(AL56:AL62)</f>
         <v>0.887605857142857</v>
       </c>
@@ -9021,31 +7273,31 @@
       <c r="I67" t="s">
         <v>47</v>
       </c>
-      <c r="L67" s="12">
+      <c r="L67" s="19">
         <f>STDEV(L56:L62)</f>
         <v>11.415712021260408</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P67" s="22">
         <f>STDEV(P56:P62)</f>
         <v>21.406558963710641</v>
       </c>
-      <c r="T67" s="12">
+      <c r="T67" s="19">
         <f>STDEV(T56:T62)</f>
         <v>20.917348803148581</v>
       </c>
-      <c r="X67" s="1">
+      <c r="X67" s="22">
         <f>STDEV(X56:X62)</f>
         <v>20.867413762682023</v>
       </c>
-      <c r="AB67" s="12">
+      <c r="AB67" s="19">
         <f>STDEV(AB56:AB62)</f>
         <v>709.64058270634587</v>
       </c>
-      <c r="AF67" s="1">
+      <c r="AF67" s="22">
         <f>STDEV(AF56:AF62)</f>
         <v>88.287152465548317</v>
       </c>
-      <c r="AJ67" s="12">
+      <c r="AJ67" s="19">
         <f>STDEV(AJ56:AJ62)</f>
         <v>53.895520221997145</v>
       </c>
@@ -9054,313 +7306,313 @@
       <c r="I70" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="J70" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K70" s="13" t="s">
+      <c r="K70" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="8" t="s">
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="13" t="s">
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="13"/>
-      <c r="W70" s="8" t="s">
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="X70" s="8"/>
-      <c r="Y70" s="8"/>
-      <c r="Z70" s="8"/>
-      <c r="AA70" s="13" t="s">
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AB70" s="13"/>
-      <c r="AC70" s="13"/>
-      <c r="AD70" s="13"/>
-      <c r="AE70" s="8" t="s">
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AF70" s="8"/>
-      <c r="AG70" s="8"/>
-      <c r="AH70" s="8"/>
-      <c r="AI70" s="13" t="s">
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6"/>
+      <c r="AI70" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AJ70" s="13"/>
-      <c r="AK70" s="13"/>
-      <c r="AL70" s="13"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
+      <c r="AL70" s="8"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
         <v>63</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J71" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L71" s="14"/>
-      <c r="M71" s="13" t="s">
+      <c r="L71" s="7"/>
+      <c r="M71" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N71" s="13"/>
-      <c r="O71" s="9" t="s">
+      <c r="N71" s="24"/>
+      <c r="O71" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="8" t="s">
+      <c r="P71" s="10"/>
+      <c r="Q71" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R71" s="8"/>
-      <c r="S71" s="14" t="s">
+      <c r="R71" s="6"/>
+      <c r="S71" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T71" s="14"/>
-      <c r="U71" s="13" t="s">
+      <c r="T71" s="7"/>
+      <c r="U71" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V71" s="13"/>
-      <c r="W71" s="9" t="s">
+      <c r="V71" s="8"/>
+      <c r="W71" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="8" t="s">
+      <c r="X71" s="10"/>
+      <c r="Y71" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="14" t="s">
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB71" s="14"/>
-      <c r="AC71" s="13" t="s">
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AD71" s="13"/>
-      <c r="AE71" s="9" t="s">
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AF71" s="9"/>
-      <c r="AG71" s="8" t="s">
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AH71" s="8"/>
-      <c r="AI71" s="14" t="s">
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AJ71" s="14"/>
-      <c r="AK71" s="13" t="s">
+      <c r="AJ71" s="7"/>
+      <c r="AK71" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AL71" s="13"/>
+      <c r="AL71" s="8"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="J72" s="7" t="s">
+      <c r="J72" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K72" s="15" t="s">
+      <c r="K72" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L72" s="15" t="s">
+      <c r="L72" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M72" s="16" t="s">
+      <c r="M72" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N72" s="16" t="s">
+      <c r="N72" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="O72" s="10" t="s">
+      <c r="O72" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P72" s="10" t="s">
+      <c r="P72" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Q72" s="11" t="s">
+      <c r="Q72" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="R72" s="11" t="s">
+      <c r="R72" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="S72" s="15" t="s">
+      <c r="S72" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T72" s="15" t="s">
+      <c r="T72" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="U72" s="16" t="s">
+      <c r="U72" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="V72" s="16" t="s">
+      <c r="V72" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="W72" s="10" t="s">
+      <c r="W72" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="X72" s="10" t="s">
+      <c r="X72" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Y72" s="11" t="s">
+      <c r="Y72" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="Z72" s="11" t="s">
+      <c r="Z72" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AA72" s="15" t="s">
+      <c r="AA72" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AB72" s="15" t="s">
+      <c r="AB72" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AC72" s="16" t="s">
+      <c r="AC72" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AD72" s="16" t="s">
+      <c r="AD72" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AE72" s="10" t="s">
+      <c r="AE72" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AF72" s="10" t="s">
+      <c r="AF72" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AG72" s="11" t="s">
+      <c r="AG72" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AH72" s="11" t="s">
+      <c r="AH72" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AI72" s="15" t="s">
+      <c r="AI72" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AJ72" s="15" t="s">
+      <c r="AJ72" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AK72" s="16" t="s">
+      <c r="AK72" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AL72" s="16" t="s">
+      <c r="AL72" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="9"/>
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="11">
         <v>1.1841889999999999</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K73" s="15">
         <v>1.1841889999999999</v>
       </c>
-      <c r="L73" s="12">
+      <c r="L73" s="19">
         <f>IF(K73="","",IF($J73="","",(K73-$J73)*100000))</f>
         <v>0</v>
       </c>
-      <c r="M73" s="12">
+      <c r="M73" s="25">
         <v>0</v>
       </c>
-      <c r="N73" s="12">
+      <c r="N73" s="25">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="17">
         <v>1.1841889999999999</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P73" s="22">
         <f>IF(O73="","",IF($J73="","",(O73-$J73)*100000))</f>
         <v>0</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="Q73" s="28">
         <v>0</v>
       </c>
-      <c r="R73" s="1">
+      <c r="R73" s="28">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="S73" s="12">
+      <c r="S73" s="15">
         <v>1.1841889999999999</v>
       </c>
-      <c r="T73" s="12">
+      <c r="T73" s="19">
         <f>IF(S73="","",IF($J73="","",(S73-$J73)*100000))</f>
         <v>0</v>
       </c>
-      <c r="U73" s="12">
+      <c r="U73" s="25">
         <v>0</v>
       </c>
-      <c r="V73" s="12">
+      <c r="V73" s="25">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="W73" s="1">
+      <c r="W73" s="17">
         <v>1.1841889999999999</v>
       </c>
-      <c r="X73" s="1">
+      <c r="X73" s="22">
         <f>IF(W73="","",IF($J73="","",(W73-$J73)*100000))</f>
         <v>0</v>
       </c>
-      <c r="Y73" s="1">
+      <c r="Y73" s="28">
         <v>0</v>
       </c>
-      <c r="Z73" s="1">
+      <c r="Z73" s="28">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="AA73" s="12">
+      <c r="AA73" s="15">
         <v>1.1841889999999999</v>
       </c>
-      <c r="AB73" s="12">
+      <c r="AB73" s="19">
         <f>IF(AA73="","",IF($J73="","",(AA73-$J73)*100000))</f>
         <v>0</v>
       </c>
-      <c r="AC73" s="12">
+      <c r="AC73" s="25">
         <v>0</v>
       </c>
-      <c r="AD73" s="12">
+      <c r="AD73" s="25">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="AE73" s="1">
+      <c r="AE73" s="17">
         <v>1.1841889999999999</v>
       </c>
-      <c r="AF73" s="1">
+      <c r="AF73" s="22">
         <f>IF(AE73="","",IF($J73="","",(AE73-$J73)*100000))</f>
         <v>0</v>
       </c>
-      <c r="AG73" s="1">
+      <c r="AG73" s="28">
         <v>0</v>
       </c>
-      <c r="AH73" s="1">
+      <c r="AH73" s="28">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="AI73" s="12">
+      <c r="AI73" s="15">
         <v>1.1841889999999999</v>
       </c>
-      <c r="AJ73" s="12">
+      <c r="AJ73" s="19">
         <f>IF(AI73="","",IF($J73="","",(AI73-$J73)*100000))</f>
         <v>0</v>
       </c>
-      <c r="AK73" s="12">
+      <c r="AK73" s="25">
         <v>0</v>
       </c>
-      <c r="AL73" s="12">
+      <c r="AL73" s="25">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B74" s="5"/>
+      <c r="B74" s="9"/>
       <c r="C74" t="s">
         <v>39</v>
       </c>
@@ -9390,98 +7642,98 @@
       <c r="I75">
         <v>2</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="11">
         <v>1.1856519999999999</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K75" s="15">
         <v>1.185627</v>
       </c>
-      <c r="L75" s="12">
+      <c r="L75" s="19">
         <f t="shared" ref="L75:L83" si="42">IF(K75="","",IF($J75="","",(K75-$J75)*100000))</f>
         <v>-2.4999999999941735</v>
       </c>
-      <c r="M75" s="12">
+      <c r="M75" s="25">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="N75" s="12">
+      <c r="N75" s="25">
         <v>5.7206E-2</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="17">
         <v>1.1856519999999999</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="22">
         <f t="shared" ref="P75:P83" si="43">IF(O75="","",IF($J75="","",(O75-$J75)*100000))</f>
         <v>0</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q75" s="28">
         <v>1.3845E-2</v>
       </c>
-      <c r="R75" s="1">
+      <c r="R75" s="28">
         <v>5.4642000000000003E-2</v>
       </c>
-      <c r="S75" s="12">
+      <c r="S75" s="15">
         <v>1.1856580000000001</v>
       </c>
-      <c r="T75" s="12">
+      <c r="T75" s="19">
         <f t="shared" ref="T75:T83" si="44">IF(S75="","",IF($J75="","",(S75-$J75)*100000))</f>
         <v>0.6000000000172534</v>
       </c>
-      <c r="U75" s="12">
+      <c r="U75" s="25">
         <v>2.0576000000000001E-2</v>
       </c>
-      <c r="V75" s="12">
+      <c r="V75" s="25">
         <v>7.0124000000000006E-2</v>
       </c>
-      <c r="W75" s="1">
+      <c r="W75" s="17">
         <v>1.1856580000000001</v>
       </c>
-      <c r="X75" s="1">
+      <c r="X75" s="22">
         <f t="shared" ref="X75:X83" si="45">IF(W75="","",IF($J75="","",(W75-$J75)*100000))</f>
         <v>0.6000000000172534</v>
       </c>
-      <c r="Y75" s="1">
+      <c r="Y75" s="28">
         <v>2.0947E-2</v>
       </c>
-      <c r="Z75" s="1">
+      <c r="Z75" s="28">
         <v>7.1154999999999996E-2</v>
       </c>
-      <c r="AA75" s="12">
+      <c r="AA75" s="15">
         <v>1.1848749999999999</v>
       </c>
-      <c r="AB75" s="12">
+      <c r="AB75" s="19">
         <f t="shared" ref="AB75:AB83" si="46">IF(AA75="","",IF($J75="","",(AA75-$J75)*100000))</f>
         <v>-77.700000000002774</v>
       </c>
-      <c r="AC75" s="12">
+      <c r="AC75" s="25">
         <v>1.1659470000000001</v>
       </c>
-      <c r="AD75" s="12">
+      <c r="AD75" s="25">
         <v>3.2979340000000001</v>
       </c>
-      <c r="AE75" s="1">
+      <c r="AE75" s="17">
         <v>1.185335</v>
       </c>
-      <c r="AF75" s="1">
+      <c r="AF75" s="22">
         <f t="shared" ref="AF75:AF83" si="47">IF(AE75="","",IF($J75="","",(AE75-$J75)*100000))</f>
         <v>-31.699999999990069</v>
       </c>
-      <c r="AG75" s="1">
+      <c r="AG75" s="28">
         <v>0.46191199999999999</v>
       </c>
-      <c r="AH75" s="1">
+      <c r="AH75" s="28">
         <v>1.292033</v>
       </c>
-      <c r="AI75" s="12">
+      <c r="AI75" s="15">
         <v>1.185497</v>
       </c>
-      <c r="AJ75" s="12">
+      <c r="AJ75" s="19">
         <f t="shared" ref="AJ75:AJ83" si="48">IF(AI75="","",IF($J75="","",(AI75-$J75)*100000))</f>
         <v>-15.499999999990521</v>
       </c>
-      <c r="AK75" s="12">
+      <c r="AK75" s="25">
         <v>0.20876800000000001</v>
       </c>
-      <c r="AL75" s="12">
+      <c r="AL75" s="25">
         <v>0.55535699999999999</v>
       </c>
     </row>
@@ -9504,98 +7756,98 @@
       <c r="I76">
         <v>3</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="11">
         <v>1.1865680000000001</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K76" s="15">
         <v>1.1865429999999999</v>
       </c>
-      <c r="L76" s="12">
+      <c r="L76" s="19">
         <f t="shared" si="42"/>
         <v>-2.500000000016378</v>
       </c>
-      <c r="M76" s="12">
+      <c r="M76" s="25">
         <v>1.6466000000000001E-2</v>
       </c>
-      <c r="N76" s="12">
+      <c r="N76" s="25">
         <v>4.8045999999999998E-2</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76" s="17">
         <v>1.186574</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P76" s="22">
         <f t="shared" si="43"/>
         <v>0.59999999999504894</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="Q76" s="28">
         <v>2.5582000000000001E-2</v>
       </c>
-      <c r="R76" s="1">
+      <c r="R76" s="28">
         <v>9.3931000000000001E-2</v>
       </c>
-      <c r="S76" s="12">
+      <c r="S76" s="15">
         <v>1.186582</v>
       </c>
-      <c r="T76" s="12">
+      <c r="T76" s="19">
         <f t="shared" si="44"/>
         <v>1.399999999995849</v>
       </c>
-      <c r="U76" s="12">
+      <c r="U76" s="25">
         <v>3.6096999999999997E-2</v>
       </c>
-      <c r="V76" s="12">
+      <c r="V76" s="25">
         <v>0.116704</v>
       </c>
-      <c r="W76" s="1">
+      <c r="W76" s="17">
         <v>1.1865829999999999</v>
       </c>
-      <c r="X76" s="1">
+      <c r="X76" s="22">
         <f t="shared" si="45"/>
         <v>1.4999999999876223</v>
       </c>
-      <c r="Y76" s="1">
+      <c r="Y76" s="28">
         <v>3.6695999999999999E-2</v>
       </c>
-      <c r="Z76" s="1">
+      <c r="Z76" s="28">
         <v>0.11826</v>
       </c>
-      <c r="AA76" s="12">
+      <c r="AA76" s="15">
         <v>1.185325</v>
       </c>
-      <c r="AB76" s="12">
+      <c r="AB76" s="19">
         <f t="shared" si="46"/>
         <v>-124.30000000001051</v>
       </c>
-      <c r="AC76" s="12">
+      <c r="AC76" s="25">
         <v>1.863747</v>
       </c>
-      <c r="AD76" s="12">
+      <c r="AD76" s="25">
         <v>5.1856400000000002</v>
       </c>
-      <c r="AE76" s="1">
+      <c r="AE76" s="17">
         <v>1.1861520000000001</v>
       </c>
-      <c r="AF76" s="1">
+      <c r="AF76" s="22">
         <f t="shared" si="47"/>
         <v>-41.599999999997195</v>
       </c>
-      <c r="AG76" s="1">
+      <c r="AG76" s="28">
         <v>0.601128</v>
       </c>
-      <c r="AH76" s="1">
+      <c r="AH76" s="28">
         <v>1.6393180000000001</v>
       </c>
-      <c r="AI76" s="12">
+      <c r="AI76" s="15">
         <v>1.186447</v>
       </c>
-      <c r="AJ76" s="12">
+      <c r="AJ76" s="19">
         <f t="shared" si="48"/>
         <v>-12.100000000003774</v>
       </c>
-      <c r="AK76" s="12">
+      <c r="AK76" s="25">
         <v>0.14902899999999999</v>
       </c>
-      <c r="AL76" s="12">
+      <c r="AL76" s="25">
         <v>0.38000299999999998</v>
       </c>
     </row>
@@ -9618,98 +7870,98 @@
       <c r="I77">
         <v>4</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="11">
         <v>1.1875359999999999</v>
       </c>
-      <c r="K77" s="12">
+      <c r="K77" s="15">
         <v>1.1875089999999999</v>
       </c>
-      <c r="L77" s="12">
+      <c r="L77" s="19">
         <f t="shared" si="42"/>
         <v>-2.6999999999999247</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M77" s="25">
         <v>1.6404999999999999E-2</v>
       </c>
-      <c r="N77" s="12">
+      <c r="N77" s="25">
         <v>4.9118000000000002E-2</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77" s="17">
         <v>1.187543</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P77" s="22">
         <f t="shared" si="43"/>
         <v>0.70000000000902673</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="Q77" s="28">
         <v>2.8382999999999999E-2</v>
       </c>
-      <c r="R77" s="1">
+      <c r="R77" s="28">
         <v>0.104951</v>
       </c>
-      <c r="S77" s="12">
+      <c r="S77" s="15">
         <v>1.1875530000000001</v>
       </c>
-      <c r="T77" s="12">
+      <c r="T77" s="19">
         <f t="shared" si="44"/>
         <v>1.7000000000155779</v>
       </c>
-      <c r="U77" s="12">
+      <c r="U77" s="25">
         <v>4.0728E-2</v>
       </c>
-      <c r="V77" s="12">
+      <c r="V77" s="25">
         <v>0.131825</v>
       </c>
-      <c r="W77" s="1">
+      <c r="W77" s="17">
         <v>1.187554</v>
       </c>
-      <c r="X77" s="1">
+      <c r="X77" s="22">
         <f t="shared" si="45"/>
         <v>1.8000000000073513</v>
       </c>
-      <c r="Y77" s="1">
+      <c r="Y77" s="28">
         <v>4.3157000000000001E-2</v>
       </c>
-      <c r="Z77" s="1">
+      <c r="Z77" s="28">
         <v>0.13594800000000001</v>
       </c>
-      <c r="AA77" s="12">
+      <c r="AA77" s="15">
         <v>1.185875</v>
       </c>
-      <c r="AB77" s="12">
+      <c r="AB77" s="19">
         <f t="shared" si="46"/>
         <v>-166.09999999999127</v>
       </c>
-      <c r="AC77" s="12">
+      <c r="AC77" s="25">
         <v>2.4848349999999999</v>
       </c>
-      <c r="AD77" s="12">
+      <c r="AD77" s="25">
         <v>6.7973980000000003</v>
       </c>
-      <c r="AE77" s="1">
+      <c r="AE77" s="17">
         <v>1.187065</v>
       </c>
-      <c r="AF77" s="1">
+      <c r="AF77" s="22">
         <f t="shared" si="47"/>
         <v>-47.099999999988817</v>
       </c>
-      <c r="AG77" s="1">
+      <c r="AG77" s="28">
         <v>0.67529499999999998</v>
       </c>
-      <c r="AH77" s="1">
+      <c r="AH77" s="28">
         <v>1.798303</v>
       </c>
-      <c r="AI77" s="12">
+      <c r="AI77" s="15">
         <v>1.1874420000000001</v>
       </c>
-      <c r="AJ77" s="12">
+      <c r="AJ77" s="19">
         <f t="shared" si="48"/>
         <v>-9.3999999999816453</v>
       </c>
-      <c r="AK77" s="12">
+      <c r="AK77" s="25">
         <v>0.10374800000000001</v>
       </c>
-      <c r="AL77" s="12">
+      <c r="AL77" s="25">
         <v>0.26244200000000001</v>
       </c>
     </row>
@@ -9732,98 +7984,98 @@
       <c r="I78">
         <v>5</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="11">
         <v>1.1885509999999999</v>
       </c>
-      <c r="K78" s="12">
+      <c r="K78" s="15">
         <v>1.1885209999999999</v>
       </c>
-      <c r="L78" s="12">
+      <c r="L78" s="19">
         <f t="shared" si="42"/>
         <v>-2.9999999999974492</v>
       </c>
-      <c r="M78" s="12">
+      <c r="M78" s="25">
         <v>1.9876999999999999E-2</v>
       </c>
-      <c r="N78" s="12">
+      <c r="N78" s="25">
         <v>5.6849999999999998E-2</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78" s="17">
         <v>1.1885540000000001</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P78" s="22">
         <f t="shared" si="43"/>
         <v>0.30000000001972893</v>
       </c>
-      <c r="Q78" s="1">
+      <c r="Q78" s="28">
         <v>2.2508E-2</v>
       </c>
-      <c r="R78" s="1">
+      <c r="R78" s="28">
         <v>8.8408E-2</v>
       </c>
-      <c r="S78" s="12">
+      <c r="S78" s="15">
         <v>1.1885650000000001</v>
       </c>
-      <c r="T78" s="12">
+      <c r="T78" s="19">
         <f t="shared" si="44"/>
         <v>1.4000000000180535</v>
       </c>
-      <c r="U78" s="12">
+      <c r="U78" s="25">
         <v>3.6811000000000003E-2</v>
       </c>
-      <c r="V78" s="12">
+      <c r="V78" s="25">
         <v>0.118862</v>
       </c>
-      <c r="W78" s="1">
+      <c r="W78" s="17">
         <v>1.1885669999999999</v>
       </c>
-      <c r="X78" s="1">
+      <c r="X78" s="22">
         <f t="shared" si="45"/>
         <v>1.6000000000016001</v>
       </c>
-      <c r="Y78" s="1">
+      <c r="Y78" s="28">
         <v>3.8649999999999997E-2</v>
       </c>
-      <c r="Z78" s="1">
+      <c r="Z78" s="28">
         <v>0.122303</v>
       </c>
-      <c r="AA78" s="12">
+      <c r="AA78" s="15">
         <v>1.1865570000000001</v>
       </c>
-      <c r="AB78" s="12">
+      <c r="AB78" s="19">
         <f t="shared" si="46"/>
         <v>-199.39999999998292</v>
       </c>
-      <c r="AC78" s="12">
+      <c r="AC78" s="25">
         <v>2.9716480000000001</v>
       </c>
-      <c r="AD78" s="12">
+      <c r="AD78" s="25">
         <v>7.9862900000000003</v>
       </c>
-      <c r="AE78" s="1">
+      <c r="AE78" s="17">
         <v>1.1880580000000001</v>
       </c>
-      <c r="AF78" s="1">
+      <c r="AF78" s="22">
         <f t="shared" si="47"/>
         <v>-49.299999999985467</v>
       </c>
-      <c r="AG78" s="1">
+      <c r="AG78" s="28">
         <v>0.70137799999999995</v>
       </c>
-      <c r="AH78" s="1">
+      <c r="AH78" s="28">
         <v>1.8266629999999999</v>
       </c>
-      <c r="AI78" s="12">
+      <c r="AI78" s="15">
         <v>1.18848</v>
       </c>
-      <c r="AJ78" s="12">
+      <c r="AJ78" s="19">
         <f t="shared" si="48"/>
         <v>-7.0999999999932228</v>
       </c>
-      <c r="AK78" s="12">
+      <c r="AK78" s="25">
         <v>6.9043999999999994E-2</v>
       </c>
-      <c r="AL78" s="12">
+      <c r="AL78" s="25">
         <v>0.17980499999999999</v>
       </c>
     </row>
@@ -9846,98 +8098,98 @@
       <c r="I79">
         <v>6</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="11">
         <v>1.189619</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K79" s="15">
         <v>1.1895849999999999</v>
       </c>
-      <c r="L79" s="12">
+      <c r="L79" s="19">
         <f t="shared" si="42"/>
         <v>-3.4000000000089514</v>
       </c>
-      <c r="M79" s="12">
+      <c r="M79" s="25">
         <v>2.6342000000000001E-2</v>
       </c>
-      <c r="N79" s="12">
+      <c r="N79" s="25">
         <v>7.0382E-2</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O79" s="17">
         <v>1.189613</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P79" s="22">
         <f t="shared" si="43"/>
         <v>-0.59999999999504894</v>
       </c>
-      <c r="Q79" s="1">
+      <c r="Q79" s="28">
         <v>8.7899999999999992E-3</v>
       </c>
-      <c r="R79" s="1">
+      <c r="R79" s="28">
         <v>4.7072000000000003E-2</v>
       </c>
-      <c r="S79" s="12">
+      <c r="S79" s="15">
         <v>1.189624</v>
       </c>
-      <c r="T79" s="12">
+      <c r="T79" s="19">
         <f t="shared" si="44"/>
         <v>0.5000000000032756</v>
       </c>
-      <c r="U79" s="12">
+      <c r="U79" s="25">
         <v>2.1898000000000001E-2</v>
       </c>
-      <c r="V79" s="12">
+      <c r="V79" s="25">
         <v>7.6898999999999995E-2</v>
       </c>
-      <c r="W79" s="1">
+      <c r="W79" s="17">
         <v>1.1896260000000001</v>
       </c>
-      <c r="X79" s="1">
+      <c r="X79" s="22">
         <f t="shared" si="45"/>
         <v>0.70000000000902673</v>
       </c>
-      <c r="Y79" s="1">
+      <c r="Y79" s="28">
         <v>2.3685000000000001E-2</v>
       </c>
-      <c r="Z79" s="1">
+      <c r="Z79" s="28">
         <v>8.0306000000000002E-2</v>
       </c>
-      <c r="AA79" s="12">
+      <c r="AA79" s="15">
         <v>1.187422</v>
       </c>
-      <c r="AB79" s="12">
+      <c r="AB79" s="19">
         <f t="shared" si="46"/>
         <v>-219.70000000000044</v>
       </c>
-      <c r="AC79" s="12">
+      <c r="AC79" s="25">
         <v>3.2567050000000002</v>
       </c>
-      <c r="AD79" s="12">
+      <c r="AD79" s="25">
         <v>8.5881729999999994</v>
       </c>
-      <c r="AE79" s="1">
+      <c r="AE79" s="17">
         <v>1.189133</v>
       </c>
-      <c r="AF79" s="1">
+      <c r="AF79" s="22">
         <f t="shared" si="47"/>
         <v>-48.599999999998644</v>
       </c>
-      <c r="AG79" s="1">
+      <c r="AG79" s="28">
         <v>0.68491900000000006</v>
       </c>
-      <c r="AH79" s="1">
+      <c r="AH79" s="28">
         <v>1.7460310000000001</v>
       </c>
-      <c r="AI79" s="12">
+      <c r="AI79" s="15">
         <v>1.189568</v>
       </c>
-      <c r="AJ79" s="12">
+      <c r="AJ79" s="19">
         <f t="shared" si="48"/>
         <v>-5.1000000000023249</v>
       </c>
-      <c r="AK79" s="12">
+      <c r="AK79" s="25">
         <v>4.1986999999999997E-2</v>
       </c>
-      <c r="AL79" s="12">
+      <c r="AL79" s="25">
         <v>0.12195499999999999</v>
       </c>
     </row>
@@ -9960,98 +8212,98 @@
       <c r="I80">
         <v>7</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="11">
         <v>1.190753</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K80" s="15">
         <v>1.1907140000000001</v>
       </c>
-      <c r="L80" s="12">
+      <c r="L80" s="19">
         <f t="shared" si="42"/>
         <v>-3.8999999999900226</v>
       </c>
-      <c r="M80" s="12">
+      <c r="M80" s="25">
         <v>3.5885E-2</v>
       </c>
-      <c r="N80" s="12">
+      <c r="N80" s="25">
         <v>9.0437000000000003E-2</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80" s="17">
         <v>1.190733</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P80" s="22">
         <f t="shared" si="43"/>
         <v>-1.9999999999908979</v>
       </c>
-      <c r="Q80" s="1">
+      <c r="Q80" s="28">
         <v>1.5674E-2</v>
       </c>
-      <c r="R80" s="1">
+      <c r="R80" s="28">
         <v>3.6181999999999999E-2</v>
       </c>
-      <c r="S80" s="12">
+      <c r="S80" s="15">
         <v>1.1907430000000001</v>
       </c>
-      <c r="T80" s="12">
+      <c r="T80" s="19">
         <f t="shared" si="44"/>
         <v>-0.99999999998434674</v>
       </c>
-      <c r="U80" s="12">
+      <c r="U80" s="25">
         <v>3.8170000000000001E-3</v>
       </c>
-      <c r="V80" s="12">
+      <c r="V80" s="25">
         <v>1.4574E-2</v>
       </c>
-      <c r="W80" s="1">
+      <c r="W80" s="17">
         <v>1.1907449999999999</v>
       </c>
-      <c r="X80" s="1">
+      <c r="X80" s="22">
         <f t="shared" si="45"/>
         <v>-0.80000000000080007</v>
       </c>
-      <c r="Y80" s="1">
+      <c r="Y80" s="28">
         <v>3.3119999999999998E-3</v>
       </c>
-      <c r="Z80" s="1">
+      <c r="Z80" s="28">
         <v>1.7035000000000002E-2</v>
       </c>
-      <c r="AA80" s="12">
+      <c r="AA80" s="15">
         <v>1.1885479999999999</v>
       </c>
-      <c r="AB80" s="12">
+      <c r="AB80" s="19">
         <f t="shared" si="46"/>
         <v>-220.50000000000125</v>
       </c>
-      <c r="AC80" s="12">
+      <c r="AC80" s="25">
         <v>3.2422979999999999</v>
       </c>
-      <c r="AD80" s="12">
+      <c r="AD80" s="25">
         <v>8.3744019999999999</v>
       </c>
-      <c r="AE80" s="1">
+      <c r="AE80" s="17">
         <v>1.1903060000000001</v>
       </c>
-      <c r="AF80" s="1">
+      <c r="AF80" s="22">
         <f t="shared" si="47"/>
         <v>-44.699999999986417</v>
       </c>
-      <c r="AG80" s="1">
+      <c r="AG80" s="28">
         <v>0.62662899999999999</v>
       </c>
-      <c r="AH80" s="1">
+      <c r="AH80" s="28">
         <v>1.564781</v>
       </c>
-      <c r="AI80" s="12">
+      <c r="AI80" s="15">
         <v>1.1907209999999999</v>
       </c>
-      <c r="AJ80" s="12">
+      <c r="AJ80" s="19">
         <f t="shared" si="48"/>
         <v>-3.2000000000032003</v>
       </c>
-      <c r="AK80" s="12">
+      <c r="AK80" s="25">
         <v>2.1165E-2</v>
       </c>
-      <c r="AL80" s="12">
+      <c r="AL80" s="25">
         <v>8.1793000000000005E-2</v>
       </c>
     </row>
@@ -10074,98 +8326,98 @@
       <c r="I81">
         <v>8</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="11">
         <v>1.191983</v>
       </c>
-      <c r="K81" s="12">
+      <c r="K81" s="15">
         <v>1.1919360000000001</v>
       </c>
-      <c r="L81" s="12">
+      <c r="L81" s="19">
         <f t="shared" si="42"/>
         <v>-4.6999999999908226</v>
       </c>
-      <c r="M81" s="12">
+      <c r="M81" s="25">
         <v>5.1352000000000002E-2</v>
       </c>
-      <c r="N81" s="12">
+      <c r="N81" s="25">
         <v>0.123003</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81" s="17">
         <v>1.191943</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P81" s="22">
         <f t="shared" si="43"/>
         <v>-4.0000000000040004</v>
       </c>
-      <c r="Q81" s="1">
+      <c r="Q81" s="28">
         <v>4.5779E-2</v>
       </c>
-      <c r="R81" s="1">
+      <c r="R81" s="28">
         <v>0.106847</v>
       </c>
-      <c r="S81" s="12">
+      <c r="S81" s="15">
         <v>1.191951</v>
       </c>
-      <c r="T81" s="12">
+      <c r="T81" s="19">
         <f t="shared" si="44"/>
         <v>-3.2000000000032003</v>
       </c>
-      <c r="U81" s="12">
+      <c r="U81" s="25">
         <v>3.4604999999999997E-2</v>
       </c>
-      <c r="V81" s="12">
+      <c r="V81" s="25">
         <v>8.3384E-2</v>
       </c>
-      <c r="W81" s="1">
+      <c r="W81" s="17">
         <v>1.191953</v>
       </c>
-      <c r="X81" s="1">
+      <c r="X81" s="22">
         <f t="shared" si="45"/>
         <v>-2.9999999999974492</v>
       </c>
-      <c r="Y81" s="1">
+      <c r="Y81" s="28">
         <v>3.3214E-2</v>
       </c>
-      <c r="Z81" s="1">
+      <c r="Z81" s="28">
         <v>8.0561999999999995E-2</v>
       </c>
-      <c r="AA81" s="12">
+      <c r="AA81" s="15">
         <v>1.1900729999999999</v>
       </c>
-      <c r="AB81" s="12">
+      <c r="AB81" s="19">
         <f t="shared" si="46"/>
         <v>-191.00000000000784</v>
       </c>
-      <c r="AC81" s="12">
+      <c r="AC81" s="25">
         <v>2.7773889999999999</v>
       </c>
-      <c r="AD81" s="12">
+      <c r="AD81" s="25">
         <v>7.0065249999999999</v>
       </c>
-      <c r="AE81" s="1">
+      <c r="AE81" s="17">
         <v>1.1916009999999999</v>
       </c>
-      <c r="AF81" s="1">
+      <c r="AF81" s="22">
         <f t="shared" si="47"/>
         <v>-38.200000000010448</v>
       </c>
-      <c r="AG81" s="1">
+      <c r="AG81" s="28">
         <v>0.53217999999999999</v>
       </c>
-      <c r="AH81" s="1">
+      <c r="AH81" s="28">
         <v>1.3118939999999999</v>
       </c>
-      <c r="AI81" s="12">
+      <c r="AI81" s="15">
         <v>1.19197</v>
       </c>
-      <c r="AJ81" s="12">
+      <c r="AJ81" s="19">
         <f t="shared" si="48"/>
         <v>-1.3000000000040757</v>
       </c>
-      <c r="AK81" s="12">
+      <c r="AK81" s="25">
         <v>1.2564000000000001E-2</v>
       </c>
-      <c r="AL81" s="12">
+      <c r="AL81" s="25">
         <v>8.4523000000000001E-2</v>
       </c>
     </row>
@@ -10178,98 +8430,98 @@
       <c r="I83">
         <v>10</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="11">
         <v>1.1955990000000001</v>
       </c>
-      <c r="K83" s="12">
+      <c r="K83" s="15">
         <v>1.1955990000000001</v>
       </c>
-      <c r="L83" s="12">
+      <c r="L83" s="19">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="M83" s="12">
+      <c r="M83" s="25">
         <v>2.9E-5</v>
       </c>
-      <c r="N83" s="12">
+      <c r="N83" s="25">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83" s="17">
         <v>1.1955990000000001</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P83" s="22">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="Q83" s="1">
+      <c r="Q83" s="28">
         <v>2.9E-5</v>
       </c>
-      <c r="R83" s="1">
+      <c r="R83" s="28">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="S83" s="12">
+      <c r="S83" s="15">
         <v>1.1955990000000001</v>
       </c>
-      <c r="T83" s="12">
+      <c r="T83" s="19">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="U83" s="12">
+      <c r="U83" s="25">
         <v>2.9E-5</v>
       </c>
-      <c r="V83" s="12">
+      <c r="V83" s="25">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="W83" s="1">
+      <c r="W83" s="17">
         <v>1.1955990000000001</v>
       </c>
-      <c r="X83" s="1">
+      <c r="X83" s="22">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Y83" s="1">
+      <c r="Y83" s="28">
         <v>2.9E-5</v>
       </c>
-      <c r="Z83" s="1">
+      <c r="Z83" s="28">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AA83" s="12">
+      <c r="AA83" s="15">
         <v>1.1955990000000001</v>
       </c>
-      <c r="AB83" s="12">
+      <c r="AB83" s="19">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AC83" s="12">
+      <c r="AC83" s="25">
         <v>2.9E-5</v>
       </c>
-      <c r="AD83" s="12">
+      <c r="AD83" s="25">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AE83" s="1">
+      <c r="AE83" s="17">
         <v>1.1955990000000001</v>
       </c>
-      <c r="AF83" s="1">
+      <c r="AF83" s="22">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AG83" s="1">
+      <c r="AG83" s="28">
         <v>2.9E-5</v>
       </c>
-      <c r="AH83" s="1">
+      <c r="AH83" s="28">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AI83" s="12">
+      <c r="AI83" s="15">
         <v>1.1955990000000001</v>
       </c>
-      <c r="AJ83" s="12">
+      <c r="AJ83" s="19">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AK83" s="12">
+      <c r="AK83" s="25">
         <v>2.9E-5</v>
       </c>
-      <c r="AL83" s="12">
+      <c r="AL83" s="25">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
@@ -10277,87 +8529,87 @@
       <c r="I84" t="s">
         <v>44</v>
       </c>
-      <c r="L84" s="12">
+      <c r="L84" s="19">
         <f t="array" ref="L84">AVERAGE(ABS(L75:L81))</f>
         <v>3.2428571428568174</v>
       </c>
-      <c r="M84" s="12">
+      <c r="M84" s="25">
         <f>M85</f>
         <v>2.6646714285714291E-2</v>
       </c>
-      <c r="N84" s="12">
+      <c r="N84" s="25">
         <f t="shared" ref="N84" si="49">N85</f>
         <v>7.0720285714285708E-2</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P84" s="22">
         <f t="array" ref="P84">AVERAGE(ABS(P75:P81))</f>
         <v>1.1714285714305359</v>
       </c>
-      <c r="Q84" s="1">
+      <c r="Q84" s="28">
         <f>Q85</f>
         <v>2.2937285714285716E-2</v>
       </c>
-      <c r="R84" s="1">
+      <c r="R84" s="28">
         <f t="shared" ref="R84" si="50">R85</f>
         <v>7.6004714285714287E-2</v>
       </c>
-      <c r="T84" s="12">
+      <c r="T84" s="19">
         <f t="array" ref="T84">AVERAGE(ABS(T75:T81))</f>
         <v>1.4000000000053652</v>
       </c>
-      <c r="U84" s="12">
+      <c r="U84" s="25">
         <f>U85</f>
         <v>2.7790285714285712E-2</v>
       </c>
-      <c r="V84" s="12">
+      <c r="V84" s="25">
         <f t="shared" ref="V84" si="51">V85</f>
         <v>8.7481714285714274E-2</v>
       </c>
-      <c r="X84" s="1">
+      <c r="X84" s="22">
         <f t="array" ref="X84">AVERAGE(ABS(X75:X81))</f>
         <v>1.4285714285744433</v>
       </c>
-      <c r="Y84" s="1">
+      <c r="Y84" s="28">
         <f>Y85</f>
         <v>2.8523E-2</v>
       </c>
-      <c r="Z84" s="1">
+      <c r="Z84" s="28">
         <f t="shared" ref="Z84" si="52">Z85</f>
         <v>8.9367000000000002E-2</v>
       </c>
-      <c r="AB84" s="12">
+      <c r="AB84" s="19">
         <f t="array" ref="AB84">AVERAGE(ABS(AB75:AB81))</f>
         <v>171.24285714285674</v>
       </c>
-      <c r="AC84" s="12">
+      <c r="AC84" s="25">
         <f>AC85</f>
         <v>2.5375098571428572</v>
       </c>
-      <c r="AD84" s="12">
+      <c r="AD84" s="25">
         <f t="shared" ref="AD84" si="53">AD85</f>
         <v>6.7480517142857144</v>
       </c>
-      <c r="AF84" s="1">
+      <c r="AF84" s="22">
         <f t="array" ref="AF84">AVERAGE(ABS(AF75:AF81))</f>
         <v>43.028571428565286</v>
       </c>
-      <c r="AG84" s="1">
+      <c r="AG84" s="28">
         <f>AG85</f>
         <v>0.6119201428571428</v>
       </c>
-      <c r="AH84" s="1">
+      <c r="AH84" s="28">
         <f t="shared" ref="AH84" si="54">AH85</f>
         <v>1.5970032857142857</v>
       </c>
-      <c r="AJ84" s="12">
+      <c r="AJ84" s="19">
         <f t="array" ref="AJ84">AVERAGE(ABS(AJ75:AJ81))</f>
         <v>7.6714285714255377</v>
       </c>
-      <c r="AK84" s="12">
+      <c r="AK84" s="25">
         <f>AK85</f>
         <v>8.6614999999999998E-2</v>
       </c>
-      <c r="AL84" s="12">
+      <c r="AL84" s="25">
         <f t="shared" ref="AL84" si="55">AL85</f>
         <v>0.23798257142857143</v>
       </c>
@@ -10366,87 +8618,87 @@
       <c r="I85" t="s">
         <v>46</v>
       </c>
-      <c r="L85" s="12">
+      <c r="L85" s="19">
         <f>AVERAGE(L75:L81)</f>
         <v>-3.2428571428568174</v>
       </c>
-      <c r="M85" s="12">
+      <c r="M85" s="25">
         <f>AVERAGE(M75:M81)</f>
         <v>2.6646714285714291E-2</v>
       </c>
-      <c r="N85" s="12">
+      <c r="N85" s="25">
         <f>AVERAGE(N75:N81)</f>
         <v>7.0720285714285708E-2</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P85" s="22">
         <f>AVERAGE(P75:P81)</f>
         <v>-0.7142857142808775</v>
       </c>
-      <c r="Q85" s="1">
+      <c r="Q85" s="28">
         <f>AVERAGE(Q75:Q81)</f>
         <v>2.2937285714285716E-2</v>
       </c>
-      <c r="R85" s="1">
+      <c r="R85" s="28">
         <f>AVERAGE(R75:R81)</f>
         <v>7.6004714285714287E-2</v>
       </c>
-      <c r="T85" s="12">
+      <c r="T85" s="19">
         <f>AVERAGE(T75:T81)</f>
         <v>0.20000000000892321</v>
       </c>
-      <c r="U85" s="12">
+      <c r="U85" s="25">
         <f>AVERAGE(U75:U81)</f>
         <v>2.7790285714285712E-2</v>
       </c>
-      <c r="V85" s="12">
+      <c r="V85" s="25">
         <f>AVERAGE(V75:V81)</f>
         <v>8.7481714285714274E-2</v>
       </c>
-      <c r="X85" s="1">
+      <c r="X85" s="22">
         <f>AVERAGE(X75:X81)</f>
         <v>0.34285714286065783</v>
       </c>
-      <c r="Y85" s="1">
+      <c r="Y85" s="28">
         <f>AVERAGE(Y75:Y81)</f>
         <v>2.8523E-2</v>
       </c>
-      <c r="Z85" s="1">
+      <c r="Z85" s="28">
         <f>AVERAGE(Z75:Z81)</f>
         <v>8.9367000000000002E-2</v>
       </c>
-      <c r="AB85" s="12">
+      <c r="AB85" s="19">
         <f>AVERAGE(AB75:AB81)</f>
         <v>-171.24285714285674</v>
       </c>
-      <c r="AC85" s="12">
+      <c r="AC85" s="25">
         <f>AVERAGE(AC75:AC81)</f>
         <v>2.5375098571428572</v>
       </c>
-      <c r="AD85" s="12">
+      <c r="AD85" s="25">
         <f>AVERAGE(AD75:AD81)</f>
         <v>6.7480517142857144</v>
       </c>
-      <c r="AF85" s="1">
+      <c r="AF85" s="22">
         <f>AVERAGE(AF75:AF81)</f>
         <v>-43.028571428565286</v>
       </c>
-      <c r="AG85" s="1">
+      <c r="AG85" s="28">
         <f>AVERAGE(AG75:AG81)</f>
         <v>0.6119201428571428</v>
       </c>
-      <c r="AH85" s="1">
+      <c r="AH85" s="28">
         <f>AVERAGE(AH75:AH81)</f>
         <v>1.5970032857142857</v>
       </c>
-      <c r="AJ85" s="12">
+      <c r="AJ85" s="19">
         <f>AVERAGE(AJ75:AJ81)</f>
         <v>-7.6714285714255377</v>
       </c>
-      <c r="AK85" s="12">
+      <c r="AK85" s="25">
         <f>AVERAGE(AK75:AK81)</f>
         <v>8.6614999999999998E-2</v>
       </c>
-      <c r="AL85" s="12">
+      <c r="AL85" s="25">
         <f>AVERAGE(AL75:AL81)</f>
         <v>0.23798257142857143</v>
       </c>
@@ -10455,112 +8707,38 @@
       <c r="I86" t="s">
         <v>47</v>
       </c>
-      <c r="L86" s="12">
+      <c r="L86" s="19">
         <f>STDEV(L75:L81)</f>
         <v>0.82027869827795452</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P86" s="22">
         <f>STDEV(P75:P81)</f>
         <v>1.7189420888358429</v>
       </c>
-      <c r="T86" s="12">
+      <c r="T86" s="19">
         <f>STDEV(T75:T81)</f>
         <v>1.7502380790471554</v>
       </c>
-      <c r="X86" s="1">
+      <c r="X86" s="22">
         <f>STDEV(X75:X81)</f>
         <v>1.7183879488801781</v>
       </c>
-      <c r="AB86" s="12">
+      <c r="AB86" s="19">
         <f>STDEV(AB75:AB81)</f>
         <v>53.131718622770002</v>
       </c>
-      <c r="AF86" s="1">
+      <c r="AF86" s="22">
         <f>STDEV(AF75:AF81)</f>
         <v>6.3696452768068559</v>
       </c>
-      <c r="AJ86" s="12">
+      <c r="AJ86" s="19">
         <f>STDEV(AJ75:AJ81)</f>
         <v>5.0235161277406499</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="AG71:AH71"/>
-    <mergeCell ref="AI71:AJ71"/>
-    <mergeCell ref="AK71:AL71"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="U71:V71"/>
-    <mergeCell ref="W71:X71"/>
-    <mergeCell ref="Y71:Z71"/>
-    <mergeCell ref="AA71:AB71"/>
-    <mergeCell ref="AC71:AD71"/>
-    <mergeCell ref="AE71:AF71"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="W70:Z70"/>
-    <mergeCell ref="AA70:AD70"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="AI70:AL70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="O70:R70"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AI14:AL14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="AE51:AH51"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AI33:AJ33"/>
     <mergeCell ref="AE32:AH32"/>
     <mergeCell ref="AI32:AL32"/>
@@ -10576,8 +8754,82 @@
     <mergeCell ref="S32:V32"/>
     <mergeCell ref="W32:Z32"/>
     <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
     <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="W70:Z70"/>
+    <mergeCell ref="AA70:AD70"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="AI70:AL70"/>
+    <mergeCell ref="AG71:AH71"/>
+    <mergeCell ref="AI71:AJ71"/>
+    <mergeCell ref="AK71:AL71"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="U71:V71"/>
+    <mergeCell ref="W71:X71"/>
+    <mergeCell ref="Y71:Z71"/>
+    <mergeCell ref="AA71:AB71"/>
+    <mergeCell ref="AC71:AD71"/>
+    <mergeCell ref="AE71:AF71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Miscellaneous/results.xlsx
+++ b/Miscellaneous/results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarog\dissertation\Miscellaneous\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-165" windowWidth="27795" windowHeight="14310" activeTab="7"/>
+    <workbookView xWindow="-225" yWindow="-165" windowWidth="27795" windowHeight="14310" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="meshing stuff" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="3D Subray" sheetId="7" r:id="rId7"/>
     <sheet name="3D Subray Runtime" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -701,7 +706,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.##\%;[Red]\(0.##\%\)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -888,22 +893,26 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -924,16 +933,12 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -997,7 +1002,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1030,9 +1035,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1065,6 +1087,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3722,48 +3761,48 @@
       <c r="J14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="45" t="s">
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="43" t="s">
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="45" t="s">
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="43" t="s">
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="45" t="s">
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="43" t="s">
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ14" s="43"/>
-      <c r="AK14" s="43"/>
-      <c r="AL14" s="43"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
     </row>
     <row r="15" spans="4:38" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -3772,62 +3811,62 @@
       <c r="J15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="46" t="s">
+      <c r="L15" s="45"/>
+      <c r="M15" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="46"/>
-      <c r="O15" s="47" t="s">
+      <c r="N15" s="49"/>
+      <c r="O15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="45" t="s">
+      <c r="P15" s="48"/>
+      <c r="Q15" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="44" t="s">
+      <c r="R15" s="44"/>
+      <c r="S15" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T15" s="44"/>
-      <c r="U15" s="43" t="s">
+      <c r="T15" s="45"/>
+      <c r="U15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V15" s="43"/>
-      <c r="W15" s="47" t="s">
+      <c r="V15" s="46"/>
+      <c r="W15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="45" t="s">
+      <c r="X15" s="48"/>
+      <c r="Y15" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="44" t="s">
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="43" t="s">
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="47" t="s">
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="45" t="s">
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="44" t="s">
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="43" t="s">
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL15" s="43"/>
+      <c r="AL15" s="46"/>
     </row>
     <row r="16" spans="4:38" x14ac:dyDescent="0.25">
       <c r="J16" s="8" t="s">
@@ -3919,13 +3958,13 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="47"/>
       <c r="I17">
         <v>0</v>
       </c>
@@ -3980,7 +4019,7 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
+      <c r="B18" s="47"/>
       <c r="C18" t="s">
         <v>39</v>
       </c>
@@ -4997,48 +5036,48 @@
       <c r="J32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="43" t="s">
+      <c r="K32" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="45" t="s">
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="43" t="s">
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="45" t="s">
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="43" t="s">
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="43"/>
-      <c r="AE32" s="45" t="s">
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="43" t="s">
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ32" s="43"/>
-      <c r="AK32" s="43"/>
-      <c r="AL32" s="43"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+      <c r="AL32" s="46"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
@@ -5047,62 +5086,62 @@
       <c r="J33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="44" t="s">
+      <c r="K33" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="44"/>
-      <c r="M33" s="46" t="s">
+      <c r="L33" s="45"/>
+      <c r="M33" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="46"/>
-      <c r="O33" s="47" t="s">
+      <c r="N33" s="49"/>
+      <c r="O33" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="45" t="s">
+      <c r="P33" s="48"/>
+      <c r="Q33" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="45"/>
-      <c r="S33" s="44" t="s">
+      <c r="R33" s="44"/>
+      <c r="S33" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T33" s="44"/>
-      <c r="U33" s="43" t="s">
+      <c r="T33" s="45"/>
+      <c r="U33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V33" s="43"/>
-      <c r="W33" s="47" t="s">
+      <c r="V33" s="46"/>
+      <c r="W33" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="45" t="s">
+      <c r="X33" s="48"/>
+      <c r="Y33" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="44" t="s">
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="43" t="s">
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD33" s="43"/>
-      <c r="AE33" s="47" t="s">
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="45" t="s">
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="44" t="s">
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="43" t="s">
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL33" s="43"/>
+      <c r="AL33" s="46"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J34" s="8" t="s">
@@ -5194,13 +5233,13 @@
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="48"/>
+      <c r="D35" s="47"/>
       <c r="I35">
         <v>0</v>
       </c>
@@ -5300,7 +5339,7 @@
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B36" s="48"/>
+      <c r="B36" s="47"/>
       <c r="C36" t="s">
         <v>39</v>
       </c>
@@ -6670,48 +6709,48 @@
       <c r="J51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="43" t="s">
+      <c r="K51" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="45" t="s">
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="43" t="s">
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="45" t="s">
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="45"/>
-      <c r="AA51" s="43" t="s">
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB51" s="43"/>
-      <c r="AC51" s="43"/>
-      <c r="AD51" s="43"/>
-      <c r="AE51" s="45" t="s">
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AF51" s="45"/>
-      <c r="AG51" s="45"/>
-      <c r="AH51" s="45"/>
-      <c r="AI51" s="43" t="s">
+      <c r="AF51" s="44"/>
+      <c r="AG51" s="44"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ51" s="43"/>
-      <c r="AK51" s="43"/>
-      <c r="AL51" s="43"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="46"/>
+      <c r="AL51" s="46"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
@@ -6720,62 +6759,62 @@
       <c r="J52" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K52" s="44" t="s">
+      <c r="K52" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L52" s="44"/>
-      <c r="M52" s="46" t="s">
+      <c r="L52" s="45"/>
+      <c r="M52" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N52" s="46"/>
-      <c r="O52" s="47" t="s">
+      <c r="N52" s="49"/>
+      <c r="O52" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="45" t="s">
+      <c r="P52" s="48"/>
+      <c r="Q52" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R52" s="45"/>
-      <c r="S52" s="44" t="s">
+      <c r="R52" s="44"/>
+      <c r="S52" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T52" s="44"/>
-      <c r="U52" s="43" t="s">
+      <c r="T52" s="45"/>
+      <c r="U52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V52" s="43"/>
-      <c r="W52" s="47" t="s">
+      <c r="V52" s="46"/>
+      <c r="W52" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="X52" s="47"/>
-      <c r="Y52" s="45" t="s">
+      <c r="X52" s="48"/>
+      <c r="Y52" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Z52" s="45"/>
-      <c r="AA52" s="44" t="s">
+      <c r="Z52" s="44"/>
+      <c r="AA52" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AB52" s="44"/>
-      <c r="AC52" s="43" t="s">
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD52" s="43"/>
-      <c r="AE52" s="47" t="s">
+      <c r="AD52" s="46"/>
+      <c r="AE52" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AF52" s="47"/>
-      <c r="AG52" s="45" t="s">
+      <c r="AF52" s="48"/>
+      <c r="AG52" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AH52" s="45"/>
-      <c r="AI52" s="44" t="s">
+      <c r="AH52" s="44"/>
+      <c r="AI52" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AJ52" s="44"/>
-      <c r="AK52" s="43" t="s">
+      <c r="AJ52" s="45"/>
+      <c r="AK52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL52" s="43"/>
+      <c r="AL52" s="46"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J53" s="8" t="s">
@@ -6867,13 +6906,13 @@
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="48"/>
+      <c r="D54" s="47"/>
       <c r="I54">
         <v>0</v>
       </c>
@@ -6973,7 +7012,7 @@
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B55" s="48"/>
+      <c r="B55" s="47"/>
       <c r="C55" t="s">
         <v>39</v>
       </c>
@@ -8343,48 +8382,48 @@
       <c r="J70" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K70" s="43" t="s">
+      <c r="K70" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="45" t="s">
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="45"/>
-      <c r="R70" s="45"/>
-      <c r="S70" s="43" t="s">
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="45" t="s">
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X70" s="45"/>
-      <c r="Y70" s="45"/>
-      <c r="Z70" s="45"/>
-      <c r="AA70" s="43" t="s">
+      <c r="X70" s="44"/>
+      <c r="Y70" s="44"/>
+      <c r="Z70" s="44"/>
+      <c r="AA70" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB70" s="43"/>
-      <c r="AC70" s="43"/>
-      <c r="AD70" s="43"/>
-      <c r="AE70" s="45" t="s">
+      <c r="AB70" s="46"/>
+      <c r="AC70" s="46"/>
+      <c r="AD70" s="46"/>
+      <c r="AE70" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AF70" s="45"/>
-      <c r="AG70" s="45"/>
-      <c r="AH70" s="45"/>
-      <c r="AI70" s="43" t="s">
+      <c r="AF70" s="44"/>
+      <c r="AG70" s="44"/>
+      <c r="AH70" s="44"/>
+      <c r="AI70" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ70" s="43"/>
-      <c r="AK70" s="43"/>
-      <c r="AL70" s="43"/>
+      <c r="AJ70" s="46"/>
+      <c r="AK70" s="46"/>
+      <c r="AL70" s="46"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
@@ -8393,62 +8432,62 @@
       <c r="J71" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K71" s="44" t="s">
+      <c r="K71" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L71" s="44"/>
-      <c r="M71" s="46" t="s">
+      <c r="L71" s="45"/>
+      <c r="M71" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N71" s="46"/>
-      <c r="O71" s="47" t="s">
+      <c r="N71" s="49"/>
+      <c r="O71" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="45" t="s">
+      <c r="P71" s="48"/>
+      <c r="Q71" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R71" s="45"/>
-      <c r="S71" s="44" t="s">
+      <c r="R71" s="44"/>
+      <c r="S71" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T71" s="44"/>
-      <c r="U71" s="43" t="s">
+      <c r="T71" s="45"/>
+      <c r="U71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V71" s="43"/>
-      <c r="W71" s="47" t="s">
+      <c r="V71" s="46"/>
+      <c r="W71" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="X71" s="47"/>
-      <c r="Y71" s="45" t="s">
+      <c r="X71" s="48"/>
+      <c r="Y71" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Z71" s="45"/>
-      <c r="AA71" s="44" t="s">
+      <c r="Z71" s="44"/>
+      <c r="AA71" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AB71" s="44"/>
-      <c r="AC71" s="43" t="s">
+      <c r="AB71" s="45"/>
+      <c r="AC71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD71" s="43"/>
-      <c r="AE71" s="47" t="s">
+      <c r="AD71" s="46"/>
+      <c r="AE71" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AF71" s="47"/>
-      <c r="AG71" s="45" t="s">
+      <c r="AF71" s="48"/>
+      <c r="AG71" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AH71" s="45"/>
-      <c r="AI71" s="44" t="s">
+      <c r="AH71" s="44"/>
+      <c r="AI71" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AJ71" s="44"/>
-      <c r="AK71" s="43" t="s">
+      <c r="AJ71" s="45"/>
+      <c r="AK71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL71" s="43"/>
+      <c r="AL71" s="46"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J72" s="8" t="s">
@@ -8540,13 +8579,13 @@
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="48"/>
+      <c r="D73" s="47"/>
       <c r="I73">
         <v>0</v>
       </c>
@@ -8646,7 +8685,7 @@
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B74" s="48"/>
+      <c r="B74" s="47"/>
       <c r="C74" t="s">
         <v>39</v>
       </c>
@@ -10011,6 +10050,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AE32:AH32"/>
+    <mergeCell ref="AI32:AL32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="W70:Z70"/>
+    <mergeCell ref="AA70:AD70"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="AI70:AL70"/>
     <mergeCell ref="AG71:AH71"/>
     <mergeCell ref="AI71:AJ71"/>
     <mergeCell ref="AK71:AL71"/>
@@ -10027,82 +10142,6 @@
     <mergeCell ref="O71:P71"/>
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="S71:T71"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="W70:Z70"/>
-    <mergeCell ref="AA70:AD70"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="AI70:AL70"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O70:R70"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AI14:AL14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="AE51:AH51"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AE32:AH32"/>
-    <mergeCell ref="AI32:AL32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="AA32:AD32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10149,141 +10188,141 @@
       <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="57" t="s">
+      <c r="M1" s="57"/>
+      <c r="N1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="45" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="57" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="45" t="s">
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="57" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="45" t="s">
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="57" t="s">
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="50" t="s">
+      <c r="U2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="51" t="s">
+      <c r="V2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="52" t="s">
+      <c r="W2" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="54" t="s">
+      <c r="Y2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="Z2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="51" t="s">
+      <c r="AB2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="52" t="s">
+      <c r="AC2" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AD2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="54" t="s">
+      <c r="AE2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="49" t="s">
+      <c r="AF2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="50" t="s">
+      <c r="AG2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="51" t="s">
+      <c r="AH2" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="51"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="53"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K4">
@@ -11645,45 +11684,45 @@
       <c r="J21" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="56" t="s">
+      <c r="L21" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57" t="s">
+      <c r="M21" s="57"/>
+      <c r="N21" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="45" t="s">
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="57" t="s">
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="45" t="s">
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="57" t="s">
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="45" t="s">
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="57" t="s">
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -11707,73 +11746,73 @@
         <f t="shared" si="1"/>
         <v>649.29999999999995</v>
       </c>
-      <c r="L22" s="55" t="s">
+      <c r="L22" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="56" t="s">
+      <c r="M22" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="49" t="s">
+      <c r="N22" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="50" t="s">
+      <c r="O22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="P22" s="51" t="s">
+      <c r="P22" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="52" t="s">
+      <c r="Q22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="53" t="s">
+      <c r="R22" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="54" t="s">
+      <c r="S22" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="T22" s="49" t="s">
+      <c r="T22" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="U22" s="50" t="s">
+      <c r="U22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="V22" s="51" t="s">
+      <c r="V22" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="W22" s="52" t="s">
+      <c r="W22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="X22" s="53" t="s">
+      <c r="X22" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="Y22" s="54" t="s">
+      <c r="Y22" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="Z22" s="49" t="s">
+      <c r="Z22" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AA22" s="50" t="s">
+      <c r="AA22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="AB22" s="51" t="s">
+      <c r="AB22" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="AC22" s="52" t="s">
+      <c r="AC22" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AD22" s="53" t="s">
+      <c r="AD22" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="AE22" s="54" t="s">
+      <c r="AE22" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="AF22" s="49" t="s">
+      <c r="AF22" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AG22" s="50" t="s">
+      <c r="AG22" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="AH22" s="51" t="s">
+      <c r="AH22" s="53" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11799,29 +11838,29 @@
         <f t="shared" si="1"/>
         <v>665.8</v>
       </c>
-      <c r="L23" s="55"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="51"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="52"/>
+      <c r="AH23" s="53"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -12016,7 +12055,7 @@
         <f>$M25/AD25</f>
         <v>1.5614804849337267</v>
       </c>
-      <c r="AF25" s="58"/>
+      <c r="AF25" s="43"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -12116,7 +12155,7 @@
         <v>682.82</v>
       </c>
       <c r="AH26" s="28">
-        <f t="shared" ref="AH25:AH34" si="18">$M26/AG26</f>
+        <f t="shared" ref="AH26:AH34" si="18">$M26/AG26</f>
         <v>1.6165753785770771</v>
       </c>
     </row>
@@ -12365,9 +12404,9 @@
         <f t="shared" si="12"/>
         <v>1.1646678360008771</v>
       </c>
-      <c r="Q29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="W29" s="58"/>
+      <c r="Q29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="W29" s="43"/>
       <c r="Z29" s="29">
         <v>26</v>
       </c>
@@ -12962,7 +13001,7 @@
         <v>25.777777777777779</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" ref="L36:AH36" si="19">AVERAGE(M25:M33)</f>
+        <f t="shared" ref="M36:AG36" si="19">AVERAGE(M25:M33)</f>
         <v>1100.8777777777777</v>
       </c>
       <c r="N36" s="29">
@@ -13190,45 +13229,45 @@
       <c r="J42" t="s">
         <v>73</v>
       </c>
-      <c r="L42" s="56" t="s">
+      <c r="L42" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="M42" s="56"/>
-      <c r="N42" s="57" t="s">
+      <c r="M42" s="57"/>
+      <c r="N42" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="45" t="s">
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="57" t="s">
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="57"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="45" t="s">
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="57" t="s">
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="AA42" s="57"/>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="45" t="s">
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AD42" s="45"/>
-      <c r="AE42" s="45"/>
-      <c r="AF42" s="57" t="s">
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="AG42" s="57"/>
-      <c r="AH42" s="57"/>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="50"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -13252,73 +13291,73 @@
         <f t="shared" si="1"/>
         <v>1005.61</v>
       </c>
-      <c r="L43" s="55" t="s">
+      <c r="L43" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="M43" s="56" t="s">
+      <c r="M43" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="N43" s="49" t="s">
+      <c r="N43" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="O43" s="50" t="s">
+      <c r="O43" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="P43" s="51" t="s">
+      <c r="P43" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="Q43" s="52" t="s">
+      <c r="Q43" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="R43" s="53" t="s">
+      <c r="R43" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="S43" s="54" t="s">
+      <c r="S43" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="T43" s="49" t="s">
+      <c r="T43" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="U43" s="50" t="s">
+      <c r="U43" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="V43" s="51" t="s">
+      <c r="V43" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="W43" s="52" t="s">
+      <c r="W43" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="X43" s="53" t="s">
+      <c r="X43" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="Y43" s="54" t="s">
+      <c r="Y43" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="Z43" s="49" t="s">
+      <c r="Z43" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AA43" s="50" t="s">
+      <c r="AA43" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="AB43" s="51" t="s">
+      <c r="AB43" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="AC43" s="52" t="s">
+      <c r="AC43" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AD43" s="53" t="s">
+      <c r="AD43" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="AE43" s="54" t="s">
+      <c r="AE43" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="AF43" s="49" t="s">
+      <c r="AF43" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AG43" s="50" t="s">
+      <c r="AG43" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="AH43" s="51" t="s">
+      <c r="AH43" s="53" t="s">
         <v>68</v>
       </c>
     </row>
@@ -13344,29 +13383,29 @@
         <f t="shared" si="1"/>
         <v>1050.77</v>
       </c>
-      <c r="L44" s="55"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="49"/>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="51"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="49"/>
-      <c r="AG44" s="50"/>
-      <c r="AH44" s="51"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="55"/>
+      <c r="AE44" s="56"/>
+      <c r="AF44" s="51"/>
+      <c r="AG44" s="52"/>
+      <c r="AH44" s="53"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -13640,7 +13679,7 @@
         <v>835.47</v>
       </c>
       <c r="Y47" s="22">
-        <f t="shared" ref="Y47:Y53" si="26">$M47/X47</f>
+        <f t="shared" ref="Y47:Y52" si="26">$M47/X47</f>
         <v>1.1837767962943013</v>
       </c>
       <c r="Z47" s="29">
@@ -13895,9 +13934,9 @@
         <f t="shared" si="21"/>
         <v>1.0635185870657291</v>
       </c>
-      <c r="Q50" s="58"/>
-      <c r="T50" s="58"/>
-      <c r="W50" s="58"/>
+      <c r="Q50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="W50" s="43"/>
       <c r="Z50" s="29">
         <v>24</v>
       </c>
@@ -13948,7 +13987,7 @@
       <c r="M51" s="2">
         <v>1050.77</v>
       </c>
-      <c r="N51" s="58"/>
+      <c r="N51" s="43"/>
       <c r="Q51" s="30">
         <v>25</v>
       </c>
@@ -14029,7 +14068,7 @@
       <c r="M52" s="2">
         <v>1080.1400000000001</v>
       </c>
-      <c r="N52" s="58"/>
+      <c r="N52" s="43"/>
       <c r="Q52" s="30">
         <v>25</v>
       </c>
@@ -14130,8 +14169,8 @@
         <f t="shared" si="25"/>
         <v>1.0308182139788751</v>
       </c>
-      <c r="T53" s="58"/>
-      <c r="W53" s="58"/>
+      <c r="T53" s="43"/>
+      <c r="W53" s="43"/>
       <c r="Z53" s="29">
         <v>24</v>
       </c>
@@ -15376,44 +15415,45 @@
     <sortCondition ref="C5:C48"/>
   </sortState>
   <mergeCells count="93">
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AF43:AF44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AE23"/>
     <mergeCell ref="AF21:AH21"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="M22:M23"/>
@@ -15430,45 +15470,44 @@
     <mergeCell ref="X22:X23"/>
     <mergeCell ref="Y22:Y23"/>
     <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="AF43:AF44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15857,8 +15896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AL119"/>
   <sheetViews>
-    <sheetView topLeftCell="C61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15873,48 +15912,48 @@
       <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="45" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="43" t="s">
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="45" t="s">
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="43" t="s">
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="45" t="s">
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="43" t="s">
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
@@ -15923,62 +15962,62 @@
       <c r="J5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="46" t="s">
+      <c r="L5" s="45"/>
+      <c r="M5" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47" t="s">
+      <c r="N5" s="49"/>
+      <c r="O5" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="45" t="s">
+      <c r="P5" s="48"/>
+      <c r="Q5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="44" t="s">
+      <c r="R5" s="44"/>
+      <c r="S5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="44"/>
-      <c r="U5" s="43" t="s">
+      <c r="T5" s="45"/>
+      <c r="U5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="43"/>
-      <c r="W5" s="47" t="s">
+      <c r="V5" s="46"/>
+      <c r="W5" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="45" t="s">
+      <c r="X5" s="48"/>
+      <c r="Y5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="44" t="s">
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="43" t="s">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="47" t="s">
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="45" t="s">
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="44" t="s">
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="43" t="s">
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="43"/>
+      <c r="AL5" s="46"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J6" s="8" t="s">
@@ -16070,13 +16109,13 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="47"/>
       <c r="I7">
         <v>0</v>
       </c>
@@ -16176,7 +16215,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
+      <c r="B8" s="47"/>
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -19323,48 +19362,48 @@
       <c r="J43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K43" s="43" t="s">
+      <c r="K43" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="45" t="s">
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="43" t="s">
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="45" t="s">
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="43" t="s">
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB43" s="43"/>
-      <c r="AC43" s="43"/>
-      <c r="AD43" s="43"/>
-      <c r="AE43" s="45" t="s">
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="45"/>
-      <c r="AI43" s="43" t="s">
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ43" s="43"/>
-      <c r="AK43" s="43"/>
-      <c r="AL43" s="43"/>
+      <c r="AJ43" s="46"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="46"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
@@ -19373,62 +19412,62 @@
       <c r="J44" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K44" s="44" t="s">
+      <c r="K44" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L44" s="44"/>
-      <c r="M44" s="46" t="s">
+      <c r="L44" s="45"/>
+      <c r="M44" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N44" s="46"/>
-      <c r="O44" s="47" t="s">
+      <c r="N44" s="49"/>
+      <c r="O44" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="45" t="s">
+      <c r="P44" s="48"/>
+      <c r="Q44" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R44" s="45"/>
-      <c r="S44" s="44" t="s">
+      <c r="R44" s="44"/>
+      <c r="S44" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T44" s="44"/>
-      <c r="U44" s="43" t="s">
+      <c r="T44" s="45"/>
+      <c r="U44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V44" s="43"/>
-      <c r="W44" s="47" t="s">
+      <c r="V44" s="46"/>
+      <c r="W44" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="45" t="s">
+      <c r="X44" s="48"/>
+      <c r="Y44" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="44" t="s">
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="43" t="s">
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD44" s="43"/>
-      <c r="AE44" s="47" t="s">
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AF44" s="47"/>
-      <c r="AG44" s="45" t="s">
+      <c r="AF44" s="48"/>
+      <c r="AG44" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AH44" s="45"/>
-      <c r="AI44" s="44" t="s">
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AJ44" s="44"/>
-      <c r="AK44" s="43" t="s">
+      <c r="AJ44" s="45"/>
+      <c r="AK44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL44" s="43"/>
+      <c r="AL44" s="46"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J45" s="8" t="s">
@@ -19520,69 +19559,113 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="48"/>
+      <c r="D46" s="47"/>
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="14" t="str">
+      <c r="J46" s="6">
+        <v>0.94336249999999999</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0.94336299999999995</v>
+      </c>
+      <c r="L46" s="14">
         <f>IF(K46="","",IF($J46="","",(K46-$J46)*100000))</f>
-        <v/>
-      </c>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="17" t="str">
+        <v>4.9999999995886668E-2</v>
+      </c>
+      <c r="M46" s="19">
+        <v>1.27E-4</v>
+      </c>
+      <c r="N46" s="19">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="O46" s="12">
+        <v>0.94336299999999995</v>
+      </c>
+      <c r="P46" s="17">
         <f>IF(O46="","",IF($J46="","",(O46-$J46)*100000))</f>
-        <v/>
-      </c>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="14" t="str">
+        <v>4.9999999995886668E-2</v>
+      </c>
+      <c r="Q46" s="22">
+        <v>1.27E-4</v>
+      </c>
+      <c r="R46" s="22">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="S46" s="10">
+        <v>0.94336299999999995</v>
+      </c>
+      <c r="T46" s="14">
         <f>IF(S46="","",IF($J46="","",(S46-$J46)*100000))</f>
-        <v/>
-      </c>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="17" t="str">
+        <v>4.9999999995886668E-2</v>
+      </c>
+      <c r="U46" s="19">
+        <v>1.27E-4</v>
+      </c>
+      <c r="V46" s="19">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="W46" s="12">
+        <v>0.94336299999999995</v>
+      </c>
+      <c r="X46" s="17">
         <f>IF(W46="","",IF($J46="","",(W46-$J46)*100000))</f>
-        <v/>
-      </c>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="14" t="str">
+        <v>4.9999999995886668E-2</v>
+      </c>
+      <c r="Y46" s="22">
+        <v>1.27E-4</v>
+      </c>
+      <c r="Z46" s="22">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="AA46" s="10">
+        <v>0.94336260000000005</v>
+      </c>
+      <c r="AB46" s="14">
         <f>IF(AA46="","",IF($J46="","",(AA46-$J46)*100000))</f>
-        <v/>
-      </c>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="12"/>
-      <c r="AF46" s="17" t="str">
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="AC46" s="19">
+        <v>1.27E-4</v>
+      </c>
+      <c r="AD46" s="19">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="AE46" s="12">
+        <v>0.94336260000000005</v>
+      </c>
+      <c r="AF46" s="17">
         <f>IF(AE46="","",IF($J46="","",(AE46-$J46)*100000))</f>
-        <v/>
-      </c>
-      <c r="AG46" s="22"/>
-      <c r="AH46" s="22"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="14" t="str">
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="AG46" s="22">
+        <v>1.27E-4</v>
+      </c>
+      <c r="AH46" s="22">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="AI46" s="10">
+        <v>0.94336260000000005</v>
+      </c>
+      <c r="AJ46" s="14">
         <f>IF(AI46="","",IF($J46="","",(AI46-$J46)*100000))</f>
-        <v/>
-      </c>
-      <c r="AK46" s="19"/>
-      <c r="AL46" s="19"/>
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="AK46" s="19">
+        <v>1.27E-4</v>
+      </c>
+      <c r="AL46" s="19">
+        <v>3.3799999999999998E-4</v>
+      </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B47" s="48"/>
+      <c r="B47" s="47"/>
       <c r="C47" t="s">
         <v>39</v>
       </c>
@@ -19652,68 +19735,112 @@
         <f>AB77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C48" s="25" t="e">
+      <c r="C48" s="25">
         <f>AC77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="25" t="e">
+        <v>6.618836850000001</v>
+      </c>
+      <c r="D48" s="25">
         <f>AD77</f>
-        <v>#DIV/0!</v>
+        <v>29.296238300000006</v>
       </c>
       <c r="I48">
         <f t="shared" ref="I48:I76" si="22">I47+1</f>
         <v>2</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="14" t="str">
+      <c r="J48" s="6">
+        <v>0.94282900000000003</v>
+      </c>
+      <c r="K48" s="10">
+        <v>0.94277100000000003</v>
+      </c>
+      <c r="L48" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="17" t="str">
+        <v>-5.8000000000002494</v>
+      </c>
+      <c r="M48" s="19">
+        <v>2.1783E-2</v>
+      </c>
+      <c r="N48" s="19">
+        <v>7.6520000000000005E-2</v>
+      </c>
+      <c r="O48" s="12">
+        <v>0.94278700000000004</v>
+      </c>
+      <c r="P48" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="14" t="str">
+        <v>-4.1999999999986493</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>1.9054000000000001E-2</v>
+      </c>
+      <c r="R48" s="22">
+        <v>7.7596999999999999E-2</v>
+      </c>
+      <c r="S48" s="10">
+        <v>0.94278499999999998</v>
+      </c>
+      <c r="T48" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="17" t="str">
+        <v>-4.4000000000044004</v>
+      </c>
+      <c r="U48" s="19">
+        <v>2.1950999999999998E-2</v>
+      </c>
+      <c r="V48" s="19">
+        <v>7.6097999999999999E-2</v>
+      </c>
+      <c r="W48" s="12">
+        <v>0.94278499999999998</v>
+      </c>
+      <c r="X48" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="14" t="str">
+        <v>-4.4000000000044004</v>
+      </c>
+      <c r="Y48" s="22">
+        <v>2.2425E-2</v>
+      </c>
+      <c r="Z48" s="22">
+        <v>7.4593999999999994E-2</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>0.94373969999999996</v>
+      </c>
+      <c r="AB48" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="12"/>
-      <c r="AF48" s="17" t="str">
+        <v>91.069999999993101</v>
+      </c>
+      <c r="AC48" s="19">
+        <v>0.92641799999999996</v>
+      </c>
+      <c r="AD48" s="19">
+        <v>3.1884510000000001</v>
+      </c>
+      <c r="AE48" s="12">
+        <v>0.94270449999999995</v>
+      </c>
+      <c r="AF48" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="14" t="str">
+        <v>-12.450000000008288</v>
+      </c>
+      <c r="AG48" s="22">
+        <v>0.111431</v>
+      </c>
+      <c r="AH48" s="22">
+        <v>0.45590199999999997</v>
+      </c>
+      <c r="AI48" s="10">
+        <v>0.94256510000000004</v>
+      </c>
+      <c r="AJ48" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK48" s="19"/>
-      <c r="AL48" s="19"/>
+        <v>-26.389999999998359</v>
+      </c>
+      <c r="AK48" s="19">
+        <v>0.26323400000000002</v>
+      </c>
+      <c r="AL48" s="19">
+        <v>1.0242610000000001</v>
+      </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -19723,68 +19850,112 @@
         <f>AF77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C49" s="25" t="e">
+      <c r="C49" s="25">
         <f>AG77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D49" s="25" t="e">
+        <v>0.68928735000000008</v>
+      </c>
+      <c r="D49" s="25">
         <f>AH77</f>
-        <v>#DIV/0!</v>
+        <v>3.4744736500000002</v>
       </c>
       <c r="I49">
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="14" t="str">
+      <c r="J49" s="6">
+        <v>0.94319620000000004</v>
+      </c>
+      <c r="K49" s="10">
+        <v>0.94311699999999998</v>
+      </c>
+      <c r="L49" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="17" t="str">
+        <v>-7.9200000000057003</v>
+      </c>
+      <c r="M49" s="19">
+        <v>3.7607000000000002E-2</v>
+      </c>
+      <c r="N49" s="19">
+        <v>0.13514499999999999</v>
+      </c>
+      <c r="O49" s="12">
+        <v>0.94313899999999995</v>
+      </c>
+      <c r="P49" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="14" t="str">
+        <v>-5.7200000000090512</v>
+      </c>
+      <c r="Q49" s="22">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="R49" s="22">
+        <v>0.130996</v>
+      </c>
+      <c r="S49" s="10">
+        <v>0.94313800000000003</v>
+      </c>
+      <c r="T49" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="17" t="str">
+        <v>-5.8200000000008245</v>
+      </c>
+      <c r="U49" s="19">
+        <v>3.6264999999999999E-2</v>
+      </c>
+      <c r="V49" s="19">
+        <v>0.151722</v>
+      </c>
+      <c r="W49" s="12">
+        <v>0.943137</v>
+      </c>
+      <c r="X49" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="14" t="str">
+        <v>-5.9200000000037001</v>
+      </c>
+      <c r="Y49" s="22">
+        <v>3.6867999999999998E-2</v>
+      </c>
+      <c r="Z49" s="22">
+        <v>0.153919</v>
+      </c>
+      <c r="AA49" s="10">
+        <v>0.9443378</v>
+      </c>
+      <c r="AB49" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC49" s="19"/>
-      <c r="AD49" s="19"/>
-      <c r="AE49" s="12"/>
-      <c r="AF49" s="17" t="str">
+        <v>114.15999999999649</v>
+      </c>
+      <c r="AC49" s="19">
+        <v>1.0791500000000001</v>
+      </c>
+      <c r="AD49" s="19">
+        <v>3.491047</v>
+      </c>
+      <c r="AE49" s="12">
+        <v>0.94297629999999999</v>
+      </c>
+      <c r="AF49" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="14" t="str">
+        <v>-21.990000000005061</v>
+      </c>
+      <c r="AG49" s="22">
+        <v>0.21814</v>
+      </c>
+      <c r="AH49" s="22">
+        <v>0.91891100000000003</v>
+      </c>
+      <c r="AI49" s="10">
+        <v>0.94293499999999997</v>
+      </c>
+      <c r="AJ49" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK49" s="19"/>
-      <c r="AL49" s="19"/>
+        <v>-26.120000000007249</v>
+      </c>
+      <c r="AK49" s="19">
+        <v>0.25819500000000001</v>
+      </c>
+      <c r="AL49" s="19">
+        <v>1.0293239999999999</v>
+      </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -19794,68 +19965,112 @@
         <f>AJ77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C50" s="25" t="e">
+      <c r="C50" s="25">
         <f>AK77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="25" t="e">
+        <v>0.34461079999999999</v>
+      </c>
+      <c r="D50" s="25">
         <f>AL77</f>
-        <v>#DIV/0!</v>
+        <v>1.68515415</v>
       </c>
       <c r="I50">
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="14" t="str">
+      <c r="J50" s="6">
+        <v>0.94381959999999998</v>
+      </c>
+      <c r="K50" s="10">
+        <v>0.943716</v>
+      </c>
+      <c r="L50" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="17" t="str">
+        <v>-10.359999999998148</v>
+      </c>
+      <c r="M50" s="19">
+        <v>6.5318000000000001E-2</v>
+      </c>
+      <c r="N50" s="19">
+        <v>0.26805800000000002</v>
+      </c>
+      <c r="O50" s="12">
+        <v>0.94374400000000003</v>
+      </c>
+      <c r="P50" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="14" t="str">
+        <v>-7.5599999999953482</v>
+      </c>
+      <c r="Q50" s="22">
+        <v>5.5982999999999998E-2</v>
+      </c>
+      <c r="R50" s="22">
+        <v>0.250747</v>
+      </c>
+      <c r="S50" s="10">
+        <v>0.94374199999999997</v>
+      </c>
+      <c r="T50" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="17" t="str">
+        <v>-7.7600000000010994</v>
+      </c>
+      <c r="U50" s="19">
+        <v>6.1780000000000002E-2</v>
+      </c>
+      <c r="V50" s="19">
+        <v>0.28640700000000002</v>
+      </c>
+      <c r="W50" s="12">
+        <v>0.94374100000000005</v>
+      </c>
+      <c r="X50" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="14" t="str">
+        <v>-7.8599999999928727</v>
+      </c>
+      <c r="Y50" s="22">
+        <v>6.2427999999999997E-2</v>
+      </c>
+      <c r="Z50" s="22">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="AA50" s="10">
+        <v>0.94507750000000001</v>
+      </c>
+      <c r="AB50" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC50" s="19"/>
-      <c r="AD50" s="19"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="17" t="str">
+        <v>125.7900000000034</v>
+      </c>
+      <c r="AC50" s="19">
+        <v>1.090732</v>
+      </c>
+      <c r="AD50" s="19">
+        <v>3.424471</v>
+      </c>
+      <c r="AE50" s="12">
+        <v>0.94349229999999995</v>
+      </c>
+      <c r="AF50" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="14" t="str">
+        <v>-32.730000000003031</v>
+      </c>
+      <c r="AG50" s="22">
+        <v>0.34013300000000002</v>
+      </c>
+      <c r="AH50" s="22">
+        <v>1.4535340000000001</v>
+      </c>
+      <c r="AI50" s="10">
+        <v>0.94356150000000005</v>
+      </c>
+      <c r="AJ50" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK50" s="19"/>
-      <c r="AL50" s="19"/>
+        <v>-25.809999999992783</v>
+      </c>
+      <c r="AK50" s="19">
+        <v>0.25648199999999999</v>
+      </c>
+      <c r="AL50" s="19">
+        <v>1.0520210000000001</v>
+      </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -19865,68 +20080,112 @@
         <f>L77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C51" s="25" t="e">
+      <c r="C51" s="25">
         <f>M77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D51" s="25" t="e">
+        <v>0.19521034999999995</v>
+      </c>
+      <c r="D51" s="25">
         <f>N77</f>
-        <v>#DIV/0!</v>
+        <v>1.0550995499999998</v>
       </c>
       <c r="I51">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="14" t="str">
+      <c r="J51" s="6">
+        <v>0.94470909999999997</v>
+      </c>
+      <c r="K51" s="10">
+        <v>0.94457500000000005</v>
+      </c>
+      <c r="L51" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="17" t="str">
+        <v>-13.409999999991484</v>
+      </c>
+      <c r="M51" s="19">
+        <v>0.10349700000000001</v>
+      </c>
+      <c r="N51" s="19">
+        <v>0.449104</v>
+      </c>
+      <c r="O51" s="12">
+        <v>0.94460699999999997</v>
+      </c>
+      <c r="P51" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="14" t="str">
+        <v>-10.209999999999386</v>
+      </c>
+      <c r="Q51" s="22">
+        <v>8.8220000000000007E-2</v>
+      </c>
+      <c r="R51" s="22">
+        <v>0.41232099999999999</v>
+      </c>
+      <c r="S51" s="10">
+        <v>0.94460500000000003</v>
+      </c>
+      <c r="T51" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="17" t="str">
+        <v>-10.409999999994035</v>
+      </c>
+      <c r="U51" s="19">
+        <v>9.5174999999999996E-2</v>
+      </c>
+      <c r="V51" s="19">
+        <v>0.45384999999999998</v>
+      </c>
+      <c r="W51" s="12">
+        <v>0.94460500000000003</v>
+      </c>
+      <c r="X51" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="14" t="str">
+        <v>-10.409999999994035</v>
+      </c>
+      <c r="Y51" s="22">
+        <v>9.5984E-2</v>
+      </c>
+      <c r="Z51" s="22">
+        <v>0.45777000000000001</v>
+      </c>
+      <c r="AA51" s="10">
+        <v>0.94599219999999995</v>
+      </c>
+      <c r="AB51" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="17" t="str">
+        <v>128.30999999999815</v>
+      </c>
+      <c r="AC51" s="19">
+        <v>1.029488</v>
+      </c>
+      <c r="AD51" s="19">
+        <v>3.4134370000000001</v>
+      </c>
+      <c r="AE51" s="12">
+        <v>0.944276</v>
+      </c>
+      <c r="AF51" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="10"/>
-      <c r="AJ51" s="14" t="str">
+        <v>-43.309999999996407</v>
+      </c>
+      <c r="AG51" s="22">
+        <v>0.46013500000000002</v>
+      </c>
+      <c r="AH51" s="22">
+        <v>1.9898830000000001</v>
+      </c>
+      <c r="AI51" s="10">
+        <v>0.94445400000000002</v>
+      </c>
+      <c r="AJ51" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK51" s="19"/>
-      <c r="AL51" s="19"/>
+        <v>-25.509999999995259</v>
+      </c>
+      <c r="AK51" s="19">
+        <v>0.25668600000000003</v>
+      </c>
+      <c r="AL51" s="19">
+        <v>1.0825689999999999</v>
+      </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -19936,68 +20195,112 @@
         <f>P77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C52" s="25" t="e">
+      <c r="C52" s="25">
         <f>Q77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D52" s="25" t="e">
+        <v>0.20352460000000003</v>
+      </c>
+      <c r="D52" s="25">
         <f>R77</f>
-        <v>#DIV/0!</v>
+        <v>1.1354262499999999</v>
       </c>
       <c r="I52">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="14" t="str">
+      <c r="J52" s="6">
+        <v>0.9458898</v>
+      </c>
+      <c r="K52" s="10">
+        <v>0.94572299999999998</v>
+      </c>
+      <c r="L52" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="17" t="str">
+        <v>-16.680000000002249</v>
+      </c>
+      <c r="M52" s="19">
+        <v>0.14646100000000001</v>
+      </c>
+      <c r="N52" s="19">
+        <v>0.64678500000000005</v>
+      </c>
+      <c r="O52" s="12">
+        <v>0.94575600000000004</v>
+      </c>
+      <c r="P52" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="14" t="str">
+        <v>-13.379999999996173</v>
+      </c>
+      <c r="Q52" s="22">
+        <v>0.12923299999999999</v>
+      </c>
+      <c r="R52" s="22">
+        <v>0.60751699999999997</v>
+      </c>
+      <c r="S52" s="10">
+        <v>0.94575299999999995</v>
+      </c>
+      <c r="T52" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="17" t="str">
+        <v>-13.680000000004799</v>
+      </c>
+      <c r="U52" s="19">
+        <v>0.13671</v>
+      </c>
+      <c r="V52" s="19">
+        <v>0.65140299999999995</v>
+      </c>
+      <c r="W52" s="12">
+        <v>0.94575299999999995</v>
+      </c>
+      <c r="X52" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="10"/>
-      <c r="AB52" s="14" t="str">
+        <v>-13.680000000004799</v>
+      </c>
+      <c r="Y52" s="22">
+        <v>0.13762099999999999</v>
+      </c>
+      <c r="Z52" s="22">
+        <v>0.65586100000000003</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>0.94713309999999995</v>
+      </c>
+      <c r="AB52" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC52" s="19"/>
-      <c r="AD52" s="19"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="17" t="str">
+        <v>124.32999999999473</v>
+      </c>
+      <c r="AC52" s="19">
+        <v>0.989815</v>
+      </c>
+      <c r="AD52" s="19">
+        <v>3.613162</v>
+      </c>
+      <c r="AE52" s="12">
+        <v>0.94536260000000005</v>
+      </c>
+      <c r="AF52" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="22"/>
-      <c r="AI52" s="10"/>
-      <c r="AJ52" s="14" t="str">
+        <v>-52.719999999994997</v>
+      </c>
+      <c r="AG52" s="22">
+        <v>0.56512399999999996</v>
+      </c>
+      <c r="AH52" s="22">
+        <v>2.4689009999999998</v>
+      </c>
+      <c r="AI52" s="10">
+        <v>0.94563900000000001</v>
+      </c>
+      <c r="AJ52" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK52" s="19"/>
-      <c r="AL52" s="19"/>
+        <v>-25.079999999999547</v>
+      </c>
+      <c r="AK52" s="19">
+        <v>0.25543700000000003</v>
+      </c>
+      <c r="AL52" s="19">
+        <v>1.101613</v>
+      </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -20007,68 +20310,112 @@
         <f>T77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C53" s="25" t="e">
+      <c r="C53" s="25">
         <f>U77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="25" t="e">
+        <v>0.20045190000000002</v>
+      </c>
+      <c r="D53" s="25">
         <f>V77</f>
-        <v>#DIV/0!</v>
+        <v>1.1147422499999999</v>
       </c>
       <c r="I53">
         <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="14" t="str">
+      <c r="J53" s="6">
+        <v>0.94740899999999995</v>
+      </c>
+      <c r="K53" s="10">
+        <v>0.94720199999999999</v>
+      </c>
+      <c r="L53" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="17" t="str">
+        <v>-20.699999999995722</v>
+      </c>
+      <c r="M53" s="19">
+        <v>0.192055</v>
+      </c>
+      <c r="N53" s="19">
+        <v>0.84697699999999998</v>
+      </c>
+      <c r="O53" s="12">
+        <v>0.94723299999999999</v>
+      </c>
+      <c r="P53" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="14" t="str">
+        <v>-17.599999999995397</v>
+      </c>
+      <c r="Q53" s="22">
+        <v>0.175733</v>
+      </c>
+      <c r="R53" s="22">
+        <v>0.81608000000000003</v>
+      </c>
+      <c r="S53" s="10">
+        <v>0.94723100000000005</v>
+      </c>
+      <c r="T53" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="17" t="str">
+        <v>-17.799999999990046</v>
+      </c>
+      <c r="U53" s="19">
+        <v>0.18293300000000001</v>
+      </c>
+      <c r="V53" s="19">
+        <v>0.85825499999999999</v>
+      </c>
+      <c r="W53" s="12">
+        <v>0.94723000000000002</v>
+      </c>
+      <c r="X53" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="14" t="str">
+        <v>-17.899999999992922</v>
+      </c>
+      <c r="Y53" s="22">
+        <v>0.183832</v>
+      </c>
+      <c r="Z53" s="22">
+        <v>0.86279399999999995</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>0.94858180000000003</v>
+      </c>
+      <c r="AB53" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="17" t="str">
+        <v>117.28000000000849</v>
+      </c>
+      <c r="AC53" s="19">
+        <v>1.0422739999999999</v>
+      </c>
+      <c r="AD53" s="19">
+        <v>3.7849520000000001</v>
+      </c>
+      <c r="AE53" s="12">
+        <v>0.94680620000000004</v>
+      </c>
+      <c r="AF53" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG53" s="22"/>
-      <c r="AH53" s="22"/>
-      <c r="AI53" s="10"/>
-      <c r="AJ53" s="14" t="str">
+        <v>-60.279999999990338</v>
+      </c>
+      <c r="AG53" s="22">
+        <v>0.64375400000000005</v>
+      </c>
+      <c r="AH53" s="22">
+        <v>2.831823</v>
+      </c>
+      <c r="AI53" s="10">
+        <v>0.9471638</v>
+      </c>
+      <c r="AJ53" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
+        <v>-24.519999999994546</v>
+      </c>
+      <c r="AK53" s="19">
+        <v>0.248418</v>
+      </c>
+      <c r="AL53" s="19">
+        <v>1.0823659999999999</v>
+      </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -20078,68 +20425,112 @@
         <f>X77</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C54" s="25" t="e">
+      <c r="C54" s="25">
         <f>Y77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="25" t="e">
+        <v>0.20012715</v>
+      </c>
+      <c r="D54" s="25">
         <f>Z77</f>
-        <v>#DIV/0!</v>
+        <v>1.1124277</v>
       </c>
       <c r="I54">
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="14" t="str">
+      <c r="J54" s="6">
+        <v>0.94935760000000002</v>
+      </c>
+      <c r="K54" s="10">
+        <v>0.94910600000000001</v>
+      </c>
+      <c r="L54" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="17" t="str">
+        <v>-25.160000000001848</v>
+      </c>
+      <c r="M54" s="19">
+        <v>0.243093</v>
+      </c>
+      <c r="N54" s="19">
+        <v>1.0608610000000001</v>
+      </c>
+      <c r="O54" s="12">
+        <v>0.94913400000000003</v>
+      </c>
+      <c r="P54" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="14" t="str">
+        <v>-22.359999999999047</v>
+      </c>
+      <c r="Q54" s="22">
+        <v>0.22611500000000001</v>
+      </c>
+      <c r="R54" s="22">
+        <v>1.0269649999999999</v>
+      </c>
+      <c r="S54" s="10">
+        <v>0.94913199999999998</v>
+      </c>
+      <c r="T54" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="17" t="str">
+        <v>-22.560000000004798</v>
+      </c>
+      <c r="U54" s="19">
+        <v>0.23205999999999999</v>
+      </c>
+      <c r="V54" s="19">
+        <v>1.0622309999999999</v>
+      </c>
+      <c r="W54" s="12">
+        <v>0.94913199999999998</v>
+      </c>
+      <c r="X54" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="14" t="str">
+        <v>-22.560000000004798</v>
+      </c>
+      <c r="Y54" s="22">
+        <v>0.23278299999999999</v>
+      </c>
+      <c r="Z54" s="22">
+        <v>1.0662069999999999</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>0.95047300000000001</v>
+      </c>
+      <c r="AB54" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC54" s="19"/>
-      <c r="AD54" s="19"/>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="17" t="str">
+        <v>111.53999999999886</v>
+      </c>
+      <c r="AC54" s="19">
+        <v>1.132377</v>
+      </c>
+      <c r="AD54" s="19">
+        <v>3.9173580000000001</v>
+      </c>
+      <c r="AE54" s="12">
+        <v>0.948712</v>
+      </c>
+      <c r="AF54" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG54" s="22"/>
-      <c r="AH54" s="22"/>
-      <c r="AI54" s="10"/>
-      <c r="AJ54" s="14" t="str">
+        <v>-64.56000000000239</v>
+      </c>
+      <c r="AG54" s="22">
+        <v>0.68445699999999998</v>
+      </c>
+      <c r="AH54" s="22">
+        <v>3.0141960000000001</v>
+      </c>
+      <c r="AI54" s="10">
+        <v>0.94912730000000001</v>
+      </c>
+      <c r="AJ54" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK54" s="19"/>
-      <c r="AL54" s="19"/>
+        <v>-23.03000000000166</v>
+      </c>
+      <c r="AK54" s="19">
+        <v>0.22905700000000001</v>
+      </c>
+      <c r="AL54" s="19">
+        <v>0.99176399999999998</v>
+      </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="I55">
@@ -20202,56 +20593,100 @@
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="14" t="str">
+      <c r="J56" s="6">
+        <v>0.9558217</v>
+      </c>
+      <c r="K56" s="10">
+        <v>0.95582199999999995</v>
+      </c>
+      <c r="L56" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="17" t="str">
+        <v>2.9999999995311555E-2</v>
+      </c>
+      <c r="M56" s="19">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="N56" s="19">
+        <v>3.8900000000000002E-4</v>
+      </c>
+      <c r="O56" s="12">
+        <v>0.95582199999999995</v>
+      </c>
+      <c r="P56" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="14" t="str">
+        <v>2.9999999995311555E-2</v>
+      </c>
+      <c r="Q56" s="22">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="R56" s="22">
+        <v>3.8900000000000002E-4</v>
+      </c>
+      <c r="S56" s="10">
+        <v>0.95582199999999995</v>
+      </c>
+      <c r="T56" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="17" t="str">
+        <v>2.9999999995311555E-2</v>
+      </c>
+      <c r="U56" s="19">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="V56" s="19">
+        <v>3.8900000000000002E-4</v>
+      </c>
+      <c r="W56" s="12">
+        <v>0.95582199999999995</v>
+      </c>
+      <c r="X56" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="14" t="str">
+        <v>2.9999999995311555E-2</v>
+      </c>
+      <c r="Y56" s="22">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="Z56" s="22">
+        <v>3.8900000000000002E-4</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>0.95582180000000005</v>
+      </c>
+      <c r="AB56" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC56" s="19"/>
-      <c r="AD56" s="19"/>
-      <c r="AE56" s="12"/>
-      <c r="AF56" s="17" t="str">
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="AC56" s="19">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="AD56" s="19">
+        <v>3.8900000000000002E-4</v>
+      </c>
+      <c r="AE56" s="12">
+        <v>0.95582180000000005</v>
+      </c>
+      <c r="AF56" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="10"/>
-      <c r="AJ56" s="14" t="str">
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="AG56" s="22">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="AH56" s="22">
+        <v>3.8900000000000002E-4</v>
+      </c>
+      <c r="AI56" s="10">
+        <v>0.95582180000000005</v>
+      </c>
+      <c r="AJ56" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK56" s="19"/>
-      <c r="AL56" s="19"/>
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="AK56" s="19">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="AL56" s="19">
+        <v>3.8900000000000002E-4</v>
+      </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="I57">
@@ -20314,392 +20749,700 @@
         <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="J58" s="6"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="14" t="str">
+      <c r="J58" s="6">
+        <v>0.96758670000000002</v>
+      </c>
+      <c r="K58" s="10">
+        <v>0.96741200000000005</v>
+      </c>
+      <c r="L58" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="17" t="str">
+        <v>-17.46999999999721</v>
+      </c>
+      <c r="M58" s="19">
+        <v>0.173128</v>
+      </c>
+      <c r="N58" s="19">
+        <v>0.96064000000000005</v>
+      </c>
+      <c r="O58" s="12">
+        <v>0.96740300000000001</v>
+      </c>
+      <c r="P58" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="14" t="str">
+        <v>-18.370000000000886</v>
+      </c>
+      <c r="Q58" s="22">
+        <v>0.18184</v>
+      </c>
+      <c r="R58" s="22">
+        <v>0.986877</v>
+      </c>
+      <c r="S58" s="10">
+        <v>0.96740499999999996</v>
+      </c>
+      <c r="T58" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="17" t="str">
+        <v>-18.170000000006237</v>
+      </c>
+      <c r="U58" s="19">
+        <v>0.179593</v>
+      </c>
+      <c r="V58" s="19">
+        <v>0.97256799999999999</v>
+      </c>
+      <c r="W58" s="12">
+        <v>0.96740300000000001</v>
+      </c>
+      <c r="X58" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="14" t="str">
+        <v>-18.370000000000886</v>
+      </c>
+      <c r="Y58" s="22">
+        <v>0.17976400000000001</v>
+      </c>
+      <c r="Z58" s="22">
+        <v>0.97115499999999999</v>
+      </c>
+      <c r="AA58" s="10">
+        <v>0.95901579999999997</v>
+      </c>
+      <c r="AB58" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC58" s="19"/>
-      <c r="AD58" s="19"/>
-      <c r="AE58" s="12"/>
-      <c r="AF58" s="17" t="str">
+        <v>-857.09000000000481</v>
+      </c>
+      <c r="AC58" s="19">
+        <v>7.824732</v>
+      </c>
+      <c r="AD58" s="19">
+        <v>30.183116999999999</v>
+      </c>
+      <c r="AE58" s="12">
+        <v>0.96648730000000005</v>
+      </c>
+      <c r="AF58" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="22"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="14" t="str">
+        <v>-109.93999999999727</v>
+      </c>
+      <c r="AG58" s="22">
+        <v>0.78248300000000004</v>
+      </c>
+      <c r="AH58" s="22">
+        <v>3.70072</v>
+      </c>
+      <c r="AI58" s="10">
+        <v>0.96671580000000001</v>
+      </c>
+      <c r="AJ58" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK58" s="19"/>
-      <c r="AL58" s="19"/>
+        <v>-87.090000000000771</v>
+      </c>
+      <c r="AK58" s="19">
+        <v>0.61469600000000002</v>
+      </c>
+      <c r="AL58" s="19">
+        <v>2.7746710000000001</v>
+      </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="I59">
         <f t="shared" si="22"/>
         <v>13</v>
       </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="14" t="str">
+      <c r="J59" s="6">
+        <v>0.9732674</v>
+      </c>
+      <c r="K59" s="10">
+        <v>0.97297</v>
+      </c>
+      <c r="L59" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="17" t="str">
+        <v>-29.740000000000322</v>
+      </c>
+      <c r="M59" s="19">
+        <v>0.23886599999999999</v>
+      </c>
+      <c r="N59" s="19">
+        <v>1.3415049999999999</v>
+      </c>
+      <c r="O59" s="12">
+        <v>0.97294599999999998</v>
+      </c>
+      <c r="P59" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="14" t="str">
+        <v>-32.140000000002722</v>
+      </c>
+      <c r="Q59" s="22">
+        <v>0.25823600000000002</v>
+      </c>
+      <c r="R59" s="22">
+        <v>1.4208780000000001</v>
+      </c>
+      <c r="S59" s="10">
+        <v>0.97294899999999995</v>
+      </c>
+      <c r="T59" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="17" t="str">
+        <v>-31.840000000005197</v>
+      </c>
+      <c r="U59" s="19">
+        <v>0.25454900000000003</v>
+      </c>
+      <c r="V59" s="19">
+        <v>1.3982699999999999</v>
+      </c>
+      <c r="W59" s="12">
+        <v>0.97294999999999998</v>
+      </c>
+      <c r="X59" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="14" t="str">
+        <v>-31.740000000002322</v>
+      </c>
+      <c r="Y59" s="22">
+        <v>0.25395400000000001</v>
+      </c>
+      <c r="Z59" s="22">
+        <v>1.395305</v>
+      </c>
+      <c r="AA59" s="10">
+        <v>0.96170449999999996</v>
+      </c>
+      <c r="AB59" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC59" s="19"/>
-      <c r="AD59" s="19"/>
-      <c r="AE59" s="12"/>
-      <c r="AF59" s="17" t="str">
+        <v>-1156.2900000000043</v>
+      </c>
+      <c r="AC59" s="19">
+        <v>9.7565860000000004</v>
+      </c>
+      <c r="AD59" s="19">
+        <v>34.933926999999997</v>
+      </c>
+      <c r="AE59" s="12">
+        <v>0.97176689999999999</v>
+      </c>
+      <c r="AF59" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22"/>
-      <c r="AI59" s="10"/>
-      <c r="AJ59" s="14" t="str">
+        <v>-150.05000000000157</v>
+      </c>
+      <c r="AG59" s="22">
+        <v>1.0026759999999999</v>
+      </c>
+      <c r="AH59" s="22">
+        <v>4.8593099999999998</v>
+      </c>
+      <c r="AI59" s="10">
+        <v>0.97237070000000003</v>
+      </c>
+      <c r="AJ59" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK59" s="19"/>
-      <c r="AL59" s="19"/>
+        <v>-89.669999999997259</v>
+      </c>
+      <c r="AK59" s="19">
+        <v>0.598885</v>
+      </c>
+      <c r="AL59" s="19">
+        <v>2.8322940000000001</v>
+      </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="I60">
         <f t="shared" si="22"/>
         <v>14</v>
       </c>
-      <c r="J60" s="6"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="14" t="str">
+      <c r="J60" s="6">
+        <v>0.97924219999999995</v>
+      </c>
+      <c r="K60" s="10">
+        <v>0.97886700000000004</v>
+      </c>
+      <c r="L60" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="17" t="str">
+        <v>-37.519999999990894</v>
+      </c>
+      <c r="M60" s="19">
+        <v>0.28012100000000001</v>
+      </c>
+      <c r="N60" s="19">
+        <v>1.6012329999999999</v>
+      </c>
+      <c r="O60" s="12">
+        <v>0.97882400000000003</v>
+      </c>
+      <c r="P60" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="14" t="str">
+        <v>-41.819999999992419</v>
+      </c>
+      <c r="Q60" s="22">
+        <v>0.311139</v>
+      </c>
+      <c r="R60" s="22">
+        <v>1.741932</v>
+      </c>
+      <c r="S60" s="10">
+        <v>0.97882899999999995</v>
+      </c>
+      <c r="T60" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="17" t="str">
+        <v>-41.320000000000249</v>
+      </c>
+      <c r="U60" s="19">
+        <v>0.30610999999999999</v>
+      </c>
+      <c r="V60" s="19">
+        <v>1.7115370000000001</v>
+      </c>
+      <c r="W60" s="12">
+        <v>0.97882999999999998</v>
+      </c>
+      <c r="X60" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="14" t="str">
+        <v>-41.21999999999737</v>
+      </c>
+      <c r="Y60" s="22">
+        <v>0.305315</v>
+      </c>
+      <c r="Z60" s="22">
+        <v>1.7074879999999999</v>
+      </c>
+      <c r="AA60" s="10">
+        <v>0.96508300000000002</v>
+      </c>
+      <c r="AB60" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="12"/>
-      <c r="AF60" s="17" t="str">
+        <v>-1415.9199999999928</v>
+      </c>
+      <c r="AC60" s="19">
+        <v>11.263175</v>
+      </c>
+      <c r="AD60" s="19">
+        <v>42.316526000000003</v>
+      </c>
+      <c r="AE60" s="12">
+        <v>0.97750630000000005</v>
+      </c>
+      <c r="AF60" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG60" s="22"/>
-      <c r="AH60" s="22"/>
-      <c r="AI60" s="10"/>
-      <c r="AJ60" s="14" t="str">
+        <v>-173.58999999999014</v>
+      </c>
+      <c r="AG60" s="22">
+        <v>1.1123209999999999</v>
+      </c>
+      <c r="AH60" s="22">
+        <v>5.5291610000000002</v>
+      </c>
+      <c r="AI60" s="10">
+        <v>0.97836239999999997</v>
+      </c>
+      <c r="AJ60" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK60" s="19"/>
-      <c r="AL60" s="19"/>
+        <v>-87.979999999998611</v>
+      </c>
+      <c r="AK60" s="19">
+        <v>0.56761300000000003</v>
+      </c>
+      <c r="AL60" s="19">
+        <v>2.7974779999999999</v>
+      </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="I61">
         <f t="shared" si="22"/>
         <v>15</v>
       </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="14" t="str">
+      <c r="J61" s="6">
+        <v>0.98547079999999998</v>
+      </c>
+      <c r="K61" s="10">
+        <v>0.98504199999999997</v>
+      </c>
+      <c r="L61" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="17" t="str">
+        <v>-42.880000000000692</v>
+      </c>
+      <c r="M61" s="19">
+        <v>0.30035699999999999</v>
+      </c>
+      <c r="N61" s="19">
+        <v>1.7390110000000001</v>
+      </c>
+      <c r="O61" s="12">
+        <v>0.98497999999999997</v>
+      </c>
+      <c r="P61" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="14" t="str">
+        <v>-49.080000000001348</v>
+      </c>
+      <c r="Q61" s="22">
+        <v>0.34178199999999997</v>
+      </c>
+      <c r="R61" s="22">
+        <v>1.9372849999999999</v>
+      </c>
+      <c r="S61" s="10">
+        <v>0.98498699999999995</v>
+      </c>
+      <c r="T61" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="17" t="str">
+        <v>-48.38000000000342</v>
+      </c>
+      <c r="U61" s="19">
+        <v>0.33581299999999997</v>
+      </c>
+      <c r="V61" s="19">
+        <v>1.9011480000000001</v>
+      </c>
+      <c r="W61" s="12">
+        <v>0.98498799999999997</v>
+      </c>
+      <c r="X61" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="14" t="str">
+        <v>-48.280000000000541</v>
+      </c>
+      <c r="Y61" s="22">
+        <v>0.33487299999999998</v>
+      </c>
+      <c r="Z61" s="22">
+        <v>1.8962399999999999</v>
+      </c>
+      <c r="AA61" s="10">
+        <v>0.96928800000000004</v>
+      </c>
+      <c r="AB61" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC61" s="19"/>
-      <c r="AD61" s="19"/>
-      <c r="AE61" s="12"/>
-      <c r="AF61" s="17" t="str">
+        <v>-1618.2799999999941</v>
+      </c>
+      <c r="AC61" s="19">
+        <v>12.278686</v>
+      </c>
+      <c r="AD61" s="19">
+        <v>50.490592999999997</v>
+      </c>
+      <c r="AE61" s="12">
+        <v>0.98362839999999996</v>
+      </c>
+      <c r="AF61" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="10"/>
-      <c r="AJ61" s="14" t="str">
+        <v>-184.24000000000217</v>
+      </c>
+      <c r="AG61" s="22">
+        <v>1.13262</v>
+      </c>
+      <c r="AH61" s="22">
+        <v>5.7603200000000001</v>
+      </c>
+      <c r="AI61" s="10">
+        <v>0.98463400000000001</v>
+      </c>
+      <c r="AJ61" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK61" s="19"/>
-      <c r="AL61" s="19"/>
+        <v>-83.679999999997094</v>
+      </c>
+      <c r="AK61" s="19">
+        <v>0.51913500000000001</v>
+      </c>
+      <c r="AL61" s="19">
+        <v>2.64575</v>
+      </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="I62">
         <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="14" t="str">
+      <c r="J62" s="6">
+        <v>0.99191050000000003</v>
+      </c>
+      <c r="K62" s="10">
+        <v>0.99145300000000003</v>
+      </c>
+      <c r="L62" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="17" t="str">
+        <v>-45.749999999999957</v>
+      </c>
+      <c r="M62" s="19">
+        <v>0.30135400000000001</v>
+      </c>
+      <c r="N62" s="19">
+        <v>1.759746</v>
+      </c>
+      <c r="O62" s="12">
+        <v>0.99137399999999998</v>
+      </c>
+      <c r="P62" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="14" t="str">
+        <v>-53.650000000005079</v>
+      </c>
+      <c r="Q62" s="22">
+        <v>0.35076600000000002</v>
+      </c>
+      <c r="R62" s="22">
+        <v>2.0056539999999998</v>
+      </c>
+      <c r="S62" s="10">
+        <v>0.99138099999999996</v>
+      </c>
+      <c r="T62" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="17" t="str">
+        <v>-52.950000000007158</v>
+      </c>
+      <c r="U62" s="19">
+        <v>0.34448600000000001</v>
+      </c>
+      <c r="V62" s="19">
+        <v>1.9672229999999999</v>
+      </c>
+      <c r="W62" s="12">
+        <v>0.99138199999999999</v>
+      </c>
+      <c r="X62" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="22"/>
-      <c r="AA62" s="10"/>
-      <c r="AB62" s="14" t="str">
+        <v>-52.850000000004286</v>
+      </c>
+      <c r="Y62" s="22">
+        <v>0.34349000000000002</v>
+      </c>
+      <c r="Z62" s="22">
+        <v>1.9619040000000001</v>
+      </c>
+      <c r="AA62" s="10">
+        <v>0.97461120000000001</v>
+      </c>
+      <c r="AB62" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC62" s="19"/>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="12"/>
-      <c r="AF62" s="17" t="str">
+        <v>-1729.9300000000017</v>
+      </c>
+      <c r="AC62" s="19">
+        <v>12.618312</v>
+      </c>
+      <c r="AD62" s="19">
+        <v>55.685191000000003</v>
+      </c>
+      <c r="AE62" s="12">
+        <v>0.99007559999999994</v>
+      </c>
+      <c r="AF62" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG62" s="22"/>
-      <c r="AH62" s="22"/>
-      <c r="AI62" s="10"/>
-      <c r="AJ62" s="14" t="str">
+        <v>-183.49000000000837</v>
+      </c>
+      <c r="AG62" s="22">
+        <v>1.0816319999999999</v>
+      </c>
+      <c r="AH62" s="22">
+        <v>5.6106049999999996</v>
+      </c>
+      <c r="AI62" s="10">
+        <v>0.99114610000000003</v>
+      </c>
+      <c r="AJ62" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK62" s="19"/>
-      <c r="AL62" s="19"/>
+        <v>-76.439999999999841</v>
+      </c>
+      <c r="AK62" s="19">
+        <v>0.454737</v>
+      </c>
+      <c r="AL62" s="19">
+        <v>2.3790300000000002</v>
+      </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="I63">
         <f t="shared" si="22"/>
         <v>17</v>
       </c>
-      <c r="J63" s="6"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="14" t="str">
+      <c r="J63" s="6">
+        <v>0.99853499999999995</v>
+      </c>
+      <c r="K63" s="10">
+        <v>0.99807199999999996</v>
+      </c>
+      <c r="L63" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="17" t="str">
+        <v>-46.299999999999116</v>
+      </c>
+      <c r="M63" s="19">
+        <v>0.28672399999999998</v>
+      </c>
+      <c r="N63" s="19">
+        <v>1.677352</v>
+      </c>
+      <c r="O63" s="12">
+        <v>0.99797899999999995</v>
+      </c>
+      <c r="P63" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="14" t="str">
+        <v>-55.600000000000094</v>
+      </c>
+      <c r="Q63" s="22">
+        <v>0.342283</v>
+      </c>
+      <c r="R63" s="22">
+        <v>1.9619610000000001</v>
+      </c>
+      <c r="S63" s="10">
+        <v>0.99798600000000004</v>
+      </c>
+      <c r="T63" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="17" t="str">
+        <v>-54.899999999991067</v>
+      </c>
+      <c r="U63" s="19">
+        <v>0.33635100000000001</v>
+      </c>
+      <c r="V63" s="19">
+        <v>1.9253020000000001</v>
+      </c>
+      <c r="W63" s="12">
+        <v>0.99798699999999996</v>
+      </c>
+      <c r="X63" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="10"/>
-      <c r="AB63" s="14" t="str">
+        <v>-54.799999999999294</v>
+      </c>
+      <c r="Y63" s="22">
+        <v>0.33543200000000001</v>
+      </c>
+      <c r="Z63" s="22">
+        <v>1.920258</v>
+      </c>
+      <c r="AA63" s="10">
+        <v>0.9815353</v>
+      </c>
+      <c r="AB63" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC63" s="19"/>
-      <c r="AD63" s="19"/>
-      <c r="AE63" s="12"/>
-      <c r="AF63" s="17" t="str">
+        <v>-1699.969999999995</v>
+      </c>
+      <c r="AC63" s="19">
+        <v>11.998735</v>
+      </c>
+      <c r="AD63" s="19">
+        <v>56.097034999999998</v>
+      </c>
+      <c r="AE63" s="12">
+        <v>0.99680809999999997</v>
+      </c>
+      <c r="AF63" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG63" s="22"/>
-      <c r="AH63" s="22"/>
-      <c r="AI63" s="10"/>
-      <c r="AJ63" s="14" t="str">
+        <v>-172.68999999999755</v>
+      </c>
+      <c r="AG63" s="22">
+        <v>0.97474700000000003</v>
+      </c>
+      <c r="AH63" s="22">
+        <v>5.1342980000000003</v>
+      </c>
+      <c r="AI63" s="10">
+        <v>0.99787269999999995</v>
+      </c>
+      <c r="AJ63" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK63" s="19"/>
-      <c r="AL63" s="19"/>
+        <v>-66.230000000000459</v>
+      </c>
+      <c r="AK63" s="19">
+        <v>0.37609599999999999</v>
+      </c>
+      <c r="AL63" s="19">
+        <v>2.0037690000000001</v>
+      </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="I64">
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="J64" s="6"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="14" t="str">
+      <c r="J64" s="6">
+        <v>1.0053799000000001</v>
+      </c>
+      <c r="K64" s="10">
+        <v>1.004926</v>
+      </c>
+      <c r="L64" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="17" t="str">
+        <v>-45.39000000001181</v>
+      </c>
+      <c r="M64" s="19">
+        <v>0.26223999999999997</v>
+      </c>
+      <c r="N64" s="19">
+        <v>1.516478</v>
+      </c>
+      <c r="O64" s="12">
+        <v>1.0048269999999999</v>
+      </c>
+      <c r="P64" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="14" t="str">
+        <v>-55.290000000018935</v>
+      </c>
+      <c r="Q64" s="22">
+        <v>0.31685400000000002</v>
+      </c>
+      <c r="R64" s="22">
+        <v>1.803353</v>
+      </c>
+      <c r="S64" s="10">
+        <v>1.0048330000000001</v>
+      </c>
+      <c r="T64" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="17" t="str">
+        <v>-54.690000000001682</v>
+      </c>
+      <c r="U64" s="19">
+        <v>0.31218400000000002</v>
+      </c>
+      <c r="V64" s="19">
+        <v>1.774044</v>
+      </c>
+      <c r="W64" s="12">
+        <v>1.004834</v>
+      </c>
+      <c r="X64" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="10"/>
-      <c r="AB64" s="14" t="str">
+        <v>-54.590000000009908</v>
+      </c>
+      <c r="Y64" s="22">
+        <v>0.31143900000000002</v>
+      </c>
+      <c r="Z64" s="22">
+        <v>1.769879</v>
+      </c>
+      <c r="AA64" s="10">
+        <v>0.99084570000000005</v>
+      </c>
+      <c r="AB64" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC64" s="19"/>
-      <c r="AD64" s="19"/>
-      <c r="AE64" s="12"/>
-      <c r="AF64" s="17" t="str">
+        <v>-1453.4200000000053</v>
+      </c>
+      <c r="AC64" s="19">
+        <v>10.019098</v>
+      </c>
+      <c r="AD64" s="19">
+        <v>49.165795000000003</v>
+      </c>
+      <c r="AE64" s="12">
+        <v>1.0038533000000001</v>
+      </c>
+      <c r="AF64" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="10"/>
-      <c r="AJ64" s="14" t="str">
+        <v>-152.66000000000446</v>
+      </c>
+      <c r="AG64" s="22">
+        <v>0.82170500000000002</v>
+      </c>
+      <c r="AH64" s="22">
+        <v>4.3614920000000001</v>
+      </c>
+      <c r="AI64" s="10">
+        <v>1.0048490000000001</v>
+      </c>
+      <c r="AJ64" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK64" s="19"/>
-      <c r="AL64" s="19"/>
+        <v>-53.090000000000082</v>
+      </c>
+      <c r="AK64" s="19">
+        <v>0.28548000000000001</v>
+      </c>
+      <c r="AL64" s="19">
+        <v>1.5299499999999999</v>
+      </c>
     </row>
     <row r="65" spans="9:38" x14ac:dyDescent="0.25">
       <c r="I65">
@@ -20762,56 +21505,100 @@
         <f t="shared" si="22"/>
         <v>20</v>
       </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="14" t="str">
+      <c r="J66" s="6">
+        <v>1.0213760999999999</v>
+      </c>
+      <c r="K66" s="10">
+        <v>1.0213760000000001</v>
+      </c>
+      <c r="L66" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="17" t="str">
+        <v>-9.9999999836342113E-3</v>
+      </c>
+      <c r="M66" s="19">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="N66" s="19">
+        <v>5.2099999999999998E-4</v>
+      </c>
+      <c r="O66" s="12">
+        <v>1.0213760000000001</v>
+      </c>
+      <c r="P66" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="14" t="str">
+        <v>-9.9999999836342113E-3</v>
+      </c>
+      <c r="Q66" s="22">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="R66" s="22">
+        <v>5.2099999999999998E-4</v>
+      </c>
+      <c r="S66" s="10">
+        <v>1.0213760000000001</v>
+      </c>
+      <c r="T66" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="17" t="str">
+        <v>-9.9999999836342113E-3</v>
+      </c>
+      <c r="U66" s="19">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="V66" s="19">
+        <v>5.2099999999999998E-4</v>
+      </c>
+      <c r="W66" s="12">
+        <v>1.0213760000000001</v>
+      </c>
+      <c r="X66" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="10"/>
-      <c r="AB66" s="14" t="str">
+        <v>-9.9999999836342113E-3</v>
+      </c>
+      <c r="Y66" s="22">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="Z66" s="22">
+        <v>5.2099999999999998E-4</v>
+      </c>
+      <c r="AA66" s="10">
+        <v>1.0213762</v>
+      </c>
+      <c r="AB66" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="19"/>
-      <c r="AE66" s="12"/>
-      <c r="AF66" s="17" t="str">
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="AC66" s="19">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="AD66" s="19">
+        <v>5.2099999999999998E-4</v>
+      </c>
+      <c r="AE66" s="12">
+        <v>1.0213762</v>
+      </c>
+      <c r="AF66" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="22"/>
-      <c r="AI66" s="10"/>
-      <c r="AJ66" s="14" t="str">
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="AG66" s="22">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="AH66" s="22">
+        <v>5.2099999999999998E-4</v>
+      </c>
+      <c r="AI66" s="10">
+        <v>1.0213762</v>
+      </c>
+      <c r="AJ66" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK66" s="19"/>
-      <c r="AL66" s="19"/>
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="AK66" s="19">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="AL66" s="19">
+        <v>5.2099999999999998E-4</v>
+      </c>
     </row>
     <row r="67" spans="9:38" x14ac:dyDescent="0.25">
       <c r="I67">
@@ -20874,336 +21661,600 @@
         <f t="shared" si="22"/>
         <v>22</v>
       </c>
-      <c r="J68" s="6"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="14" t="str">
+      <c r="J68" s="6">
+        <v>1.0324392</v>
+      </c>
+      <c r="K68" s="10">
+        <v>1.032367</v>
+      </c>
+      <c r="L68" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="17" t="str">
+        <v>-7.2199999999966735</v>
+      </c>
+      <c r="M68" s="19">
+        <v>0.15649399999999999</v>
+      </c>
+      <c r="N68" s="19">
+        <v>0.91776100000000005</v>
+      </c>
+      <c r="O68" s="12">
+        <v>1.0323180000000001</v>
+      </c>
+      <c r="P68" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="14" t="str">
+        <v>-12.119999999993247</v>
+      </c>
+      <c r="Q68" s="22">
+        <v>0.14887600000000001</v>
+      </c>
+      <c r="R68" s="22">
+        <v>0.94558799999999998</v>
+      </c>
+      <c r="S68" s="10">
+        <v>1.032319</v>
+      </c>
+      <c r="T68" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="17" t="str">
+        <v>-12.020000000001474</v>
+      </c>
+      <c r="U68" s="19">
+        <v>0.141627</v>
+      </c>
+      <c r="V68" s="19">
+        <v>0.90088199999999996</v>
+      </c>
+      <c r="W68" s="12">
+        <v>1.032319</v>
+      </c>
+      <c r="X68" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="14" t="str">
+        <v>-12.020000000001474</v>
+      </c>
+      <c r="Y68" s="22">
+        <v>0.14078299999999999</v>
+      </c>
+      <c r="Z68" s="22">
+        <v>0.89651700000000001</v>
+      </c>
+      <c r="AA68" s="10">
+        <v>1.0208554000000001</v>
+      </c>
+      <c r="AB68" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC68" s="19"/>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="12"/>
-      <c r="AF68" s="17" t="str">
+        <v>-1158.3799999999922</v>
+      </c>
+      <c r="AC68" s="19">
+        <v>5.8323530000000003</v>
+      </c>
+      <c r="AD68" s="19">
+        <v>22.729054999999999</v>
+      </c>
+      <c r="AE68" s="12">
+        <v>1.0317874</v>
+      </c>
+      <c r="AF68" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="22"/>
-      <c r="AI68" s="10"/>
-      <c r="AJ68" s="14" t="str">
+        <v>-65.179999999998017</v>
+      </c>
+      <c r="AG68" s="22">
+        <v>0.56964000000000004</v>
+      </c>
+      <c r="AH68" s="22">
+        <v>3.134471</v>
+      </c>
+      <c r="AI68" s="10">
+        <v>1.0320353</v>
+      </c>
+      <c r="AJ68" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK68" s="19"/>
-      <c r="AL68" s="19"/>
+        <v>-40.390000000001258</v>
+      </c>
+      <c r="AK68" s="19">
+        <v>0.35008600000000001</v>
+      </c>
+      <c r="AL68" s="19">
+        <v>1.8717950000000001</v>
+      </c>
     </row>
     <row r="69" spans="9:38" x14ac:dyDescent="0.25">
       <c r="I69">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="J69" s="6"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="14" t="str">
+      <c r="J69" s="6">
+        <v>1.0364783</v>
+      </c>
+      <c r="K69" s="10">
+        <v>1.0363720000000001</v>
+      </c>
+      <c r="L69" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="17" t="str">
+        <v>-10.629999999989259</v>
+      </c>
+      <c r="M69" s="19">
+        <v>0.20041100000000001</v>
+      </c>
+      <c r="N69" s="19">
+        <v>1.1653100000000001</v>
+      </c>
+      <c r="O69" s="12">
+        <v>1.0363070000000001</v>
+      </c>
+      <c r="P69" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="14" t="str">
+        <v>-17.129999999987433</v>
+      </c>
+      <c r="Q69" s="22">
+        <v>0.19445000000000001</v>
+      </c>
+      <c r="R69" s="22">
+        <v>1.2194339999999999</v>
+      </c>
+      <c r="S69" s="10">
+        <v>1.0363100000000001</v>
+      </c>
+      <c r="T69" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U69" s="19"/>
-      <c r="V69" s="19"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="17" t="str">
+        <v>-16.829999999989909</v>
+      </c>
+      <c r="U69" s="19">
+        <v>0.184285</v>
+      </c>
+      <c r="V69" s="19">
+        <v>1.156388</v>
+      </c>
+      <c r="W69" s="12">
+        <v>1.036311</v>
+      </c>
+      <c r="X69" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y69" s="22"/>
-      <c r="Z69" s="22"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="14" t="str">
+        <v>-16.729999999998135</v>
+      </c>
+      <c r="Y69" s="22">
+        <v>0.18312200000000001</v>
+      </c>
+      <c r="Z69" s="22">
+        <v>1.149931</v>
+      </c>
+      <c r="AA69" s="10">
+        <v>1.0224371000000001</v>
+      </c>
+      <c r="AB69" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC69" s="19"/>
-      <c r="AD69" s="19"/>
-      <c r="AE69" s="12"/>
-      <c r="AF69" s="17" t="str">
+        <v>-1404.1199999999865</v>
+      </c>
+      <c r="AC69" s="19">
+        <v>7.3280149999999997</v>
+      </c>
+      <c r="AD69" s="19">
+        <v>32.692762000000002</v>
+      </c>
+      <c r="AE69" s="12">
+        <v>1.0357059</v>
+      </c>
+      <c r="AF69" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG69" s="22"/>
-      <c r="AH69" s="22"/>
-      <c r="AI69" s="10"/>
-      <c r="AJ69" s="14" t="str">
+        <v>-77.240000000000634</v>
+      </c>
+      <c r="AG69" s="22">
+        <v>0.67677500000000002</v>
+      </c>
+      <c r="AH69" s="22">
+        <v>3.7422360000000001</v>
+      </c>
+      <c r="AI69" s="10">
+        <v>1.0360988</v>
+      </c>
+      <c r="AJ69" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK69" s="19"/>
-      <c r="AL69" s="19"/>
+        <v>-37.949999999997708</v>
+      </c>
+      <c r="AK69" s="19">
+        <v>0.33654899999999999</v>
+      </c>
+      <c r="AL69" s="19">
+        <v>1.842908</v>
+      </c>
     </row>
     <row r="70" spans="9:38" x14ac:dyDescent="0.25">
       <c r="I70">
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="J70" s="6"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="14" t="str">
+      <c r="J70" s="6">
+        <v>1.0402203999999999</v>
+      </c>
+      <c r="K70" s="10">
+        <v>1.040097</v>
+      </c>
+      <c r="L70" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="17" t="str">
+        <v>-12.339999999988471</v>
+      </c>
+      <c r="M70" s="19">
+        <v>0.22364500000000001</v>
+      </c>
+      <c r="N70" s="19">
+        <v>1.280343</v>
+      </c>
+      <c r="O70" s="12">
+        <v>1.040022</v>
+      </c>
+      <c r="P70" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="22"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="14" t="str">
+        <v>-19.839999999993196</v>
+      </c>
+      <c r="Q70" s="22">
+        <v>0.22000400000000001</v>
+      </c>
+      <c r="R70" s="22">
+        <v>1.361213</v>
+      </c>
+      <c r="S70" s="10">
+        <v>1.0400259999999999</v>
+      </c>
+      <c r="T70" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U70" s="19"/>
-      <c r="V70" s="19"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="17" t="str">
+        <v>-19.440000000003899</v>
+      </c>
+      <c r="U70" s="19">
+        <v>0.20768400000000001</v>
+      </c>
+      <c r="V70" s="19">
+        <v>1.284931</v>
+      </c>
+      <c r="W70" s="12">
+        <v>1.0400259999999999</v>
+      </c>
+      <c r="X70" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y70" s="22"/>
-      <c r="Z70" s="22"/>
-      <c r="AA70" s="10"/>
-      <c r="AB70" s="14" t="str">
+        <v>-19.440000000003899</v>
+      </c>
+      <c r="Y70" s="22">
+        <v>0.20632900000000001</v>
+      </c>
+      <c r="Z70" s="22">
+        <v>1.2770189999999999</v>
+      </c>
+      <c r="AA70" s="10">
+        <v>1.0245405999999999</v>
+      </c>
+      <c r="AB70" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC70" s="19"/>
-      <c r="AD70" s="19"/>
-      <c r="AE70" s="12"/>
-      <c r="AF70" s="17" t="str">
+        <v>-1567.9800000000021</v>
+      </c>
+      <c r="AC70" s="19">
+        <v>8.4849180000000004</v>
+      </c>
+      <c r="AD70" s="19">
+        <v>41.011974000000002</v>
+      </c>
+      <c r="AE70" s="12">
+        <v>1.0394216000000001</v>
+      </c>
+      <c r="AF70" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG70" s="22"/>
-      <c r="AH70" s="22"/>
-      <c r="AI70" s="10"/>
-      <c r="AJ70" s="14" t="str">
+        <v>-79.879999999987746</v>
+      </c>
+      <c r="AG70" s="22">
+        <v>0.70873299999999995</v>
+      </c>
+      <c r="AH70" s="22">
+        <v>3.9376579999999999</v>
+      </c>
+      <c r="AI70" s="10">
+        <v>1.0398779</v>
+      </c>
+      <c r="AJ70" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK70" s="19"/>
-      <c r="AL70" s="19"/>
+        <v>-34.249999999991232</v>
+      </c>
+      <c r="AK70" s="19">
+        <v>0.31201800000000002</v>
+      </c>
+      <c r="AL70" s="19">
+        <v>1.7332749999999999</v>
+      </c>
     </row>
     <row r="71" spans="9:38" x14ac:dyDescent="0.25">
       <c r="I71">
         <f t="shared" si="22"/>
         <v>25</v>
       </c>
-      <c r="J71" s="6"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="14" t="str">
+      <c r="J71" s="6">
+        <v>1.0437202999999999</v>
+      </c>
+      <c r="K71" s="10">
+        <v>1.0435950000000001</v>
+      </c>
+      <c r="L71" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="17" t="str">
+        <v>-12.529999999988384</v>
+      </c>
+      <c r="M71" s="19">
+        <v>0.23136999999999999</v>
+      </c>
+      <c r="N71" s="19">
+        <v>1.2974779999999999</v>
+      </c>
+      <c r="O71" s="12">
+        <v>1.043512</v>
+      </c>
+      <c r="P71" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="22"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="14" t="str">
+        <v>-20.829999999993909</v>
+      </c>
+      <c r="Q71" s="22">
+        <v>0.22980300000000001</v>
+      </c>
+      <c r="R71" s="22">
+        <v>1.3968339999999999</v>
+      </c>
+      <c r="S71" s="10">
+        <v>1.0435160000000001</v>
+      </c>
+      <c r="T71" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U71" s="19"/>
-      <c r="V71" s="19"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="17" t="str">
+        <v>-20.429999999982407</v>
+      </c>
+      <c r="U71" s="19">
+        <v>0.21634300000000001</v>
+      </c>
+      <c r="V71" s="19">
+        <v>1.3135399999999999</v>
+      </c>
+      <c r="W71" s="12">
+        <v>1.043517</v>
+      </c>
+      <c r="X71" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y71" s="22"/>
-      <c r="Z71" s="22"/>
-      <c r="AA71" s="10"/>
-      <c r="AB71" s="14" t="str">
+        <v>-20.329999999990633</v>
+      </c>
+      <c r="Y71" s="22">
+        <v>0.21496999999999999</v>
+      </c>
+      <c r="Z71" s="22">
+        <v>1.3054159999999999</v>
+      </c>
+      <c r="AA71" s="10">
+        <v>1.0271653999999999</v>
+      </c>
+      <c r="AB71" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC71" s="19"/>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="12"/>
-      <c r="AF71" s="17" t="str">
+        <v>-1655.4900000000039</v>
+      </c>
+      <c r="AC71" s="19">
+        <v>9.2422070000000005</v>
+      </c>
+      <c r="AD71" s="19">
+        <v>47.054385000000003</v>
+      </c>
+      <c r="AE71" s="12">
+        <v>1.0429573999999999</v>
+      </c>
+      <c r="AF71" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG71" s="22"/>
-      <c r="AH71" s="22"/>
-      <c r="AI71" s="10"/>
-      <c r="AJ71" s="14" t="str">
+        <v>-76.290000000001072</v>
+      </c>
+      <c r="AG71" s="22">
+        <v>0.69097399999999998</v>
+      </c>
+      <c r="AH71" s="22">
+        <v>3.853539</v>
+      </c>
+      <c r="AI71" s="10">
+        <v>1.0434254000000001</v>
+      </c>
+      <c r="AJ71" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK71" s="19"/>
-      <c r="AL71" s="19"/>
+        <v>-29.489999999987582</v>
+      </c>
+      <c r="AK71" s="19">
+        <v>0.27809899999999999</v>
+      </c>
+      <c r="AL71" s="19">
+        <v>1.5548709999999999</v>
+      </c>
     </row>
     <row r="72" spans="9:38" x14ac:dyDescent="0.25">
       <c r="I72">
         <f t="shared" si="22"/>
         <v>26</v>
       </c>
-      <c r="J72" s="6"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="14" t="str">
+      <c r="J72" s="6">
+        <v>1.0469967</v>
+      </c>
+      <c r="K72" s="10">
+        <v>1.046881</v>
+      </c>
+      <c r="L72" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="17" t="str">
+        <v>-11.570000000005187</v>
+      </c>
+      <c r="M72" s="19">
+        <v>0.226688</v>
+      </c>
+      <c r="N72" s="19">
+        <v>1.2389380000000001</v>
+      </c>
+      <c r="O72" s="12">
+        <v>1.0467949999999999</v>
+      </c>
+      <c r="P72" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="14" t="str">
+        <v>-20.170000000008237</v>
+      </c>
+      <c r="Q72" s="22">
+        <v>0.228324</v>
+      </c>
+      <c r="R72" s="22">
+        <v>1.3529119999999999</v>
+      </c>
+      <c r="S72" s="10">
+        <v>1.0467979999999999</v>
+      </c>
+      <c r="T72" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U72" s="19"/>
-      <c r="V72" s="19"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="17" t="str">
+        <v>-19.870000000010712</v>
+      </c>
+      <c r="U72" s="19">
+        <v>0.215003</v>
+      </c>
+      <c r="V72" s="19">
+        <v>1.2703310000000001</v>
+      </c>
+      <c r="W72" s="12">
+        <v>1.0467979999999999</v>
+      </c>
+      <c r="X72" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y72" s="22"/>
-      <c r="Z72" s="22"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="14" t="str">
+        <v>-19.870000000010712</v>
+      </c>
+      <c r="Y72" s="22">
+        <v>0.21381500000000001</v>
+      </c>
+      <c r="Z72" s="22">
+        <v>1.263285</v>
+      </c>
+      <c r="AA72" s="10">
+        <v>1.0304279000000001</v>
+      </c>
+      <c r="AB72" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="19"/>
-      <c r="AE72" s="12"/>
-      <c r="AF72" s="17" t="str">
+        <v>-1656.879999999994</v>
+      </c>
+      <c r="AC72" s="19">
+        <v>9.4688040000000004</v>
+      </c>
+      <c r="AD72" s="19">
+        <v>50.006262</v>
+      </c>
+      <c r="AE72" s="12">
+        <v>1.0463118</v>
+      </c>
+      <c r="AF72" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG72" s="22"/>
-      <c r="AH72" s="22"/>
-      <c r="AI72" s="10"/>
-      <c r="AJ72" s="14" t="str">
+        <v>-68.48999999999883</v>
+      </c>
+      <c r="AG72" s="22">
+        <v>0.64023600000000003</v>
+      </c>
+      <c r="AH72" s="22">
+        <v>3.5749140000000001</v>
+      </c>
+      <c r="AI72" s="10">
+        <v>1.0467579</v>
+      </c>
+      <c r="AJ72" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK72" s="19"/>
-      <c r="AL72" s="19"/>
+        <v>-23.879999999998347</v>
+      </c>
+      <c r="AK72" s="19">
+        <v>0.23729800000000001</v>
+      </c>
+      <c r="AL72" s="19">
+        <v>1.3211010000000001</v>
+      </c>
     </row>
     <row r="73" spans="9:38" x14ac:dyDescent="0.25">
       <c r="I73">
         <f t="shared" si="22"/>
         <v>27</v>
       </c>
-      <c r="J73" s="6"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="14" t="str">
+      <c r="J73" s="6">
+        <v>1.0500563999999999</v>
+      </c>
+      <c r="K73" s="10">
+        <v>1.0499540000000001</v>
+      </c>
+      <c r="L73" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="17" t="str">
+        <v>-10.239999999983596</v>
+      </c>
+      <c r="M73" s="19">
+        <v>0.21299499999999999</v>
+      </c>
+      <c r="N73" s="19">
+        <v>1.122746</v>
+      </c>
+      <c r="O73" s="12">
+        <v>1.0498719999999999</v>
+      </c>
+      <c r="P73" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="22"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="14" t="str">
+        <v>-18.439999999997347</v>
+      </c>
+      <c r="Q73" s="22">
+        <v>0.219997</v>
+      </c>
+      <c r="R73" s="22">
+        <v>1.252381</v>
+      </c>
+      <c r="S73" s="10">
+        <v>1.049874</v>
+      </c>
+      <c r="T73" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U73" s="19"/>
-      <c r="V73" s="19"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="17" t="str">
+        <v>-18.239999999991596</v>
+      </c>
+      <c r="U73" s="19">
+        <v>0.20813599999999999</v>
+      </c>
+      <c r="V73" s="19">
+        <v>1.178715</v>
+      </c>
+      <c r="W73" s="12">
+        <v>1.049874</v>
+      </c>
+      <c r="X73" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y73" s="22"/>
-      <c r="Z73" s="22"/>
-      <c r="AA73" s="10"/>
-      <c r="AB73" s="14" t="str">
+        <v>-18.239999999991596</v>
+      </c>
+      <c r="Y73" s="22">
+        <v>0.207316</v>
+      </c>
+      <c r="Z73" s="22">
+        <v>1.1739120000000001</v>
+      </c>
+      <c r="AA73" s="10">
+        <v>1.0345591999999999</v>
+      </c>
+      <c r="AB73" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC73" s="19"/>
-      <c r="AD73" s="19"/>
-      <c r="AE73" s="12"/>
-      <c r="AF73" s="17" t="str">
+        <v>-1549.7199999999989</v>
+      </c>
+      <c r="AC73" s="19">
+        <v>8.9708620000000003</v>
+      </c>
+      <c r="AD73" s="19">
+        <v>48.725265999999998</v>
+      </c>
+      <c r="AE73" s="12">
+        <v>1.0494783000000001</v>
+      </c>
+      <c r="AF73" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG73" s="22"/>
-      <c r="AH73" s="22"/>
-      <c r="AI73" s="10"/>
-      <c r="AJ73" s="14" t="str">
+        <v>-57.809999999980377</v>
+      </c>
+      <c r="AG73" s="22">
+        <v>0.56803099999999995</v>
+      </c>
+      <c r="AH73" s="22">
+        <v>3.1575989999999998</v>
+      </c>
+      <c r="AI73" s="10">
+        <v>1.0498794</v>
+      </c>
+      <c r="AJ73" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK73" s="19"/>
-      <c r="AL73" s="19"/>
+        <v>-17.69999999998717</v>
+      </c>
+      <c r="AK73" s="19">
+        <v>0.19401499999999999</v>
+      </c>
+      <c r="AL73" s="19">
+        <v>1.052273</v>
+      </c>
     </row>
     <row r="74" spans="9:38" x14ac:dyDescent="0.25">
       <c r="I74">
@@ -21322,56 +22373,100 @@
         <f t="shared" si="22"/>
         <v>30</v>
       </c>
-      <c r="J76" s="6"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="14" t="str">
+      <c r="J76" s="6">
+        <v>1.0576418999999999</v>
+      </c>
+      <c r="K76" s="10">
+        <v>1.057642</v>
+      </c>
+      <c r="L76" s="14">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="17" t="str">
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="M76" s="19">
+        <v>0</v>
+      </c>
+      <c r="N76" s="19">
+        <v>0</v>
+      </c>
+      <c r="O76" s="12">
+        <v>1.057642</v>
+      </c>
+      <c r="P76" s="17">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="14" t="str">
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="Q76" s="22">
+        <v>0</v>
+      </c>
+      <c r="R76" s="22">
+        <v>0</v>
+      </c>
+      <c r="S76" s="10">
+        <v>1.057642</v>
+      </c>
+      <c r="T76" s="14">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U76" s="19"/>
-      <c r="V76" s="19"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="17" t="str">
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="U76" s="19">
+        <v>0</v>
+      </c>
+      <c r="V76" s="19">
+        <v>0</v>
+      </c>
+      <c r="W76" s="12">
+        <v>1.057642</v>
+      </c>
+      <c r="X76" s="17">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Y76" s="22"/>
-      <c r="Z76" s="22"/>
-      <c r="AA76" s="10"/>
-      <c r="AB76" s="14" t="str">
+        <v>1.0000000005838672E-2</v>
+      </c>
+      <c r="Y76" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="10">
+        <v>1.0576418999999999</v>
+      </c>
+      <c r="AB76" s="14">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AC76" s="19"/>
-      <c r="AD76" s="19"/>
-      <c r="AE76" s="12"/>
-      <c r="AF76" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="12">
+        <v>1.0576418999999999</v>
+      </c>
+      <c r="AF76" s="17">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AG76" s="22"/>
-      <c r="AH76" s="22"/>
-      <c r="AI76" s="10"/>
-      <c r="AJ76" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="10">
+        <v>1.0576418999999999</v>
+      </c>
+      <c r="AJ76" s="14">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AK76" s="19"/>
-      <c r="AL76" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="AK76" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="9:38" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
@@ -21383,91 +22478,91 @@
         <f t="array" ref="L77">AVERAGE(ABS(L47:L54),ABS(L58:L64),ABS(L68:L74))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M77" s="19" t="e">
+      <c r="M77" s="19">
         <f>M78</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N77" s="19" t="e">
+        <v>0.19521034999999995</v>
+      </c>
+      <c r="N77" s="19">
         <f t="shared" ref="N77" si="23">N78</f>
-        <v>#DIV/0!</v>
+        <v>1.0550995499999998</v>
       </c>
       <c r="O77" s="12"/>
       <c r="P77" s="17" t="e">
         <f t="array" ref="P77">AVERAGE(ABS(P47:P54),ABS(P58:P64),ABS(P68:P74))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q77" s="22" t="e">
+      <c r="Q77" s="22">
         <f>Q78</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R77" s="22" t="e">
+        <v>0.20352460000000003</v>
+      </c>
+      <c r="R77" s="22">
         <f t="shared" ref="R77" si="24">R78</f>
-        <v>#DIV/0!</v>
+        <v>1.1354262499999999</v>
       </c>
       <c r="S77" s="10"/>
       <c r="T77" s="14" t="e">
         <f t="array" ref="T77">AVERAGE(ABS(T47:T54),ABS(T58:T64),ABS(T68:T74))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U77" s="19" t="e">
+      <c r="U77" s="19">
         <f>U78</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V77" s="19" t="e">
+        <v>0.20045190000000002</v>
+      </c>
+      <c r="V77" s="19">
         <f t="shared" ref="V77" si="25">V78</f>
-        <v>#DIV/0!</v>
+        <v>1.1147422499999999</v>
       </c>
       <c r="W77" s="12"/>
       <c r="X77" s="17" t="e">
         <f t="array" ref="X77">AVERAGE(ABS(X47:X54),ABS(X58:X64),ABS(X68:X74))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Y77" s="22" t="e">
+      <c r="Y77" s="22">
         <f>Y78</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z77" s="22" t="e">
+        <v>0.20012715</v>
+      </c>
+      <c r="Z77" s="22">
         <f t="shared" ref="Z77" si="26">Z78</f>
-        <v>#DIV/0!</v>
+        <v>1.1124277</v>
       </c>
       <c r="AA77" s="10"/>
       <c r="AB77" s="14" t="e">
         <f t="array" ref="AB77">AVERAGE(ABS(AB47:AB54),ABS(AB58:AB64),ABS(AB68:AB74))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC77" s="19" t="e">
+      <c r="AC77" s="19">
         <f>AC78</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD77" s="19" t="e">
+        <v>6.618836850000001</v>
+      </c>
+      <c r="AD77" s="19">
         <f t="shared" ref="AD77" si="27">AD78</f>
-        <v>#DIV/0!</v>
+        <v>29.296238300000006</v>
       </c>
       <c r="AE77" s="12"/>
       <c r="AF77" s="17" t="e">
         <f t="array" ref="AF77">AVERAGE(ABS(AF47:AF54),ABS(AF58:AF64),ABS(AF68:AF74))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AG77" s="22" t="e">
+      <c r="AG77" s="22">
         <f>AG78</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH77" s="22" t="e">
+        <v>0.68928735000000008</v>
+      </c>
+      <c r="AH77" s="22">
         <f t="shared" ref="AH77" si="28">AH78</f>
-        <v>#DIV/0!</v>
+        <v>3.4744736500000002</v>
       </c>
       <c r="AI77" s="10"/>
       <c r="AJ77" s="14" t="e">
         <f t="array" ref="AJ77">AVERAGE(ABS(AJ47:AJ54),ABS(AJ58:AJ64),ABS(AJ68:AJ74))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AK77" s="19" t="e">
+      <c r="AK77" s="19">
         <f>AK78</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL77" s="19" t="e">
+        <v>0.34461079999999999</v>
+      </c>
+      <c r="AL77" s="19">
         <f t="shared" ref="AL77" si="29">AL78</f>
-        <v>#DIV/0!</v>
+        <v>1.68515415</v>
       </c>
     </row>
     <row r="78" spans="9:38" x14ac:dyDescent="0.25">
@@ -21476,95 +22571,95 @@
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="10"/>
-      <c r="L78" s="14" t="e">
+      <c r="L78" s="14">
         <f>AVERAGE(L47:L54,L58:L64,L68:L74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M78" s="19" t="e">
+        <v>-21.480499999997345</v>
+      </c>
+      <c r="M78" s="19">
         <f>AVERAGE(M48:M54,M58:M64,M68:M74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N78" s="19" t="e">
+        <v>0.19521034999999995</v>
+      </c>
+      <c r="N78" s="19">
         <f>AVERAGE(N48:N54,N58:N64,N68:N74)</f>
-        <v>#DIV/0!</v>
+        <v>1.0550995499999998</v>
       </c>
       <c r="O78" s="12"/>
-      <c r="P78" s="17" t="e">
+      <c r="P78" s="17">
         <f>AVERAGE(P47:P54,P58:P64,P68:P74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q78" s="22" t="e">
+        <v>-24.775499999999397</v>
+      </c>
+      <c r="Q78" s="22">
         <f>AVERAGE(Q48:Q54,Q58:Q64,Q68:Q74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R78" s="22" t="e">
+        <v>0.20352460000000003</v>
+      </c>
+      <c r="R78" s="22">
         <f>AVERAGE(R48:R54,R58:R64,R68:R74)</f>
-        <v>#DIV/0!</v>
+        <v>1.1354262499999999</v>
       </c>
       <c r="S78" s="10"/>
-      <c r="T78" s="14" t="e">
+      <c r="T78" s="14">
         <f>AVERAGE(T47:T54,T58:T64,T68:T74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U78" s="19" t="e">
+        <v>-24.575499999999749</v>
+      </c>
+      <c r="U78" s="19">
         <f>AVERAGE(U48:U54,U58:U64,U68:U74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V78" s="19" t="e">
+        <v>0.20045190000000002</v>
+      </c>
+      <c r="V78" s="19">
         <f>AVERAGE(V48:V54,V58:V64,V68:V74)</f>
-        <v>#DIV/0!</v>
+        <v>1.1147422499999999</v>
       </c>
       <c r="W78" s="12"/>
-      <c r="X78" s="17" t="e">
+      <c r="X78" s="17">
         <f>AVERAGE(X47:X54,X58:X64,X68:X74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y78" s="22" t="e">
+        <v>-24.560500000000427</v>
+      </c>
+      <c r="Y78" s="22">
         <f>AVERAGE(Y48:Y54,Y58:Y64,Y68:Y74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z78" s="22" t="e">
+        <v>0.20012715</v>
+      </c>
+      <c r="Z78" s="22">
         <f>AVERAGE(Z48:Z54,Z58:Z64,Z68:Z74)</f>
-        <v>#DIV/0!</v>
+        <v>1.1124277</v>
       </c>
       <c r="AA78" s="10"/>
-      <c r="AB78" s="14" t="e">
+      <c r="AB78" s="14">
         <f>AVERAGE(AB47:AB54,AB58:AB64,AB68:AB74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC78" s="19" t="e">
+        <v>-905.54949999999894</v>
+      </c>
+      <c r="AC78" s="19">
         <f>AVERAGE(AC48:AC54,AC58:AC64,AC68:AC74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD78" s="19" t="e">
+        <v>6.618836850000001</v>
+      </c>
+      <c r="AD78" s="19">
         <f>AVERAGE(AD48:AD54,AD58:AD64,AD68:AD74)</f>
-        <v>#DIV/0!</v>
+        <v>29.296238300000006</v>
       </c>
       <c r="AE78" s="12"/>
-      <c r="AF78" s="17" t="e">
+      <c r="AF78" s="17">
         <f>AVERAGE(AF47:AF54,AF58:AF64,AF68:AF74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG78" s="22" t="e">
+        <v>-91.979499999998453</v>
+      </c>
+      <c r="AG78" s="22">
         <f>AVERAGE(AG48:AG54,AG58:AG64,AG68:AG74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH78" s="22" t="e">
+        <v>0.68928735000000008</v>
+      </c>
+      <c r="AH78" s="22">
         <f>AVERAGE(AH48:AH54,AH58:AH64,AH68:AH74)</f>
-        <v>#DIV/0!</v>
+        <v>3.4744736500000002</v>
       </c>
       <c r="AI78" s="10"/>
-      <c r="AJ78" s="14" t="e">
+      <c r="AJ78" s="14">
         <f>AVERAGE(AJ47:AJ54,AJ58:AJ64,AJ68:AJ74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK78" s="19" t="e">
+        <v>-45.214999999997332</v>
+      </c>
+      <c r="AK78" s="19">
         <f>AVERAGE(AK48:AK54,AK58:AK64,AK68:AK74)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL78" s="19" t="e">
+        <v>0.34461079999999999</v>
+      </c>
+      <c r="AL78" s="19">
         <f>AVERAGE(AL48:AL54,AL58:AL64,AL68:AL74)</f>
-        <v>#DIV/0!</v>
+        <v>1.68515415</v>
       </c>
     </row>
     <row r="79" spans="9:38" x14ac:dyDescent="0.25">
@@ -21573,51 +22668,51 @@
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="10"/>
-      <c r="L79" s="14" t="e">
+      <c r="L79" s="14">
         <f>STDEV(L48:L54)</f>
-        <v>#DIV/0!</v>
+        <v>6.9980163856142008</v>
       </c>
       <c r="M79" s="19"/>
       <c r="N79" s="19"/>
       <c r="O79" s="12"/>
-      <c r="P79" s="17" t="e">
+      <c r="P79" s="17">
         <f>STDEV(P48:P54)</f>
-        <v>#DIV/0!</v>
+        <v>6.6147558713887884</v>
       </c>
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
       <c r="S79" s="10"/>
-      <c r="T79" s="14" t="e">
+      <c r="T79" s="14">
         <f>STDEV(T48:T54)</f>
-        <v>#DIV/0!</v>
+        <v>6.6342793056029068</v>
       </c>
       <c r="U79" s="19"/>
       <c r="V79" s="19"/>
       <c r="W79" s="12"/>
-      <c r="X79" s="17" t="e">
+      <c r="X79" s="17">
         <f>STDEV(X48:X54)</f>
-        <v>#DIV/0!</v>
+        <v>6.6245715045614446</v>
       </c>
       <c r="Y79" s="22"/>
       <c r="Z79" s="22"/>
       <c r="AA79" s="10"/>
-      <c r="AB79" s="14" t="e">
+      <c r="AB79" s="14">
         <f>STDEV(AB48:AB54)</f>
-        <v>#DIV/0!</v>
+        <v>12.669890066049142</v>
       </c>
       <c r="AC79" s="19"/>
       <c r="AD79" s="19"/>
       <c r="AE79" s="12"/>
-      <c r="AF79" s="17" t="e">
+      <c r="AF79" s="17">
         <f>STDEV(AF48:AF54)</f>
-        <v>#DIV/0!</v>
+        <v>19.639278184772017</v>
       </c>
       <c r="AG79" s="22"/>
       <c r="AH79" s="22"/>
       <c r="AI79" s="10"/>
-      <c r="AJ79" s="14" t="e">
+      <c r="AJ79" s="14">
         <f>STDEV(AJ48:AJ54)</f>
-        <v>#DIV/0!</v>
+        <v>1.1486140717029303</v>
       </c>
       <c r="AK79" s="19"/>
       <c r="AL79" s="19"/>
@@ -21629,48 +22724,48 @@
       <c r="J83" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K83" s="43" t="s">
+      <c r="K83" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L83" s="43"/>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="45" t="s">
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P83" s="45"/>
-      <c r="Q83" s="45"/>
-      <c r="R83" s="45"/>
-      <c r="S83" s="43" t="s">
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T83" s="43"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
-      <c r="W83" s="45" t="s">
+      <c r="T83" s="46"/>
+      <c r="U83" s="46"/>
+      <c r="V83" s="46"/>
+      <c r="W83" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="X83" s="45"/>
-      <c r="Y83" s="45"/>
-      <c r="Z83" s="45"/>
-      <c r="AA83" s="43" t="s">
+      <c r="X83" s="44"/>
+      <c r="Y83" s="44"/>
+      <c r="Z83" s="44"/>
+      <c r="AA83" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB83" s="43"/>
-      <c r="AC83" s="43"/>
-      <c r="AD83" s="43"/>
-      <c r="AE83" s="45" t="s">
+      <c r="AB83" s="46"/>
+      <c r="AC83" s="46"/>
+      <c r="AD83" s="46"/>
+      <c r="AE83" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AF83" s="45"/>
-      <c r="AG83" s="45"/>
-      <c r="AH83" s="45"/>
-      <c r="AI83" s="43" t="s">
+      <c r="AF83" s="44"/>
+      <c r="AG83" s="44"/>
+      <c r="AH83" s="44"/>
+      <c r="AI83" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ83" s="43"/>
-      <c r="AK83" s="43"/>
-      <c r="AL83" s="43"/>
+      <c r="AJ83" s="46"/>
+      <c r="AK83" s="46"/>
+      <c r="AL83" s="46"/>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
@@ -21679,62 +22774,62 @@
       <c r="J84" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K84" s="44" t="s">
+      <c r="K84" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="L84" s="44"/>
-      <c r="M84" s="46" t="s">
+      <c r="L84" s="45"/>
+      <c r="M84" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N84" s="46"/>
-      <c r="O84" s="47" t="s">
+      <c r="N84" s="49"/>
+      <c r="O84" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P84" s="47"/>
-      <c r="Q84" s="45" t="s">
+      <c r="P84" s="48"/>
+      <c r="Q84" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R84" s="45"/>
-      <c r="S84" s="44" t="s">
+      <c r="R84" s="44"/>
+      <c r="S84" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="T84" s="44"/>
-      <c r="U84" s="43" t="s">
+      <c r="T84" s="45"/>
+      <c r="U84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V84" s="43"/>
-      <c r="W84" s="47" t="s">
+      <c r="V84" s="46"/>
+      <c r="W84" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="X84" s="47"/>
-      <c r="Y84" s="45" t="s">
+      <c r="X84" s="48"/>
+      <c r="Y84" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Z84" s="45"/>
-      <c r="AA84" s="44" t="s">
+      <c r="Z84" s="44"/>
+      <c r="AA84" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AB84" s="44"/>
-      <c r="AC84" s="43" t="s">
+      <c r="AB84" s="45"/>
+      <c r="AC84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD84" s="43"/>
-      <c r="AE84" s="47" t="s">
+      <c r="AD84" s="46"/>
+      <c r="AE84" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AF84" s="47"/>
-      <c r="AG84" s="45" t="s">
+      <c r="AF84" s="48"/>
+      <c r="AG84" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AH84" s="45"/>
-      <c r="AI84" s="44" t="s">
+      <c r="AH84" s="44"/>
+      <c r="AI84" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AJ84" s="44"/>
-      <c r="AK84" s="43" t="s">
+      <c r="AJ84" s="45"/>
+      <c r="AK84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL84" s="43"/>
+      <c r="AL84" s="46"/>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J85" s="8" t="s">
@@ -21826,69 +22921,85 @@
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B86" s="48" t="s">
+      <c r="B86" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="48" t="s">
+      <c r="C86" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="48"/>
+      <c r="D86" s="47"/>
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86" s="6"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="14" t="str">
+      <c r="J86" s="6">
+        <v>1.0485731</v>
+      </c>
+      <c r="K86" s="10">
+        <v>1.048573</v>
+      </c>
+      <c r="L86" s="14">
         <f>IF(K86="","",IF($J86="","",(K86-$J86)*100000))</f>
-        <v/>
+        <v>-1.0000000005838672E-2</v>
       </c>
       <c r="M86" s="19"/>
       <c r="N86" s="19"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="17" t="str">
+      <c r="O86" s="12">
+        <v>1.048573</v>
+      </c>
+      <c r="P86" s="17">
         <f>IF(O86="","",IF($J86="","",(O86-$J86)*100000))</f>
-        <v/>
+        <v>-1.0000000005838672E-2</v>
       </c>
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
-      <c r="S86" s="10"/>
-      <c r="T86" s="14" t="str">
+      <c r="S86" s="10">
+        <v>1.048573</v>
+      </c>
+      <c r="T86" s="14">
         <f>IF(S86="","",IF($J86="","",(S86-$J86)*100000))</f>
-        <v/>
+        <v>-1.0000000005838672E-2</v>
       </c>
       <c r="U86" s="19"/>
       <c r="V86" s="19"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="17" t="str">
+      <c r="W86" s="12">
+        <v>1.048573</v>
+      </c>
+      <c r="X86" s="17">
         <f>IF(W86="","",IF($J86="","",(W86-$J86)*100000))</f>
-        <v/>
+        <v>-1.0000000005838672E-2</v>
       </c>
       <c r="Y86" s="22"/>
       <c r="Z86" s="22"/>
-      <c r="AA86" s="10"/>
-      <c r="AB86" s="14" t="str">
+      <c r="AA86" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB86" s="14">
         <f>IF(AA86="","",IF($J86="","",(AA86-$J86)*100000))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AC86" s="19"/>
       <c r="AD86" s="19"/>
-      <c r="AE86" s="12"/>
-      <c r="AF86" s="17" t="str">
+      <c r="AE86" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF86" s="17">
         <f>IF(AE86="","",IF($J86="","",(AE86-$J86)*100000))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AG86" s="22"/>
       <c r="AH86" s="22"/>
-      <c r="AI86" s="10"/>
-      <c r="AJ86" s="14" t="str">
+      <c r="AI86" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ86" s="14">
         <f>IF(AI86="","",IF($J86="","",(AI86-$J86)*100000))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AK86" s="19"/>
       <c r="AL86" s="19"/>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B87" s="48"/>
+      <c r="B87" s="47"/>
       <c r="C87" t="s">
         <v>39</v>
       </c>
@@ -21928,21 +23039,27 @@
       </c>
       <c r="Y87" s="22"/>
       <c r="Z87" s="22"/>
-      <c r="AA87" s="10"/>
+      <c r="AA87" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AB87" s="14" t="str">
         <f t="shared" ref="AB87:AB116" si="34">IF(AA87="","",IF($J87="","",(AA87-$J87)*100000))</f>
         <v/>
       </c>
       <c r="AC87" s="19"/>
       <c r="AD87" s="19"/>
-      <c r="AE87" s="12"/>
+      <c r="AE87" s="12">
+        <v>1.0485731</v>
+      </c>
       <c r="AF87" s="17" t="str">
         <f t="shared" ref="AF87:AF116" si="35">IF(AE87="","",IF($J87="","",(AE87-$J87)*100000))</f>
         <v/>
       </c>
       <c r="AG87" s="22"/>
       <c r="AH87" s="22"/>
-      <c r="AI87" s="10"/>
+      <c r="AI87" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AJ87" s="14" t="str">
         <f t="shared" ref="AJ87:AJ116" si="36">IF(AI87="","",IF($J87="","",(AI87-$J87)*100000))</f>
         <v/>
@@ -21970,11 +23087,15 @@
         <f t="shared" ref="I88:I116" si="37">I87+1</f>
         <v>2</v>
       </c>
-      <c r="J88" s="6"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="14" t="str">
+      <c r="J88" s="6">
+        <v>1.0485211000000001</v>
+      </c>
+      <c r="K88" s="10">
+        <v>1.048495</v>
+      </c>
+      <c r="L88" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-2.61000000001399</v>
       </c>
       <c r="M88" s="19"/>
       <c r="N88" s="19"/>
@@ -21999,24 +23120,30 @@
       </c>
       <c r="Y88" s="22"/>
       <c r="Z88" s="22"/>
-      <c r="AA88" s="10"/>
-      <c r="AB88" s="14" t="str">
+      <c r="AA88" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB88" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>5.1999999999940982</v>
       </c>
       <c r="AC88" s="19"/>
       <c r="AD88" s="19"/>
-      <c r="AE88" s="12"/>
-      <c r="AF88" s="17" t="str">
+      <c r="AE88" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF88" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>5.1999999999940982</v>
       </c>
       <c r="AG88" s="22"/>
       <c r="AH88" s="22"/>
-      <c r="AI88" s="10"/>
-      <c r="AJ88" s="14" t="str">
+      <c r="AI88" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ88" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>5.1999999999940982</v>
       </c>
       <c r="AK88" s="19"/>
       <c r="AL88" s="19"/>
@@ -22041,11 +23168,15 @@
         <f t="shared" si="37"/>
         <v>3</v>
       </c>
-      <c r="J89" s="6"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="14" t="str">
+      <c r="J89" s="6">
+        <v>1.0485549999999999</v>
+      </c>
+      <c r="K89" s="10">
+        <v>1.0485249999999999</v>
+      </c>
+      <c r="L89" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-2.9999999999974492</v>
       </c>
       <c r="M89" s="19"/>
       <c r="N89" s="19"/>
@@ -22070,24 +23201,30 @@
       </c>
       <c r="Y89" s="22"/>
       <c r="Z89" s="22"/>
-      <c r="AA89" s="10"/>
-      <c r="AB89" s="14" t="str">
+      <c r="AA89" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB89" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>1.8100000000131899</v>
       </c>
       <c r="AC89" s="19"/>
       <c r="AD89" s="19"/>
-      <c r="AE89" s="12"/>
-      <c r="AF89" s="17" t="str">
+      <c r="AE89" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF89" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>1.8100000000131899</v>
       </c>
       <c r="AG89" s="22"/>
       <c r="AH89" s="22"/>
-      <c r="AI89" s="10"/>
-      <c r="AJ89" s="14" t="str">
+      <c r="AI89" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ89" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>1.8100000000131899</v>
       </c>
       <c r="AK89" s="19"/>
       <c r="AL89" s="19"/>
@@ -22112,11 +23249,15 @@
         <f t="shared" si="37"/>
         <v>4</v>
       </c>
-      <c r="J90" s="6"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="14" t="str">
+      <c r="J90" s="6">
+        <v>1.0486154999999999</v>
+      </c>
+      <c r="K90" s="10">
+        <v>1.0485850000000001</v>
+      </c>
+      <c r="L90" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-3.0499999999822336</v>
       </c>
       <c r="M90" s="19"/>
       <c r="N90" s="19"/>
@@ -22141,24 +23282,30 @@
       </c>
       <c r="Y90" s="22"/>
       <c r="Z90" s="22"/>
-      <c r="AA90" s="10"/>
-      <c r="AB90" s="14" t="str">
+      <c r="AA90" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB90" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-4.2399999999886973</v>
       </c>
       <c r="AC90" s="19"/>
       <c r="AD90" s="19"/>
-      <c r="AE90" s="12"/>
-      <c r="AF90" s="17" t="str">
+      <c r="AE90" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF90" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-4.2399999999886973</v>
       </c>
       <c r="AG90" s="22"/>
       <c r="AH90" s="22"/>
-      <c r="AI90" s="10"/>
-      <c r="AJ90" s="14" t="str">
+      <c r="AI90" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ90" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-4.2399999999886973</v>
       </c>
       <c r="AK90" s="19"/>
       <c r="AL90" s="19"/>
@@ -22183,11 +23330,15 @@
         <f t="shared" si="37"/>
         <v>5</v>
       </c>
-      <c r="J91" s="6"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="14" t="str">
+      <c r="J91" s="6">
+        <v>1.0486979999999999</v>
+      </c>
+      <c r="K91" s="10">
+        <v>1.048667</v>
+      </c>
+      <c r="L91" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-3.0999999999892225</v>
       </c>
       <c r="M91" s="19"/>
       <c r="N91" s="19"/>
@@ -22212,24 +23363,30 @@
       </c>
       <c r="Y91" s="22"/>
       <c r="Z91" s="22"/>
-      <c r="AA91" s="10"/>
-      <c r="AB91" s="14" t="str">
+      <c r="AA91" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB91" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-12.489999999987234</v>
       </c>
       <c r="AC91" s="19"/>
       <c r="AD91" s="19"/>
-      <c r="AE91" s="12"/>
-      <c r="AF91" s="17" t="str">
+      <c r="AE91" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF91" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-12.489999999987234</v>
       </c>
       <c r="AG91" s="22"/>
       <c r="AH91" s="22"/>
-      <c r="AI91" s="10"/>
-      <c r="AJ91" s="14" t="str">
+      <c r="AI91" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ91" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-12.489999999987234</v>
       </c>
       <c r="AK91" s="19"/>
       <c r="AL91" s="19"/>
@@ -22254,11 +23411,15 @@
         <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="J92" s="6"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="14" t="str">
+      <c r="J92" s="6">
+        <v>1.0488016</v>
+      </c>
+      <c r="K92" s="10">
+        <v>1.0487709999999999</v>
+      </c>
+      <c r="L92" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-3.0600000000102767</v>
       </c>
       <c r="M92" s="19"/>
       <c r="N92" s="19"/>
@@ -22283,24 +23444,30 @@
       </c>
       <c r="Y92" s="22"/>
       <c r="Z92" s="22"/>
-      <c r="AA92" s="10"/>
-      <c r="AB92" s="14" t="str">
+      <c r="AA92" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB92" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-22.849999999996484</v>
       </c>
       <c r="AC92" s="19"/>
       <c r="AD92" s="19"/>
-      <c r="AE92" s="12"/>
-      <c r="AF92" s="17" t="str">
+      <c r="AE92" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF92" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-22.849999999996484</v>
       </c>
       <c r="AG92" s="22"/>
       <c r="AH92" s="22"/>
-      <c r="AI92" s="10"/>
-      <c r="AJ92" s="14" t="str">
+      <c r="AI92" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ92" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-22.849999999996484</v>
       </c>
       <c r="AK92" s="19"/>
       <c r="AL92" s="19"/>
@@ -22325,11 +23492,15 @@
         <f t="shared" si="37"/>
         <v>7</v>
       </c>
-      <c r="J93" s="6"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="14" t="str">
+      <c r="J93" s="6">
+        <v>1.0489302</v>
+      </c>
+      <c r="K93" s="10">
+        <v>1.048897</v>
+      </c>
+      <c r="L93" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-3.320000000006651</v>
       </c>
       <c r="M93" s="19"/>
       <c r="N93" s="19"/>
@@ -22354,24 +23525,30 @@
       </c>
       <c r="Y93" s="22"/>
       <c r="Z93" s="22"/>
-      <c r="AA93" s="10"/>
-      <c r="AB93" s="14" t="str">
+      <c r="AA93" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB93" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-35.709999999999908</v>
       </c>
       <c r="AC93" s="19"/>
       <c r="AD93" s="19"/>
-      <c r="AE93" s="12"/>
-      <c r="AF93" s="17" t="str">
+      <c r="AE93" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF93" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-35.709999999999908</v>
       </c>
       <c r="AG93" s="22"/>
       <c r="AH93" s="22"/>
-      <c r="AI93" s="10"/>
-      <c r="AJ93" s="14" t="str">
+      <c r="AI93" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ93" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-35.709999999999908</v>
       </c>
       <c r="AK93" s="19"/>
       <c r="AL93" s="19"/>
@@ -22396,11 +23573,15 @@
         <f t="shared" si="37"/>
         <v>8</v>
       </c>
-      <c r="J94" s="6"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="14" t="str">
+      <c r="J94" s="6">
+        <v>1.0490877999999999</v>
+      </c>
+      <c r="K94" s="10">
+        <v>1.049053</v>
+      </c>
+      <c r="L94" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-3.4799999999890474</v>
       </c>
       <c r="M94" s="19"/>
       <c r="N94" s="19"/>
@@ -22425,24 +23606,30 @@
       </c>
       <c r="Y94" s="22"/>
       <c r="Z94" s="22"/>
-      <c r="AA94" s="10"/>
-      <c r="AB94" s="14" t="str">
+      <c r="AA94" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB94" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-51.469999999986804</v>
       </c>
       <c r="AC94" s="19"/>
       <c r="AD94" s="19"/>
-      <c r="AE94" s="12"/>
-      <c r="AF94" s="17" t="str">
+      <c r="AE94" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF94" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-51.469999999986804</v>
       </c>
       <c r="AG94" s="22"/>
       <c r="AH94" s="22"/>
-      <c r="AI94" s="10"/>
-      <c r="AJ94" s="14" t="str">
+      <c r="AI94" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ94" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-51.469999999986804</v>
       </c>
       <c r="AK94" s="19"/>
       <c r="AL94" s="19"/>
@@ -22481,21 +23668,27 @@
       </c>
       <c r="Y95" s="22"/>
       <c r="Z95" s="22"/>
-      <c r="AA95" s="10"/>
+      <c r="AA95" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AB95" s="14" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AC95" s="19"/>
       <c r="AD95" s="19"/>
-      <c r="AE95" s="12"/>
+      <c r="AE95" s="12">
+        <v>1.0485731</v>
+      </c>
       <c r="AF95" s="17" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AG95" s="22"/>
       <c r="AH95" s="22"/>
-      <c r="AI95" s="10"/>
+      <c r="AI95" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AJ95" s="14" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -22508,53 +23701,69 @@
         <f t="shared" si="37"/>
         <v>10</v>
       </c>
-      <c r="J96" s="6"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="14" t="str">
+      <c r="J96" s="6">
+        <v>1.0495497</v>
+      </c>
+      <c r="K96" s="10">
+        <v>1.04955</v>
+      </c>
+      <c r="L96" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>2.9999999995311555E-2</v>
       </c>
       <c r="M96" s="19"/>
       <c r="N96" s="19"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="17" t="str">
+      <c r="O96" s="12">
+        <v>1.04955</v>
+      </c>
+      <c r="P96" s="17">
         <f t="shared" si="31"/>
-        <v/>
+        <v>2.9999999995311555E-2</v>
       </c>
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
-      <c r="S96" s="10"/>
-      <c r="T96" s="14" t="str">
+      <c r="S96" s="10">
+        <v>1.04955</v>
+      </c>
+      <c r="T96" s="14">
         <f t="shared" si="32"/>
-        <v/>
+        <v>2.9999999995311555E-2</v>
       </c>
       <c r="U96" s="19"/>
       <c r="V96" s="19"/>
-      <c r="W96" s="12"/>
-      <c r="X96" s="17" t="str">
+      <c r="W96" s="12">
+        <v>1.04955</v>
+      </c>
+      <c r="X96" s="17">
         <f t="shared" si="33"/>
-        <v/>
+        <v>2.9999999995311555E-2</v>
       </c>
       <c r="Y96" s="22"/>
       <c r="Z96" s="22"/>
-      <c r="AA96" s="10"/>
-      <c r="AB96" s="14" t="str">
+      <c r="AA96" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB96" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-97.659999999999414</v>
       </c>
       <c r="AC96" s="19"/>
       <c r="AD96" s="19"/>
-      <c r="AE96" s="12"/>
-      <c r="AF96" s="17" t="str">
+      <c r="AE96" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF96" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-97.659999999999414</v>
       </c>
       <c r="AG96" s="22"/>
       <c r="AH96" s="22"/>
-      <c r="AI96" s="10"/>
-      <c r="AJ96" s="14" t="str">
+      <c r="AI96" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ96" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-97.659999999999414</v>
       </c>
       <c r="AK96" s="19"/>
       <c r="AL96" s="19"/>
@@ -22593,21 +23802,27 @@
       </c>
       <c r="Y97" s="22"/>
       <c r="Z97" s="22"/>
-      <c r="AA97" s="10"/>
+      <c r="AA97" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AB97" s="14" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AC97" s="19"/>
       <c r="AD97" s="19"/>
-      <c r="AE97" s="12"/>
+      <c r="AE97" s="12">
+        <v>1.0485731</v>
+      </c>
       <c r="AF97" s="17" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AG97" s="22"/>
       <c r="AH97" s="22"/>
-      <c r="AI97" s="10"/>
+      <c r="AI97" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AJ97" s="14" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -22620,11 +23835,15 @@
         <f t="shared" si="37"/>
         <v>12</v>
       </c>
-      <c r="J98" s="6"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="14" t="str">
+      <c r="J98" s="6">
+        <v>1.0503766999999999</v>
+      </c>
+      <c r="K98" s="10">
+        <v>1.0503659999999999</v>
+      </c>
+      <c r="L98" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-1.070000000003013</v>
       </c>
       <c r="M98" s="19"/>
       <c r="N98" s="19"/>
@@ -22649,24 +23868,30 @@
       </c>
       <c r="Y98" s="22"/>
       <c r="Z98" s="22"/>
-      <c r="AA98" s="10"/>
-      <c r="AB98" s="14" t="str">
+      <c r="AA98" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB98" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-180.35999999999052</v>
       </c>
       <c r="AC98" s="19"/>
       <c r="AD98" s="19"/>
-      <c r="AE98" s="12"/>
-      <c r="AF98" s="17" t="str">
+      <c r="AE98" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF98" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-180.35999999999052</v>
       </c>
       <c r="AG98" s="22"/>
       <c r="AH98" s="22"/>
-      <c r="AI98" s="10"/>
-      <c r="AJ98" s="14" t="str">
+      <c r="AI98" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ98" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-180.35999999999052</v>
       </c>
       <c r="AK98" s="19"/>
       <c r="AL98" s="19"/>
@@ -22676,11 +23901,15 @@
         <f t="shared" si="37"/>
         <v>13</v>
       </c>
-      <c r="J99" s="6"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="14" t="str">
+      <c r="J99" s="6">
+        <v>1.0507702000000001</v>
+      </c>
+      <c r="K99" s="10">
+        <v>1.0507489999999999</v>
+      </c>
+      <c r="L99" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-2.1200000000165531</v>
       </c>
       <c r="M99" s="19"/>
       <c r="N99" s="19"/>
@@ -22705,24 +23934,30 @@
       </c>
       <c r="Y99" s="22"/>
       <c r="Z99" s="22"/>
-      <c r="AA99" s="10"/>
-      <c r="AB99" s="14" t="str">
+      <c r="AA99" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB99" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-219.71000000000629</v>
       </c>
       <c r="AC99" s="19"/>
       <c r="AD99" s="19"/>
-      <c r="AE99" s="12"/>
-      <c r="AF99" s="17" t="str">
+      <c r="AE99" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF99" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-219.71000000000629</v>
       </c>
       <c r="AG99" s="22"/>
       <c r="AH99" s="22"/>
-      <c r="AI99" s="10"/>
-      <c r="AJ99" s="14" t="str">
+      <c r="AI99" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ99" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-219.71000000000629</v>
       </c>
       <c r="AK99" s="19"/>
       <c r="AL99" s="19"/>
@@ -22732,11 +23967,15 @@
         <f t="shared" si="37"/>
         <v>14</v>
       </c>
-      <c r="J100" s="6"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="14" t="str">
+      <c r="J100" s="6">
+        <v>1.0511874000000001</v>
+      </c>
+      <c r="K100" s="10">
+        <v>1.0511600000000001</v>
+      </c>
+      <c r="L100" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-2.7400000000010749</v>
       </c>
       <c r="M100" s="19"/>
       <c r="N100" s="19"/>
@@ -22761,24 +24000,30 @@
       </c>
       <c r="Y100" s="22"/>
       <c r="Z100" s="22"/>
-      <c r="AA100" s="10"/>
-      <c r="AB100" s="14" t="str">
+      <c r="AA100" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB100" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-261.43000000000694</v>
       </c>
       <c r="AC100" s="19"/>
       <c r="AD100" s="19"/>
-      <c r="AE100" s="12"/>
-      <c r="AF100" s="17" t="str">
+      <c r="AE100" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF100" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-261.43000000000694</v>
       </c>
       <c r="AG100" s="22"/>
       <c r="AH100" s="22"/>
-      <c r="AI100" s="10"/>
-      <c r="AJ100" s="14" t="str">
+      <c r="AI100" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ100" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-261.43000000000694</v>
       </c>
       <c r="AK100" s="19"/>
       <c r="AL100" s="19"/>
@@ -22788,11 +24033,15 @@
         <f t="shared" si="37"/>
         <v>15</v>
       </c>
-      <c r="J101" s="6"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="14" t="str">
+      <c r="J101" s="6">
+        <v>1.0516262999999999</v>
+      </c>
+      <c r="K101" s="10">
+        <v>1.0515939999999999</v>
+      </c>
+      <c r="L101" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-3.2299999999985118</v>
       </c>
       <c r="M101" s="19"/>
       <c r="N101" s="19"/>
@@ -22817,24 +24066,30 @@
       </c>
       <c r="Y101" s="22"/>
       <c r="Z101" s="22"/>
-      <c r="AA101" s="10"/>
-      <c r="AB101" s="14" t="str">
+      <c r="AA101" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB101" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-305.31999999998669</v>
       </c>
       <c r="AC101" s="19"/>
       <c r="AD101" s="19"/>
-      <c r="AE101" s="12"/>
-      <c r="AF101" s="17" t="str">
+      <c r="AE101" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF101" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-305.31999999998669</v>
       </c>
       <c r="AG101" s="22"/>
       <c r="AH101" s="22"/>
-      <c r="AI101" s="10"/>
-      <c r="AJ101" s="14" t="str">
+      <c r="AI101" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ101" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-305.31999999998669</v>
       </c>
       <c r="AK101" s="19"/>
       <c r="AL101" s="19"/>
@@ -22844,11 +24099,15 @@
         <f t="shared" si="37"/>
         <v>16</v>
       </c>
-      <c r="J102" s="6"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="14" t="str">
+      <c r="J102" s="6">
+        <v>1.0520860000000001</v>
+      </c>
+      <c r="K102" s="10">
+        <v>1.0520510000000001</v>
+      </c>
+      <c r="L102" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-3.5000000000007248</v>
       </c>
       <c r="M102" s="19"/>
       <c r="N102" s="19"/>
@@ -22873,24 +24132,30 @@
       </c>
       <c r="Y102" s="22"/>
       <c r="Z102" s="22"/>
-      <c r="AA102" s="10"/>
-      <c r="AB102" s="14" t="str">
+      <c r="AA102" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB102" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-351.29000000000411</v>
       </c>
       <c r="AC102" s="19"/>
       <c r="AD102" s="19"/>
-      <c r="AE102" s="12"/>
-      <c r="AF102" s="17" t="str">
+      <c r="AE102" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF102" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-351.29000000000411</v>
       </c>
       <c r="AG102" s="22"/>
       <c r="AH102" s="22"/>
-      <c r="AI102" s="10"/>
-      <c r="AJ102" s="14" t="str">
+      <c r="AI102" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ102" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-351.29000000000411</v>
       </c>
       <c r="AK102" s="19"/>
       <c r="AL102" s="19"/>
@@ -22900,11 +24165,15 @@
         <f t="shared" si="37"/>
         <v>17</v>
       </c>
-      <c r="J103" s="6"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="14" t="str">
+      <c r="J103" s="6">
+        <v>1.0525675000000001</v>
+      </c>
+      <c r="K103" s="10">
+        <v>1.0525310000000001</v>
+      </c>
+      <c r="L103" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-3.649999999999487</v>
       </c>
       <c r="M103" s="19"/>
       <c r="N103" s="19"/>
@@ -22929,24 +24198,30 @@
       </c>
       <c r="Y103" s="22"/>
       <c r="Z103" s="22"/>
-      <c r="AA103" s="10"/>
-      <c r="AB103" s="14" t="str">
+      <c r="AA103" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB103" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-399.44000000000648</v>
       </c>
       <c r="AC103" s="19"/>
       <c r="AD103" s="19"/>
-      <c r="AE103" s="12"/>
-      <c r="AF103" s="17" t="str">
+      <c r="AE103" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF103" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-399.44000000000648</v>
       </c>
       <c r="AG103" s="22"/>
       <c r="AH103" s="22"/>
-      <c r="AI103" s="10"/>
-      <c r="AJ103" s="14" t="str">
+      <c r="AI103" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ103" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-399.44000000000648</v>
       </c>
       <c r="AK103" s="19"/>
       <c r="AL103" s="19"/>
@@ -22956,11 +24231,15 @@
         <f t="shared" si="37"/>
         <v>18</v>
       </c>
-      <c r="J104" s="6"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="14" t="str">
+      <c r="J104" s="6">
+        <v>1.0530773</v>
+      </c>
+      <c r="K104" s="10">
+        <v>1.0530409999999999</v>
+      </c>
+      <c r="L104" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>-3.6300000000100141</v>
       </c>
       <c r="M104" s="19"/>
       <c r="N104" s="19"/>
@@ -22985,24 +24264,30 @@
       </c>
       <c r="Y104" s="22"/>
       <c r="Z104" s="22"/>
-      <c r="AA104" s="10"/>
-      <c r="AB104" s="14" t="str">
+      <c r="AA104" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB104" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-450.41999999999581</v>
       </c>
       <c r="AC104" s="19"/>
       <c r="AD104" s="19"/>
-      <c r="AE104" s="12"/>
-      <c r="AF104" s="17" t="str">
+      <c r="AE104" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF104" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-450.41999999999581</v>
       </c>
       <c r="AG104" s="22"/>
       <c r="AH104" s="22"/>
-      <c r="AI104" s="10"/>
-      <c r="AJ104" s="14" t="str">
+      <c r="AI104" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ104" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-450.41999999999581</v>
       </c>
       <c r="AK104" s="19"/>
       <c r="AL104" s="19"/>
@@ -23041,21 +24326,27 @@
       </c>
       <c r="Y105" s="22"/>
       <c r="Z105" s="22"/>
-      <c r="AA105" s="10"/>
+      <c r="AA105" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AB105" s="14" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AC105" s="19"/>
       <c r="AD105" s="19"/>
-      <c r="AE105" s="12"/>
+      <c r="AE105" s="12">
+        <v>1.0485731</v>
+      </c>
       <c r="AF105" s="17" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AG105" s="22"/>
       <c r="AH105" s="22"/>
-      <c r="AI105" s="10"/>
+      <c r="AI105" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AJ105" s="14" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -23068,53 +24359,69 @@
         <f t="shared" si="37"/>
         <v>20</v>
       </c>
-      <c r="J106" s="6"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="14" t="str">
+      <c r="J106" s="6">
+        <v>1.0544149</v>
+      </c>
+      <c r="K106" s="10">
+        <v>1.0544150000000001</v>
+      </c>
+      <c r="L106" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>1.0000000005838672E-2</v>
       </c>
       <c r="M106" s="19"/>
       <c r="N106" s="19"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="17" t="str">
+      <c r="O106" s="12">
+        <v>1.0544150000000001</v>
+      </c>
+      <c r="P106" s="17">
         <f t="shared" si="31"/>
-        <v/>
+        <v>1.0000000005838672E-2</v>
       </c>
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
-      <c r="S106" s="10"/>
-      <c r="T106" s="14" t="str">
+      <c r="S106" s="10">
+        <v>1.0544150000000001</v>
+      </c>
+      <c r="T106" s="14">
         <f t="shared" si="32"/>
-        <v/>
+        <v>1.0000000005838672E-2</v>
       </c>
       <c r="U106" s="19"/>
       <c r="V106" s="19"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="17" t="str">
+      <c r="W106" s="12">
+        <v>1.0544150000000001</v>
+      </c>
+      <c r="X106" s="17">
         <f t="shared" si="33"/>
-        <v/>
+        <v>1.0000000005838672E-2</v>
       </c>
       <c r="Y106" s="22"/>
       <c r="Z106" s="22"/>
-      <c r="AA106" s="10"/>
-      <c r="AB106" s="14" t="str">
+      <c r="AA106" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB106" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-584.18000000000086</v>
       </c>
       <c r="AC106" s="19"/>
       <c r="AD106" s="19"/>
-      <c r="AE106" s="12"/>
-      <c r="AF106" s="17" t="str">
+      <c r="AE106" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF106" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-584.18000000000086</v>
       </c>
       <c r="AG106" s="22"/>
       <c r="AH106" s="22"/>
-      <c r="AI106" s="10"/>
-      <c r="AJ106" s="14" t="str">
+      <c r="AI106" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ106" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-584.18000000000086</v>
       </c>
       <c r="AK106" s="19"/>
       <c r="AL106" s="19"/>
@@ -23153,21 +24460,27 @@
       </c>
       <c r="Y107" s="22"/>
       <c r="Z107" s="22"/>
-      <c r="AA107" s="10"/>
+      <c r="AA107" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AB107" s="14" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AC107" s="19"/>
       <c r="AD107" s="19"/>
-      <c r="AE107" s="12"/>
+      <c r="AE107" s="12">
+        <v>1.0485731</v>
+      </c>
       <c r="AF107" s="17" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AG107" s="22"/>
       <c r="AH107" s="22"/>
-      <c r="AI107" s="10"/>
+      <c r="AI107" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AJ107" s="14" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -23180,11 +24493,15 @@
         <f t="shared" si="37"/>
         <v>22</v>
       </c>
-      <c r="J108" s="6"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="14" t="str">
+      <c r="J108" s="6">
+        <v>1.0553893999999999</v>
+      </c>
+      <c r="K108" s="10">
+        <v>1.0553950000000001</v>
+      </c>
+      <c r="L108" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0.56000000001610317</v>
       </c>
       <c r="M108" s="19"/>
       <c r="N108" s="19"/>
@@ -23209,24 +24526,30 @@
       </c>
       <c r="Y108" s="22"/>
       <c r="Z108" s="22"/>
-      <c r="AA108" s="10"/>
-      <c r="AB108" s="14" t="str">
+      <c r="AA108" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB108" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-681.62999999998863</v>
       </c>
       <c r="AC108" s="19"/>
       <c r="AD108" s="19"/>
-      <c r="AE108" s="12"/>
-      <c r="AF108" s="17" t="str">
+      <c r="AE108" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF108" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-681.62999999998863</v>
       </c>
       <c r="AG108" s="22"/>
       <c r="AH108" s="22"/>
-      <c r="AI108" s="10"/>
-      <c r="AJ108" s="14" t="str">
+      <c r="AI108" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ108" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-681.62999999998863</v>
       </c>
       <c r="AK108" s="19"/>
       <c r="AL108" s="19"/>
@@ -23236,11 +24559,15 @@
         <f t="shared" si="37"/>
         <v>23</v>
       </c>
-      <c r="J109" s="6"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="14" t="str">
+      <c r="J109" s="6">
+        <v>1.0558110999999999</v>
+      </c>
+      <c r="K109" s="10">
+        <v>1.055814</v>
+      </c>
+      <c r="L109" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0.29000000001389026</v>
       </c>
       <c r="M109" s="19"/>
       <c r="N109" s="19"/>
@@ -23265,24 +24592,30 @@
       </c>
       <c r="Y109" s="22"/>
       <c r="Z109" s="22"/>
-      <c r="AA109" s="10"/>
-      <c r="AB109" s="14" t="str">
+      <c r="AA109" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB109" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-723.79999999998552</v>
       </c>
       <c r="AC109" s="19"/>
       <c r="AD109" s="19"/>
-      <c r="AE109" s="12"/>
-      <c r="AF109" s="17" t="str">
+      <c r="AE109" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF109" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-723.79999999998552</v>
       </c>
       <c r="AG109" s="22"/>
       <c r="AH109" s="22"/>
-      <c r="AI109" s="10"/>
-      <c r="AJ109" s="14" t="str">
+      <c r="AI109" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ109" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-723.79999999998552</v>
       </c>
       <c r="AK109" s="19"/>
       <c r="AL109" s="19"/>
@@ -23292,11 +24625,15 @@
         <f t="shared" si="37"/>
         <v>24</v>
       </c>
-      <c r="J110" s="6"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="14" t="str">
+      <c r="J110" s="6">
+        <v>1.0562164000000001</v>
+      </c>
+      <c r="K110" s="10">
+        <v>1.056219</v>
+      </c>
+      <c r="L110" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0.25999999999637424</v>
       </c>
       <c r="M110" s="19"/>
       <c r="N110" s="19"/>
@@ -23321,24 +24658,30 @@
       </c>
       <c r="Y110" s="22"/>
       <c r="Z110" s="22"/>
-      <c r="AA110" s="10"/>
-      <c r="AB110" s="14" t="str">
+      <c r="AA110" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB110" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-764.33000000000197</v>
       </c>
       <c r="AC110" s="19"/>
       <c r="AD110" s="19"/>
-      <c r="AE110" s="12"/>
-      <c r="AF110" s="17" t="str">
+      <c r="AE110" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF110" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-764.33000000000197</v>
       </c>
       <c r="AG110" s="22"/>
       <c r="AH110" s="22"/>
-      <c r="AI110" s="10"/>
-      <c r="AJ110" s="14" t="str">
+      <c r="AI110" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ110" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-764.33000000000197</v>
       </c>
       <c r="AK110" s="19"/>
       <c r="AL110" s="19"/>
@@ -23348,11 +24691,15 @@
         <f t="shared" si="37"/>
         <v>25</v>
       </c>
-      <c r="J111" s="6"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="14" t="str">
+      <c r="J111" s="6">
+        <v>1.0566073</v>
+      </c>
+      <c r="K111" s="10">
+        <v>1.05661</v>
+      </c>
+      <c r="L111" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0.27000000000221291</v>
       </c>
       <c r="M111" s="19"/>
       <c r="N111" s="19"/>
@@ -23377,24 +24724,30 @@
       </c>
       <c r="Y111" s="22"/>
       <c r="Z111" s="22"/>
-      <c r="AA111" s="10"/>
-      <c r="AB111" s="14" t="str">
+      <c r="AA111" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB111" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-803.41999999999916</v>
       </c>
       <c r="AC111" s="19"/>
       <c r="AD111" s="19"/>
-      <c r="AE111" s="12"/>
-      <c r="AF111" s="17" t="str">
+      <c r="AE111" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF111" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-803.41999999999916</v>
       </c>
       <c r="AG111" s="22"/>
       <c r="AH111" s="22"/>
-      <c r="AI111" s="10"/>
-      <c r="AJ111" s="14" t="str">
+      <c r="AI111" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ111" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-803.41999999999916</v>
       </c>
       <c r="AK111" s="19"/>
       <c r="AL111" s="19"/>
@@ -23404,11 +24757,15 @@
         <f t="shared" si="37"/>
         <v>26</v>
       </c>
-      <c r="J112" s="6"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="14" t="str">
+      <c r="J112" s="6">
+        <v>1.0569811</v>
+      </c>
+      <c r="K112" s="10">
+        <v>1.0569850000000001</v>
+      </c>
+      <c r="L112" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0.39000000000566359</v>
       </c>
       <c r="M112" s="19"/>
       <c r="N112" s="19"/>
@@ -23433,24 +24790,30 @@
       </c>
       <c r="Y112" s="22"/>
       <c r="Z112" s="22"/>
-      <c r="AA112" s="10"/>
-      <c r="AB112" s="14" t="str">
+      <c r="AA112" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB112" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-840.79999999999711</v>
       </c>
       <c r="AC112" s="19"/>
       <c r="AD112" s="19"/>
-      <c r="AE112" s="12"/>
-      <c r="AF112" s="17" t="str">
+      <c r="AE112" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF112" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-840.79999999999711</v>
       </c>
       <c r="AG112" s="22"/>
       <c r="AH112" s="22"/>
-      <c r="AI112" s="10"/>
-      <c r="AJ112" s="14" t="str">
+      <c r="AI112" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ112" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-840.79999999999711</v>
       </c>
       <c r="AK112" s="19"/>
       <c r="AL112" s="19"/>
@@ -23460,11 +24823,15 @@
         <f t="shared" si="37"/>
         <v>27</v>
       </c>
-      <c r="J113" s="6"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="14" t="str">
+      <c r="J113" s="6">
+        <v>1.0573334000000001</v>
+      </c>
+      <c r="K113" s="10">
+        <v>1.0573360000000001</v>
+      </c>
+      <c r="L113" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0.25999999999637424</v>
       </c>
       <c r="M113" s="19"/>
       <c r="N113" s="19"/>
@@ -23489,24 +24856,30 @@
       </c>
       <c r="Y113" s="22"/>
       <c r="Z113" s="22"/>
-      <c r="AA113" s="10"/>
-      <c r="AB113" s="14" t="str">
+      <c r="AA113" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB113" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-876.03000000000543</v>
       </c>
       <c r="AC113" s="19"/>
       <c r="AD113" s="19"/>
-      <c r="AE113" s="12"/>
-      <c r="AF113" s="17" t="str">
+      <c r="AE113" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF113" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-876.03000000000543</v>
       </c>
       <c r="AG113" s="22"/>
       <c r="AH113" s="22"/>
-      <c r="AI113" s="10"/>
-      <c r="AJ113" s="14" t="str">
+      <c r="AI113" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ113" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-876.03000000000543</v>
       </c>
       <c r="AK113" s="19"/>
       <c r="AL113" s="19"/>
@@ -23545,21 +24918,27 @@
       </c>
       <c r="Y114" s="22"/>
       <c r="Z114" s="22"/>
-      <c r="AA114" s="10"/>
+      <c r="AA114" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AB114" s="14" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AC114" s="19"/>
       <c r="AD114" s="19"/>
-      <c r="AE114" s="12"/>
+      <c r="AE114" s="12">
+        <v>1.0485731</v>
+      </c>
       <c r="AF114" s="17" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AG114" s="22"/>
       <c r="AH114" s="22"/>
-      <c r="AI114" s="10"/>
+      <c r="AI114" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AJ114" s="14" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -23601,21 +24980,27 @@
       </c>
       <c r="Y115" s="22"/>
       <c r="Z115" s="22"/>
-      <c r="AA115" s="10"/>
+      <c r="AA115" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AB115" s="14" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AC115" s="19"/>
       <c r="AD115" s="19"/>
-      <c r="AE115" s="12"/>
+      <c r="AE115" s="12">
+        <v>1.0485731</v>
+      </c>
       <c r="AF115" s="17" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="AG115" s="22"/>
       <c r="AH115" s="22"/>
-      <c r="AI115" s="10"/>
+      <c r="AI115" s="10">
+        <v>1.0485731</v>
+      </c>
       <c r="AJ115" s="14" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -23628,11 +25013,15 @@
         <f t="shared" si="37"/>
         <v>30</v>
       </c>
-      <c r="J116" s="6"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="14" t="str">
+      <c r="J116" s="6">
+        <v>1.0576418999999999</v>
+      </c>
+      <c r="K116" s="10">
+        <v>1.057642</v>
+      </c>
+      <c r="L116" s="14">
         <f t="shared" si="30"/>
-        <v/>
+        <v>1.0000000005838672E-2</v>
       </c>
       <c r="M116" s="19"/>
       <c r="N116" s="19"/>
@@ -23657,24 +25046,30 @@
       </c>
       <c r="Y116" s="22"/>
       <c r="Z116" s="22"/>
-      <c r="AA116" s="10"/>
-      <c r="AB116" s="14" t="str">
+      <c r="AA116" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AB116" s="14">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-906.87999999998772</v>
       </c>
       <c r="AC116" s="19"/>
       <c r="AD116" s="19"/>
-      <c r="AE116" s="12"/>
-      <c r="AF116" s="17" t="str">
+      <c r="AE116" s="12">
+        <v>1.0485731</v>
+      </c>
+      <c r="AF116" s="17">
         <f t="shared" si="35"/>
-        <v/>
+        <v>-906.87999999998772</v>
       </c>
       <c r="AG116" s="22"/>
       <c r="AH116" s="22"/>
-      <c r="AI116" s="10"/>
-      <c r="AJ116" s="14" t="str">
+      <c r="AI116" s="10">
+        <v>1.0485731</v>
+      </c>
+      <c r="AJ116" s="14">
         <f t="shared" si="36"/>
-        <v/>
+        <v>-906.87999999998772</v>
       </c>
       <c r="AK116" s="19"/>
       <c r="AL116" s="19"/>
@@ -23782,9 +25177,9 @@
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="10"/>
-      <c r="L118" s="14" t="e">
+      <c r="L118" s="14">
         <f>AVERAGE(L87:L94,L98:L104,L108:L114)</f>
-        <v>#DIV/0!</v>
+        <v>-1.9764999999993815</v>
       </c>
       <c r="M118" s="19" t="e">
         <f>AVERAGE(M88:M94,M98:M104,M108:M114)</f>
@@ -23834,9 +25229,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AA118" s="10"/>
-      <c r="AB118" s="14" t="e">
+      <c r="AB118" s="14">
         <f>AVERAGE(AB87:AB94,AB98:AB104,AB108:AB114)</f>
-        <v>#DIV/0!</v>
+        <v>-348.88649999999632</v>
       </c>
       <c r="AC118" s="19" t="e">
         <f>AVERAGE(AC88:AC94,AC98:AC104,AC108:AC114)</f>
@@ -23847,9 +25242,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AE118" s="12"/>
-      <c r="AF118" s="17" t="e">
+      <c r="AF118" s="17">
         <f>AVERAGE(AF87:AF94,AF98:AF104,AF108:AF114)</f>
-        <v>#DIV/0!</v>
+        <v>-348.88649999999632</v>
       </c>
       <c r="AG118" s="22" t="e">
         <f>AVERAGE(AG88:AG94,AG98:AG104,AG108:AG114)</f>
@@ -23860,9 +25255,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AI118" s="10"/>
-      <c r="AJ118" s="14" t="e">
+      <c r="AJ118" s="14">
         <f>AVERAGE(AJ87:AJ94,AJ98:AJ104,AJ108:AJ114)</f>
-        <v>#DIV/0!</v>
+        <v>-348.88649999999632</v>
       </c>
       <c r="AK118" s="19" t="e">
         <f>AVERAGE(AK88:AK94,AK98:AK104,AK108:AK114)</f>
@@ -23879,9 +25274,9 @@
       </c>
       <c r="J119" s="6"/>
       <c r="K119" s="10"/>
-      <c r="L119" s="14" t="e">
+      <c r="L119" s="14">
         <f>STDEV(L88:L94)</f>
-        <v>#DIV/0!</v>
+        <v>0.27266759808352026</v>
       </c>
       <c r="M119" s="19"/>
       <c r="N119" s="19"/>
@@ -23907,29 +25302,82 @@
       <c r="Y119" s="22"/>
       <c r="Z119" s="22"/>
       <c r="AA119" s="10"/>
-      <c r="AB119" s="14" t="e">
+      <c r="AB119" s="14">
         <f>STDEV(AB88:AB94)</f>
-        <v>#DIV/0!</v>
+        <v>20.825468953730816</v>
       </c>
       <c r="AC119" s="19"/>
       <c r="AD119" s="19"/>
       <c r="AE119" s="12"/>
-      <c r="AF119" s="17" t="e">
+      <c r="AF119" s="17">
         <f>STDEV(AF88:AF94)</f>
-        <v>#DIV/0!</v>
+        <v>20.825468953730816</v>
       </c>
       <c r="AG119" s="22"/>
       <c r="AH119" s="22"/>
       <c r="AI119" s="10"/>
-      <c r="AJ119" s="14" t="e">
+      <c r="AJ119" s="14">
         <f>STDEV(AJ88:AJ94)</f>
-        <v>#DIV/0!</v>
+        <v>20.825468953730816</v>
       </c>
       <c r="AK119" s="19"/>
       <c r="AL119" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="AI4:AL4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="AE43:AH43"/>
+    <mergeCell ref="AI43:AL43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AA84:AB84"/>
+    <mergeCell ref="AC84:AD84"/>
+    <mergeCell ref="AE84:AF84"/>
+    <mergeCell ref="AG84:AH84"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="S83:V83"/>
     <mergeCell ref="AI84:AJ84"/>
     <mergeCell ref="AK84:AL84"/>
     <mergeCell ref="B86:B87"/>
@@ -23946,59 +25394,6 @@
     <mergeCell ref="U84:V84"/>
     <mergeCell ref="W84:X84"/>
     <mergeCell ref="Y84:Z84"/>
-    <mergeCell ref="AA84:AB84"/>
-    <mergeCell ref="AC84:AD84"/>
-    <mergeCell ref="AE84:AF84"/>
-    <mergeCell ref="AG84:AH84"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="S83:V83"/>
-    <mergeCell ref="AE43:AH43"/>
-    <mergeCell ref="AI43:AL43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="W43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="AI4:AL4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24009,7 +25404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
@@ -24525,19 +25920,19 @@
         <f t="shared" si="1"/>
         <v>1.0583026152201889</v>
       </c>
-      <c r="Q7" s="58"/>
+      <c r="Q7" s="43"/>
       <c r="R7" s="17"/>
       <c r="S7" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T7" s="58"/>
+      <c r="T7" s="43"/>
       <c r="U7" s="27"/>
       <c r="V7" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W7" s="58"/>
+      <c r="W7" s="43"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="22" t="str">
         <f t="shared" si="4"/>
@@ -24563,7 +25958,7 @@
         <f t="shared" si="6"/>
         <v>1.3086632862228935</v>
       </c>
-      <c r="AF7" s="58"/>
+      <c r="AF7" s="43"/>
       <c r="AG7" s="27"/>
       <c r="AH7" s="28" t="str">
         <f t="shared" si="7"/>
@@ -25033,43 +26428,43 @@
       <c r="M12" s="2">
         <v>817.84</v>
       </c>
-      <c r="N12" s="58"/>
+      <c r="N12" s="43"/>
       <c r="O12" s="27"/>
       <c r="P12" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q12" s="58"/>
+      <c r="Q12" s="43"/>
       <c r="R12" s="17"/>
       <c r="S12" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T12" s="58"/>
+      <c r="T12" s="43"/>
       <c r="U12" s="27"/>
       <c r="V12" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W12" s="58"/>
+      <c r="W12" s="43"/>
       <c r="X12" s="17"/>
       <c r="Y12" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Z12" s="58"/>
+      <c r="Z12" s="43"/>
       <c r="AA12" s="27"/>
       <c r="AB12" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC12" s="58"/>
+      <c r="AC12" s="43"/>
       <c r="AD12" s="17"/>
       <c r="AE12" s="22" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AF12" s="58"/>
+      <c r="AF12" s="43"/>
       <c r="AG12" s="27"/>
       <c r="AH12" s="28" t="str">
         <f t="shared" si="7"/>
@@ -25400,43 +26795,43 @@
       <c r="M16" s="2">
         <v>813.32</v>
       </c>
-      <c r="N16" s="58"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="27"/>
       <c r="P16" s="28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q16" s="58"/>
+      <c r="Q16" s="43"/>
       <c r="R16" s="17"/>
       <c r="S16" s="22" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="T16" s="58"/>
+      <c r="T16" s="43"/>
       <c r="U16" s="27"/>
       <c r="V16" s="28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W16" s="58"/>
+      <c r="W16" s="43"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="22" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Z16" s="58"/>
+      <c r="Z16" s="43"/>
       <c r="AA16" s="27"/>
       <c r="AB16" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC16" s="58"/>
+      <c r="AC16" s="43"/>
       <c r="AD16" s="17"/>
       <c r="AE16" s="22" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AF16" s="58"/>
+      <c r="AF16" s="43"/>
       <c r="AG16" s="27"/>
       <c r="AH16" s="28" t="str">
         <f t="shared" si="7"/>
@@ -27967,19 +29362,19 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Q45" s="58"/>
+      <c r="Q45" s="43"/>
       <c r="R45" s="17"/>
       <c r="S45" s="22" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="T45" s="58"/>
+      <c r="T45" s="43"/>
       <c r="U45" s="27"/>
       <c r="V45" s="28" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="W45" s="58"/>
+      <c r="W45" s="43"/>
       <c r="X45" s="17"/>
       <c r="Y45" s="22" t="str">
         <f t="shared" si="18"/>
@@ -27997,7 +29392,7 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF45" s="58"/>
+      <c r="AF45" s="43"/>
       <c r="AG45" s="27"/>
       <c r="AH45" s="28" t="str">
         <f t="shared" si="21"/>
@@ -28298,43 +29693,43 @@
       <c r="K50">
         <v>8</v>
       </c>
-      <c r="N50" s="58"/>
+      <c r="N50" s="43"/>
       <c r="O50" s="27"/>
       <c r="P50" s="28" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Q50" s="58"/>
+      <c r="Q50" s="43"/>
       <c r="R50" s="17"/>
       <c r="S50" s="22" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="T50" s="58"/>
+      <c r="T50" s="43"/>
       <c r="U50" s="27"/>
       <c r="V50" s="28" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="W50" s="58"/>
+      <c r="W50" s="43"/>
       <c r="X50" s="17"/>
       <c r="Y50" s="22" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="Z50" s="58"/>
+      <c r="Z50" s="43"/>
       <c r="AA50" s="27"/>
       <c r="AB50" s="28" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AC50" s="58"/>
+      <c r="AC50" s="43"/>
       <c r="AD50" s="17"/>
       <c r="AE50" s="22" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF50" s="58"/>
+      <c r="AF50" s="43"/>
       <c r="AG50" s="27"/>
       <c r="AH50" s="28" t="str">
         <f t="shared" si="21"/>
@@ -28573,43 +29968,43 @@
         <f t="shared" si="22"/>
         <v>12</v>
       </c>
-      <c r="N54" s="58"/>
+      <c r="N54" s="43"/>
       <c r="O54" s="27"/>
       <c r="P54" s="28" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="Q54" s="58"/>
+      <c r="Q54" s="43"/>
       <c r="R54" s="17"/>
       <c r="S54" s="22" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="T54" s="58"/>
+      <c r="T54" s="43"/>
       <c r="U54" s="27"/>
       <c r="V54" s="28" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="W54" s="58"/>
+      <c r="W54" s="43"/>
       <c r="X54" s="17"/>
       <c r="Y54" s="22" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="Z54" s="58"/>
+      <c r="Z54" s="43"/>
       <c r="AA54" s="27"/>
       <c r="AB54" s="28" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="AC54" s="58"/>
+      <c r="AC54" s="43"/>
       <c r="AD54" s="17"/>
       <c r="AE54" s="22" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="AF54" s="58"/>
+      <c r="AF54" s="43"/>
       <c r="AG54" s="27"/>
       <c r="AH54" s="28" t="str">
         <f t="shared" si="21"/>
@@ -29902,7 +31297,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M74" s="2" t="e">
-        <f t="shared" ref="M74:AH74" si="24">AVERAGE(M63:M71,M53:M61,M43:M51)</f>
+        <f t="shared" ref="M74:O74" si="24">AVERAGE(M63:M71,M53:M61,M43:M51)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N74" s="29" t="e">
@@ -30468,19 +31863,19 @@
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q83" s="58"/>
+      <c r="Q83" s="43"/>
       <c r="R83" s="17"/>
       <c r="S83" s="22" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="T83" s="58"/>
+      <c r="T83" s="43"/>
       <c r="U83" s="27"/>
       <c r="V83" s="28" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="W83" s="58"/>
+      <c r="W83" s="43"/>
       <c r="X83" s="17"/>
       <c r="Y83" s="22" t="str">
         <f t="shared" si="30"/>
@@ -30498,7 +31893,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AF83" s="58"/>
+      <c r="AF83" s="43"/>
       <c r="AG83" s="27"/>
       <c r="AH83" s="28" t="str">
         <f t="shared" si="33"/>
@@ -30796,43 +32191,43 @@
       <c r="K88">
         <v>8</v>
       </c>
-      <c r="N88" s="58"/>
+      <c r="N88" s="43"/>
       <c r="O88" s="27"/>
       <c r="P88" s="28" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q88" s="58"/>
+      <c r="Q88" s="43"/>
       <c r="R88" s="17"/>
       <c r="S88" s="22" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="T88" s="58"/>
+      <c r="T88" s="43"/>
       <c r="U88" s="27"/>
       <c r="V88" s="28" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="W88" s="58"/>
+      <c r="W88" s="43"/>
       <c r="X88" s="17"/>
       <c r="Y88" s="22" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="Z88" s="58"/>
+      <c r="Z88" s="43"/>
       <c r="AA88" s="27"/>
       <c r="AB88" s="28" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AC88" s="58"/>
+      <c r="AC88" s="43"/>
       <c r="AD88" s="17"/>
       <c r="AE88" s="22" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AF88" s="58"/>
+      <c r="AF88" s="43"/>
       <c r="AG88" s="27"/>
       <c r="AH88" s="28" t="str">
         <f t="shared" si="33"/>
@@ -31071,43 +32466,43 @@
         <f t="shared" si="34"/>
         <v>12</v>
       </c>
-      <c r="N92" s="58"/>
+      <c r="N92" s="43"/>
       <c r="O92" s="27"/>
       <c r="P92" s="28" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="Q92" s="58"/>
+      <c r="Q92" s="43"/>
       <c r="R92" s="17"/>
       <c r="S92" s="22" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="T92" s="58"/>
+      <c r="T92" s="43"/>
       <c r="U92" s="27"/>
       <c r="V92" s="28" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="W92" s="58"/>
+      <c r="W92" s="43"/>
       <c r="X92" s="17"/>
       <c r="Y92" s="22" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="Z92" s="58"/>
+      <c r="Z92" s="43"/>
       <c r="AA92" s="27"/>
       <c r="AB92" s="28" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AC92" s="58"/>
+      <c r="AC92" s="43"/>
       <c r="AD92" s="17"/>
       <c r="AE92" s="22" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AF92" s="58"/>
+      <c r="AF92" s="43"/>
       <c r="AG92" s="27"/>
       <c r="AH92" s="28" t="str">
         <f t="shared" si="33"/>
@@ -32400,7 +33795,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M112" s="2" t="e">
-        <f t="shared" ref="M112:AH112" si="36">AVERAGE(M101:M109,M91:M99,M81:M89)</f>
+        <f t="shared" ref="M112:O112" si="36">AVERAGE(M101:M109,M91:M99,M81:M89)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N112" s="29" t="e">

--- a/Miscellaneous/results.xlsx
+++ b/Miscellaneous/results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarog\dissertation\Miscellaneous\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-165" windowWidth="27795" windowHeight="14310" activeTab="6"/>
+    <workbookView xWindow="-225" yWindow="-165" windowWidth="27795" windowHeight="14310" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="meshing stuff" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="3D Subray" sheetId="7" r:id="rId7"/>
     <sheet name="3D Subray Runtime" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -533,7 +538,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.##\%;[Red]\(0.##\%\)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -727,22 +732,25 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -763,13 +771,10 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -835,7 +840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,9 +873,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -903,6 +925,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3560,48 +3599,48 @@
       <c r="J14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="48" t="s">
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="46" t="s">
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="48" t="s">
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="46" t="s">
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="48" t="s">
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="46" t="s">
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
     </row>
     <row r="15" spans="4:38" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -3614,58 +3653,58 @@
         <v>41</v>
       </c>
       <c r="L15" s="47"/>
-      <c r="M15" s="49" t="s">
+      <c r="M15" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="49"/>
+      <c r="N15" s="51"/>
       <c r="O15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P15" s="50"/>
-      <c r="Q15" s="48" t="s">
+      <c r="Q15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="48"/>
+      <c r="R15" s="46"/>
       <c r="S15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T15" s="47"/>
-      <c r="U15" s="46" t="s">
+      <c r="U15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V15" s="46"/>
+      <c r="V15" s="48"/>
       <c r="W15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X15" s="50"/>
-      <c r="Y15" s="48" t="s">
+      <c r="Y15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z15" s="48"/>
+      <c r="Z15" s="46"/>
       <c r="AA15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB15" s="47"/>
-      <c r="AC15" s="46" t="s">
+      <c r="AC15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD15" s="46"/>
+      <c r="AD15" s="48"/>
       <c r="AE15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF15" s="50"/>
-      <c r="AG15" s="48" t="s">
+      <c r="AG15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH15" s="48"/>
+      <c r="AH15" s="46"/>
       <c r="AI15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ15" s="47"/>
-      <c r="AK15" s="46" t="s">
+      <c r="AK15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL15" s="46"/>
+      <c r="AL15" s="48"/>
     </row>
     <row r="16" spans="4:38" x14ac:dyDescent="0.25">
       <c r="J16" s="8" t="s">
@@ -3757,13 +3796,13 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="49"/>
       <c r="I17">
         <v>0</v>
       </c>
@@ -3818,7 +3857,7 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
+      <c r="B18" s="49"/>
       <c r="C18" t="s">
         <v>39</v>
       </c>
@@ -4835,48 +4874,48 @@
       <c r="J32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="46" t="s">
+      <c r="K32" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="48" t="s">
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="46" t="s">
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="48" t="s">
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="46" t="s">
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="48" t="s">
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="46" t="s">
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="46"/>
-      <c r="AL32" s="46"/>
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="48"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
@@ -4889,58 +4928,58 @@
         <v>41</v>
       </c>
       <c r="L33" s="47"/>
-      <c r="M33" s="49" t="s">
+      <c r="M33" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="49"/>
+      <c r="N33" s="51"/>
       <c r="O33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P33" s="50"/>
-      <c r="Q33" s="48" t="s">
+      <c r="Q33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="48"/>
+      <c r="R33" s="46"/>
       <c r="S33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T33" s="47"/>
-      <c r="U33" s="46" t="s">
+      <c r="U33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V33" s="46"/>
+      <c r="V33" s="48"/>
       <c r="W33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X33" s="50"/>
-      <c r="Y33" s="48" t="s">
+      <c r="Y33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="48"/>
+      <c r="Z33" s="46"/>
       <c r="AA33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB33" s="47"/>
-      <c r="AC33" s="46" t="s">
+      <c r="AC33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD33" s="46"/>
+      <c r="AD33" s="48"/>
       <c r="AE33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF33" s="50"/>
-      <c r="AG33" s="48" t="s">
+      <c r="AG33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH33" s="48"/>
+      <c r="AH33" s="46"/>
       <c r="AI33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ33" s="47"/>
-      <c r="AK33" s="46" t="s">
+      <c r="AK33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL33" s="46"/>
+      <c r="AL33" s="48"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J34" s="8" t="s">
@@ -5032,13 +5071,13 @@
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="51"/>
+      <c r="D35" s="49"/>
       <c r="I35">
         <v>0</v>
       </c>
@@ -5138,7 +5177,7 @@
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B36" s="51"/>
+      <c r="B36" s="49"/>
       <c r="C36" t="s">
         <v>39</v>
       </c>
@@ -6445,48 +6484,48 @@
       <c r="J51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="46" t="s">
+      <c r="K51" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="48" t="s">
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="46" t="s">
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="48" t="s">
+      <c r="T51" s="48"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X51" s="48"/>
-      <c r="Y51" s="48"/>
-      <c r="Z51" s="48"/>
-      <c r="AA51" s="46" t="s">
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="46"/>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="48" t="s">
+      <c r="AB51" s="48"/>
+      <c r="AC51" s="48"/>
+      <c r="AD51" s="48"/>
+      <c r="AE51" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF51" s="48"/>
-      <c r="AG51" s="48"/>
-      <c r="AH51" s="48"/>
-      <c r="AI51" s="46" t="s">
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="46"/>
+      <c r="AI51" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ51" s="46"/>
-      <c r="AK51" s="46"/>
-      <c r="AL51" s="46"/>
+      <c r="AJ51" s="48"/>
+      <c r="AK51" s="48"/>
+      <c r="AL51" s="48"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
@@ -6499,58 +6538,58 @@
         <v>41</v>
       </c>
       <c r="L52" s="47"/>
-      <c r="M52" s="49" t="s">
+      <c r="M52" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N52" s="49"/>
+      <c r="N52" s="51"/>
       <c r="O52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P52" s="50"/>
-      <c r="Q52" s="48" t="s">
+      <c r="Q52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R52" s="48"/>
+      <c r="R52" s="46"/>
       <c r="S52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T52" s="47"/>
-      <c r="U52" s="46" t="s">
+      <c r="U52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V52" s="46"/>
+      <c r="V52" s="48"/>
       <c r="W52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X52" s="50"/>
-      <c r="Y52" s="48" t="s">
+      <c r="Y52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z52" s="48"/>
+      <c r="Z52" s="46"/>
       <c r="AA52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB52" s="47"/>
-      <c r="AC52" s="46" t="s">
+      <c r="AC52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD52" s="46"/>
+      <c r="AD52" s="48"/>
       <c r="AE52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF52" s="50"/>
-      <c r="AG52" s="48" t="s">
+      <c r="AG52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH52" s="48"/>
+      <c r="AH52" s="46"/>
       <c r="AI52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ52" s="47"/>
-      <c r="AK52" s="46" t="s">
+      <c r="AK52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL52" s="46"/>
+      <c r="AL52" s="48"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J53" s="8" t="s">
@@ -6642,13 +6681,13 @@
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="51"/>
+      <c r="D54" s="49"/>
       <c r="I54">
         <v>0</v>
       </c>
@@ -6748,7 +6787,7 @@
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B55" s="51"/>
+      <c r="B55" s="49"/>
       <c r="C55" t="s">
         <v>39</v>
       </c>
@@ -8055,48 +8094,48 @@
       <c r="J70" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K70" s="46" t="s">
+      <c r="K70" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="48" t="s">
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P70" s="48"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="48"/>
-      <c r="S70" s="46" t="s">
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T70" s="46"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="46"/>
-      <c r="W70" s="48" t="s">
+      <c r="T70" s="48"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="48"/>
+      <c r="W70" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X70" s="48"/>
-      <c r="Y70" s="48"/>
-      <c r="Z70" s="48"/>
-      <c r="AA70" s="46" t="s">
+      <c r="X70" s="46"/>
+      <c r="Y70" s="46"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB70" s="46"/>
-      <c r="AC70" s="46"/>
-      <c r="AD70" s="46"/>
-      <c r="AE70" s="48" t="s">
+      <c r="AB70" s="48"/>
+      <c r="AC70" s="48"/>
+      <c r="AD70" s="48"/>
+      <c r="AE70" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF70" s="48"/>
-      <c r="AG70" s="48"/>
-      <c r="AH70" s="48"/>
-      <c r="AI70" s="46" t="s">
+      <c r="AF70" s="46"/>
+      <c r="AG70" s="46"/>
+      <c r="AH70" s="46"/>
+      <c r="AI70" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ70" s="46"/>
-      <c r="AK70" s="46"/>
-      <c r="AL70" s="46"/>
+      <c r="AJ70" s="48"/>
+      <c r="AK70" s="48"/>
+      <c r="AL70" s="48"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
@@ -8109,58 +8148,58 @@
         <v>41</v>
       </c>
       <c r="L71" s="47"/>
-      <c r="M71" s="49" t="s">
+      <c r="M71" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N71" s="49"/>
+      <c r="N71" s="51"/>
       <c r="O71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P71" s="50"/>
-      <c r="Q71" s="48" t="s">
+      <c r="Q71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R71" s="48"/>
+      <c r="R71" s="46"/>
       <c r="S71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T71" s="47"/>
-      <c r="U71" s="46" t="s">
+      <c r="U71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V71" s="46"/>
+      <c r="V71" s="48"/>
       <c r="W71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X71" s="50"/>
-      <c r="Y71" s="48" t="s">
+      <c r="Y71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z71" s="48"/>
+      <c r="Z71" s="46"/>
       <c r="AA71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB71" s="47"/>
-      <c r="AC71" s="46" t="s">
+      <c r="AC71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD71" s="46"/>
+      <c r="AD71" s="48"/>
       <c r="AE71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF71" s="50"/>
-      <c r="AG71" s="48" t="s">
+      <c r="AG71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH71" s="48"/>
+      <c r="AH71" s="46"/>
       <c r="AI71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ71" s="47"/>
-      <c r="AK71" s="46" t="s">
+      <c r="AK71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL71" s="46"/>
+      <c r="AL71" s="48"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J72" s="8" t="s">
@@ -8252,13 +8291,13 @@
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="51"/>
+      <c r="D73" s="49"/>
       <c r="I73">
         <v>0</v>
       </c>
@@ -8358,7 +8397,7 @@
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B74" s="51"/>
+      <c r="B74" s="49"/>
       <c r="C74" t="s">
         <v>39</v>
       </c>
@@ -9660,6 +9699,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AE32:AH32"/>
+    <mergeCell ref="AI32:AL32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="W70:Z70"/>
+    <mergeCell ref="AA70:AD70"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="AI70:AL70"/>
     <mergeCell ref="AG71:AH71"/>
     <mergeCell ref="AI71:AJ71"/>
     <mergeCell ref="AK71:AL71"/>
@@ -9676,82 +9791,6 @@
     <mergeCell ref="O71:P71"/>
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="S71:T71"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="W70:Z70"/>
-    <mergeCell ref="AA70:AD70"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="AI70:AL70"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O70:R70"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AI14:AL14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="AE51:AH51"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AE32:AH32"/>
-    <mergeCell ref="AI32:AL32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="AA32:AD32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9802,137 +9841,137 @@
         <v>67</v>
       </c>
       <c r="M1" s="59"/>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="48" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="60" t="s">
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="48" t="s">
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="60" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="60" t="s">
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="60" t="s">
         <v>65</v>
       </c>
       <c r="M2" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="54" t="s">
+      <c r="V2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="55" t="s">
+      <c r="W2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="57" t="s">
+      <c r="Y2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="54" t="s">
+      <c r="AB2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="55" t="s">
+      <c r="AC2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="56" t="s">
+      <c r="AD2" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="57" t="s">
+      <c r="AE2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="52" t="s">
+      <c r="AF2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="53" t="s">
+      <c r="AG2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="54" t="s">
+      <c r="AH2" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L3" s="58"/>
+      <c r="L3" s="60"/>
       <c r="M3" s="59"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="54"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="55"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K4">
@@ -11298,41 +11337,41 @@
         <v>67</v>
       </c>
       <c r="M21" s="59"/>
-      <c r="N21" s="60" t="s">
+      <c r="N21" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="48" t="s">
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="60" t="s">
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="48" t="s">
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="60" t="s">
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="48" t="s">
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="60" t="s">
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -11356,73 +11395,73 @@
         <f t="shared" si="1"/>
         <v>649.29999999999995</v>
       </c>
-      <c r="L22" s="58" t="s">
+      <c r="L22" s="60" t="s">
         <v>65</v>
       </c>
       <c r="M22" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="52" t="s">
+      <c r="N22" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="53" t="s">
+      <c r="O22" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="P22" s="54" t="s">
+      <c r="P22" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="55" t="s">
+      <c r="Q22" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="56" t="s">
+      <c r="R22" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="57" t="s">
+      <c r="S22" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="T22" s="52" t="s">
+      <c r="T22" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="U22" s="53" t="s">
+      <c r="U22" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="V22" s="54" t="s">
+      <c r="V22" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="W22" s="55" t="s">
+      <c r="W22" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="X22" s="56" t="s">
+      <c r="X22" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="Y22" s="57" t="s">
+      <c r="Y22" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="Z22" s="52" t="s">
+      <c r="Z22" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AA22" s="53" t="s">
+      <c r="AA22" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AB22" s="54" t="s">
+      <c r="AB22" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AC22" s="55" t="s">
+      <c r="AC22" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AD22" s="56" t="s">
+      <c r="AD22" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AE22" s="57" t="s">
+      <c r="AE22" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AF22" s="52" t="s">
+      <c r="AF22" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AG22" s="53" t="s">
+      <c r="AG22" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AH22" s="54" t="s">
+      <c r="AH22" s="55" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11448,29 +11487,29 @@
         <f t="shared" si="1"/>
         <v>665.8</v>
       </c>
-      <c r="L23" s="58"/>
+      <c r="L23" s="60"/>
       <c r="M23" s="59"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="54"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="55"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -12843,41 +12882,41 @@
         <v>67</v>
       </c>
       <c r="M42" s="59"/>
-      <c r="N42" s="60" t="s">
+      <c r="N42" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="48" t="s">
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="60" t="s">
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="60"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="48" t="s">
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="60" t="s">
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="48" t="s">
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AD42" s="48"/>
-      <c r="AE42" s="48"/>
-      <c r="AF42" s="60" t="s">
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46"/>
+      <c r="AF42" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="60"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -12901,73 +12940,73 @@
         <f t="shared" si="1"/>
         <v>1005.61</v>
       </c>
-      <c r="L43" s="58" t="s">
+      <c r="L43" s="60" t="s">
         <v>65</v>
       </c>
       <c r="M43" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N43" s="52" t="s">
+      <c r="N43" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="O43" s="53" t="s">
+      <c r="O43" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="P43" s="54" t="s">
+      <c r="P43" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="Q43" s="55" t="s">
+      <c r="Q43" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="R43" s="56" t="s">
+      <c r="R43" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="S43" s="57" t="s">
+      <c r="S43" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="T43" s="52" t="s">
+      <c r="T43" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="U43" s="53" t="s">
+      <c r="U43" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="V43" s="54" t="s">
+      <c r="V43" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="W43" s="55" t="s">
+      <c r="W43" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="X43" s="56" t="s">
+      <c r="X43" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="Y43" s="57" t="s">
+      <c r="Y43" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="Z43" s="52" t="s">
+      <c r="Z43" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AA43" s="53" t="s">
+      <c r="AA43" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AB43" s="54" t="s">
+      <c r="AB43" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AC43" s="55" t="s">
+      <c r="AC43" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AD43" s="56" t="s">
+      <c r="AD43" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AE43" s="57" t="s">
+      <c r="AE43" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AF43" s="52" t="s">
+      <c r="AF43" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AG43" s="53" t="s">
+      <c r="AG43" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AH43" s="54" t="s">
+      <c r="AH43" s="55" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12993,29 +13032,29 @@
         <f t="shared" si="1"/>
         <v>1050.77</v>
       </c>
-      <c r="L44" s="58"/>
+      <c r="L44" s="60"/>
       <c r="M44" s="59"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="56"/>
-      <c r="AE44" s="57"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="54"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="56"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="53"/>
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="55"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -15025,44 +15064,45 @@
     <sortCondition ref="C5:C48"/>
   </sortState>
   <mergeCells count="93">
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AF43:AF44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AE23"/>
     <mergeCell ref="AF21:AH21"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="M22:M23"/>
@@ -15079,45 +15119,44 @@
     <mergeCell ref="X22:X23"/>
     <mergeCell ref="Y22:Y23"/>
     <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="AF43:AF44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15506,8 +15545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AL119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ117" sqref="AJ117:AL118"/>
+    <sheetView topLeftCell="A71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D94" sqref="A88:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15522,48 +15561,48 @@
       <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="48" t="s">
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="46" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="48" t="s">
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="46" t="s">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="48" t="s">
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="46" t="s">
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
@@ -15576,58 +15615,58 @@
         <v>41</v>
       </c>
       <c r="L5" s="47"/>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="49"/>
+      <c r="N5" s="51"/>
       <c r="O5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P5" s="50"/>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="48"/>
+      <c r="R5" s="46"/>
       <c r="S5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T5" s="47"/>
-      <c r="U5" s="46" t="s">
+      <c r="U5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="46"/>
+      <c r="V5" s="48"/>
       <c r="W5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X5" s="50"/>
-      <c r="Y5" s="48" t="s">
+      <c r="Y5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="48"/>
+      <c r="Z5" s="46"/>
       <c r="AA5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB5" s="47"/>
-      <c r="AC5" s="46" t="s">
+      <c r="AC5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="46"/>
+      <c r="AD5" s="48"/>
       <c r="AE5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF5" s="50"/>
-      <c r="AG5" s="48" t="s">
+      <c r="AG5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="48"/>
+      <c r="AH5" s="46"/>
       <c r="AI5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ5" s="47"/>
-      <c r="AK5" s="46" t="s">
+      <c r="AK5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="46"/>
+      <c r="AL5" s="48"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J6" s="8" t="s">
@@ -15719,13 +15758,13 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="49"/>
       <c r="I7">
         <v>0</v>
       </c>
@@ -15825,7 +15864,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
+      <c r="B8" s="49"/>
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -18972,48 +19011,48 @@
       <c r="J43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K43" s="46" t="s">
+      <c r="K43" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="48" t="s">
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="46" t="s">
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="48" t="s">
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="48"/>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="46" t="s">
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="46"/>
-      <c r="AE43" s="48" t="s">
+      <c r="AB43" s="48"/>
+      <c r="AC43" s="48"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="48"/>
-      <c r="AH43" s="48"/>
-      <c r="AI43" s="46" t="s">
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="46"/>
+      <c r="AI43" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ43" s="46"/>
-      <c r="AK43" s="46"/>
-      <c r="AL43" s="46"/>
+      <c r="AJ43" s="48"/>
+      <c r="AK43" s="48"/>
+      <c r="AL43" s="48"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
@@ -19026,58 +19065,58 @@
         <v>41</v>
       </c>
       <c r="L44" s="47"/>
-      <c r="M44" s="49" t="s">
+      <c r="M44" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N44" s="49"/>
+      <c r="N44" s="51"/>
       <c r="O44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P44" s="50"/>
-      <c r="Q44" s="48" t="s">
+      <c r="Q44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R44" s="48"/>
+      <c r="R44" s="46"/>
       <c r="S44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T44" s="47"/>
-      <c r="U44" s="46" t="s">
+      <c r="U44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V44" s="46"/>
+      <c r="V44" s="48"/>
       <c r="W44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X44" s="50"/>
-      <c r="Y44" s="48" t="s">
+      <c r="Y44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z44" s="48"/>
+      <c r="Z44" s="46"/>
       <c r="AA44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB44" s="47"/>
-      <c r="AC44" s="46" t="s">
+      <c r="AC44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD44" s="46"/>
+      <c r="AD44" s="48"/>
       <c r="AE44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF44" s="50"/>
-      <c r="AG44" s="48" t="s">
+      <c r="AG44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH44" s="48"/>
+      <c r="AH44" s="46"/>
       <c r="AI44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ44" s="47"/>
-      <c r="AK44" s="46" t="s">
+      <c r="AK44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL44" s="46"/>
+      <c r="AL44" s="48"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J45" s="8" t="s">
@@ -19169,13 +19208,13 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="51"/>
+      <c r="D46" s="49"/>
       <c r="I46">
         <v>0</v>
       </c>
@@ -19275,7 +19314,7 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B47" s="51"/>
+      <c r="B47" s="49"/>
       <c r="C47" t="s">
         <v>39</v>
       </c>
@@ -22330,48 +22369,48 @@
       <c r="J83" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K83" s="46" t="s">
+      <c r="K83" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="48" t="s">
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P83" s="48"/>
-      <c r="Q83" s="48"/>
-      <c r="R83" s="48"/>
-      <c r="S83" s="46" t="s">
+      <c r="P83" s="46"/>
+      <c r="Q83" s="46"/>
+      <c r="R83" s="46"/>
+      <c r="S83" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T83" s="46"/>
-      <c r="U83" s="46"/>
-      <c r="V83" s="46"/>
-      <c r="W83" s="48" t="s">
+      <c r="T83" s="48"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="48"/>
+      <c r="W83" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X83" s="48"/>
-      <c r="Y83" s="48"/>
-      <c r="Z83" s="48"/>
-      <c r="AA83" s="46" t="s">
+      <c r="X83" s="46"/>
+      <c r="Y83" s="46"/>
+      <c r="Z83" s="46"/>
+      <c r="AA83" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB83" s="46"/>
-      <c r="AC83" s="46"/>
-      <c r="AD83" s="46"/>
-      <c r="AE83" s="48" t="s">
+      <c r="AB83" s="48"/>
+      <c r="AC83" s="48"/>
+      <c r="AD83" s="48"/>
+      <c r="AE83" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF83" s="48"/>
-      <c r="AG83" s="48"/>
-      <c r="AH83" s="48"/>
-      <c r="AI83" s="46" t="s">
+      <c r="AF83" s="46"/>
+      <c r="AG83" s="46"/>
+      <c r="AH83" s="46"/>
+      <c r="AI83" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ83" s="46"/>
-      <c r="AK83" s="46"/>
-      <c r="AL83" s="46"/>
+      <c r="AJ83" s="48"/>
+      <c r="AK83" s="48"/>
+      <c r="AL83" s="48"/>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
@@ -22384,58 +22423,58 @@
         <v>41</v>
       </c>
       <c r="L84" s="47"/>
-      <c r="M84" s="49" t="s">
+      <c r="M84" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N84" s="49"/>
+      <c r="N84" s="51"/>
       <c r="O84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P84" s="50"/>
-      <c r="Q84" s="48" t="s">
+      <c r="Q84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R84" s="48"/>
+      <c r="R84" s="46"/>
       <c r="S84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T84" s="47"/>
-      <c r="U84" s="46" t="s">
+      <c r="U84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V84" s="46"/>
+      <c r="V84" s="48"/>
       <c r="W84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X84" s="50"/>
-      <c r="Y84" s="48" t="s">
+      <c r="Y84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z84" s="48"/>
+      <c r="Z84" s="46"/>
       <c r="AA84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB84" s="47"/>
-      <c r="AC84" s="46" t="s">
+      <c r="AC84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD84" s="46"/>
+      <c r="AD84" s="48"/>
       <c r="AE84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF84" s="50"/>
-      <c r="AG84" s="48" t="s">
+      <c r="AG84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH84" s="48"/>
+      <c r="AH84" s="46"/>
       <c r="AI84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ84" s="47"/>
-      <c r="AK84" s="46" t="s">
+      <c r="AK84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL84" s="46"/>
+      <c r="AL84" s="48"/>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J85" s="8" t="s">
@@ -22527,13 +22566,13 @@
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="51"/>
+      <c r="D86" s="49"/>
       <c r="I86">
         <v>0</v>
       </c>
@@ -22633,7 +22672,7 @@
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B87" s="51"/>
+      <c r="B87" s="49"/>
       <c r="C87" t="s">
         <v>39</v>
       </c>
@@ -25687,6 +25726,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="AI4:AL4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="AE43:AH43"/>
+    <mergeCell ref="AI43:AL43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AA84:AB84"/>
+    <mergeCell ref="AC84:AD84"/>
+    <mergeCell ref="AE84:AF84"/>
+    <mergeCell ref="AG84:AH84"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="S83:V83"/>
     <mergeCell ref="AI84:AJ84"/>
     <mergeCell ref="AK84:AL84"/>
     <mergeCell ref="B86:B87"/>
@@ -25703,59 +25795,6 @@
     <mergeCell ref="U84:V84"/>
     <mergeCell ref="W84:X84"/>
     <mergeCell ref="Y84:Z84"/>
-    <mergeCell ref="AA84:AB84"/>
-    <mergeCell ref="AC84:AD84"/>
-    <mergeCell ref="AE84:AF84"/>
-    <mergeCell ref="AG84:AH84"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="S83:V83"/>
-    <mergeCell ref="AE43:AH43"/>
-    <mergeCell ref="AI43:AL43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="W43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="AI4:AL4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25766,8 +25805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH128"/>
   <sheetViews>
-    <sheetView topLeftCell="B67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF88" sqref="AF88"/>
+    <sheetView tabSelected="1" topLeftCell="B72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32412,7 +32451,7 @@
         <v>27.833333333333332</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" ref="M74:O74" si="24">AVERAGE(M63:M71,M53:M61,M43:M51)</f>
+        <f t="shared" ref="M74:N74" si="24">AVERAGE(M63:M71,M53:M61,M43:M51)</f>
         <v>3156.0400000000009</v>
       </c>
       <c r="N74" s="29">
@@ -35743,11 +35782,11 @@
         <v>27.222222222222221</v>
       </c>
       <c r="M112" s="2">
-        <f t="shared" ref="M112:O112" si="36">AVERAGE(M101:M109,M91:M99,M81:M89)</f>
+        <f>AVERAGE(M101:M109,M91:M99,M81:M89)</f>
         <v>3346.3111764705882</v>
       </c>
       <c r="N112" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="M112:O112" si="36">AVERAGE(N101:N109,N91:N99,N81:N89)</f>
         <v>27.944444444444443</v>
       </c>
       <c r="O112" s="27">

--- a/Miscellaneous/results.xlsx
+++ b/Miscellaneous/results.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarog\dissertation\Miscellaneous\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-225" yWindow="-165" windowWidth="27795" windowHeight="14310" firstSheet="1" activeTab="7"/>
   </bookViews>
@@ -538,7 +533,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.##\%;[Red]\(0.##\%\)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -732,25 +727,22 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -771,10 +763,13 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -840,7 +835,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,26 +868,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,23 +903,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3348,7 +3309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AL85"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -3599,48 +3560,48 @@
       <c r="J14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="46" t="s">
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="48" t="s">
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="46" t="s">
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="48" t="s">
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="46" t="s">
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="48" t="s">
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
     </row>
     <row r="15" spans="4:38" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -3653,58 +3614,58 @@
         <v>41</v>
       </c>
       <c r="L15" s="47"/>
-      <c r="M15" s="51" t="s">
+      <c r="M15" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="51"/>
+      <c r="N15" s="49"/>
       <c r="O15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P15" s="50"/>
-      <c r="Q15" s="46" t="s">
+      <c r="Q15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="46"/>
+      <c r="R15" s="48"/>
       <c r="S15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T15" s="47"/>
-      <c r="U15" s="48" t="s">
+      <c r="U15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V15" s="48"/>
+      <c r="V15" s="46"/>
       <c r="W15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X15" s="50"/>
-      <c r="Y15" s="46" t="s">
+      <c r="Y15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z15" s="46"/>
+      <c r="Z15" s="48"/>
       <c r="AA15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB15" s="47"/>
-      <c r="AC15" s="48" t="s">
+      <c r="AC15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD15" s="48"/>
+      <c r="AD15" s="46"/>
       <c r="AE15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF15" s="50"/>
-      <c r="AG15" s="46" t="s">
+      <c r="AG15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH15" s="46"/>
+      <c r="AH15" s="48"/>
       <c r="AI15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ15" s="47"/>
-      <c r="AK15" s="48" t="s">
+      <c r="AK15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL15" s="48"/>
+      <c r="AL15" s="46"/>
     </row>
     <row r="16" spans="4:38" x14ac:dyDescent="0.25">
       <c r="J16" s="8" t="s">
@@ -3796,13 +3757,13 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="51"/>
       <c r="I17">
         <v>0</v>
       </c>
@@ -3857,7 +3818,7 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="51"/>
       <c r="C18" t="s">
         <v>39</v>
       </c>
@@ -4874,48 +4835,48 @@
       <c r="J32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="48" t="s">
+      <c r="K32" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="46" t="s">
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="48" t="s">
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="46" t="s">
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="48" t="s">
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="46" t="s">
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="48" t="s">
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="48"/>
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+      <c r="AL32" s="46"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
@@ -4928,58 +4889,58 @@
         <v>41</v>
       </c>
       <c r="L33" s="47"/>
-      <c r="M33" s="51" t="s">
+      <c r="M33" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="51"/>
+      <c r="N33" s="49"/>
       <c r="O33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P33" s="50"/>
-      <c r="Q33" s="46" t="s">
+      <c r="Q33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="46"/>
+      <c r="R33" s="48"/>
       <c r="S33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T33" s="47"/>
-      <c r="U33" s="48" t="s">
+      <c r="U33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V33" s="48"/>
+      <c r="V33" s="46"/>
       <c r="W33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X33" s="50"/>
-      <c r="Y33" s="46" t="s">
+      <c r="Y33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="46"/>
+      <c r="Z33" s="48"/>
       <c r="AA33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB33" s="47"/>
-      <c r="AC33" s="48" t="s">
+      <c r="AC33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD33" s="48"/>
+      <c r="AD33" s="46"/>
       <c r="AE33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF33" s="50"/>
-      <c r="AG33" s="46" t="s">
+      <c r="AG33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH33" s="46"/>
+      <c r="AH33" s="48"/>
       <c r="AI33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ33" s="47"/>
-      <c r="AK33" s="48" t="s">
+      <c r="AK33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL33" s="48"/>
+      <c r="AL33" s="46"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J34" s="8" t="s">
@@ -5071,13 +5032,13 @@
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="49"/>
+      <c r="D35" s="51"/>
       <c r="I35">
         <v>0</v>
       </c>
@@ -5177,7 +5138,7 @@
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B36" s="49"/>
+      <c r="B36" s="51"/>
       <c r="C36" t="s">
         <v>39</v>
       </c>
@@ -6484,48 +6445,48 @@
       <c r="J51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="48" t="s">
+      <c r="K51" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="46" t="s">
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="48" t="s">
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="46" t="s">
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="48" t="s">
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB51" s="48"/>
-      <c r="AC51" s="48"/>
-      <c r="AD51" s="48"/>
-      <c r="AE51" s="46" t="s">
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF51" s="46"/>
-      <c r="AG51" s="46"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="48" t="s">
+      <c r="AF51" s="48"/>
+      <c r="AG51" s="48"/>
+      <c r="AH51" s="48"/>
+      <c r="AI51" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ51" s="48"/>
-      <c r="AK51" s="48"/>
-      <c r="AL51" s="48"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="46"/>
+      <c r="AL51" s="46"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
@@ -6538,58 +6499,58 @@
         <v>41</v>
       </c>
       <c r="L52" s="47"/>
-      <c r="M52" s="51" t="s">
+      <c r="M52" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N52" s="51"/>
+      <c r="N52" s="49"/>
       <c r="O52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P52" s="50"/>
-      <c r="Q52" s="46" t="s">
+      <c r="Q52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R52" s="46"/>
+      <c r="R52" s="48"/>
       <c r="S52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T52" s="47"/>
-      <c r="U52" s="48" t="s">
+      <c r="U52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V52" s="48"/>
+      <c r="V52" s="46"/>
       <c r="W52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X52" s="50"/>
-      <c r="Y52" s="46" t="s">
+      <c r="Y52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z52" s="46"/>
+      <c r="Z52" s="48"/>
       <c r="AA52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB52" s="47"/>
-      <c r="AC52" s="48" t="s">
+      <c r="AC52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD52" s="48"/>
+      <c r="AD52" s="46"/>
       <c r="AE52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF52" s="50"/>
-      <c r="AG52" s="46" t="s">
+      <c r="AG52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH52" s="46"/>
+      <c r="AH52" s="48"/>
       <c r="AI52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ52" s="47"/>
-      <c r="AK52" s="48" t="s">
+      <c r="AK52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL52" s="48"/>
+      <c r="AL52" s="46"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J53" s="8" t="s">
@@ -6681,13 +6642,13 @@
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="49"/>
+      <c r="D54" s="51"/>
       <c r="I54">
         <v>0</v>
       </c>
@@ -6787,7 +6748,7 @@
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B55" s="49"/>
+      <c r="B55" s="51"/>
       <c r="C55" t="s">
         <v>39</v>
       </c>
@@ -8094,48 +8055,48 @@
       <c r="J70" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K70" s="48" t="s">
+      <c r="K70" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="46" t="s">
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="48" t="s">
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="48"/>
+      <c r="S70" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T70" s="48"/>
-      <c r="U70" s="48"/>
-      <c r="V70" s="48"/>
-      <c r="W70" s="46" t="s">
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X70" s="46"/>
-      <c r="Y70" s="46"/>
-      <c r="Z70" s="46"/>
-      <c r="AA70" s="48" t="s">
+      <c r="X70" s="48"/>
+      <c r="Y70" s="48"/>
+      <c r="Z70" s="48"/>
+      <c r="AA70" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB70" s="48"/>
-      <c r="AC70" s="48"/>
-      <c r="AD70" s="48"/>
-      <c r="AE70" s="46" t="s">
+      <c r="AB70" s="46"/>
+      <c r="AC70" s="46"/>
+      <c r="AD70" s="46"/>
+      <c r="AE70" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF70" s="46"/>
-      <c r="AG70" s="46"/>
-      <c r="AH70" s="46"/>
-      <c r="AI70" s="48" t="s">
+      <c r="AF70" s="48"/>
+      <c r="AG70" s="48"/>
+      <c r="AH70" s="48"/>
+      <c r="AI70" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ70" s="48"/>
-      <c r="AK70" s="48"/>
-      <c r="AL70" s="48"/>
+      <c r="AJ70" s="46"/>
+      <c r="AK70" s="46"/>
+      <c r="AL70" s="46"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
@@ -8148,58 +8109,58 @@
         <v>41</v>
       </c>
       <c r="L71" s="47"/>
-      <c r="M71" s="51" t="s">
+      <c r="M71" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N71" s="51"/>
+      <c r="N71" s="49"/>
       <c r="O71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P71" s="50"/>
-      <c r="Q71" s="46" t="s">
+      <c r="Q71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R71" s="46"/>
+      <c r="R71" s="48"/>
       <c r="S71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T71" s="47"/>
-      <c r="U71" s="48" t="s">
+      <c r="U71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V71" s="48"/>
+      <c r="V71" s="46"/>
       <c r="W71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X71" s="50"/>
-      <c r="Y71" s="46" t="s">
+      <c r="Y71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z71" s="46"/>
+      <c r="Z71" s="48"/>
       <c r="AA71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB71" s="47"/>
-      <c r="AC71" s="48" t="s">
+      <c r="AC71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD71" s="48"/>
+      <c r="AD71" s="46"/>
       <c r="AE71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF71" s="50"/>
-      <c r="AG71" s="46" t="s">
+      <c r="AG71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH71" s="46"/>
+      <c r="AH71" s="48"/>
       <c r="AI71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ71" s="47"/>
-      <c r="AK71" s="48" t="s">
+      <c r="AK71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL71" s="48"/>
+      <c r="AL71" s="46"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J72" s="8" t="s">
@@ -8291,13 +8252,13 @@
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B73" s="49" t="s">
+      <c r="B73" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="49"/>
+      <c r="D73" s="51"/>
       <c r="I73">
         <v>0</v>
       </c>
@@ -8397,7 +8358,7 @@
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B74" s="49"/>
+      <c r="B74" s="51"/>
       <c r="C74" t="s">
         <v>39</v>
       </c>
@@ -9699,6 +9660,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="AG71:AH71"/>
+    <mergeCell ref="AI71:AJ71"/>
+    <mergeCell ref="AK71:AL71"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="U71:V71"/>
+    <mergeCell ref="W71:X71"/>
+    <mergeCell ref="Y71:Z71"/>
+    <mergeCell ref="AA71:AB71"/>
+    <mergeCell ref="AC71:AD71"/>
+    <mergeCell ref="AE71:AF71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="W70:Z70"/>
+    <mergeCell ref="AA70:AD70"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="AI70:AL70"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AE33:AF33"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AI33:AJ33"/>
     <mergeCell ref="AE32:AH32"/>
@@ -9715,82 +9752,6 @@
     <mergeCell ref="S32:V32"/>
     <mergeCell ref="W32:Z32"/>
     <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AE51:AH51"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AI14:AL14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="O70:R70"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="W70:Z70"/>
-    <mergeCell ref="AA70:AD70"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="AI70:AL70"/>
-    <mergeCell ref="AG71:AH71"/>
-    <mergeCell ref="AI71:AJ71"/>
-    <mergeCell ref="AK71:AL71"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="U71:V71"/>
-    <mergeCell ref="W71:X71"/>
-    <mergeCell ref="Y71:Z71"/>
-    <mergeCell ref="AA71:AB71"/>
-    <mergeCell ref="AC71:AD71"/>
-    <mergeCell ref="AE71:AF71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="S71:T71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9801,8 +9762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH171"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH36" sqref="AH36"/>
+    <sheetView topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH57" sqref="AH57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9841,137 +9802,137 @@
         <v>67</v>
       </c>
       <c r="M1" s="59"/>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="46" t="s">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="52" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="46" t="s">
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="52" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="46" t="s">
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="58" t="s">
         <v>65</v>
       </c>
       <c r="M2" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="55" t="s">
+      <c r="V2" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="57" t="s">
+      <c r="X2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="58" t="s">
+      <c r="Y2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="54" t="s">
+      <c r="AA2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="55" t="s">
+      <c r="AB2" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="56" t="s">
+      <c r="AC2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="57" t="s">
+      <c r="AD2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="58" t="s">
+      <c r="AE2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="53" t="s">
+      <c r="AF2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="54" t="s">
+      <c r="AG2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="55" t="s">
+      <c r="AH2" s="54" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L3" s="60"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="59"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="55"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="54"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K4">
@@ -11337,41 +11298,41 @@
         <v>67</v>
       </c>
       <c r="M21" s="59"/>
-      <c r="N21" s="52" t="s">
+      <c r="N21" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="46" t="s">
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="52" t="s">
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="46" t="s">
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="52" t="s">
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="46" t="s">
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="52" t="s">
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -11395,73 +11356,73 @@
         <f t="shared" si="1"/>
         <v>649.29999999999995</v>
       </c>
-      <c r="L22" s="60" t="s">
+      <c r="L22" s="58" t="s">
         <v>65</v>
       </c>
       <c r="M22" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="53" t="s">
+      <c r="N22" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="54" t="s">
+      <c r="O22" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="P22" s="55" t="s">
+      <c r="P22" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="56" t="s">
+      <c r="Q22" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="57" t="s">
+      <c r="R22" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="58" t="s">
+      <c r="S22" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="T22" s="53" t="s">
+      <c r="T22" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="U22" s="54" t="s">
+      <c r="U22" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="V22" s="55" t="s">
+      <c r="V22" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="W22" s="56" t="s">
+      <c r="W22" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="X22" s="57" t="s">
+      <c r="X22" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="Y22" s="58" t="s">
+      <c r="Y22" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="Z22" s="53" t="s">
+      <c r="Z22" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AA22" s="54" t="s">
+      <c r="AA22" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AB22" s="55" t="s">
+      <c r="AB22" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="AC22" s="56" t="s">
+      <c r="AC22" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AD22" s="57" t="s">
+      <c r="AD22" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AE22" s="58" t="s">
+      <c r="AE22" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AF22" s="53" t="s">
+      <c r="AF22" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AG22" s="54" t="s">
+      <c r="AG22" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AH22" s="55" t="s">
+      <c r="AH22" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11487,29 +11448,29 @@
         <f t="shared" si="1"/>
         <v>665.8</v>
       </c>
-      <c r="L23" s="60"/>
+      <c r="L23" s="58"/>
       <c r="M23" s="59"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="57"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="54"/>
-      <c r="AH23" s="55"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="54"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -12882,41 +12843,41 @@
         <v>67</v>
       </c>
       <c r="M42" s="59"/>
-      <c r="N42" s="52" t="s">
+      <c r="N42" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="46" t="s">
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="52" t="s">
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="46" t="s">
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="52" t="s">
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="46" t="s">
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="52" t="s">
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="AG42" s="52"/>
-      <c r="AH42" s="52"/>
+      <c r="AG42" s="60"/>
+      <c r="AH42" s="60"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -12940,73 +12901,73 @@
         <f t="shared" si="1"/>
         <v>1005.61</v>
       </c>
-      <c r="L43" s="60" t="s">
+      <c r="L43" s="58" t="s">
         <v>65</v>
       </c>
       <c r="M43" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N43" s="53" t="s">
+      <c r="N43" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="O43" s="54" t="s">
+      <c r="O43" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="P43" s="55" t="s">
+      <c r="P43" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="Q43" s="56" t="s">
+      <c r="Q43" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="R43" s="57" t="s">
+      <c r="R43" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="S43" s="58" t="s">
+      <c r="S43" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="T43" s="53" t="s">
+      <c r="T43" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="U43" s="54" t="s">
+      <c r="U43" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="V43" s="55" t="s">
+      <c r="V43" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="W43" s="56" t="s">
+      <c r="W43" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="X43" s="57" t="s">
+      <c r="X43" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="Y43" s="58" t="s">
+      <c r="Y43" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="Z43" s="53" t="s">
+      <c r="Z43" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AA43" s="54" t="s">
+      <c r="AA43" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AB43" s="55" t="s">
+      <c r="AB43" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="AC43" s="56" t="s">
+      <c r="AC43" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AD43" s="57" t="s">
+      <c r="AD43" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AE43" s="58" t="s">
+      <c r="AE43" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AF43" s="53" t="s">
+      <c r="AF43" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AG43" s="54" t="s">
+      <c r="AG43" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AH43" s="55" t="s">
+      <c r="AH43" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -13032,29 +12993,29 @@
         <f t="shared" si="1"/>
         <v>1050.77</v>
       </c>
-      <c r="L44" s="60"/>
+      <c r="L44" s="58"/>
       <c r="M44" s="59"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="58"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="58"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="55"/>
-      <c r="AC44" s="56"/>
-      <c r="AD44" s="57"/>
-      <c r="AE44" s="58"/>
-      <c r="AF44" s="53"/>
-      <c r="AG44" s="54"/>
-      <c r="AH44" s="55"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="54"/>
+      <c r="AC44" s="55"/>
+      <c r="AD44" s="56"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="53"/>
+      <c r="AH44" s="54"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -15064,29 +15025,60 @@
     <sortCondition ref="C5:C48"/>
   </sortState>
   <mergeCells count="93">
-    <mergeCell ref="AF43:AF44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="AE43:AE44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
     <mergeCell ref="AF22:AF23"/>
     <mergeCell ref="AG22:AG23"/>
     <mergeCell ref="AH22:AH23"/>
@@ -15103,60 +15095,29 @@
     <mergeCell ref="AC22:AC23"/>
     <mergeCell ref="AD22:AD23"/>
     <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="AF43:AF44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="AE43:AE44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15545,8 +15506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AL119"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D94" sqref="A88:D94"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15561,48 +15522,48 @@
       <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="46" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="48" t="s">
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="46" t="s">
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="48" t="s">
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="46" t="s">
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="48" t="s">
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
@@ -15615,58 +15576,58 @@
         <v>41</v>
       </c>
       <c r="L5" s="47"/>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="51"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P5" s="50"/>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="46"/>
+      <c r="R5" s="48"/>
       <c r="S5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T5" s="47"/>
-      <c r="U5" s="48" t="s">
+      <c r="U5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="48"/>
+      <c r="V5" s="46"/>
       <c r="W5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X5" s="50"/>
-      <c r="Y5" s="46" t="s">
+      <c r="Y5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="46"/>
+      <c r="Z5" s="48"/>
       <c r="AA5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB5" s="47"/>
-      <c r="AC5" s="48" t="s">
+      <c r="AC5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="48"/>
+      <c r="AD5" s="46"/>
       <c r="AE5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF5" s="50"/>
-      <c r="AG5" s="46" t="s">
+      <c r="AG5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="46"/>
+      <c r="AH5" s="48"/>
       <c r="AI5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ5" s="47"/>
-      <c r="AK5" s="48" t="s">
+      <c r="AK5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="48"/>
+      <c r="AL5" s="46"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J6" s="8" t="s">
@@ -15758,13 +15719,13 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="51"/>
       <c r="I7">
         <v>0</v>
       </c>
@@ -15864,7 +15825,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="51"/>
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -19011,48 +18972,48 @@
       <c r="J43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K43" s="48" t="s">
+      <c r="K43" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="46" t="s">
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="48" t="s">
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="46" t="s">
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="48" t="s">
+      <c r="X43" s="48"/>
+      <c r="Y43" s="48"/>
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="48"/>
-      <c r="AD43" s="48"/>
-      <c r="AE43" s="46" t="s">
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF43" s="46"/>
-      <c r="AG43" s="46"/>
-      <c r="AH43" s="46"/>
-      <c r="AI43" s="48" t="s">
+      <c r="AF43" s="48"/>
+      <c r="AG43" s="48"/>
+      <c r="AH43" s="48"/>
+      <c r="AI43" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ43" s="48"/>
-      <c r="AK43" s="48"/>
-      <c r="AL43" s="48"/>
+      <c r="AJ43" s="46"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="46"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
@@ -19065,58 +19026,58 @@
         <v>41</v>
       </c>
       <c r="L44" s="47"/>
-      <c r="M44" s="51" t="s">
+      <c r="M44" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N44" s="51"/>
+      <c r="N44" s="49"/>
       <c r="O44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P44" s="50"/>
-      <c r="Q44" s="46" t="s">
+      <c r="Q44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R44" s="46"/>
+      <c r="R44" s="48"/>
       <c r="S44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T44" s="47"/>
-      <c r="U44" s="48" t="s">
+      <c r="U44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V44" s="48"/>
+      <c r="V44" s="46"/>
       <c r="W44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X44" s="50"/>
-      <c r="Y44" s="46" t="s">
+      <c r="Y44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z44" s="46"/>
+      <c r="Z44" s="48"/>
       <c r="AA44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB44" s="47"/>
-      <c r="AC44" s="48" t="s">
+      <c r="AC44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD44" s="48"/>
+      <c r="AD44" s="46"/>
       <c r="AE44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF44" s="50"/>
-      <c r="AG44" s="46" t="s">
+      <c r="AG44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH44" s="46"/>
+      <c r="AH44" s="48"/>
       <c r="AI44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ44" s="47"/>
-      <c r="AK44" s="48" t="s">
+      <c r="AK44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL44" s="48"/>
+      <c r="AL44" s="46"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J45" s="8" t="s">
@@ -19208,13 +19169,13 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="49"/>
+      <c r="D46" s="51"/>
       <c r="I46">
         <v>0</v>
       </c>
@@ -19314,7 +19275,7 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B47" s="49"/>
+      <c r="B47" s="51"/>
       <c r="C47" t="s">
         <v>39</v>
       </c>
@@ -22369,48 +22330,48 @@
       <c r="J83" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K83" s="48" t="s">
+      <c r="K83" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L83" s="48"/>
-      <c r="M83" s="48"/>
-      <c r="N83" s="48"/>
-      <c r="O83" s="46" t="s">
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P83" s="46"/>
-      <c r="Q83" s="46"/>
-      <c r="R83" s="46"/>
-      <c r="S83" s="48" t="s">
+      <c r="P83" s="48"/>
+      <c r="Q83" s="48"/>
+      <c r="R83" s="48"/>
+      <c r="S83" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T83" s="48"/>
-      <c r="U83" s="48"/>
-      <c r="V83" s="48"/>
-      <c r="W83" s="46" t="s">
+      <c r="T83" s="46"/>
+      <c r="U83" s="46"/>
+      <c r="V83" s="46"/>
+      <c r="W83" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X83" s="46"/>
-      <c r="Y83" s="46"/>
-      <c r="Z83" s="46"/>
-      <c r="AA83" s="48" t="s">
+      <c r="X83" s="48"/>
+      <c r="Y83" s="48"/>
+      <c r="Z83" s="48"/>
+      <c r="AA83" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB83" s="48"/>
-      <c r="AC83" s="48"/>
-      <c r="AD83" s="48"/>
-      <c r="AE83" s="46" t="s">
+      <c r="AB83" s="46"/>
+      <c r="AC83" s="46"/>
+      <c r="AD83" s="46"/>
+      <c r="AE83" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF83" s="46"/>
-      <c r="AG83" s="46"/>
-      <c r="AH83" s="46"/>
-      <c r="AI83" s="48" t="s">
+      <c r="AF83" s="48"/>
+      <c r="AG83" s="48"/>
+      <c r="AH83" s="48"/>
+      <c r="AI83" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ83" s="48"/>
-      <c r="AK83" s="48"/>
-      <c r="AL83" s="48"/>
+      <c r="AJ83" s="46"/>
+      <c r="AK83" s="46"/>
+      <c r="AL83" s="46"/>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
@@ -22423,58 +22384,58 @@
         <v>41</v>
       </c>
       <c r="L84" s="47"/>
-      <c r="M84" s="51" t="s">
+      <c r="M84" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N84" s="51"/>
+      <c r="N84" s="49"/>
       <c r="O84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P84" s="50"/>
-      <c r="Q84" s="46" t="s">
+      <c r="Q84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R84" s="46"/>
+      <c r="R84" s="48"/>
       <c r="S84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T84" s="47"/>
-      <c r="U84" s="48" t="s">
+      <c r="U84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V84" s="48"/>
+      <c r="V84" s="46"/>
       <c r="W84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X84" s="50"/>
-      <c r="Y84" s="46" t="s">
+      <c r="Y84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z84" s="46"/>
+      <c r="Z84" s="48"/>
       <c r="AA84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB84" s="47"/>
-      <c r="AC84" s="48" t="s">
+      <c r="AC84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD84" s="48"/>
+      <c r="AD84" s="46"/>
       <c r="AE84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF84" s="50"/>
-      <c r="AG84" s="46" t="s">
+      <c r="AG84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH84" s="46"/>
+      <c r="AH84" s="48"/>
       <c r="AI84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ84" s="47"/>
-      <c r="AK84" s="48" t="s">
+      <c r="AK84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL84" s="48"/>
+      <c r="AL84" s="46"/>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J85" s="8" t="s">
@@ -22566,13 +22527,13 @@
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B86" s="49" t="s">
+      <c r="B86" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="49"/>
+      <c r="D86" s="51"/>
       <c r="I86">
         <v>0</v>
       </c>
@@ -22672,7 +22633,7 @@
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B87" s="49"/>
+      <c r="B87" s="51"/>
       <c r="C87" t="s">
         <v>39</v>
       </c>
@@ -25726,6 +25687,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="AI84:AJ84"/>
+    <mergeCell ref="AK84:AL84"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="AA83:AD83"/>
+    <mergeCell ref="AE83:AH83"/>
+    <mergeCell ref="AI83:AL83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="U84:V84"/>
+    <mergeCell ref="W84:X84"/>
+    <mergeCell ref="Y84:Z84"/>
+    <mergeCell ref="AA84:AB84"/>
+    <mergeCell ref="AC84:AD84"/>
+    <mergeCell ref="AE84:AF84"/>
+    <mergeCell ref="AG84:AH84"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="S83:V83"/>
+    <mergeCell ref="AE43:AH43"/>
+    <mergeCell ref="AI43:AL43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AH4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="AI4:AL4"/>
@@ -25742,59 +25756,6 @@
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="W43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="AE43:AH43"/>
-    <mergeCell ref="AI43:AL43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AA84:AB84"/>
-    <mergeCell ref="AC84:AD84"/>
-    <mergeCell ref="AE84:AF84"/>
-    <mergeCell ref="AG84:AH84"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="S83:V83"/>
-    <mergeCell ref="AI84:AJ84"/>
-    <mergeCell ref="AK84:AL84"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="W83:Z83"/>
-    <mergeCell ref="AA83:AD83"/>
-    <mergeCell ref="AE83:AH83"/>
-    <mergeCell ref="AI83:AL83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="U84:V84"/>
-    <mergeCell ref="W84:X84"/>
-    <mergeCell ref="Y84:Z84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25805,8 +25766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M113" sqref="M113"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35786,7 +35747,7 @@
         <v>3346.3111764705882</v>
       </c>
       <c r="N112" s="29">
-        <f t="shared" ref="M112:O112" si="36">AVERAGE(N101:N109,N91:N99,N81:N89)</f>
+        <f t="shared" ref="N112:O112" si="36">AVERAGE(N101:N109,N91:N99,N81:N89)</f>
         <v>27.944444444444443</v>
       </c>
       <c r="O112" s="27">

--- a/Miscellaneous/results.xlsx
+++ b/Miscellaneous/results.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarog\dissertation\Miscellaneous\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-225" yWindow="-165" windowWidth="27795" windowHeight="14310" firstSheet="1" activeTab="7"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="145">
   <si>
     <t>step pos</t>
   </si>
@@ -386,154 +391,82 @@
     <t>A30B30C00</t>
   </si>
   <si>
-    <t>48:53.84</t>
+    <t>71:51</t>
   </si>
   <si>
-    <t>52:23.59</t>
+    <t>41:15.35</t>
   </si>
   <si>
-    <t>48:51.63</t>
+    <t>40:27.76</t>
   </si>
   <si>
-    <t>52:35.59</t>
+    <t>38:12.71</t>
   </si>
   <si>
-    <t>50:13.40</t>
+    <t>36:26.44</t>
   </si>
   <si>
-    <t>52:35.43</t>
+    <t>38:27.23</t>
   </si>
   <si>
-    <t>51:38.23</t>
+    <t>36:17.17</t>
   </si>
   <si>
-    <t>55:52.73</t>
+    <t>39:37.12</t>
   </si>
   <si>
-    <t>51:09.08</t>
+    <t>44:37.24</t>
   </si>
   <si>
-    <t>52:47.25</t>
+    <t>36:20.46</t>
   </si>
   <si>
-    <t>52:10.09</t>
+    <t>38:14.24</t>
   </si>
   <si>
-    <t>54:21.72</t>
+    <t>39:48.26</t>
   </si>
   <si>
-    <t>47:37.45</t>
+    <t>40:03.12</t>
   </si>
   <si>
-    <t>50:28.95</t>
+    <t>41:37.32</t>
   </si>
   <si>
-    <t>49:34.40</t>
+    <t>51:30.75</t>
   </si>
   <si>
-    <t>56:48.84</t>
+    <t>42:49.16</t>
   </si>
   <si>
-    <t>47:30.13</t>
+    <t>44:53.32</t>
   </si>
   <si>
-    <t>56:39.83</t>
+    <t>44:11.83</t>
   </si>
   <si>
-    <t>57:17.79</t>
+    <t>43:02.28</t>
   </si>
   <si>
-    <t>51:45.09</t>
+    <t>42:00.31</t>
   </si>
   <si>
-    <t>55:08.20</t>
+    <t>44:42.91</t>
   </si>
   <si>
-    <t>56:46.60</t>
+    <t>40:25.65</t>
   </si>
   <si>
-    <t>53:48.71</t>
+    <t>42:05.46</t>
   </si>
   <si>
-    <t>50:36.67</t>
-  </si>
-  <si>
-    <t>46:25.28</t>
-  </si>
-  <si>
-    <t>40:21.49</t>
-  </si>
-  <si>
-    <t>42:54.03</t>
-  </si>
-  <si>
-    <t>44:02.38</t>
-  </si>
-  <si>
-    <t>44:30.58</t>
-  </si>
-  <si>
-    <t>43:42.48</t>
-  </si>
-  <si>
-    <t>42:26.03</t>
-  </si>
-  <si>
-    <t>46:37.41</t>
-  </si>
-  <si>
-    <t>42:35.51</t>
-  </si>
-  <si>
-    <t>41:50.31</t>
-  </si>
-  <si>
-    <t>43:20.84</t>
-  </si>
-  <si>
-    <t>44:16.18</t>
-  </si>
-  <si>
-    <t>44:48.02</t>
-  </si>
-  <si>
-    <t>57:06.12</t>
-  </si>
-  <si>
-    <t>44:34.04</t>
-  </si>
-  <si>
-    <t>49:04.90</t>
-  </si>
-  <si>
-    <t>49:26.67</t>
-  </si>
-  <si>
-    <t>48:56.37</t>
-  </si>
-  <si>
-    <t>47:32.54</t>
-  </si>
-  <si>
-    <t>48:45.75</t>
-  </si>
-  <si>
-    <t>49:34.01</t>
-  </si>
-  <si>
-    <t>47:05.08</t>
-  </si>
-  <si>
-    <t>77:15</t>
-  </si>
-  <si>
-    <t>80:28</t>
+    <t>73:29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.##\%;[Red]\(0.##\%\)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -727,22 +660,25 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -763,13 +699,10 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -835,7 +768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,9 +801,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -903,6 +853,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3560,48 +3527,48 @@
       <c r="J14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="48" t="s">
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="46" t="s">
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="48" t="s">
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="46" t="s">
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="48" t="s">
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="46" t="s">
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ14" s="46"/>
-      <c r="AK14" s="46"/>
-      <c r="AL14" s="46"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
     </row>
     <row r="15" spans="4:38" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -3614,58 +3581,58 @@
         <v>41</v>
       </c>
       <c r="L15" s="47"/>
-      <c r="M15" s="49" t="s">
+      <c r="M15" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="49"/>
+      <c r="N15" s="51"/>
       <c r="O15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P15" s="50"/>
-      <c r="Q15" s="48" t="s">
+      <c r="Q15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="48"/>
+      <c r="R15" s="46"/>
       <c r="S15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T15" s="47"/>
-      <c r="U15" s="46" t="s">
+      <c r="U15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V15" s="46"/>
+      <c r="V15" s="48"/>
       <c r="W15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X15" s="50"/>
-      <c r="Y15" s="48" t="s">
+      <c r="Y15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z15" s="48"/>
+      <c r="Z15" s="46"/>
       <c r="AA15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB15" s="47"/>
-      <c r="AC15" s="46" t="s">
+      <c r="AC15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD15" s="46"/>
+      <c r="AD15" s="48"/>
       <c r="AE15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF15" s="50"/>
-      <c r="AG15" s="48" t="s">
+      <c r="AG15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH15" s="48"/>
+      <c r="AH15" s="46"/>
       <c r="AI15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ15" s="47"/>
-      <c r="AK15" s="46" t="s">
+      <c r="AK15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL15" s="46"/>
+      <c r="AL15" s="48"/>
     </row>
     <row r="16" spans="4:38" x14ac:dyDescent="0.25">
       <c r="J16" s="8" t="s">
@@ -3757,13 +3724,13 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="49"/>
       <c r="I17">
         <v>0</v>
       </c>
@@ -3818,7 +3785,7 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
+      <c r="B18" s="49"/>
       <c r="C18" t="s">
         <v>39</v>
       </c>
@@ -4835,48 +4802,48 @@
       <c r="J32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="46" t="s">
+      <c r="K32" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="48" t="s">
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="46" t="s">
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="48" t="s">
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="46" t="s">
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="48" t="s">
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF32" s="48"/>
-      <c r="AG32" s="48"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="46" t="s">
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="46"/>
-      <c r="AL32" s="46"/>
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="48"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
@@ -4889,58 +4856,58 @@
         <v>41</v>
       </c>
       <c r="L33" s="47"/>
-      <c r="M33" s="49" t="s">
+      <c r="M33" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="49"/>
+      <c r="N33" s="51"/>
       <c r="O33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P33" s="50"/>
-      <c r="Q33" s="48" t="s">
+      <c r="Q33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="48"/>
+      <c r="R33" s="46"/>
       <c r="S33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T33" s="47"/>
-      <c r="U33" s="46" t="s">
+      <c r="U33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V33" s="46"/>
+      <c r="V33" s="48"/>
       <c r="W33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X33" s="50"/>
-      <c r="Y33" s="48" t="s">
+      <c r="Y33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="48"/>
+      <c r="Z33" s="46"/>
       <c r="AA33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB33" s="47"/>
-      <c r="AC33" s="46" t="s">
+      <c r="AC33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD33" s="46"/>
+      <c r="AD33" s="48"/>
       <c r="AE33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF33" s="50"/>
-      <c r="AG33" s="48" t="s">
+      <c r="AG33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH33" s="48"/>
+      <c r="AH33" s="46"/>
       <c r="AI33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ33" s="47"/>
-      <c r="AK33" s="46" t="s">
+      <c r="AK33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL33" s="46"/>
+      <c r="AL33" s="48"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J34" s="8" t="s">
@@ -5032,13 +4999,13 @@
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="51"/>
+      <c r="D35" s="49"/>
       <c r="I35">
         <v>0</v>
       </c>
@@ -5138,7 +5105,7 @@
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B36" s="51"/>
+      <c r="B36" s="49"/>
       <c r="C36" t="s">
         <v>39</v>
       </c>
@@ -6445,48 +6412,48 @@
       <c r="J51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="46" t="s">
+      <c r="K51" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="48" t="s">
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="46" t="s">
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="48" t="s">
+      <c r="T51" s="48"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X51" s="48"/>
-      <c r="Y51" s="48"/>
-      <c r="Z51" s="48"/>
-      <c r="AA51" s="46" t="s">
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="46"/>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="48" t="s">
+      <c r="AB51" s="48"/>
+      <c r="AC51" s="48"/>
+      <c r="AD51" s="48"/>
+      <c r="AE51" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF51" s="48"/>
-      <c r="AG51" s="48"/>
-      <c r="AH51" s="48"/>
-      <c r="AI51" s="46" t="s">
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="46"/>
+      <c r="AI51" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ51" s="46"/>
-      <c r="AK51" s="46"/>
-      <c r="AL51" s="46"/>
+      <c r="AJ51" s="48"/>
+      <c r="AK51" s="48"/>
+      <c r="AL51" s="48"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
@@ -6499,58 +6466,58 @@
         <v>41</v>
       </c>
       <c r="L52" s="47"/>
-      <c r="M52" s="49" t="s">
+      <c r="M52" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N52" s="49"/>
+      <c r="N52" s="51"/>
       <c r="O52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P52" s="50"/>
-      <c r="Q52" s="48" t="s">
+      <c r="Q52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R52" s="48"/>
+      <c r="R52" s="46"/>
       <c r="S52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T52" s="47"/>
-      <c r="U52" s="46" t="s">
+      <c r="U52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V52" s="46"/>
+      <c r="V52" s="48"/>
       <c r="W52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X52" s="50"/>
-      <c r="Y52" s="48" t="s">
+      <c r="Y52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z52" s="48"/>
+      <c r="Z52" s="46"/>
       <c r="AA52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB52" s="47"/>
-      <c r="AC52" s="46" t="s">
+      <c r="AC52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD52" s="46"/>
+      <c r="AD52" s="48"/>
       <c r="AE52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF52" s="50"/>
-      <c r="AG52" s="48" t="s">
+      <c r="AG52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH52" s="48"/>
+      <c r="AH52" s="46"/>
       <c r="AI52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ52" s="47"/>
-      <c r="AK52" s="46" t="s">
+      <c r="AK52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL52" s="46"/>
+      <c r="AL52" s="48"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J53" s="8" t="s">
@@ -6642,13 +6609,13 @@
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="51"/>
+      <c r="D54" s="49"/>
       <c r="I54">
         <v>0</v>
       </c>
@@ -6748,7 +6715,7 @@
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B55" s="51"/>
+      <c r="B55" s="49"/>
       <c r="C55" t="s">
         <v>39</v>
       </c>
@@ -8055,48 +8022,48 @@
       <c r="J70" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K70" s="46" t="s">
+      <c r="K70" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="48" t="s">
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P70" s="48"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="48"/>
-      <c r="S70" s="46" t="s">
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T70" s="46"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="46"/>
-      <c r="W70" s="48" t="s">
+      <c r="T70" s="48"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="48"/>
+      <c r="W70" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X70" s="48"/>
-      <c r="Y70" s="48"/>
-      <c r="Z70" s="48"/>
-      <c r="AA70" s="46" t="s">
+      <c r="X70" s="46"/>
+      <c r="Y70" s="46"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB70" s="46"/>
-      <c r="AC70" s="46"/>
-      <c r="AD70" s="46"/>
-      <c r="AE70" s="48" t="s">
+      <c r="AB70" s="48"/>
+      <c r="AC70" s="48"/>
+      <c r="AD70" s="48"/>
+      <c r="AE70" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF70" s="48"/>
-      <c r="AG70" s="48"/>
-      <c r="AH70" s="48"/>
-      <c r="AI70" s="46" t="s">
+      <c r="AF70" s="46"/>
+      <c r="AG70" s="46"/>
+      <c r="AH70" s="46"/>
+      <c r="AI70" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ70" s="46"/>
-      <c r="AK70" s="46"/>
-      <c r="AL70" s="46"/>
+      <c r="AJ70" s="48"/>
+      <c r="AK70" s="48"/>
+      <c r="AL70" s="48"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
@@ -8109,58 +8076,58 @@
         <v>41</v>
       </c>
       <c r="L71" s="47"/>
-      <c r="M71" s="49" t="s">
+      <c r="M71" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N71" s="49"/>
+      <c r="N71" s="51"/>
       <c r="O71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P71" s="50"/>
-      <c r="Q71" s="48" t="s">
+      <c r="Q71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R71" s="48"/>
+      <c r="R71" s="46"/>
       <c r="S71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T71" s="47"/>
-      <c r="U71" s="46" t="s">
+      <c r="U71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V71" s="46"/>
+      <c r="V71" s="48"/>
       <c r="W71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X71" s="50"/>
-      <c r="Y71" s="48" t="s">
+      <c r="Y71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z71" s="48"/>
+      <c r="Z71" s="46"/>
       <c r="AA71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB71" s="47"/>
-      <c r="AC71" s="46" t="s">
+      <c r="AC71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD71" s="46"/>
+      <c r="AD71" s="48"/>
       <c r="AE71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF71" s="50"/>
-      <c r="AG71" s="48" t="s">
+      <c r="AG71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH71" s="48"/>
+      <c r="AH71" s="46"/>
       <c r="AI71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ71" s="47"/>
-      <c r="AK71" s="46" t="s">
+      <c r="AK71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL71" s="46"/>
+      <c r="AL71" s="48"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J72" s="8" t="s">
@@ -8252,13 +8219,13 @@
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="51"/>
+      <c r="D73" s="49"/>
       <c r="I73">
         <v>0</v>
       </c>
@@ -8358,7 +8325,7 @@
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B74" s="51"/>
+      <c r="B74" s="49"/>
       <c r="C74" t="s">
         <v>39</v>
       </c>
@@ -9660,6 +9627,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AE32:AH32"/>
+    <mergeCell ref="AI32:AL32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="W70:Z70"/>
+    <mergeCell ref="AA70:AD70"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="AI70:AL70"/>
     <mergeCell ref="AG71:AH71"/>
     <mergeCell ref="AI71:AJ71"/>
     <mergeCell ref="AK71:AL71"/>
@@ -9676,82 +9719,6 @@
     <mergeCell ref="O71:P71"/>
     <mergeCell ref="Q71:R71"/>
     <mergeCell ref="S71:T71"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="W70:Z70"/>
-    <mergeCell ref="AA70:AD70"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="AI70:AL70"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O70:R70"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AI14:AL14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="AE51:AH51"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AE32:AH32"/>
-    <mergeCell ref="AI32:AL32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="AA32:AD32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9802,137 +9769,137 @@
         <v>67</v>
       </c>
       <c r="M1" s="59"/>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="48" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="60" t="s">
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="48" t="s">
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="60" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="48" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="60" t="s">
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="60" t="s">
         <v>65</v>
       </c>
       <c r="M2" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="S2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="54" t="s">
+      <c r="V2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="55" t="s">
+      <c r="W2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="57" t="s">
+      <c r="Y2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="53" t="s">
+      <c r="AA2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="54" t="s">
+      <c r="AB2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="55" t="s">
+      <c r="AC2" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="56" t="s">
+      <c r="AD2" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="57" t="s">
+      <c r="AE2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="52" t="s">
+      <c r="AF2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="53" t="s">
+      <c r="AG2" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="54" t="s">
+      <c r="AH2" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L3" s="58"/>
+      <c r="L3" s="60"/>
       <c r="M3" s="59"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="54"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="55"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K4">
@@ -11298,41 +11265,41 @@
         <v>67</v>
       </c>
       <c r="M21" s="59"/>
-      <c r="N21" s="60" t="s">
+      <c r="N21" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="48" t="s">
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="60" t="s">
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="48" t="s">
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="60" t="s">
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="48" t="s">
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="60" t="s">
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -11356,73 +11323,73 @@
         <f t="shared" si="1"/>
         <v>649.29999999999995</v>
       </c>
-      <c r="L22" s="58" t="s">
+      <c r="L22" s="60" t="s">
         <v>65</v>
       </c>
       <c r="M22" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="52" t="s">
+      <c r="N22" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="53" t="s">
+      <c r="O22" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="P22" s="54" t="s">
+      <c r="P22" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="55" t="s">
+      <c r="Q22" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="56" t="s">
+      <c r="R22" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="57" t="s">
+      <c r="S22" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="T22" s="52" t="s">
+      <c r="T22" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="U22" s="53" t="s">
+      <c r="U22" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="V22" s="54" t="s">
+      <c r="V22" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="W22" s="55" t="s">
+      <c r="W22" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="X22" s="56" t="s">
+      <c r="X22" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="Y22" s="57" t="s">
+      <c r="Y22" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="Z22" s="52" t="s">
+      <c r="Z22" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AA22" s="53" t="s">
+      <c r="AA22" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AB22" s="54" t="s">
+      <c r="AB22" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AC22" s="55" t="s">
+      <c r="AC22" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AD22" s="56" t="s">
+      <c r="AD22" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AE22" s="57" t="s">
+      <c r="AE22" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AF22" s="52" t="s">
+      <c r="AF22" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AG22" s="53" t="s">
+      <c r="AG22" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AH22" s="54" t="s">
+      <c r="AH22" s="55" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11448,29 +11415,29 @@
         <f t="shared" si="1"/>
         <v>665.8</v>
       </c>
-      <c r="L23" s="58"/>
+      <c r="L23" s="60"/>
       <c r="M23" s="59"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="54"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="55"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -12843,41 +12810,41 @@
         <v>67</v>
       </c>
       <c r="M42" s="59"/>
-      <c r="N42" s="60" t="s">
+      <c r="N42" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="48" t="s">
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="60" t="s">
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="60"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="48" t="s">
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="60" t="s">
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="48" t="s">
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AD42" s="48"/>
-      <c r="AE42" s="48"/>
-      <c r="AF42" s="60" t="s">
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46"/>
+      <c r="AF42" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="60"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -12901,73 +12868,73 @@
         <f t="shared" si="1"/>
         <v>1005.61</v>
       </c>
-      <c r="L43" s="58" t="s">
+      <c r="L43" s="60" t="s">
         <v>65</v>
       </c>
       <c r="M43" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N43" s="52" t="s">
+      <c r="N43" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="O43" s="53" t="s">
+      <c r="O43" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="P43" s="54" t="s">
+      <c r="P43" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="Q43" s="55" t="s">
+      <c r="Q43" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="R43" s="56" t="s">
+      <c r="R43" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="S43" s="57" t="s">
+      <c r="S43" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="T43" s="52" t="s">
+      <c r="T43" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="U43" s="53" t="s">
+      <c r="U43" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="V43" s="54" t="s">
+      <c r="V43" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="W43" s="55" t="s">
+      <c r="W43" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="X43" s="56" t="s">
+      <c r="X43" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="Y43" s="57" t="s">
+      <c r="Y43" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="Z43" s="52" t="s">
+      <c r="Z43" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AA43" s="53" t="s">
+      <c r="AA43" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AB43" s="54" t="s">
+      <c r="AB43" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AC43" s="55" t="s">
+      <c r="AC43" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="AD43" s="56" t="s">
+      <c r="AD43" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AE43" s="57" t="s">
+      <c r="AE43" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AF43" s="52" t="s">
+      <c r="AF43" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AG43" s="53" t="s">
+      <c r="AG43" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AH43" s="54" t="s">
+      <c r="AH43" s="55" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12993,29 +12960,29 @@
         <f t="shared" si="1"/>
         <v>1050.77</v>
       </c>
-      <c r="L44" s="58"/>
+      <c r="L44" s="60"/>
       <c r="M44" s="59"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="56"/>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="56"/>
-      <c r="AE44" s="57"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="54"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="54"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="56"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="53"/>
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="55"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -15025,44 +14992,45 @@
     <sortCondition ref="C5:C48"/>
   </sortState>
   <mergeCells count="93">
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AF43:AF44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AG22:AG23"/>
+    <mergeCell ref="AH22:AH23"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AE23"/>
     <mergeCell ref="AF21:AH21"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="M22:M23"/>
@@ -15079,45 +15047,44 @@
     <mergeCell ref="X22:X23"/>
     <mergeCell ref="Y22:Y23"/>
     <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AG22:AG23"/>
-    <mergeCell ref="AH22:AH23"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="AF43:AF44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15522,48 +15489,48 @@
       <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="48" t="s">
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="46" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="48" t="s">
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="46" t="s">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="48" t="s">
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="46" t="s">
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
@@ -15576,58 +15543,58 @@
         <v>41</v>
       </c>
       <c r="L5" s="47"/>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="49"/>
+      <c r="N5" s="51"/>
       <c r="O5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P5" s="50"/>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="48"/>
+      <c r="R5" s="46"/>
       <c r="S5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T5" s="47"/>
-      <c r="U5" s="46" t="s">
+      <c r="U5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="46"/>
+      <c r="V5" s="48"/>
       <c r="W5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X5" s="50"/>
-      <c r="Y5" s="48" t="s">
+      <c r="Y5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="48"/>
+      <c r="Z5" s="46"/>
       <c r="AA5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB5" s="47"/>
-      <c r="AC5" s="46" t="s">
+      <c r="AC5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="46"/>
+      <c r="AD5" s="48"/>
       <c r="AE5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF5" s="50"/>
-      <c r="AG5" s="48" t="s">
+      <c r="AG5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="48"/>
+      <c r="AH5" s="46"/>
       <c r="AI5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ5" s="47"/>
-      <c r="AK5" s="46" t="s">
+      <c r="AK5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="46"/>
+      <c r="AL5" s="48"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J6" s="8" t="s">
@@ -15719,13 +15686,13 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="49"/>
       <c r="I7">
         <v>0</v>
       </c>
@@ -15825,7 +15792,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
+      <c r="B8" s="49"/>
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -18972,48 +18939,48 @@
       <c r="J43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K43" s="46" t="s">
+      <c r="K43" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="48" t="s">
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="46" t="s">
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="48" t="s">
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="48"/>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="46" t="s">
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="46"/>
-      <c r="AE43" s="48" t="s">
+      <c r="AB43" s="48"/>
+      <c r="AC43" s="48"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="48"/>
-      <c r="AH43" s="48"/>
-      <c r="AI43" s="46" t="s">
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="46"/>
+      <c r="AI43" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ43" s="46"/>
-      <c r="AK43" s="46"/>
-      <c r="AL43" s="46"/>
+      <c r="AJ43" s="48"/>
+      <c r="AK43" s="48"/>
+      <c r="AL43" s="48"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
@@ -19026,58 +18993,58 @@
         <v>41</v>
       </c>
       <c r="L44" s="47"/>
-      <c r="M44" s="49" t="s">
+      <c r="M44" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N44" s="49"/>
+      <c r="N44" s="51"/>
       <c r="O44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P44" s="50"/>
-      <c r="Q44" s="48" t="s">
+      <c r="Q44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R44" s="48"/>
+      <c r="R44" s="46"/>
       <c r="S44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T44" s="47"/>
-      <c r="U44" s="46" t="s">
+      <c r="U44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V44" s="46"/>
+      <c r="V44" s="48"/>
       <c r="W44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X44" s="50"/>
-      <c r="Y44" s="48" t="s">
+      <c r="Y44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z44" s="48"/>
+      <c r="Z44" s="46"/>
       <c r="AA44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB44" s="47"/>
-      <c r="AC44" s="46" t="s">
+      <c r="AC44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD44" s="46"/>
+      <c r="AD44" s="48"/>
       <c r="AE44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF44" s="50"/>
-      <c r="AG44" s="48" t="s">
+      <c r="AG44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH44" s="48"/>
+      <c r="AH44" s="46"/>
       <c r="AI44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ44" s="47"/>
-      <c r="AK44" s="46" t="s">
+      <c r="AK44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL44" s="46"/>
+      <c r="AL44" s="48"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J45" s="8" t="s">
@@ -19169,13 +19136,13 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="51"/>
+      <c r="D46" s="49"/>
       <c r="I46">
         <v>0</v>
       </c>
@@ -19275,7 +19242,7 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B47" s="51"/>
+      <c r="B47" s="49"/>
       <c r="C47" t="s">
         <v>39</v>
       </c>
@@ -22330,48 +22297,48 @@
       <c r="J83" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K83" s="46" t="s">
+      <c r="K83" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="48" t="s">
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P83" s="48"/>
-      <c r="Q83" s="48"/>
-      <c r="R83" s="48"/>
-      <c r="S83" s="46" t="s">
+      <c r="P83" s="46"/>
+      <c r="Q83" s="46"/>
+      <c r="R83" s="46"/>
+      <c r="S83" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="T83" s="46"/>
-      <c r="U83" s="46"/>
-      <c r="V83" s="46"/>
-      <c r="W83" s="48" t="s">
+      <c r="T83" s="48"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="48"/>
+      <c r="W83" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="X83" s="48"/>
-      <c r="Y83" s="48"/>
-      <c r="Z83" s="48"/>
-      <c r="AA83" s="46" t="s">
+      <c r="X83" s="46"/>
+      <c r="Y83" s="46"/>
+      <c r="Z83" s="46"/>
+      <c r="AA83" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AB83" s="46"/>
-      <c r="AC83" s="46"/>
-      <c r="AD83" s="46"/>
-      <c r="AE83" s="48" t="s">
+      <c r="AB83" s="48"/>
+      <c r="AC83" s="48"/>
+      <c r="AD83" s="48"/>
+      <c r="AE83" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AF83" s="48"/>
-      <c r="AG83" s="48"/>
-      <c r="AH83" s="48"/>
-      <c r="AI83" s="46" t="s">
+      <c r="AF83" s="46"/>
+      <c r="AG83" s="46"/>
+      <c r="AH83" s="46"/>
+      <c r="AI83" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AJ83" s="46"/>
-      <c r="AK83" s="46"/>
-      <c r="AL83" s="46"/>
+      <c r="AJ83" s="48"/>
+      <c r="AK83" s="48"/>
+      <c r="AL83" s="48"/>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
@@ -22384,58 +22351,58 @@
         <v>41</v>
       </c>
       <c r="L84" s="47"/>
-      <c r="M84" s="49" t="s">
+      <c r="M84" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="N84" s="49"/>
+      <c r="N84" s="51"/>
       <c r="O84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P84" s="50"/>
-      <c r="Q84" s="48" t="s">
+      <c r="Q84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="R84" s="48"/>
+      <c r="R84" s="46"/>
       <c r="S84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T84" s="47"/>
-      <c r="U84" s="46" t="s">
+      <c r="U84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="V84" s="46"/>
+      <c r="V84" s="48"/>
       <c r="W84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X84" s="50"/>
-      <c r="Y84" s="48" t="s">
+      <c r="Y84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Z84" s="48"/>
+      <c r="Z84" s="46"/>
       <c r="AA84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB84" s="47"/>
-      <c r="AC84" s="46" t="s">
+      <c r="AC84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AD84" s="46"/>
+      <c r="AD84" s="48"/>
       <c r="AE84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF84" s="50"/>
-      <c r="AG84" s="48" t="s">
+      <c r="AG84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AH84" s="48"/>
+      <c r="AH84" s="46"/>
       <c r="AI84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ84" s="47"/>
-      <c r="AK84" s="46" t="s">
+      <c r="AK84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AL84" s="46"/>
+      <c r="AL84" s="48"/>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J85" s="8" t="s">
@@ -22527,13 +22494,13 @@
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="51"/>
+      <c r="D86" s="49"/>
       <c r="I86">
         <v>0</v>
       </c>
@@ -22633,7 +22600,7 @@
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B87" s="51"/>
+      <c r="B87" s="49"/>
       <c r="C87" t="s">
         <v>39</v>
       </c>
@@ -25687,6 +25654,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="AI4:AL4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="AE43:AH43"/>
+    <mergeCell ref="AI43:AL43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AA84:AB84"/>
+    <mergeCell ref="AC84:AD84"/>
+    <mergeCell ref="AE84:AF84"/>
+    <mergeCell ref="AG84:AH84"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="S83:V83"/>
     <mergeCell ref="AI84:AJ84"/>
     <mergeCell ref="AK84:AL84"/>
     <mergeCell ref="B86:B87"/>
@@ -25703,59 +25723,6 @@
     <mergeCell ref="U84:V84"/>
     <mergeCell ref="W84:X84"/>
     <mergeCell ref="Y84:Z84"/>
-    <mergeCell ref="AA84:AB84"/>
-    <mergeCell ref="AC84:AD84"/>
-    <mergeCell ref="AE84:AF84"/>
-    <mergeCell ref="AG84:AH84"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="S83:V83"/>
-    <mergeCell ref="AE43:AH43"/>
-    <mergeCell ref="AI43:AL43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="W43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="AI4:AL4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25766,8 +25733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:O9"/>
+    <sheetView tabSelected="1" topLeftCell="F41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26039,11 +26006,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F13" si="0">IF(E5="","",LEFT(E5,2)*60+RIGHT(E5,LEN(E5)-FIND(":",E5)))</f>
-        <v>2933.84</v>
+        <v>2475.35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -26248,11 +26215,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>3143.59</v>
+        <v>2427.7600000000002</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -26338,11 +26305,11 @@
         <v>0</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>2931.63</v>
+        <v>2292.71</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -26442,11 +26409,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>3155.59</v>
+        <v>2186.44</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -26550,11 +26517,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>3013.4</v>
+        <v>2307.23</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -26658,11 +26625,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>3155.43</v>
+        <v>2177.17</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -26766,11 +26733,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>3098.23</v>
+        <v>2377.12</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -26841,11 +26808,11 @@
         <v>0</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>3352.73</v>
+        <v>4311</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -27042,7 +27009,7 @@
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F78" si="11">IF(E15="","",LEFT(E15,2)*60+RIGHT(E15,LEN(E15)-FIND(":",E15)))</f>
-        <v>3069.08</v>
+        <v>2677.24</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -27203,11 +27170,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F17">
         <f t="shared" si="11"/>
-        <v>3167.25</v>
+        <v>4409</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -27312,11 +27279,11 @@
         <v>0</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18">
         <f t="shared" si="11"/>
-        <v>3130.09</v>
+        <v>2180.46</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -27421,11 +27388,11 @@
         <v>0</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F19">
         <f t="shared" si="11"/>
-        <v>3261.72</v>
+        <v>2294.2399999999998</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -27530,11 +27497,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20">
         <f t="shared" si="11"/>
-        <v>2857.45</v>
+        <v>2388.2600000000002</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -27639,11 +27606,11 @@
         <v>0</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21">
         <f t="shared" si="11"/>
-        <v>3028.95</v>
+        <v>2403.12</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -27748,11 +27715,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22">
         <f t="shared" si="11"/>
-        <v>2974.4</v>
+        <v>2497.3200000000002</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -27857,11 +27824,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23">
         <f t="shared" si="11"/>
-        <v>3408.84</v>
+        <v>3090.75</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -28055,11 +28022,11 @@
         <v>0</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25">
         <f t="shared" si="11"/>
-        <v>2850.13</v>
+        <v>2569.16</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -28253,11 +28220,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27">
         <f t="shared" si="11"/>
-        <v>3399.83</v>
+        <v>2693.32</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -28362,11 +28329,11 @@
         <v>0</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F28">
         <f t="shared" si="11"/>
-        <v>3437.79</v>
+        <v>2651.83</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -28471,11 +28438,11 @@
         <v>0</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29">
         <f t="shared" si="11"/>
-        <v>3105.09</v>
+        <v>2582.2800000000002</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -28580,11 +28547,11 @@
         <v>0</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30">
         <f t="shared" si="11"/>
-        <v>3308.2</v>
+        <v>2520.31</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -28689,11 +28656,11 @@
         <v>0</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F31">
         <f t="shared" si="11"/>
-        <v>3406.6</v>
+        <v>2682.91</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -28798,11 +28765,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F32">
         <f t="shared" si="11"/>
-        <v>3228.71</v>
+        <v>2425.65</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -29102,11 +29069,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F35">
         <f t="shared" si="11"/>
-        <v>3036.67</v>
+        <v>2525.46</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
@@ -29484,77 +29451,77 @@
         <v>30</v>
       </c>
       <c r="M42" s="2">
-        <v>2494.48</v>
+        <v>2615.65</v>
       </c>
       <c r="N42" s="29">
         <v>31</v>
       </c>
       <c r="O42" s="44">
-        <v>2958.87</v>
+        <v>2767.23</v>
       </c>
       <c r="P42" s="28">
         <f>IF(O42="","",$M42/O42)</f>
-        <v>0.84305157036301026</v>
+        <v>0.94522320154089112</v>
       </c>
       <c r="Q42" s="30">
         <v>31</v>
       </c>
       <c r="R42" s="45">
-        <v>3104.15</v>
+        <v>3206.59</v>
       </c>
       <c r="S42" s="22">
         <f>IF(R42="","",$M42/R42)</f>
-        <v>0.80359518708825284</v>
+        <v>0.81571077063173025</v>
       </c>
       <c r="T42" s="29">
         <v>31</v>
       </c>
       <c r="U42" s="44">
-        <v>3130.62</v>
+        <v>2696.32</v>
       </c>
       <c r="V42" s="28">
         <f>IF(U42="","",$M42/U42)</f>
-        <v>0.79680063374028154</v>
+        <v>0.97008144433895083</v>
       </c>
       <c r="W42" s="30">
         <v>31</v>
       </c>
       <c r="X42" s="45">
-        <v>3074.94</v>
+        <v>2917.06</v>
       </c>
       <c r="Y42" s="22">
         <f>IF(X42="","",$M42/X42)</f>
-        <v>0.81122883698543713</v>
+        <v>0.89667336290648814</v>
       </c>
       <c r="Z42" s="29">
         <v>31</v>
       </c>
       <c r="AA42" s="27">
-        <v>2902.57</v>
+        <v>2656.7</v>
       </c>
       <c r="AB42" s="28">
         <f>IF(AA42="","",$M42/AA42)</f>
-        <v>0.85940390757156582</v>
+        <v>0.98454850001882044</v>
       </c>
       <c r="AC42" s="30">
         <v>31</v>
       </c>
       <c r="AD42" s="17">
-        <v>2364.0100000000002</v>
+        <v>2637.54</v>
       </c>
       <c r="AE42" s="22">
         <f>IF(AD42="","",$M42/AD42)</f>
-        <v>1.0551901218691968</v>
+        <v>0.99170059980133007</v>
       </c>
       <c r="AF42" s="29">
         <v>31</v>
       </c>
       <c r="AG42" s="27">
-        <v>2896.39</v>
+        <v>2475.35</v>
       </c>
       <c r="AH42" s="28">
         <f>IF(AG42="","",$M42/AG42)</f>
-        <v>0.86123760957605855</v>
+        <v>1.0566788534954654</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
@@ -29665,77 +29632,77 @@
         <v>28</v>
       </c>
       <c r="M44" s="2">
-        <v>3059.98</v>
+        <v>2965.89</v>
       </c>
       <c r="N44" s="29">
         <v>29</v>
       </c>
       <c r="O44" s="27">
-        <v>3023.47</v>
+        <v>2884.2</v>
       </c>
       <c r="P44" s="28">
         <f t="shared" si="15"/>
-        <v>1.0120755291105916</v>
+        <v>1.0283232785521115</v>
       </c>
       <c r="Q44" s="30">
         <v>29</v>
       </c>
       <c r="R44" s="17">
-        <v>3181.9</v>
+        <v>2864.95</v>
       </c>
       <c r="S44" s="22">
         <f t="shared" si="16"/>
-        <v>0.96168327100160278</v>
+        <v>1.0352327265746348</v>
       </c>
       <c r="T44" s="29">
         <v>29</v>
       </c>
       <c r="U44" s="27">
-        <v>3241.07</v>
+        <v>2873.25</v>
       </c>
       <c r="V44" s="28">
         <f t="shared" si="17"/>
-        <v>0.9441264767499622</v>
+        <v>1.03224223440355</v>
       </c>
       <c r="W44" s="30">
         <v>29</v>
       </c>
       <c r="X44" s="17">
-        <v>3232.5</v>
+        <v>3147.29</v>
       </c>
       <c r="Y44" s="22">
         <f t="shared" si="18"/>
-        <v>0.94662954369682906</v>
+        <v>0.94236311239193082</v>
       </c>
       <c r="Z44" s="29">
         <v>28</v>
       </c>
       <c r="AA44" s="27">
-        <v>2879.3</v>
+        <v>2401.13</v>
       </c>
       <c r="AB44" s="28">
         <f t="shared" si="19"/>
-        <v>1.0627513631785503</v>
+        <v>1.2352059238775075</v>
       </c>
       <c r="AC44" s="30">
         <v>29</v>
       </c>
       <c r="AD44" s="17">
-        <v>2289.15</v>
+        <v>2337.04</v>
       </c>
       <c r="AE44" s="22">
         <f t="shared" si="20"/>
-        <v>1.3367319747504531</v>
+        <v>1.2690796905487283</v>
       </c>
       <c r="AF44" s="29">
         <v>29</v>
       </c>
       <c r="AG44" s="27">
-        <v>2725.01</v>
+        <v>2427.7600000000002</v>
       </c>
       <c r="AH44" s="28">
         <f t="shared" si="21"/>
-        <v>1.1229243195437815</v>
+        <v>1.2216570006919958</v>
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -29764,77 +29731,77 @@
         <v>28</v>
       </c>
       <c r="M45" s="2">
-        <v>3171.26</v>
+        <v>3109.85</v>
       </c>
       <c r="N45" s="29">
         <v>28</v>
       </c>
       <c r="O45" s="27">
-        <v>2983.54</v>
+        <v>2613.85</v>
       </c>
       <c r="P45" s="28">
         <f t="shared" si="15"/>
-        <v>1.0629185464247171</v>
+        <v>1.189758402356677</v>
       </c>
       <c r="Q45" s="30">
         <v>28</v>
       </c>
       <c r="R45" s="17">
-        <v>3074.59</v>
+        <v>2825.01</v>
       </c>
       <c r="S45" s="22">
         <f t="shared" si="16"/>
-        <v>1.0314415905860619</v>
+        <v>1.100827961670932</v>
       </c>
       <c r="T45" s="29">
         <v>28</v>
       </c>
       <c r="U45" s="27">
-        <v>3139.31</v>
+        <v>2792.08</v>
       </c>
       <c r="V45" s="28">
         <f t="shared" si="17"/>
-        <v>1.0101773956697491</v>
+        <v>1.113811208847884</v>
       </c>
       <c r="W45" s="30">
         <v>28</v>
       </c>
       <c r="X45" s="17">
-        <v>3161.95</v>
+        <v>2724.56</v>
       </c>
       <c r="Y45" s="22">
         <f t="shared" si="18"/>
-        <v>1.002944385584845</v>
+        <v>1.1414136594532696</v>
       </c>
       <c r="Z45" s="29">
         <v>27</v>
       </c>
       <c r="AA45" s="27">
-        <v>2849.38</v>
+        <v>2339.94</v>
       </c>
       <c r="AB45" s="28">
         <f t="shared" si="19"/>
-        <v>1.1129649257031355</v>
+        <v>1.3290298041830131</v>
       </c>
       <c r="AC45" s="30">
         <v>28</v>
       </c>
       <c r="AD45" s="17">
-        <v>2365.7800000000002</v>
+        <v>2204.23</v>
       </c>
       <c r="AE45" s="22">
         <f t="shared" si="20"/>
-        <v>1.340471218794647</v>
+        <v>1.410855491486823</v>
       </c>
       <c r="AF45" s="29">
         <v>28</v>
       </c>
       <c r="AG45" s="27">
-        <v>2735.54</v>
+        <v>2292.71</v>
       </c>
       <c r="AH45" s="28">
         <f t="shared" si="21"/>
-        <v>1.1592811656930626</v>
+        <v>1.3564079190128713</v>
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
@@ -29863,77 +29830,77 @@
         <v>27</v>
       </c>
       <c r="M46" s="2">
-        <v>2941.57</v>
+        <v>3230.14</v>
       </c>
       <c r="N46" s="29">
         <v>27</v>
       </c>
       <c r="O46" s="27">
-        <v>3044.56</v>
+        <v>2656.79</v>
       </c>
       <c r="P46" s="28">
         <f t="shared" si="15"/>
-        <v>0.96617245184854306</v>
+        <v>1.2158055397679153</v>
       </c>
       <c r="Q46" s="30">
         <v>27</v>
       </c>
       <c r="R46" s="17">
-        <v>3042.71</v>
+        <v>2849.66</v>
       </c>
       <c r="S46" s="22">
         <f t="shared" si="16"/>
-        <v>0.96675989496205694</v>
+        <v>1.1335176828112827</v>
       </c>
       <c r="T46" s="29">
         <v>28</v>
       </c>
       <c r="U46" s="27">
-        <v>2874.88</v>
+        <v>2840.15</v>
       </c>
       <c r="V46" s="28">
         <f t="shared" si="17"/>
-        <v>1.0231974899821905</v>
+        <v>1.1373131700790451</v>
       </c>
       <c r="W46" s="30">
         <v>28</v>
       </c>
       <c r="X46" s="17">
-        <v>3109.54</v>
+        <v>2844.38</v>
       </c>
       <c r="Y46" s="22">
         <f t="shared" si="18"/>
-        <v>0.94598236395093815</v>
+        <v>1.1356218226819201</v>
       </c>
       <c r="Z46" s="29">
         <v>27</v>
       </c>
       <c r="AA46" s="27">
-        <v>2871.77</v>
+        <v>2437.9499999999998</v>
       </c>
       <c r="AB46" s="28">
         <f t="shared" si="19"/>
-        <v>1.0243055676464341</v>
+        <v>1.3249410365265899</v>
       </c>
       <c r="AC46" s="30">
         <v>27</v>
       </c>
       <c r="AD46" s="17">
-        <v>2165.3200000000002</v>
+        <v>2216.3200000000002</v>
       </c>
       <c r="AE46" s="22">
         <f t="shared" si="20"/>
-        <v>1.3584920473648237</v>
+        <v>1.4574339445567426</v>
       </c>
       <c r="AF46" s="29">
         <v>27</v>
       </c>
       <c r="AG46" s="27">
-        <v>2705.71</v>
+        <v>2186.44</v>
       </c>
       <c r="AH46" s="28">
         <f t="shared" si="21"/>
-        <v>1.087171204600641</v>
+        <v>1.4773513108066079</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
@@ -29962,77 +29929,77 @@
         <v>27</v>
       </c>
       <c r="M47" s="2">
-        <v>2842.91</v>
+        <v>3059.74</v>
       </c>
       <c r="N47" s="29">
         <v>27</v>
       </c>
       <c r="O47" s="27">
-        <v>2871.63</v>
+        <v>2791.56</v>
       </c>
       <c r="P47" s="28">
         <f t="shared" si="15"/>
-        <v>0.98999871153317098</v>
+        <v>1.0960681482755161</v>
       </c>
       <c r="Q47" s="30">
         <v>29</v>
       </c>
       <c r="R47" s="17">
-        <v>3185.3</v>
+        <v>3226.89</v>
       </c>
       <c r="S47" s="22">
         <f t="shared" si="16"/>
-        <v>0.89250933977961255</v>
+        <v>0.94820089931791907</v>
       </c>
       <c r="T47" s="29">
         <v>28</v>
       </c>
       <c r="U47" s="27">
-        <v>3075.26</v>
+        <v>2859.1</v>
       </c>
       <c r="V47" s="28">
         <f t="shared" si="17"/>
-        <v>0.92444541274558889</v>
+        <v>1.0701759294883004</v>
       </c>
       <c r="W47" s="30">
         <v>28</v>
       </c>
       <c r="X47" s="17">
-        <v>3057.75</v>
+        <v>2719.78</v>
       </c>
       <c r="Y47" s="22">
         <f t="shared" si="18"/>
-        <v>0.92973918731093119</v>
+        <v>1.1249954040400325</v>
       </c>
       <c r="Z47" s="29">
         <v>26</v>
       </c>
       <c r="AA47" s="27">
-        <v>2596.58</v>
+        <v>2411.9299999999998</v>
       </c>
       <c r="AB47" s="28">
         <f t="shared" si="19"/>
-        <v>1.0948670944087993</v>
+        <v>1.268585738392076</v>
       </c>
       <c r="AC47" s="30">
         <v>27</v>
       </c>
       <c r="AD47" s="17">
-        <v>2197.69</v>
+        <v>2508.7399999999998</v>
       </c>
       <c r="AE47" s="22">
         <f t="shared" si="20"/>
-        <v>1.2935900877739808</v>
+        <v>1.2196321659478464</v>
       </c>
       <c r="AF47" s="29">
         <v>27</v>
       </c>
       <c r="AG47" s="27">
-        <v>2679.91</v>
+        <v>2307.23</v>
       </c>
       <c r="AH47" s="28">
         <f t="shared" si="21"/>
-        <v>1.0608229380837417</v>
+        <v>1.3261530059855324</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
@@ -30061,77 +30028,77 @@
         <v>26</v>
       </c>
       <c r="M48" s="2">
-        <v>2927.47</v>
+        <v>2905.1</v>
       </c>
       <c r="N48" s="29">
         <v>27</v>
       </c>
       <c r="O48" s="27">
-        <v>3038.5</v>
+        <v>2882.46</v>
       </c>
       <c r="P48" s="28">
         <f t="shared" si="15"/>
-        <v>0.96345894355767647</v>
+        <v>1.0078544021426143</v>
       </c>
       <c r="Q48" s="30">
         <v>27</v>
       </c>
       <c r="R48" s="17">
-        <v>2852.92</v>
+        <v>2824.49</v>
       </c>
       <c r="S48" s="22">
         <f t="shared" si="16"/>
-        <v>1.0261311217980174</v>
+        <v>1.0285396655679433</v>
       </c>
       <c r="T48" s="29">
         <v>27</v>
       </c>
       <c r="U48" s="27">
-        <v>2848.47</v>
+        <v>2803.61</v>
       </c>
       <c r="V48" s="28">
         <f t="shared" si="17"/>
-        <v>1.0277341871250181</v>
+        <v>1.0361997567422001</v>
       </c>
       <c r="W48" s="30">
         <v>27</v>
       </c>
       <c r="X48" s="17">
-        <v>3144.97</v>
+        <v>2786.11</v>
       </c>
       <c r="Y48" s="22">
         <f t="shared" si="18"/>
-        <v>0.93084194761794226</v>
+        <v>1.0427082922066968</v>
       </c>
       <c r="Z48" s="29">
         <v>26</v>
       </c>
       <c r="AA48" s="27">
-        <v>2773.14</v>
+        <v>2517.9</v>
       </c>
       <c r="AB48" s="28">
         <f t="shared" si="19"/>
-        <v>1.0556517161052092</v>
+        <v>1.1537789427697684</v>
       </c>
       <c r="AC48" s="30">
         <v>27</v>
       </c>
       <c r="AD48" s="17">
-        <v>2166.5100000000002</v>
+        <v>2215.4299999999998</v>
       </c>
       <c r="AE48" s="22">
         <f t="shared" si="20"/>
-        <v>1.3512377048801989</v>
+        <v>1.3113029976122017</v>
       </c>
       <c r="AF48" s="29">
         <v>27</v>
       </c>
       <c r="AG48" s="27">
-        <v>2748.06</v>
+        <v>2177.17</v>
       </c>
       <c r="AH48" s="28">
         <f t="shared" si="21"/>
-        <v>1.0652860563452036</v>
+        <v>1.3343468815021333</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
@@ -30160,77 +30127,77 @@
         <v>26</v>
       </c>
       <c r="M49" s="2">
-        <v>2906.69</v>
+        <v>2923.26</v>
       </c>
       <c r="N49" s="29">
         <v>28</v>
       </c>
       <c r="O49" s="27">
-        <v>3165.33</v>
+        <v>2665.64</v>
       </c>
       <c r="P49" s="28">
         <f t="shared" si="15"/>
-        <v>0.91828972018715271</v>
+        <v>1.096644708212662</v>
       </c>
       <c r="Q49" s="30">
         <v>27</v>
       </c>
       <c r="R49" s="17">
-        <v>2876.15</v>
+        <v>2634.37</v>
       </c>
       <c r="S49" s="22">
         <f t="shared" si="16"/>
-        <v>1.0106183613511117</v>
+        <v>1.1096618925967121</v>
       </c>
       <c r="T49" s="29">
         <v>27</v>
       </c>
       <c r="U49" s="27">
-        <v>3163.81</v>
+        <v>2857.38</v>
       </c>
       <c r="V49" s="28">
         <f t="shared" si="17"/>
-        <v>0.91873089724098478</v>
+        <v>1.0230560863448335</v>
       </c>
       <c r="W49" s="30">
         <v>27</v>
       </c>
       <c r="X49" s="17">
-        <v>3175.24</v>
+        <v>2783.22</v>
       </c>
       <c r="Y49" s="22">
         <f t="shared" si="18"/>
-        <v>0.91542371600257</v>
+        <v>1.0503158212430208</v>
       </c>
       <c r="Z49" s="29">
         <v>26</v>
       </c>
       <c r="AA49" s="27">
-        <v>2780.29</v>
+        <v>2357.67</v>
       </c>
       <c r="AB49" s="28">
         <f t="shared" si="19"/>
-        <v>1.0454628833682817</v>
+        <v>1.239893623789589</v>
       </c>
       <c r="AC49" s="30">
         <v>27</v>
       </c>
       <c r="AD49" s="17">
-        <v>2192.77</v>
+        <v>2300.31</v>
       </c>
       <c r="AE49" s="22">
         <f t="shared" si="20"/>
-        <v>1.3255790620995362</v>
+        <v>1.2708113254300508</v>
       </c>
       <c r="AF49" s="29">
         <v>27</v>
       </c>
       <c r="AG49" s="27">
-        <v>2723.2</v>
+        <v>2377.12</v>
       </c>
       <c r="AH49" s="28">
         <f t="shared" si="21"/>
-        <v>1.0673802878965923</v>
+        <v>1.2297486033519553</v>
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
@@ -30256,6 +30223,9 @@
         <v>8</v>
       </c>
       <c r="L50" s="43"/>
+      <c r="M50" s="2">
+        <v>3540.64</v>
+      </c>
       <c r="N50" s="43"/>
       <c r="O50" s="27"/>
       <c r="P50" s="28" t="str">
@@ -30408,77 +30378,77 @@
         <v>30</v>
       </c>
       <c r="M52" s="2">
-        <v>2830.99</v>
+        <v>2809.13</v>
       </c>
       <c r="N52" s="29">
         <v>31</v>
       </c>
       <c r="O52" s="27">
-        <v>3317.49</v>
+        <v>2816.96</v>
       </c>
       <c r="P52" s="28">
         <f t="shared" si="15"/>
-        <v>0.85335298674600379</v>
+        <v>0.99722040781551746</v>
       </c>
       <c r="Q52" s="30">
         <v>31</v>
       </c>
       <c r="R52" s="17">
-        <v>3345.49</v>
+        <v>3067.79</v>
       </c>
       <c r="S52" s="22">
         <f t="shared" si="16"/>
-        <v>0.84621086896089959</v>
+        <v>0.91568523269193791</v>
       </c>
       <c r="T52" s="29">
         <v>31</v>
       </c>
       <c r="U52" s="27">
-        <v>3323.88</v>
+        <v>2966.55</v>
       </c>
       <c r="V52" s="28">
         <f t="shared" si="17"/>
-        <v>0.85171245652670968</v>
+        <v>0.94693499182552121</v>
       </c>
       <c r="W52" s="30">
         <v>31</v>
       </c>
       <c r="X52" s="17">
-        <v>3251.22</v>
+        <v>2902.2</v>
       </c>
       <c r="Y52" s="22">
         <f t="shared" si="18"/>
-        <v>0.87074698113323612</v>
+        <v>0.96793122458824354</v>
       </c>
       <c r="Z52" s="29">
         <v>31</v>
       </c>
       <c r="AA52" s="27">
-        <v>3044.08</v>
+        <v>2673.55</v>
       </c>
       <c r="AB52" s="28">
         <f t="shared" si="19"/>
-        <v>0.92999855457149605</v>
+        <v>1.0507116006807429</v>
       </c>
       <c r="AC52" s="30">
         <v>31</v>
       </c>
       <c r="AD52" s="17">
-        <v>2538.86</v>
+        <v>2550.02</v>
       </c>
       <c r="AE52" s="22">
         <f t="shared" si="20"/>
-        <v>1.1150634536760593</v>
+        <v>1.1016109677571158</v>
       </c>
       <c r="AF52" s="29">
         <v>31</v>
       </c>
       <c r="AG52" s="27">
-        <v>3086.75</v>
+        <v>2677.24</v>
       </c>
       <c r="AH52" s="28">
         <f t="shared" si="21"/>
-        <v>0.91714262573904581</v>
+        <v>1.0492634205375686</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
@@ -30588,6 +30558,9 @@
         <v>12</v>
       </c>
       <c r="L54" s="43"/>
+      <c r="M54" s="2">
+        <v>3599.53</v>
+      </c>
       <c r="N54" s="43"/>
       <c r="O54" s="27"/>
       <c r="P54" s="28" t="str">
@@ -30658,77 +30631,77 @@
         <v>26</v>
       </c>
       <c r="M55" s="2">
-        <v>3123.57</v>
+        <v>3013.12</v>
       </c>
       <c r="N55" s="29">
         <v>26</v>
       </c>
       <c r="O55" s="27">
-        <v>3019.27</v>
+        <v>2521.58</v>
       </c>
       <c r="P55" s="28">
         <f t="shared" si="15"/>
-        <v>1.0345447740679039</v>
+        <v>1.1949333354484093</v>
       </c>
       <c r="Q55" s="30">
         <v>27</v>
       </c>
       <c r="R55" s="17">
-        <v>2947.23</v>
+        <v>2618.4</v>
       </c>
       <c r="S55" s="22">
         <f t="shared" si="16"/>
-        <v>1.0598324528455534</v>
+        <v>1.1507485487320501</v>
       </c>
       <c r="T55" s="29">
         <v>27</v>
       </c>
       <c r="U55" s="27">
-        <v>3159.74</v>
+        <v>2681.57</v>
       </c>
       <c r="V55" s="28">
         <f t="shared" si="17"/>
-        <v>0.98855285561470263</v>
+        <v>1.1236402555219516</v>
       </c>
       <c r="W55" s="30">
         <v>27</v>
       </c>
       <c r="X55" s="17">
-        <v>3157.69</v>
+        <v>2677.45</v>
       </c>
       <c r="Y55" s="22">
         <f t="shared" si="18"/>
-        <v>0.98919463278535891</v>
+        <v>1.1253692879418851</v>
       </c>
       <c r="Z55" s="29">
         <v>26</v>
       </c>
       <c r="AA55" s="27">
-        <v>2824.46</v>
+        <v>2375.9</v>
       </c>
       <c r="AB55" s="28">
         <f t="shared" si="19"/>
-        <v>1.1058998888283071</v>
+        <v>1.2682015236331494</v>
       </c>
       <c r="AC55" s="30">
         <v>27</v>
       </c>
       <c r="AD55" s="17">
-        <v>2210.79</v>
+        <v>2262.5100000000002</v>
       </c>
       <c r="AE55" s="22">
         <f t="shared" si="20"/>
-        <v>1.4128750356207511</v>
+        <v>1.3317598596249296</v>
       </c>
       <c r="AF55" s="29">
         <v>27</v>
       </c>
       <c r="AG55" s="27">
-        <v>2698.59</v>
+        <v>2180.46</v>
       </c>
       <c r="AH55" s="28">
         <f t="shared" si="21"/>
-        <v>1.1574822407257124</v>
+        <v>1.3818735496179704</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
@@ -30758,77 +30731,77 @@
         <v>26</v>
       </c>
       <c r="M56" s="2">
-        <v>3151.93</v>
+        <v>2895.38</v>
       </c>
       <c r="N56" s="29">
         <v>26</v>
       </c>
       <c r="O56" s="27">
-        <v>3089.2</v>
+        <v>2646.35</v>
       </c>
       <c r="P56" s="28">
         <f t="shared" si="15"/>
-        <v>1.0203062281496829</v>
+        <v>1.0941031987454419</v>
       </c>
       <c r="Q56" s="30">
         <v>26</v>
       </c>
       <c r="R56" s="17">
-        <v>3086.29</v>
+        <v>2578.48</v>
       </c>
       <c r="S56" s="22">
         <f t="shared" si="16"/>
-        <v>1.021268254117403</v>
+        <v>1.1229018646644535</v>
       </c>
       <c r="T56" s="29">
         <v>27</v>
       </c>
       <c r="U56" s="27">
-        <v>3171.23</v>
+        <v>2655.94</v>
       </c>
       <c r="V56" s="28">
         <f t="shared" si="17"/>
-        <v>0.99391403335614248</v>
+        <v>1.0901526389903387</v>
       </c>
       <c r="W56" s="30">
         <v>27</v>
       </c>
       <c r="X56" s="17">
-        <v>3181.17</v>
+        <v>2878.43</v>
       </c>
       <c r="Y56" s="22">
         <f t="shared" si="18"/>
-        <v>0.99080841325675761</v>
+        <v>1.00588862678613</v>
       </c>
       <c r="Z56" s="29">
         <v>26</v>
       </c>
       <c r="AA56" s="27">
-        <v>2909.37</v>
+        <v>2324.54</v>
       </c>
       <c r="AB56" s="28">
         <f t="shared" si="19"/>
-        <v>1.0833720014986061</v>
+        <v>1.245571166768479</v>
       </c>
       <c r="AC56" s="30">
         <v>27</v>
       </c>
       <c r="AD56" s="17">
-        <v>2191.25</v>
+        <v>2214.5300000000002</v>
       </c>
       <c r="AE56" s="22">
         <f t="shared" si="20"/>
-        <v>1.4384164289788932</v>
+        <v>1.3074467268449739</v>
       </c>
       <c r="AF56" s="29">
         <v>27</v>
       </c>
       <c r="AG56" s="27">
-        <v>2710.74</v>
+        <v>2294.2399999999998</v>
       </c>
       <c r="AH56" s="28">
         <f t="shared" si="21"/>
-        <v>1.1627562953289508</v>
+        <v>1.2620214101401772</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
@@ -30858,77 +30831,77 @@
         <v>26</v>
       </c>
       <c r="M57" s="2">
-        <v>3067.15</v>
+        <v>2946.58</v>
       </c>
       <c r="N57" s="29">
         <v>26</v>
       </c>
       <c r="O57" s="27">
-        <v>3064.64</v>
+        <v>2579.6</v>
       </c>
       <c r="P57" s="28">
         <f t="shared" si="15"/>
-        <v>1.0008190195259477</v>
+        <v>1.1422623662583347</v>
       </c>
       <c r="Q57" s="30">
         <v>26</v>
       </c>
       <c r="R57" s="17">
-        <v>3076.1</v>
+        <v>2519.02</v>
       </c>
       <c r="S57" s="22">
         <f t="shared" si="16"/>
-        <v>0.99709047170118015</v>
+        <v>1.1697326738175957</v>
       </c>
       <c r="T57" s="29">
         <v>27</v>
       </c>
       <c r="U57" s="27">
-        <v>3173.77</v>
+        <v>3090.69</v>
       </c>
       <c r="V57" s="28">
         <f t="shared" si="17"/>
-        <v>0.96640588322405219</v>
+        <v>0.95337287143000427</v>
       </c>
       <c r="W57" s="30">
         <v>27</v>
       </c>
       <c r="X57" s="17">
-        <v>3234.13</v>
+        <v>2871.8</v>
       </c>
       <c r="Y57" s="22">
         <f t="shared" si="18"/>
-        <v>0.94836942237943433</v>
+        <v>1.0260394177867538</v>
       </c>
       <c r="Z57" s="29">
         <v>26</v>
       </c>
       <c r="AA57" s="27">
-        <v>2877.32</v>
+        <v>2666.98</v>
       </c>
       <c r="AB57" s="28">
         <f t="shared" si="19"/>
-        <v>1.065974587463334</v>
+        <v>1.1048376815724152</v>
       </c>
       <c r="AC57" s="30">
         <v>27</v>
       </c>
       <c r="AD57" s="17">
-        <v>2216.1799999999998</v>
+        <v>2358.59</v>
       </c>
       <c r="AE57" s="22">
         <f t="shared" si="20"/>
-        <v>1.3839805430966801</v>
+        <v>1.2492972496279555</v>
       </c>
       <c r="AF57" s="29">
         <v>27</v>
       </c>
       <c r="AG57" s="27">
-        <v>2697.75</v>
+        <v>2388.2600000000002</v>
       </c>
       <c r="AH57" s="28">
         <f t="shared" si="21"/>
-        <v>1.1369289222500232</v>
+        <v>1.2337768919631864</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
@@ -30958,77 +30931,77 @@
         <v>26</v>
       </c>
       <c r="M58" s="2">
-        <v>3025.09</v>
+        <v>3334.16</v>
       </c>
       <c r="N58" s="29">
         <v>27</v>
       </c>
       <c r="O58" s="27">
-        <v>3123.54</v>
+        <v>2662.74</v>
       </c>
       <c r="P58" s="28">
         <f t="shared" si="15"/>
-        <v>0.96848127445142373</v>
+        <v>1.2521537964652951</v>
       </c>
       <c r="Q58" s="30">
         <v>27</v>
       </c>
       <c r="R58" s="17">
-        <v>2911.25</v>
+        <v>2810.52</v>
       </c>
       <c r="S58" s="22">
         <f t="shared" si="16"/>
-        <v>1.0391034778875055</v>
+        <v>1.1863142763616696</v>
       </c>
       <c r="T58" s="29">
         <v>27</v>
       </c>
       <c r="U58" s="27">
-        <v>3299.51</v>
+        <v>2681.66</v>
       </c>
       <c r="V58" s="28">
         <f t="shared" si="17"/>
-        <v>0.91683007476867773</v>
+        <v>1.2433194364684561</v>
       </c>
       <c r="W58" s="30">
         <v>27</v>
       </c>
       <c r="X58" s="17">
-        <v>3277.06</v>
+        <v>2954.49</v>
       </c>
       <c r="Y58" s="22">
         <f t="shared" si="18"/>
-        <v>0.92311095921344133</v>
+        <v>1.1285061042684186</v>
       </c>
       <c r="Z58" s="29">
         <v>26</v>
       </c>
       <c r="AA58" s="27">
-        <v>2911.93</v>
+        <v>2321.38</v>
       </c>
       <c r="AB58" s="28">
         <f t="shared" si="19"/>
-        <v>1.0388608242643196</v>
+        <v>1.436283589933574</v>
       </c>
       <c r="AC58" s="30">
         <v>27</v>
       </c>
       <c r="AD58" s="17">
-        <v>2237.13</v>
+        <v>2248.34</v>
       </c>
       <c r="AE58" s="22">
         <f t="shared" si="20"/>
-        <v>1.3522191379133086</v>
+        <v>1.4829429712587952</v>
       </c>
       <c r="AF58" s="29">
         <v>27</v>
       </c>
       <c r="AG58" s="27">
-        <v>2573.6</v>
+        <v>2403.12</v>
       </c>
       <c r="AH58" s="28">
         <f t="shared" si="21"/>
-        <v>1.1754313024557042</v>
+        <v>1.3874296747561503</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
@@ -31058,77 +31031,77 @@
         <v>27</v>
       </c>
       <c r="M59" s="2">
-        <v>3115.76</v>
+        <v>3368.86</v>
       </c>
       <c r="N59" s="29">
         <v>27</v>
       </c>
       <c r="O59" s="27">
-        <v>3174.02</v>
+        <v>2959.8</v>
       </c>
       <c r="P59" s="28">
         <f t="shared" si="15"/>
-        <v>0.98164472813655879</v>
+        <v>1.1382052841408203</v>
       </c>
       <c r="Q59" s="30">
         <v>27</v>
       </c>
       <c r="R59" s="17">
-        <v>3206.68</v>
+        <v>2704.61</v>
       </c>
       <c r="S59" s="22">
         <f t="shared" si="16"/>
-        <v>0.97164668753976091</v>
+        <v>1.2455991806582094</v>
       </c>
       <c r="T59" s="29">
         <v>27</v>
       </c>
       <c r="U59" s="27">
-        <v>3259.23</v>
+        <v>2914.21</v>
       </c>
       <c r="V59" s="28">
         <f t="shared" si="17"/>
-        <v>0.95598040027859343</v>
+        <v>1.1560114061786899</v>
       </c>
       <c r="W59" s="30">
         <v>27</v>
       </c>
       <c r="X59" s="17">
-        <v>3292.01</v>
+        <v>2815.34</v>
       </c>
       <c r="Y59" s="22">
         <f t="shared" si="18"/>
-        <v>0.94646128049428768</v>
+        <v>1.1966085801359694</v>
       </c>
       <c r="Z59" s="29">
         <v>27</v>
       </c>
       <c r="AA59" s="27">
-        <v>2797.97</v>
+        <v>2739.94</v>
       </c>
       <c r="AB59" s="28">
         <f t="shared" si="19"/>
-        <v>1.1135787731819857</v>
+        <v>1.2295378730921116</v>
       </c>
       <c r="AC59" s="30">
         <v>27</v>
       </c>
       <c r="AD59" s="17">
-        <v>2432.0100000000002</v>
+        <v>2574.1999999999998</v>
       </c>
       <c r="AE59" s="22">
         <f t="shared" si="20"/>
-        <v>1.2811460479192109</v>
+        <v>1.3087017325771115</v>
       </c>
       <c r="AF59" s="29">
         <v>27</v>
       </c>
       <c r="AG59" s="27">
-        <v>2846.47</v>
+        <v>2497.3200000000002</v>
       </c>
       <c r="AH59" s="28">
         <f t="shared" si="21"/>
-        <v>1.0946048965912167</v>
+        <v>1.3489901174058589</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
@@ -31158,77 +31131,77 @@
         <v>28</v>
       </c>
       <c r="M60" s="2">
-        <v>3028.54</v>
+        <v>3233.32</v>
       </c>
       <c r="N60" s="29">
         <v>37</v>
       </c>
       <c r="O60" s="27">
-        <v>4008</v>
+        <v>3092.16</v>
       </c>
       <c r="P60" s="28">
         <f t="shared" si="15"/>
-        <v>0.75562375249501001</v>
+        <v>1.0456509365621445</v>
       </c>
       <c r="Q60" s="30">
         <v>40</v>
       </c>
       <c r="R60" s="17">
-        <v>4217</v>
+        <v>3713</v>
       </c>
       <c r="S60" s="22">
         <f t="shared" si="16"/>
-        <v>0.71817405738676787</v>
+        <v>0.87081066523027206</v>
       </c>
       <c r="T60" s="29">
         <v>40</v>
       </c>
       <c r="U60" s="27">
-        <v>4260</v>
+        <v>3745</v>
       </c>
       <c r="V60" s="28">
         <f t="shared" si="17"/>
-        <v>0.71092488262910802</v>
+        <v>0.86336982643524707</v>
       </c>
       <c r="W60" s="30">
         <v>40</v>
       </c>
       <c r="X60" s="17">
-        <v>4199</v>
+        <v>4018</v>
       </c>
       <c r="Y60" s="22">
         <f t="shared" si="18"/>
-        <v>0.72125267920933556</v>
+        <v>0.80470881035340969</v>
       </c>
       <c r="Z60" s="29">
         <v>36</v>
       </c>
       <c r="AA60" s="27">
-        <v>3420.26</v>
+        <v>3001.51</v>
       </c>
       <c r="AB60" s="28">
         <f t="shared" si="19"/>
-        <v>0.88547069521030564</v>
+        <v>1.0772311269994104</v>
       </c>
       <c r="AC60" s="30">
         <v>41</v>
       </c>
       <c r="AD60" s="17">
-        <v>3131.02</v>
+        <v>3220.24</v>
       </c>
       <c r="AE60" s="22">
         <f t="shared" si="20"/>
-        <v>0.96726945212742177</v>
+        <v>1.00406180905771</v>
       </c>
       <c r="AF60" s="29">
         <v>36</v>
       </c>
       <c r="AG60" s="27">
-        <v>3382.45</v>
+        <v>3090.75</v>
       </c>
       <c r="AH60" s="28">
         <f t="shared" si="21"/>
-        <v>0.89536874159263258</v>
+        <v>1.0461279624686566</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
@@ -31341,77 +31314,77 @@
         <v>30</v>
       </c>
       <c r="M62" s="2">
-        <v>2699.87</v>
+        <v>2679.28</v>
       </c>
       <c r="N62" s="29">
         <v>31</v>
       </c>
       <c r="O62" s="27">
-        <v>3108.06</v>
+        <v>2720.58</v>
       </c>
       <c r="P62" s="28">
         <f t="shared" si="15"/>
-        <v>0.86866727154559431</v>
+        <v>0.98481941350741398</v>
       </c>
       <c r="Q62" s="30">
         <v>31</v>
       </c>
       <c r="R62" s="17">
-        <v>2954.44</v>
+        <v>3145.76</v>
       </c>
       <c r="S62" s="22">
         <f t="shared" si="16"/>
-        <v>0.91383477071797015</v>
+        <v>0.85171151009612944</v>
       </c>
       <c r="T62" s="29">
         <v>31</v>
       </c>
       <c r="U62" s="27">
-        <v>3351.86</v>
+        <v>2768.47</v>
       </c>
       <c r="V62" s="28">
         <f t="shared" si="17"/>
-        <v>0.80548411926512442</v>
+        <v>0.96778364945258588</v>
       </c>
       <c r="W62" s="30">
         <v>31</v>
       </c>
       <c r="X62" s="17">
-        <v>3278.53</v>
+        <v>2829.43</v>
       </c>
       <c r="Y62" s="22">
         <f t="shared" si="18"/>
-        <v>0.82350016623303723</v>
+        <v>0.94693277444573654</v>
       </c>
       <c r="Z62" s="29">
         <v>31</v>
       </c>
       <c r="AA62" s="27">
-        <v>2808.07</v>
+        <v>2518.94</v>
       </c>
       <c r="AB62" s="28">
         <f t="shared" si="19"/>
-        <v>0.96146819701788055</v>
+        <v>1.0636537591209001</v>
       </c>
       <c r="AC62" s="30">
         <v>31</v>
       </c>
       <c r="AD62" s="17">
-        <v>2461.87</v>
+        <v>2860.16</v>
       </c>
       <c r="AE62" s="22">
         <f t="shared" si="20"/>
-        <v>1.0966744791560887</v>
+        <v>0.936758782725442</v>
       </c>
       <c r="AF62" s="29">
         <v>31</v>
       </c>
       <c r="AG62" s="27">
-        <v>2843.16</v>
+        <v>2569.16</v>
       </c>
       <c r="AH62" s="28">
         <f t="shared" si="21"/>
-        <v>0.94960185146105036</v>
+        <v>1.0428622584813714</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
@@ -31524,77 +31497,77 @@
         <v>30</v>
       </c>
       <c r="M64" s="2">
-        <v>3263.47</v>
+        <v>3270.58</v>
       </c>
       <c r="N64" s="29">
         <v>33</v>
       </c>
       <c r="O64" s="27">
-        <v>3712</v>
+        <v>3399.91</v>
       </c>
       <c r="P64" s="28">
         <f t="shared" si="15"/>
-        <v>0.87916756465517232</v>
+        <v>0.96196075778476486</v>
       </c>
       <c r="Q64" s="30">
         <v>31</v>
       </c>
       <c r="R64" s="17">
-        <v>3332.79</v>
+        <v>3083.35</v>
       </c>
       <c r="S64" s="22">
         <f t="shared" si="16"/>
-        <v>0.97920060969938094</v>
+        <v>1.0607229150112703</v>
       </c>
       <c r="T64" s="29">
         <v>31</v>
       </c>
       <c r="U64" s="27">
-        <v>3548.5</v>
+        <v>3169.43</v>
       </c>
       <c r="V64" s="28">
         <f t="shared" si="17"/>
-        <v>0.91967591940256443</v>
+        <v>1.0319142558756622</v>
       </c>
       <c r="W64" s="30">
         <v>31</v>
       </c>
       <c r="X64" s="17">
-        <v>3657</v>
+        <v>3073.67</v>
       </c>
       <c r="Y64" s="22">
         <f t="shared" si="18"/>
-        <v>0.89238993710691816</v>
+        <v>1.0640634811154093</v>
       </c>
       <c r="Z64" s="29">
         <v>30</v>
       </c>
       <c r="AA64" s="27">
-        <v>3049.53</v>
+        <v>2494.31</v>
       </c>
       <c r="AB64" s="28">
         <f t="shared" si="19"/>
-        <v>1.0701550730768346</v>
+        <v>1.3112163283633549</v>
       </c>
       <c r="AC64" s="30">
         <v>32</v>
       </c>
       <c r="AD64" s="17">
-        <v>2568.27</v>
+        <v>2813.15</v>
       </c>
       <c r="AE64" s="22">
         <f t="shared" si="20"/>
-        <v>1.2706880507111791</v>
+        <v>1.1626041981408741</v>
       </c>
       <c r="AF64" s="29">
         <v>32</v>
       </c>
       <c r="AG64" s="27">
-        <v>3169.33</v>
+        <v>2693.32</v>
       </c>
       <c r="AH64" s="28">
         <f t="shared" si="21"/>
-        <v>1.0297034388971802</v>
+        <v>1.2143302689617275</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
@@ -31624,77 +31597,77 @@
         <v>30</v>
       </c>
       <c r="M65" s="2">
-        <v>3556.36</v>
+        <v>3436.59</v>
       </c>
       <c r="N65" s="29">
         <v>30</v>
       </c>
       <c r="O65" s="27">
-        <v>3523.51</v>
+        <v>2918.4</v>
       </c>
       <c r="P65" s="28">
         <f t="shared" si="15"/>
-        <v>1.0093230897599268</v>
+        <v>1.1775596217105264</v>
       </c>
       <c r="Q65" s="30">
         <v>30</v>
       </c>
       <c r="R65" s="17">
-        <v>3328.53</v>
+        <v>3226.26</v>
       </c>
       <c r="S65" s="22">
         <f t="shared" si="16"/>
-        <v>1.0684476330392094</v>
+        <v>1.0651931338453813</v>
       </c>
       <c r="T65" s="29">
         <v>30</v>
       </c>
       <c r="U65" s="27">
-        <v>3575.82</v>
+        <v>3058.73</v>
       </c>
       <c r="V65" s="28">
         <f t="shared" si="17"/>
-        <v>0.99455789161646835</v>
+        <v>1.1235349311642413</v>
       </c>
       <c r="W65" s="30">
         <v>31</v>
       </c>
       <c r="X65" s="17">
-        <v>3573.8</v>
+        <v>3024.41</v>
       </c>
       <c r="Y65" s="22">
         <f t="shared" si="18"/>
-        <v>0.9951200402932453</v>
+        <v>1.136284432335563</v>
       </c>
       <c r="Z65" s="29">
         <v>30</v>
       </c>
       <c r="AA65" s="27">
-        <v>3173.43</v>
+        <v>2824.07</v>
       </c>
       <c r="AB65" s="28">
         <f t="shared" si="19"/>
-        <v>1.1206675426904014</v>
+        <v>1.216892640763154</v>
       </c>
       <c r="AC65" s="30">
         <v>30</v>
       </c>
       <c r="AD65" s="17">
-        <v>2445.37</v>
+        <v>2440.56</v>
       </c>
       <c r="AE65" s="22">
         <f t="shared" si="20"/>
-        <v>1.4543238855469725</v>
+        <v>1.4081153505752779</v>
       </c>
       <c r="AF65" s="29">
         <v>31</v>
       </c>
       <c r="AG65" s="27">
-        <v>2962.47</v>
+        <v>2651.83</v>
       </c>
       <c r="AH65" s="28">
         <f t="shared" si="21"/>
-        <v>1.2004712284006254</v>
+        <v>1.2959314888209275</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
@@ -31724,77 +31697,77 @@
         <v>30</v>
       </c>
       <c r="M66" s="2">
-        <v>3351.48</v>
+        <v>3389.76</v>
       </c>
       <c r="N66" s="29">
         <v>30</v>
       </c>
       <c r="O66" s="27">
-        <v>3394.98</v>
+        <v>3201.96</v>
       </c>
       <c r="P66" s="28">
         <f t="shared" si="15"/>
-        <v>0.98718696428255837</v>
+        <v>1.0586515759097552</v>
       </c>
       <c r="Q66" s="30">
         <v>30</v>
       </c>
       <c r="R66" s="17">
-        <v>3366.01</v>
+        <v>3153.13</v>
       </c>
       <c r="S66" s="22">
         <f t="shared" si="16"/>
-        <v>0.99568331644885189</v>
+        <v>1.0750460653382512</v>
       </c>
       <c r="T66" s="29">
         <v>30</v>
       </c>
       <c r="U66" s="27">
-        <v>3615</v>
+        <v>3044.99</v>
       </c>
       <c r="V66" s="28">
         <f t="shared" si="17"/>
-        <v>0.92710373443983407</v>
+        <v>1.1132253307892639</v>
       </c>
       <c r="W66" s="30">
         <v>30</v>
       </c>
       <c r="X66" s="17">
-        <v>3427.51</v>
+        <v>3207.5</v>
       </c>
       <c r="Y66" s="22">
         <f t="shared" si="18"/>
-        <v>0.97781771606793266</v>
+        <v>1.0568230709275137</v>
       </c>
       <c r="Z66" s="29">
         <v>30</v>
       </c>
       <c r="AA66" s="27">
-        <v>3166.13</v>
+        <v>2698.51</v>
       </c>
       <c r="AB66" s="28">
         <f t="shared" si="19"/>
-        <v>1.0585415001910849</v>
+        <v>1.2561598808231209</v>
       </c>
       <c r="AC66" s="30">
         <v>30</v>
       </c>
       <c r="AD66" s="17">
-        <v>2441.91</v>
+        <v>2710.94</v>
       </c>
       <c r="AE66" s="22">
         <f t="shared" si="20"/>
-        <v>1.372483015344546</v>
+        <v>1.2504002301784622</v>
       </c>
       <c r="AF66" s="29">
         <v>30</v>
       </c>
       <c r="AG66" s="27">
-        <v>2558.87</v>
+        <v>2582.2800000000002</v>
       </c>
       <c r="AH66" s="28">
         <f t="shared" si="21"/>
-        <v>1.3097500068389563</v>
+        <v>1.3127004042938799</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
@@ -31824,77 +31797,77 @@
         <v>30</v>
       </c>
       <c r="M67" s="2">
-        <v>3384.31</v>
+        <v>3711</v>
       </c>
       <c r="N67" s="29">
         <v>30</v>
       </c>
       <c r="O67" s="27">
-        <v>3521.52</v>
+        <v>2997.13</v>
       </c>
       <c r="P67" s="28">
         <f t="shared" si="15"/>
-        <v>0.96103671142006863</v>
+        <v>1.2381845298669059</v>
       </c>
       <c r="Q67" s="30">
         <v>30</v>
       </c>
       <c r="R67" s="17">
-        <v>3280.16</v>
+        <v>2933.2</v>
       </c>
       <c r="S67" s="22">
         <f t="shared" si="16"/>
-        <v>1.0317514999268329</v>
+        <v>1.2651711441429156</v>
       </c>
       <c r="T67" s="29">
         <v>30</v>
       </c>
       <c r="U67" s="27">
-        <v>3600</v>
+        <v>3058.52</v>
       </c>
       <c r="V67" s="28">
         <f t="shared" si="17"/>
-        <v>0.94008611111111107</v>
+        <v>1.2133319383231105</v>
       </c>
       <c r="W67" s="30">
         <v>30</v>
       </c>
       <c r="X67" s="17">
-        <v>3526.86</v>
+        <v>3215.77</v>
       </c>
       <c r="Y67" s="22">
         <f t="shared" si="18"/>
-        <v>0.95958161083796911</v>
+        <v>1.1540004415738687</v>
       </c>
       <c r="Z67" s="29">
         <v>30</v>
       </c>
       <c r="AA67" s="27">
-        <v>2936.26</v>
+        <v>2995.65</v>
       </c>
       <c r="AB67" s="28">
         <f t="shared" si="19"/>
-        <v>1.1525920729090746</v>
+        <v>1.2387962545691251</v>
       </c>
       <c r="AC67" s="30">
         <v>30</v>
       </c>
       <c r="AD67" s="17">
-        <v>2435.31</v>
+        <v>2433.23</v>
       </c>
       <c r="AE67" s="22">
         <f t="shared" si="20"/>
-        <v>1.389683448924367</v>
+        <v>1.5251332590836049</v>
       </c>
       <c r="AF67" s="29">
         <v>30</v>
       </c>
       <c r="AG67" s="27">
-        <v>2918.28</v>
+        <v>2520.31</v>
       </c>
       <c r="AH67" s="28">
         <f t="shared" si="21"/>
-        <v>1.1596933810326631</v>
+        <v>1.472437914383548</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
@@ -31924,77 +31897,77 @@
         <v>30</v>
       </c>
       <c r="M68" s="2">
-        <v>3557.77</v>
+        <v>3536.89</v>
       </c>
       <c r="N68" s="29">
         <v>30</v>
       </c>
       <c r="O68" s="27">
-        <v>3373.42</v>
+        <v>2943.64</v>
       </c>
       <c r="P68" s="28">
         <f t="shared" si="15"/>
-        <v>1.0546478054911632</v>
+        <v>1.201536193284505</v>
       </c>
       <c r="Q68" s="30">
         <v>30</v>
       </c>
       <c r="R68" s="17">
-        <v>3446.81</v>
+        <v>3112.59</v>
       </c>
       <c r="S68" s="22">
         <f t="shared" si="16"/>
-        <v>1.0321920848552719</v>
+        <v>1.136317343434246</v>
       </c>
       <c r="T68" s="29">
         <v>30</v>
       </c>
       <c r="U68" s="27">
-        <v>3346.51</v>
+        <v>2976.66</v>
       </c>
       <c r="V68" s="28">
         <f t="shared" si="17"/>
-        <v>1.0631284532244039</v>
+        <v>1.1882075883708587</v>
       </c>
       <c r="W68" s="30">
         <v>30</v>
       </c>
       <c r="X68" s="17">
-        <v>3456.01</v>
+        <v>3171.05</v>
       </c>
       <c r="Y68" s="22">
         <f t="shared" si="18"/>
-        <v>1.0294443592466456</v>
+        <v>1.1153687264470757</v>
       </c>
       <c r="Z68" s="29">
         <v>30</v>
       </c>
       <c r="AA68" s="27">
-        <v>2859.09</v>
+        <v>2795.92</v>
       </c>
       <c r="AB68" s="28">
         <f t="shared" si="19"/>
-        <v>1.244371460849431</v>
+        <v>1.2650183123980656</v>
       </c>
       <c r="AC68" s="30">
         <v>30</v>
       </c>
       <c r="AD68" s="17">
-        <v>2397.19</v>
+        <v>2649.68</v>
       </c>
       <c r="AE68" s="22">
         <f t="shared" si="20"/>
-        <v>1.4841418494153571</v>
+        <v>1.3348366595211498</v>
       </c>
       <c r="AF68" s="29">
         <v>31</v>
       </c>
       <c r="AG68" s="27">
-        <v>2809.59</v>
+        <v>2682.91</v>
       </c>
       <c r="AH68" s="28">
         <f t="shared" si="21"/>
-        <v>1.2662950822006056</v>
+        <v>1.318303632995516</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
@@ -32024,77 +31997,77 @@
         <v>30</v>
       </c>
       <c r="M69" s="2">
-        <v>3333.41</v>
+        <v>3641</v>
       </c>
       <c r="N69" s="29">
         <v>30</v>
       </c>
       <c r="O69" s="27">
-        <v>3382.02</v>
+        <v>2895.67</v>
       </c>
       <c r="P69" s="28">
         <f t="shared" si="15"/>
-        <v>0.98562693301636295</v>
+        <v>1.2573946616845151</v>
       </c>
       <c r="Q69" s="30">
         <v>30</v>
       </c>
       <c r="R69" s="17">
-        <v>3260.94</v>
+        <v>2886.99</v>
       </c>
       <c r="S69" s="22">
         <f t="shared" si="16"/>
-        <v>1.022223653302422</v>
+        <v>1.261175133963055</v>
       </c>
       <c r="T69" s="29">
         <v>30</v>
       </c>
       <c r="U69" s="27">
-        <v>3405.17</v>
+        <v>3226.13</v>
       </c>
       <c r="V69" s="28">
         <f t="shared" si="17"/>
-        <v>0.9789261622767732</v>
+        <v>1.1285968017407855</v>
       </c>
       <c r="W69" s="30">
         <v>30</v>
       </c>
       <c r="X69" s="17">
-        <v>3465.88</v>
+        <v>3253.01</v>
       </c>
       <c r="Y69" s="22">
         <f t="shared" si="18"/>
-        <v>0.9617788267337587</v>
+        <v>1.1192710750966028</v>
       </c>
       <c r="Z69" s="29">
         <v>30</v>
       </c>
       <c r="AA69" s="27">
-        <v>3169.91</v>
+        <v>2743.77</v>
       </c>
       <c r="AB69" s="28">
         <f t="shared" si="19"/>
-        <v>1.0515787514472019</v>
+        <v>1.3270062723916363</v>
       </c>
       <c r="AC69" s="30">
         <v>31</v>
       </c>
       <c r="AD69" s="17">
-        <v>2451.94</v>
+        <v>2461.41</v>
       </c>
       <c r="AE69" s="22">
         <f t="shared" si="20"/>
-        <v>1.3594990089480166</v>
+        <v>1.4792334474955413</v>
       </c>
       <c r="AF69" s="29">
         <v>31</v>
       </c>
       <c r="AG69" s="27">
-        <v>3015.41</v>
+        <v>2425.65</v>
       </c>
       <c r="AH69" s="28">
         <f t="shared" si="21"/>
-        <v>1.1054582958867949</v>
+        <v>1.5010409580937067</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
@@ -32292,77 +32265,77 @@
         <v>30</v>
       </c>
       <c r="M72" s="2">
-        <v>2545.15</v>
+        <v>2465.38</v>
       </c>
       <c r="N72" s="29">
         <v>30</v>
       </c>
       <c r="O72" s="27">
-        <v>3134.34</v>
+        <v>2590.31</v>
       </c>
       <c r="P72" s="28">
         <f t="shared" si="15"/>
-        <v>0.81202103154093042</v>
+        <v>0.95177025143708671</v>
       </c>
       <c r="Q72" s="30">
         <v>30</v>
       </c>
       <c r="R72" s="17">
-        <v>3002.96</v>
+        <v>2859.46</v>
       </c>
       <c r="S72" s="22">
         <f t="shared" si="16"/>
-        <v>0.84754708687428404</v>
+        <v>0.86218376896337068</v>
       </c>
       <c r="T72" s="29">
         <v>30</v>
       </c>
       <c r="U72" s="27">
-        <v>2861.18</v>
+        <v>2641.66</v>
       </c>
       <c r="V72" s="28">
         <f t="shared" si="17"/>
-        <v>0.88954557210661345</v>
+        <v>0.93326923222519187</v>
       </c>
       <c r="W72" s="30">
         <v>30</v>
       </c>
       <c r="X72" s="17">
-        <v>3129.55</v>
+        <v>2630.97</v>
       </c>
       <c r="Y72" s="22">
         <f t="shared" si="18"/>
-        <v>0.81326388777939318</v>
+        <v>0.93706123597000357</v>
       </c>
       <c r="Z72" s="29">
         <v>30</v>
       </c>
       <c r="AA72" s="27">
-        <v>2862.64</v>
+        <v>2342.39</v>
       </c>
       <c r="AB72" s="28">
         <f t="shared" si="19"/>
-        <v>0.88909188720900989</v>
+        <v>1.0525062009315274</v>
       </c>
       <c r="AC72" s="30">
         <v>30</v>
       </c>
       <c r="AD72" s="17">
-        <v>2498.9499999999998</v>
+        <v>2363.29</v>
       </c>
       <c r="AE72" s="22">
         <f t="shared" si="20"/>
-        <v>1.0184877648612418</v>
+        <v>1.0431982532825004</v>
       </c>
       <c r="AF72" s="29">
         <v>30</v>
       </c>
       <c r="AG72" s="27">
-        <v>2899.18</v>
+        <v>2525.46</v>
       </c>
       <c r="AH72" s="28">
         <f t="shared" si="21"/>
-        <v>0.87788616091446559</v>
+        <v>0.97621027456384191</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
@@ -32413,7 +32386,7 @@
       </c>
       <c r="M74" s="2">
         <f t="shared" ref="M74:N74" si="24">AVERAGE(M63:M71,M53:M61,M43:M51)</f>
-        <v>3156.0400000000009</v>
+        <v>3255.5694999999996</v>
       </c>
       <c r="N74" s="29">
         <f t="shared" si="24"/>
@@ -32421,11 +32394,11 @@
       </c>
       <c r="O74" s="27">
         <f>AVERAGE(O63:O71,O53:O61,O43:O51)</f>
-        <v>3250.7305555555554</v>
+        <v>2850.746666666666</v>
       </c>
       <c r="P74" s="28">
         <f>AVERAGE(P63:P71,P53:P61,P43:P51)</f>
-        <v>0.97507348600631283</v>
+        <v>1.133169485398273</v>
       </c>
       <c r="Q74" s="30">
         <f t="shared" ref="Q74:AH74" si="25">AVERAGE(Q63:Q71,Q53:Q61,Q43:Q51)</f>
@@ -32433,11 +32406,11 @@
       </c>
       <c r="R74" s="17">
         <f t="shared" si="25"/>
-        <v>3204.0755555555556</v>
+        <v>2920.2733333333331</v>
       </c>
       <c r="S74" s="22">
         <f t="shared" si="25"/>
-        <v>0.99031987656825549</v>
+        <v>1.1092063207632661</v>
       </c>
       <c r="T74" s="29">
         <f t="shared" si="25"/>
@@ -32445,11 +32418,11 @@
       </c>
       <c r="U74" s="27">
         <f t="shared" si="25"/>
-        <v>3319.8488888888887</v>
+        <v>2962.7277777777776</v>
       </c>
       <c r="V74" s="28">
         <f t="shared" si="25"/>
-        <v>0.95580545896977354</v>
+        <v>1.0911930926219127</v>
       </c>
       <c r="W74" s="30">
         <f t="shared" si="25"/>
@@ -32457,11 +32430,11 @@
       </c>
       <c r="X74" s="17">
         <f t="shared" si="25"/>
-        <v>3351.6705555555554</v>
+        <v>3009.2366666666662</v>
       </c>
       <c r="Y74" s="22">
         <f t="shared" si="25"/>
-        <v>0.94482727898828556</v>
+        <v>1.0761305648214148</v>
       </c>
       <c r="Z74" s="29">
         <f t="shared" si="25"/>
@@ -32469,11 +32442,11 @@
       </c>
       <c r="AA74" s="27">
         <f t="shared" si="25"/>
-        <v>2935.8955555555553</v>
+        <v>2580.5</v>
       </c>
       <c r="AB74" s="28">
         <f t="shared" si="25"/>
-        <v>1.0770592623345161</v>
+        <v>1.2515659844914522</v>
       </c>
       <c r="AC74" s="30">
         <f t="shared" si="25"/>
@@ -32481,11 +32454,11 @@
       </c>
       <c r="AD74" s="17">
         <f t="shared" si="25"/>
-        <v>2363.0883333333336</v>
+        <v>2453.8583333333331</v>
       </c>
       <c r="AE74" s="22">
         <f t="shared" si="25"/>
-        <v>1.3429348889005748</v>
+        <v>1.3213138394204877</v>
       </c>
       <c r="AF74" s="29">
         <f t="shared" si="25"/>
@@ -32493,11 +32466,11 @@
       </c>
       <c r="AG74" s="27">
         <f t="shared" si="25"/>
-        <v>2814.4988888888888</v>
+        <v>2454.3822222222225</v>
       </c>
       <c r="AH74" s="28">
         <f t="shared" si="25"/>
-        <v>1.1253783224646718</v>
+        <v>1.3178127219584663</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
@@ -32555,12 +32528,9 @@
       <c r="D77">
         <v>2</v>
       </c>
-      <c r="E77" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F77">
+      <c r="F77" t="str">
         <f t="shared" si="11"/>
-        <v>2785.28</v>
+        <v/>
       </c>
       <c r="J77" t="s">
         <v>120</v>
@@ -32709,12 +32679,9 @@
       <c r="D79">
         <v>2</v>
       </c>
-      <c r="E79" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F79">
+      <c r="F79" t="str">
         <f t="shared" ref="F79:F128" si="26">IF(E79="","",LEFT(E79,2)*60+RIGHT(E79,LEN(E79)-FIND(":",E79)))</f>
-        <v>2421.4899999999998</v>
+        <v/>
       </c>
       <c r="L79" s="42"/>
       <c r="M79" s="41"/>
@@ -32755,12 +32722,9 @@
       <c r="D80">
         <v>2</v>
       </c>
-      <c r="E80" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="F80">
+      <c r="F80" t="str">
         <f t="shared" si="26"/>
-        <v>2574.0300000000002</v>
+        <v/>
       </c>
       <c r="K80">
         <v>0</v>
@@ -32857,12 +32821,9 @@
       <c r="D81">
         <v>2</v>
       </c>
-      <c r="E81" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F81">
+      <c r="F81" t="str">
         <f t="shared" si="26"/>
-        <v>2642.38</v>
+        <v/>
       </c>
       <c r="K81" s="24">
         <v>1</v>
@@ -32942,12 +32903,9 @@
       <c r="D82">
         <v>2</v>
       </c>
-      <c r="E82" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F82">
+      <c r="F82" t="str">
         <f t="shared" si="26"/>
-        <v>2670.58</v>
+        <v/>
       </c>
       <c r="K82">
         <v>2</v>
@@ -33044,12 +33002,9 @@
       <c r="D83">
         <v>2</v>
       </c>
-      <c r="E83" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F83">
+      <c r="F83" t="str">
         <f t="shared" si="26"/>
-        <v>2622.48</v>
+        <v/>
       </c>
       <c r="K83">
         <v>3</v>
@@ -33146,12 +33101,9 @@
       <c r="D84">
         <v>2</v>
       </c>
-      <c r="E84" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="F84">
+      <c r="F84" t="str">
         <f t="shared" si="26"/>
-        <v>2546.0300000000002</v>
+        <v/>
       </c>
       <c r="K84">
         <v>4</v>
@@ -33248,12 +33200,9 @@
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F85">
+      <c r="F85" t="str">
         <f t="shared" si="26"/>
-        <v>4635</v>
+        <v/>
       </c>
       <c r="K85">
         <v>5</v>
@@ -33449,12 +33398,9 @@
       <c r="D87">
         <v>2</v>
       </c>
-      <c r="E87" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F87">
+      <c r="F87" t="str">
         <f t="shared" si="26"/>
-        <v>2797.41</v>
+        <v/>
       </c>
       <c r="K87">
         <v>7</v>
@@ -33616,12 +33562,9 @@
       <c r="D89">
         <v>2</v>
       </c>
-      <c r="E89" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F89">
+      <c r="F89" t="str">
         <f t="shared" si="26"/>
-        <v>4828</v>
+        <v/>
       </c>
       <c r="K89" s="24">
         <v>9</v>
@@ -33701,12 +33644,9 @@
       <c r="D90">
         <v>2</v>
       </c>
-      <c r="E90" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F90">
+      <c r="F90" t="str">
         <f t="shared" si="26"/>
-        <v>2555.5100000000002</v>
+        <v/>
       </c>
       <c r="K90">
         <f>K89+1</f>
@@ -33804,12 +33744,9 @@
       <c r="D91">
         <v>2</v>
       </c>
-      <c r="E91" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F91">
+      <c r="F91" t="str">
         <f t="shared" si="26"/>
-        <v>2510.31</v>
+        <v/>
       </c>
       <c r="K91" s="24">
         <f t="shared" ref="K91:K110" si="34">K90+1</f>
@@ -33890,12 +33827,9 @@
       <c r="D92">
         <v>2</v>
       </c>
-      <c r="E92" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="F92">
+      <c r="F92" t="str">
         <f t="shared" si="26"/>
-        <v>2600.84</v>
+        <v/>
       </c>
       <c r="K92">
         <f t="shared" si="34"/>
@@ -33959,12 +33893,9 @@
       <c r="D93">
         <v>2</v>
       </c>
-      <c r="E93" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F93">
+      <c r="F93" t="str">
         <f t="shared" si="26"/>
-        <v>2656.18</v>
+        <v/>
       </c>
       <c r="K93">
         <f t="shared" si="34"/>
@@ -34062,12 +33993,9 @@
       <c r="D94">
         <v>2</v>
       </c>
-      <c r="E94" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F94">
+      <c r="F94" t="str">
         <f t="shared" si="26"/>
-        <v>2688.02</v>
+        <v/>
       </c>
       <c r="K94">
         <f t="shared" si="34"/>
@@ -34165,12 +34093,9 @@
       <c r="D95">
         <v>2</v>
       </c>
-      <c r="E95" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="F95">
+      <c r="F95" t="str">
         <f t="shared" si="26"/>
-        <v>3426.12</v>
+        <v/>
       </c>
       <c r="K95">
         <f t="shared" si="34"/>
@@ -34368,12 +34293,9 @@
       <c r="D97">
         <v>2</v>
       </c>
-      <c r="E97" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="F97">
+      <c r="F97" t="str">
         <f t="shared" si="26"/>
-        <v>2674.04</v>
+        <v/>
       </c>
       <c r="K97">
         <f t="shared" si="34"/>
@@ -34558,12 +34480,9 @@
       <c r="D99">
         <v>3</v>
       </c>
-      <c r="E99" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F99">
+      <c r="F99" t="str">
         <f t="shared" si="26"/>
-        <v>2944.9</v>
+        <v/>
       </c>
       <c r="K99" s="24">
         <f t="shared" si="34"/>
@@ -34644,12 +34563,9 @@
       <c r="D100">
         <v>3</v>
       </c>
-      <c r="E100" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="F100">
+      <c r="F100" t="str">
         <f t="shared" si="26"/>
-        <v>2966.67</v>
+        <v/>
       </c>
       <c r="K100">
         <f t="shared" si="34"/>
@@ -34747,12 +34663,9 @@
       <c r="D101">
         <v>3</v>
       </c>
-      <c r="E101" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F101">
+      <c r="F101" t="str">
         <f t="shared" si="26"/>
-        <v>2936.37</v>
+        <v/>
       </c>
       <c r="K101" s="24">
         <f t="shared" si="34"/>
@@ -34833,12 +34746,9 @@
       <c r="D102">
         <v>3</v>
       </c>
-      <c r="E102" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F102">
+      <c r="F102" t="str">
         <f t="shared" si="26"/>
-        <v>2852.54</v>
+        <v/>
       </c>
       <c r="K102">
         <f t="shared" si="34"/>
@@ -34936,12 +34846,9 @@
       <c r="D103">
         <v>3</v>
       </c>
-      <c r="E103" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F103">
+      <c r="F103" t="str">
         <f t="shared" si="26"/>
-        <v>2925.75</v>
+        <v/>
       </c>
       <c r="K103">
         <f t="shared" si="34"/>
@@ -35039,12 +34946,9 @@
       <c r="D104">
         <v>3</v>
       </c>
-      <c r="E104" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F104">
+      <c r="F104" t="str">
         <f t="shared" si="26"/>
-        <v>2974.01</v>
+        <v/>
       </c>
       <c r="K104">
         <f t="shared" si="34"/>
@@ -35342,12 +35246,9 @@
       <c r="D107">
         <v>3</v>
       </c>
-      <c r="E107" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="F107">
+      <c r="F107" t="str">
         <f t="shared" si="26"/>
-        <v>2825.08</v>
+        <v/>
       </c>
       <c r="K107">
         <f t="shared" si="34"/>

--- a/Miscellaneous/results.xlsx
+++ b/Miscellaneous/results.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarog\dissertation\Miscellaneous\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="-165" windowWidth="27795" windowHeight="14310" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-225" yWindow="-165" windowWidth="27795" windowHeight="14310" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="meshing stuff" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <sheet name="3D Subray" sheetId="7" r:id="rId7"/>
     <sheet name="3D Subray Runtime" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -466,7 +461,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.##\%;[Red]\(0.##\%\)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -660,25 +655,22 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -699,10 +691,13 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -768,7 +763,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -801,26 +796,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -853,23 +831,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3276,8 +3237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AL85"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD54" sqref="AD54:AD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,48 +3488,48 @@
       <c r="J14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="46" t="s">
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="48" t="s">
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="46" t="s">
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="48" t="s">
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="46" t="s">
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="48" t="s">
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
     </row>
     <row r="15" spans="4:38" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
@@ -3581,58 +3542,58 @@
         <v>41</v>
       </c>
       <c r="L15" s="47"/>
-      <c r="M15" s="51" t="s">
+      <c r="M15" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="51"/>
+      <c r="N15" s="49"/>
       <c r="O15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P15" s="50"/>
-      <c r="Q15" s="46" t="s">
+      <c r="Q15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="46"/>
+      <c r="R15" s="48"/>
       <c r="S15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T15" s="47"/>
-      <c r="U15" s="48" t="s">
+      <c r="U15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V15" s="48"/>
+      <c r="V15" s="46"/>
       <c r="W15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X15" s="50"/>
-      <c r="Y15" s="46" t="s">
+      <c r="Y15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z15" s="46"/>
+      <c r="Z15" s="48"/>
       <c r="AA15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB15" s="47"/>
-      <c r="AC15" s="48" t="s">
+      <c r="AC15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD15" s="48"/>
+      <c r="AD15" s="46"/>
       <c r="AE15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF15" s="50"/>
-      <c r="AG15" s="46" t="s">
+      <c r="AG15" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH15" s="46"/>
+      <c r="AH15" s="48"/>
       <c r="AI15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ15" s="47"/>
-      <c r="AK15" s="48" t="s">
+      <c r="AK15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL15" s="48"/>
+      <c r="AL15" s="46"/>
     </row>
     <row r="16" spans="4:38" x14ac:dyDescent="0.25">
       <c r="J16" s="8" t="s">
@@ -3724,13 +3685,13 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="51"/>
       <c r="I17">
         <v>0</v>
       </c>
@@ -3785,7 +3746,7 @@
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="51"/>
       <c r="C18" t="s">
         <v>39</v>
       </c>
@@ -4802,48 +4763,48 @@
       <c r="J32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="48" t="s">
+      <c r="K32" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="46" t="s">
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="48" t="s">
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="46" t="s">
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="48" t="s">
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
-      <c r="AE32" s="46" t="s">
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF32" s="46"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="48" t="s">
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="48"/>
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ32" s="48"/>
-      <c r="AK32" s="48"/>
-      <c r="AL32" s="48"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+      <c r="AL32" s="46"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
@@ -4856,58 +4817,58 @@
         <v>41</v>
       </c>
       <c r="L33" s="47"/>
-      <c r="M33" s="51" t="s">
+      <c r="M33" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N33" s="51"/>
+      <c r="N33" s="49"/>
       <c r="O33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P33" s="50"/>
-      <c r="Q33" s="46" t="s">
+      <c r="Q33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="46"/>
+      <c r="R33" s="48"/>
       <c r="S33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T33" s="47"/>
-      <c r="U33" s="48" t="s">
+      <c r="U33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V33" s="48"/>
+      <c r="V33" s="46"/>
       <c r="W33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X33" s="50"/>
-      <c r="Y33" s="46" t="s">
+      <c r="Y33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z33" s="46"/>
+      <c r="Z33" s="48"/>
       <c r="AA33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB33" s="47"/>
-      <c r="AC33" s="48" t="s">
+      <c r="AC33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD33" s="48"/>
+      <c r="AD33" s="46"/>
       <c r="AE33" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF33" s="50"/>
-      <c r="AG33" s="46" t="s">
+      <c r="AG33" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH33" s="46"/>
+      <c r="AH33" s="48"/>
       <c r="AI33" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ33" s="47"/>
-      <c r="AK33" s="48" t="s">
+      <c r="AK33" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL33" s="48"/>
+      <c r="AL33" s="46"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J34" s="8" t="s">
@@ -4999,13 +4960,13 @@
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="49"/>
+      <c r="D35" s="51"/>
       <c r="I35">
         <v>0</v>
       </c>
@@ -5105,7 +5066,7 @@
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B36" s="49"/>
+      <c r="B36" s="51"/>
       <c r="C36" t="s">
         <v>39</v>
       </c>
@@ -6412,48 +6373,48 @@
       <c r="J51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K51" s="48" t="s">
+      <c r="K51" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="46" t="s">
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="48" t="s">
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="46" t="s">
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="48" t="s">
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB51" s="48"/>
-      <c r="AC51" s="48"/>
-      <c r="AD51" s="48"/>
-      <c r="AE51" s="46" t="s">
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF51" s="46"/>
-      <c r="AG51" s="46"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="48" t="s">
+      <c r="AF51" s="48"/>
+      <c r="AG51" s="48"/>
+      <c r="AH51" s="48"/>
+      <c r="AI51" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ51" s="48"/>
-      <c r="AK51" s="48"/>
-      <c r="AL51" s="48"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="46"/>
+      <c r="AL51" s="46"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
@@ -6466,58 +6427,58 @@
         <v>41</v>
       </c>
       <c r="L52" s="47"/>
-      <c r="M52" s="51" t="s">
+      <c r="M52" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N52" s="51"/>
+      <c r="N52" s="49"/>
       <c r="O52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P52" s="50"/>
-      <c r="Q52" s="46" t="s">
+      <c r="Q52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R52" s="46"/>
+      <c r="R52" s="48"/>
       <c r="S52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T52" s="47"/>
-      <c r="U52" s="48" t="s">
+      <c r="U52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V52" s="48"/>
+      <c r="V52" s="46"/>
       <c r="W52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X52" s="50"/>
-      <c r="Y52" s="46" t="s">
+      <c r="Y52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z52" s="46"/>
+      <c r="Z52" s="48"/>
       <c r="AA52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB52" s="47"/>
-      <c r="AC52" s="48" t="s">
+      <c r="AC52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD52" s="48"/>
+      <c r="AD52" s="46"/>
       <c r="AE52" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF52" s="50"/>
-      <c r="AG52" s="46" t="s">
+      <c r="AG52" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH52" s="46"/>
+      <c r="AH52" s="48"/>
       <c r="AI52" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ52" s="47"/>
-      <c r="AK52" s="48" t="s">
+      <c r="AK52" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL52" s="48"/>
+      <c r="AL52" s="46"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J53" s="8" t="s">
@@ -6609,13 +6570,13 @@
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="49"/>
+      <c r="D54" s="51"/>
       <c r="I54">
         <v>0</v>
       </c>
@@ -6685,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="AD54" s="19">
-        <v>4.4695359999999997</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="AE54" s="12">
         <v>1.0623800000000001</v>
@@ -6715,7 +6676,7 @@
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B55" s="49"/>
+      <c r="B55" s="51"/>
       <c r="C55" t="s">
         <v>39</v>
       </c>
@@ -6791,7 +6752,7 @@
         <v>1.729206</v>
       </c>
       <c r="AD55" s="19">
-        <v>12.696300000000001</v>
+        <v>4.4695359999999997</v>
       </c>
       <c r="AE55" s="12">
         <v>1.067518</v>
@@ -6830,11 +6791,11 @@
       </c>
       <c r="C56" s="25">
         <f>AC65</f>
-        <v>8.6460314444444446</v>
+        <v>8.6460304444444436</v>
       </c>
       <c r="D56" s="25">
         <f>AD65</f>
-        <v>25.492478444444448</v>
+        <v>25.989083999999998</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="25"/>
@@ -6908,7 +6869,7 @@
         <v>4.7484669999999998</v>
       </c>
       <c r="AD56" s="19">
-        <v>21.297630000000002</v>
+        <v>12.696300000000001</v>
       </c>
       <c r="AE56" s="12">
         <v>1.07548</v>
@@ -7025,7 +6986,7 @@
         <v>7.7146739999999996</v>
       </c>
       <c r="AD57" s="19">
-        <v>29.418970000000002</v>
+        <v>21.297630000000002</v>
       </c>
       <c r="AE57" s="12">
         <v>1.0848690000000001</v>
@@ -7142,7 +7103,7 @@
         <v>10.326420000000001</v>
       </c>
       <c r="AD58" s="19">
-        <v>36.00215</v>
+        <v>29.418970000000002</v>
       </c>
       <c r="AE58" s="12">
         <v>1.095596</v>
@@ -7256,10 +7217,10 @@
         <v>-2399.99999999998</v>
       </c>
       <c r="AC59" s="19">
-        <v>12.246286</v>
+        <v>12.24628</v>
       </c>
       <c r="AD59" s="19">
-        <v>39.828629999999997</v>
+        <v>36.00215</v>
       </c>
       <c r="AE59" s="12">
         <v>1.1075550000000001</v>
@@ -7373,10 +7334,10 @@
         <v>-2737.7999999999902</v>
       </c>
       <c r="AC60" s="19">
-        <v>13.120651000000001</v>
+        <v>13.120649999999999</v>
       </c>
       <c r="AD60" s="19">
-        <v>39.382390000000001</v>
+        <v>39.828629999999997</v>
       </c>
       <c r="AE60" s="12">
         <v>1.120708</v>
@@ -7490,10 +7451,10 @@
         <v>-2819.599999999989</v>
       </c>
       <c r="AC61" s="19">
-        <v>12.545552000000001</v>
+        <v>12.54555</v>
       </c>
       <c r="AD61" s="19">
-        <v>32.802230000000002</v>
+        <v>39.382390000000001</v>
       </c>
       <c r="AE61" s="12">
         <v>1.135089</v>
@@ -7610,7 +7571,7 @@
         <v>10.07649</v>
       </c>
       <c r="AD62" s="19">
-        <v>18.003920000000001</v>
+        <v>32.802230000000002</v>
       </c>
       <c r="AE62" s="12">
         <v>1.1509199999999999</v>
@@ -7709,7 +7670,7 @@
         <v>5.3065369999999996</v>
       </c>
       <c r="AD63" s="19">
-        <v>8.6000000000000003E-5</v>
+        <v>18.003920000000001</v>
       </c>
       <c r="AE63" s="12">
         <v>1.1689050000000001</v>
@@ -7895,11 +7856,11 @@
       </c>
       <c r="AC65" s="19">
         <f>AVERAGE(AC55:AC63)</f>
-        <v>8.6460314444444446</v>
+        <v>8.6460304444444436</v>
       </c>
       <c r="AD65" s="19">
         <f>AVERAGE(AD55:AD63)</f>
-        <v>25.492478444444448</v>
+        <v>25.989083999999998</v>
       </c>
       <c r="AF65" s="17">
         <f t="array" ref="AF65">AVERAGE(ABS(AF55:AF63))</f>
@@ -7984,11 +7945,11 @@
       </c>
       <c r="AC66" s="19">
         <f>AVERAGE(AC56:AC62)</f>
-        <v>10.111219999999999</v>
+        <v>10.111218714285712</v>
       </c>
       <c r="AD66" s="19">
         <f>AVERAGE(AD56:AD62)</f>
-        <v>30.96227428571429</v>
+        <v>30.204042857142863</v>
       </c>
       <c r="AF66" s="17">
         <f t="array" ref="AF66">AVERAGE(ABS(AF56:AF62))</f>
@@ -8022,48 +7983,48 @@
       <c r="J70" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K70" s="48" t="s">
+      <c r="K70" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="46" t="s">
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="48" t="s">
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="48"/>
+      <c r="S70" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T70" s="48"/>
-      <c r="U70" s="48"/>
-      <c r="V70" s="48"/>
-      <c r="W70" s="46" t="s">
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X70" s="46"/>
-      <c r="Y70" s="46"/>
-      <c r="Z70" s="46"/>
-      <c r="AA70" s="48" t="s">
+      <c r="X70" s="48"/>
+      <c r="Y70" s="48"/>
+      <c r="Z70" s="48"/>
+      <c r="AA70" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB70" s="48"/>
-      <c r="AC70" s="48"/>
-      <c r="AD70" s="48"/>
-      <c r="AE70" s="46" t="s">
+      <c r="AB70" s="46"/>
+      <c r="AC70" s="46"/>
+      <c r="AD70" s="46"/>
+      <c r="AE70" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF70" s="46"/>
-      <c r="AG70" s="46"/>
-      <c r="AH70" s="46"/>
-      <c r="AI70" s="48" t="s">
+      <c r="AF70" s="48"/>
+      <c r="AG70" s="48"/>
+      <c r="AH70" s="48"/>
+      <c r="AI70" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ70" s="48"/>
-      <c r="AK70" s="48"/>
-      <c r="AL70" s="48"/>
+      <c r="AJ70" s="46"/>
+      <c r="AK70" s="46"/>
+      <c r="AL70" s="46"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
@@ -8076,58 +8037,58 @@
         <v>41</v>
       </c>
       <c r="L71" s="47"/>
-      <c r="M71" s="51" t="s">
+      <c r="M71" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N71" s="51"/>
+      <c r="N71" s="49"/>
       <c r="O71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P71" s="50"/>
-      <c r="Q71" s="46" t="s">
+      <c r="Q71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R71" s="46"/>
+      <c r="R71" s="48"/>
       <c r="S71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T71" s="47"/>
-      <c r="U71" s="48" t="s">
+      <c r="U71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V71" s="48"/>
+      <c r="V71" s="46"/>
       <c r="W71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X71" s="50"/>
-      <c r="Y71" s="46" t="s">
+      <c r="Y71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z71" s="46"/>
+      <c r="Z71" s="48"/>
       <c r="AA71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB71" s="47"/>
-      <c r="AC71" s="48" t="s">
+      <c r="AC71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD71" s="48"/>
+      <c r="AD71" s="46"/>
       <c r="AE71" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF71" s="50"/>
-      <c r="AG71" s="46" t="s">
+      <c r="AG71" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH71" s="46"/>
+      <c r="AH71" s="48"/>
       <c r="AI71" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ71" s="47"/>
-      <c r="AK71" s="48" t="s">
+      <c r="AK71" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL71" s="48"/>
+      <c r="AL71" s="46"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J72" s="8" t="s">
@@ -8219,13 +8180,13 @@
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B73" s="49" t="s">
+      <c r="B73" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="49"/>
+      <c r="D73" s="51"/>
       <c r="I73">
         <v>0</v>
       </c>
@@ -8325,7 +8286,7 @@
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B74" s="49"/>
+      <c r="B74" s="51"/>
       <c r="C74" t="s">
         <v>39</v>
       </c>
@@ -9627,6 +9588,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="AG71:AH71"/>
+    <mergeCell ref="AI71:AJ71"/>
+    <mergeCell ref="AK71:AL71"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="U71:V71"/>
+    <mergeCell ref="W71:X71"/>
+    <mergeCell ref="Y71:Z71"/>
+    <mergeCell ref="AA71:AB71"/>
+    <mergeCell ref="AC71:AD71"/>
+    <mergeCell ref="AE71:AF71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="W70:Z70"/>
+    <mergeCell ref="AA70:AD70"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="AI70:AL70"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O70:R70"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AI51:AL51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AI14:AL14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="S51:V51"/>
+    <mergeCell ref="W51:Z51"/>
+    <mergeCell ref="AA51:AD51"/>
+    <mergeCell ref="AE51:AH51"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AE33:AF33"/>
     <mergeCell ref="AC15:AD15"/>
     <mergeCell ref="AI33:AJ33"/>
     <mergeCell ref="AE32:AH32"/>
@@ -9643,82 +9680,6 @@
     <mergeCell ref="S32:V32"/>
     <mergeCell ref="W32:Z32"/>
     <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AE51:AH51"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="S51:V51"/>
-    <mergeCell ref="W51:Z51"/>
-    <mergeCell ref="AA51:AD51"/>
-    <mergeCell ref="AE14:AH14"/>
-    <mergeCell ref="AI14:AL14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="O70:R70"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AI51:AL51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="W70:Z70"/>
-    <mergeCell ref="AA70:AD70"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="AI70:AL70"/>
-    <mergeCell ref="AG71:AH71"/>
-    <mergeCell ref="AI71:AJ71"/>
-    <mergeCell ref="AK71:AL71"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="U71:V71"/>
-    <mergeCell ref="W71:X71"/>
-    <mergeCell ref="Y71:Z71"/>
-    <mergeCell ref="AA71:AB71"/>
-    <mergeCell ref="AC71:AD71"/>
-    <mergeCell ref="AE71:AF71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="S71:T71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9769,137 +9730,137 @@
         <v>67</v>
       </c>
       <c r="M1" s="59"/>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="46" t="s">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="52" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="46" t="s">
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="52" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="46" t="s">
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="58" t="s">
         <v>65</v>
       </c>
       <c r="M2" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="55" t="s">
+      <c r="V2" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="57" t="s">
+      <c r="X2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="58" t="s">
+      <c r="Y2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="54" t="s">
+      <c r="AA2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="55" t="s">
+      <c r="AB2" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="56" t="s">
+      <c r="AC2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="57" t="s">
+      <c r="AD2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="58" t="s">
+      <c r="AE2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AF2" s="53" t="s">
+      <c r="AF2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="54" t="s">
+      <c r="AG2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="55" t="s">
+      <c r="AH2" s="54" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="L3" s="60"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="59"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="55"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="54"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K4">
@@ -11265,41 +11226,41 @@
         <v>67</v>
       </c>
       <c r="M21" s="59"/>
-      <c r="N21" s="52" t="s">
+      <c r="N21" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="46" t="s">
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="52" t="s">
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="46" t="s">
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="52" t="s">
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="46" t="s">
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="52" t="s">
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -11323,73 +11284,73 @@
         <f t="shared" si="1"/>
         <v>649.29999999999995</v>
       </c>
-      <c r="L22" s="60" t="s">
+      <c r="L22" s="58" t="s">
         <v>65</v>
       </c>
       <c r="M22" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="53" t="s">
+      <c r="N22" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="54" t="s">
+      <c r="O22" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="P22" s="55" t="s">
+      <c r="P22" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="Q22" s="56" t="s">
+      <c r="Q22" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="R22" s="57" t="s">
+      <c r="R22" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="58" t="s">
+      <c r="S22" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="T22" s="53" t="s">
+      <c r="T22" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="U22" s="54" t="s">
+      <c r="U22" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="V22" s="55" t="s">
+      <c r="V22" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="W22" s="56" t="s">
+      <c r="W22" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="X22" s="57" t="s">
+      <c r="X22" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="Y22" s="58" t="s">
+      <c r="Y22" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="Z22" s="53" t="s">
+      <c r="Z22" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AA22" s="54" t="s">
+      <c r="AA22" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AB22" s="55" t="s">
+      <c r="AB22" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="AC22" s="56" t="s">
+      <c r="AC22" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AD22" s="57" t="s">
+      <c r="AD22" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AE22" s="58" t="s">
+      <c r="AE22" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AF22" s="53" t="s">
+      <c r="AF22" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AG22" s="54" t="s">
+      <c r="AG22" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AH22" s="55" t="s">
+      <c r="AH22" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -11415,29 +11376,29 @@
         <f t="shared" si="1"/>
         <v>665.8</v>
       </c>
-      <c r="L23" s="60"/>
+      <c r="L23" s="58"/>
       <c r="M23" s="59"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="57"/>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="54"/>
-      <c r="AH23" s="55"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="54"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -12810,41 +12771,41 @@
         <v>67</v>
       </c>
       <c r="M42" s="59"/>
-      <c r="N42" s="52" t="s">
+      <c r="N42" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="46" t="s">
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="52" t="s">
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="46" t="s">
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="52" t="s">
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="46" t="s">
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="52" t="s">
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="AG42" s="52"/>
-      <c r="AH42" s="52"/>
+      <c r="AG42" s="60"/>
+      <c r="AH42" s="60"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -12868,73 +12829,73 @@
         <f t="shared" si="1"/>
         <v>1005.61</v>
       </c>
-      <c r="L43" s="60" t="s">
+      <c r="L43" s="58" t="s">
         <v>65</v>
       </c>
       <c r="M43" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="N43" s="53" t="s">
+      <c r="N43" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="O43" s="54" t="s">
+      <c r="O43" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="P43" s="55" t="s">
+      <c r="P43" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="Q43" s="56" t="s">
+      <c r="Q43" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="R43" s="57" t="s">
+      <c r="R43" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="S43" s="58" t="s">
+      <c r="S43" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="T43" s="53" t="s">
+      <c r="T43" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="U43" s="54" t="s">
+      <c r="U43" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="V43" s="55" t="s">
+      <c r="V43" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="W43" s="56" t="s">
+      <c r="W43" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="X43" s="57" t="s">
+      <c r="X43" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="Y43" s="58" t="s">
+      <c r="Y43" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="Z43" s="53" t="s">
+      <c r="Z43" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AA43" s="54" t="s">
+      <c r="AA43" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AB43" s="55" t="s">
+      <c r="AB43" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="AC43" s="56" t="s">
+      <c r="AC43" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AD43" s="57" t="s">
+      <c r="AD43" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AE43" s="58" t="s">
+      <c r="AE43" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AF43" s="53" t="s">
+      <c r="AF43" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AG43" s="54" t="s">
+      <c r="AG43" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AH43" s="55" t="s">
+      <c r="AH43" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12960,29 +12921,29 @@
         <f t="shared" si="1"/>
         <v>1050.77</v>
       </c>
-      <c r="L44" s="60"/>
+      <c r="L44" s="58"/>
       <c r="M44" s="59"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="58"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="56"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="58"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="55"/>
-      <c r="AC44" s="56"/>
-      <c r="AD44" s="57"/>
-      <c r="AE44" s="58"/>
-      <c r="AF44" s="53"/>
-      <c r="AG44" s="54"/>
-      <c r="AH44" s="55"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="53"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="54"/>
+      <c r="AC44" s="55"/>
+      <c r="AD44" s="56"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="53"/>
+      <c r="AH44" s="54"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -14992,29 +14953,60 @@
     <sortCondition ref="C5:C48"/>
   </sortState>
   <mergeCells count="93">
-    <mergeCell ref="AF43:AF44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AB43:AB44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="AD43:AD44"/>
-    <mergeCell ref="AE43:AE44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="Z43:Z44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="Z22:Z23"/>
     <mergeCell ref="AF22:AF23"/>
     <mergeCell ref="AG22:AG23"/>
     <mergeCell ref="AH22:AH23"/>
@@ -15031,60 +15023,29 @@
     <mergeCell ref="AC22:AC23"/>
     <mergeCell ref="AD22:AD23"/>
     <mergeCell ref="AE22:AE23"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="Y22:Y23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="Z43:Z44"/>
+    <mergeCell ref="AF43:AF44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AB43:AB44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="AD43:AD44"/>
+    <mergeCell ref="AE43:AE44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15489,48 +15450,48 @@
       <c r="J4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="46" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="48" t="s">
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="46" t="s">
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="48" t="s">
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="46" t="s">
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="48" t="s">
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
@@ -15543,58 +15504,58 @@
         <v>41</v>
       </c>
       <c r="L5" s="47"/>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="51"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P5" s="50"/>
-      <c r="Q5" s="46" t="s">
+      <c r="Q5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="46"/>
+      <c r="R5" s="48"/>
       <c r="S5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T5" s="47"/>
-      <c r="U5" s="48" t="s">
+      <c r="U5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="48"/>
+      <c r="V5" s="46"/>
       <c r="W5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X5" s="50"/>
-      <c r="Y5" s="46" t="s">
+      <c r="Y5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="46"/>
+      <c r="Z5" s="48"/>
       <c r="AA5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB5" s="47"/>
-      <c r="AC5" s="48" t="s">
+      <c r="AC5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="48"/>
+      <c r="AD5" s="46"/>
       <c r="AE5" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF5" s="50"/>
-      <c r="AG5" s="46" t="s">
+      <c r="AG5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH5" s="46"/>
+      <c r="AH5" s="48"/>
       <c r="AI5" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ5" s="47"/>
-      <c r="AK5" s="48" t="s">
+      <c r="AK5" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL5" s="48"/>
+      <c r="AL5" s="46"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J6" s="8" t="s">
@@ -15686,13 +15647,13 @@
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="51"/>
       <c r="I7">
         <v>0</v>
       </c>
@@ -15792,7 +15753,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="51"/>
       <c r="C8" t="s">
         <v>39</v>
       </c>
@@ -18939,48 +18900,48 @@
       <c r="J43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K43" s="48" t="s">
+      <c r="K43" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="46" t="s">
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="48" t="s">
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="46" t="s">
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="48" t="s">
+      <c r="X43" s="48"/>
+      <c r="Y43" s="48"/>
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="48"/>
-      <c r="AD43" s="48"/>
-      <c r="AE43" s="46" t="s">
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF43" s="46"/>
-      <c r="AG43" s="46"/>
-      <c r="AH43" s="46"/>
-      <c r="AI43" s="48" t="s">
+      <c r="AF43" s="48"/>
+      <c r="AG43" s="48"/>
+      <c r="AH43" s="48"/>
+      <c r="AI43" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ43" s="48"/>
-      <c r="AK43" s="48"/>
-      <c r="AL43" s="48"/>
+      <c r="AJ43" s="46"/>
+      <c r="AK43" s="46"/>
+      <c r="AL43" s="46"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
@@ -18993,58 +18954,58 @@
         <v>41</v>
       </c>
       <c r="L44" s="47"/>
-      <c r="M44" s="51" t="s">
+      <c r="M44" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N44" s="51"/>
+      <c r="N44" s="49"/>
       <c r="O44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P44" s="50"/>
-      <c r="Q44" s="46" t="s">
+      <c r="Q44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R44" s="46"/>
+      <c r="R44" s="48"/>
       <c r="S44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T44" s="47"/>
-      <c r="U44" s="48" t="s">
+      <c r="U44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V44" s="48"/>
+      <c r="V44" s="46"/>
       <c r="W44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X44" s="50"/>
-      <c r="Y44" s="46" t="s">
+      <c r="Y44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z44" s="46"/>
+      <c r="Z44" s="48"/>
       <c r="AA44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB44" s="47"/>
-      <c r="AC44" s="48" t="s">
+      <c r="AC44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD44" s="48"/>
+      <c r="AD44" s="46"/>
       <c r="AE44" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF44" s="50"/>
-      <c r="AG44" s="46" t="s">
+      <c r="AG44" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH44" s="46"/>
+      <c r="AH44" s="48"/>
       <c r="AI44" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ44" s="47"/>
-      <c r="AK44" s="48" t="s">
+      <c r="AK44" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL44" s="48"/>
+      <c r="AL44" s="46"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J45" s="8" t="s">
@@ -19136,13 +19097,13 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="49"/>
+      <c r="D46" s="51"/>
       <c r="I46">
         <v>0</v>
       </c>
@@ -19242,7 +19203,7 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B47" s="49"/>
+      <c r="B47" s="51"/>
       <c r="C47" t="s">
         <v>39</v>
       </c>
@@ -22297,48 +22258,48 @@
       <c r="J83" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K83" s="48" t="s">
+      <c r="K83" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L83" s="48"/>
-      <c r="M83" s="48"/>
-      <c r="N83" s="48"/>
-      <c r="O83" s="46" t="s">
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P83" s="46"/>
-      <c r="Q83" s="46"/>
-      <c r="R83" s="46"/>
-      <c r="S83" s="48" t="s">
+      <c r="P83" s="48"/>
+      <c r="Q83" s="48"/>
+      <c r="R83" s="48"/>
+      <c r="S83" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T83" s="48"/>
-      <c r="U83" s="48"/>
-      <c r="V83" s="48"/>
-      <c r="W83" s="46" t="s">
+      <c r="T83" s="46"/>
+      <c r="U83" s="46"/>
+      <c r="V83" s="46"/>
+      <c r="W83" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="X83" s="46"/>
-      <c r="Y83" s="46"/>
-      <c r="Z83" s="46"/>
-      <c r="AA83" s="48" t="s">
+      <c r="X83" s="48"/>
+      <c r="Y83" s="48"/>
+      <c r="Z83" s="48"/>
+      <c r="AA83" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AB83" s="48"/>
-      <c r="AC83" s="48"/>
-      <c r="AD83" s="48"/>
-      <c r="AE83" s="46" t="s">
+      <c r="AB83" s="46"/>
+      <c r="AC83" s="46"/>
+      <c r="AD83" s="46"/>
+      <c r="AE83" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="AF83" s="46"/>
-      <c r="AG83" s="46"/>
-      <c r="AH83" s="46"/>
-      <c r="AI83" s="48" t="s">
+      <c r="AF83" s="48"/>
+      <c r="AG83" s="48"/>
+      <c r="AH83" s="48"/>
+      <c r="AI83" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AJ83" s="48"/>
-      <c r="AK83" s="48"/>
-      <c r="AL83" s="48"/>
+      <c r="AJ83" s="46"/>
+      <c r="AK83" s="46"/>
+      <c r="AL83" s="46"/>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
@@ -22351,58 +22312,58 @@
         <v>41</v>
       </c>
       <c r="L84" s="47"/>
-      <c r="M84" s="51" t="s">
+      <c r="M84" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="N84" s="51"/>
+      <c r="N84" s="49"/>
       <c r="O84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="P84" s="50"/>
-      <c r="Q84" s="46" t="s">
+      <c r="Q84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="R84" s="46"/>
+      <c r="R84" s="48"/>
       <c r="S84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="T84" s="47"/>
-      <c r="U84" s="48" t="s">
+      <c r="U84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="V84" s="48"/>
+      <c r="V84" s="46"/>
       <c r="W84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="X84" s="50"/>
-      <c r="Y84" s="46" t="s">
+      <c r="Y84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Z84" s="46"/>
+      <c r="Z84" s="48"/>
       <c r="AA84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AB84" s="47"/>
-      <c r="AC84" s="48" t="s">
+      <c r="AC84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AD84" s="48"/>
+      <c r="AD84" s="46"/>
       <c r="AE84" s="50" t="s">
         <v>41</v>
       </c>
       <c r="AF84" s="50"/>
-      <c r="AG84" s="46" t="s">
+      <c r="AG84" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AH84" s="46"/>
+      <c r="AH84" s="48"/>
       <c r="AI84" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AJ84" s="47"/>
-      <c r="AK84" s="48" t="s">
+      <c r="AK84" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AL84" s="48"/>
+      <c r="AL84" s="46"/>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J85" s="8" t="s">
@@ -22494,13 +22455,13 @@
       </c>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B86" s="49" t="s">
+      <c r="B86" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="49"/>
+      <c r="D86" s="51"/>
       <c r="I86">
         <v>0</v>
       </c>
@@ -22600,7 +22561,7 @@
       </c>
     </row>
     <row r="87" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B87" s="49"/>
+      <c r="B87" s="51"/>
       <c r="C87" t="s">
         <v>39</v>
       </c>
@@ -25654,6 +25615,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="AI84:AJ84"/>
+    <mergeCell ref="AK84:AL84"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="AA83:AD83"/>
+    <mergeCell ref="AE83:AH83"/>
+    <mergeCell ref="AI83:AL83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="U84:V84"/>
+    <mergeCell ref="W84:X84"/>
+    <mergeCell ref="Y84:Z84"/>
+    <mergeCell ref="AA84:AB84"/>
+    <mergeCell ref="AC84:AD84"/>
+    <mergeCell ref="AE84:AF84"/>
+    <mergeCell ref="AG84:AH84"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="O83:R83"/>
+    <mergeCell ref="S83:V83"/>
+    <mergeCell ref="AE43:AH43"/>
+    <mergeCell ref="AI43:AL43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AH4"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="AI4:AL4"/>
@@ -25670,59 +25684,6 @@
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="W43:Z43"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="AE43:AH43"/>
-    <mergeCell ref="AI43:AL43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AA84:AB84"/>
-    <mergeCell ref="AC84:AD84"/>
-    <mergeCell ref="AE84:AF84"/>
-    <mergeCell ref="AG84:AH84"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="O83:R83"/>
-    <mergeCell ref="S83:V83"/>
-    <mergeCell ref="AI84:AJ84"/>
-    <mergeCell ref="AK84:AL84"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="W83:Z83"/>
-    <mergeCell ref="AA83:AD83"/>
-    <mergeCell ref="AE83:AH83"/>
-    <mergeCell ref="AI83:AL83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="U84:V84"/>
-    <mergeCell ref="W84:X84"/>
-    <mergeCell ref="Y84:Z84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25733,7 +25694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
